--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018-fluxes" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="108">
   <si>
     <t xml:space="preserve">sample id</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t xml:space="preserve">4-45_843m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fz C flux organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fz0(z/z0) Normalized to 93 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fz0(z/z0) Normalized to 87 m</t>
   </si>
 </sst>
 </file>
@@ -345,11 +354,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -368,6 +378,11 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -496,7 +511,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -543,7 +558,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C flux organic</c:v>
+                  <c:v>Fz C flux organic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -577,6 +592,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -696,11 +712,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75203259"/>
-        <c:axId val="54364382"/>
+        <c:axId val="20725089"/>
+        <c:axId val="98517194"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75203259"/>
+        <c:axId val="20725089"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +750,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -756,12 +772,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54364382"/>
+        <c:crossAx val="98517194"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54364382"/>
+        <c:axId val="98517194"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -804,7 +820,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -826,9 +842,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75203259"/>
+        <c:crossAx val="20725089"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -874,7 +890,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -921,7 +937,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C flux organic</c:v>
+                  <c:v>Fz C flux organic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -955,6 +971,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1044,11 +1061,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="28048403"/>
-        <c:axId val="3757992"/>
+        <c:axId val="59711286"/>
+        <c:axId val="88748722"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28048403"/>
+        <c:axId val="59711286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1099,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1104,12 +1121,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3757992"/>
+        <c:crossAx val="88748722"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3757992"/>
+        <c:axId val="88748722"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1152,7 +1169,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1174,9 +1191,737 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28048403"/>
+        <c:crossAx val="59711286"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>2018 P1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'martin power law'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz C flux organic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'martin power law'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15.6987637849462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.19970064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.677033083871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.3049836352688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.8984644249462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.5264149763441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.6553023827957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.1090304154839</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.3885359294624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.4248794012903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>183.98951155957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264.681157414194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'martin power law'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>244.4055742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.19970064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.19008443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.90482028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.60837344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.25935053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.84261045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>206.4532045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.40429427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.4440422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.4451539</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.51596639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="80122319"/>
+        <c:axId val="80969368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80122319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Org C flux (umol C/m2/day)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80969368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80969368"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80122319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>2018 P2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'martin power law'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz C flux organic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'martin power law'!$D$17:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>53.5550568454023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.81517583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.2371985681609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.6187453679311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.1389833371264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231.861893165977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>369.214862487126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'martin power law'!$C$17:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>115.1818194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.81517583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.1919526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.088336976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.4817664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.77803059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.69913676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="66317484"/>
+        <c:axId val="93216938"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66317484"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Org C flux (umol/m2/day0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93216938"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="93216938"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66317484"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1226,16 +1971,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>614520</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>173520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>347040</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>719640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1243,8 +1988,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7116840" y="306000"/>
-        <a:ext cx="5421960" cy="4551480"/>
+        <a:off x="5057640" y="86040"/>
+        <a:ext cx="5430600" cy="4551120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1256,16 +2001,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166680</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>226080</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1273,12 +2018,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7344720" y="5699160"/>
-        <a:ext cx="4936320" cy="4723560"/>
+        <a:off x="5050800" y="4924800"/>
+        <a:ext cx="4943880" cy="4723200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>59760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>605880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10642320" y="0"/>
+        <a:ext cx="5430600" cy="4551120"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>39960</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>99360</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10622520" y="4972680"/>
+        <a:ext cx="4943880" cy="4723200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1294,11 +2099,11 @@
   </sheetPr>
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
@@ -3309,13 +4114,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3325,7 +4130,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5</v>
+        <v>105</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3338,6 +4146,10 @@
       <c r="C2" s="0" t="n">
         <v>244.4055742</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">$C$3*(B2/$B$3)</f>
+        <v>15.6987637849462</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -3349,6 +4161,10 @@
       <c r="C3" s="0" t="n">
         <v>29.19970064</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">$C$3*(B3/$B$3)</f>
+        <v>29.19970064</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -3360,6 +4176,10 @@
       <c r="C4" s="0" t="n">
         <v>47.19008443</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">$C$3*(B4/$B$3)</f>
+        <v>37.677033083871</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -3371,6 +4191,10 @@
       <c r="C5" s="0" t="n">
         <v>48.90482028</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">$C$3*(B5/$B$3)</f>
+        <v>38.3049836352688</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -3382,6 +4206,10 @@
       <c r="C6" s="0" t="n">
         <v>44.60837344</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">$C$3*(B6/$B$3)</f>
+        <v>44.8984644249462</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3393,6 +4221,10 @@
       <c r="C7" s="0" t="n">
         <v>20.25935053</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">$C$3*(B7/$B$3)</f>
+        <v>45.5264149763441</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -3404,6 +4236,10 @@
       <c r="C8" s="0" t="n">
         <v>24.84261045</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">$C$3*(B8/$B$3)</f>
+        <v>59.6553023827957</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -3415,6 +4251,10 @@
       <c r="C9" s="0" t="n">
         <v>206.4532045</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">$C$3*(B9/$B$3)</f>
+        <v>63.1090304154839</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -3426,6 +4266,10 @@
       <c r="C10" s="0" t="n">
         <v>94.40429427</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">$C$3*(B10/$B$3)</f>
+        <v>69.3885359294624</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -3437,6 +4281,10 @@
       <c r="C11" s="0" t="n">
         <v>113.4440422</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">$C$3*(B11/$B$3)</f>
+        <v>90.4248794012903</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -3448,6 +4296,10 @@
       <c r="C12" s="0" t="n">
         <v>54.4451539</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">$C$3*(B12/$B$3)</f>
+        <v>183.98951155957</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -3458,6 +4310,10 @@
       </c>
       <c r="C13" s="0" t="n">
         <v>28.51596639</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">$C$3*(B13/$B$3)</f>
+        <v>264.681157414194</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3468,7 +4324,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>105</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,6 +4340,10 @@
       <c r="C17" s="0" t="n">
         <v>115.1818194</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">$C$18*(B17/$B$18)</f>
+        <v>53.5550568454023</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -3492,6 +4355,10 @@
       <c r="C18" s="0" t="n">
         <v>54.81517583</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">$C$18*(B18/$B$18)</f>
+        <v>54.81517583</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3503,6 +4370,10 @@
       <c r="C19" s="0" t="n">
         <v>142.1919526</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">$C$18*(B19/$B$18)</f>
+        <v>76.2371985681609</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -3514,6 +4385,10 @@
       <c r="C20" s="0" t="n">
         <v>6.088336976</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">$C$18*(B20/$B$18)</f>
+        <v>92.6187453679311</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -3525,6 +4400,10 @@
       <c r="C21" s="0" t="n">
         <v>114.4817664</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">$C$18*(B21/$B$18)</f>
+        <v>95.1389833371264</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3536,6 +4415,10 @@
       <c r="C22" s="0" t="n">
         <v>36.77803059</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">$C$18*(B22/$B$18)</f>
+        <v>231.861893165977</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -3546,6 +4429,10 @@
       </c>
       <c r="C23" s="0" t="n">
         <v>49.69913676</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">$C$18*(B23/$B$18)</f>
+        <v>369.214862487126</v>
       </c>
     </row>
   </sheetData>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2018-fluxes" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="109">
   <si>
     <t xml:space="preserve">sample id</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure [dbar]</t>
   </si>
   <si>
     <t xml:space="preserve">Flux (mg/m2/day)</t>
@@ -351,8 +354,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -434,8 +438,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -511,7 +519,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -712,11 +720,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="20725089"/>
-        <c:axId val="98517194"/>
+        <c:axId val="27133868"/>
+        <c:axId val="42532551"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20725089"/>
+        <c:axId val="27133868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,12 +780,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98517194"/>
+        <c:crossAx val="42532551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98517194"/>
+        <c:axId val="42532551"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -842,7 +850,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20725089"/>
+        <c:crossAx val="27133868"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -890,7 +898,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1061,11 +1069,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="59711286"/>
-        <c:axId val="88748722"/>
+        <c:axId val="63987704"/>
+        <c:axId val="99356231"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59711286"/>
+        <c:axId val="63987704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,12 +1129,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88748722"/>
+        <c:crossAx val="99356231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88748722"/>
+        <c:axId val="99356231"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1191,7 +1199,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59711286"/>
+        <c:crossAx val="63987704"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1239,7 +1247,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1440,11 +1448,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80122319"/>
-        <c:axId val="80969368"/>
+        <c:axId val="41804782"/>
+        <c:axId val="21395595"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80122319"/>
+        <c:axId val="41804782"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,12 +1508,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80969368"/>
+        <c:crossAx val="21395595"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80969368"/>
+        <c:axId val="21395595"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1570,7 +1578,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80122319"/>
+        <c:crossAx val="41804782"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1618,7 +1626,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1789,11 +1797,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="66317484"/>
-        <c:axId val="93216938"/>
+        <c:axId val="79690787"/>
+        <c:axId val="51389328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66317484"/>
+        <c:axId val="79690787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,12 +1857,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93216938"/>
+        <c:crossAx val="51389328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93216938"/>
+        <c:axId val="51389328"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1919,7 +1927,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66317484"/>
+        <c:crossAx val="79690787"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1978,9 +1986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>719640</xdr:colOff>
+      <xdr:colOff>719280</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1988,8 +1996,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5057640" y="86040"/>
-        <a:ext cx="5430600" cy="4551120"/>
+        <a:off x="5065560" y="86040"/>
+        <a:ext cx="5437800" cy="4550760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2008,9 +2016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
+      <xdr:colOff>225720</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2018,8 +2026,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5050800" y="4924800"/>
-        <a:ext cx="4943880" cy="4723200"/>
+        <a:off x="5058720" y="4924800"/>
+        <a:ext cx="4951080" cy="4722840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2038,9 +2046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>605880</xdr:colOff>
+      <xdr:colOff>605520</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2048,8 +2056,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10642320" y="0"/>
-        <a:ext cx="5430600" cy="4551120"/>
+        <a:off x="10658880" y="0"/>
+        <a:ext cx="5437800" cy="4550760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2068,9 +2076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>99360</xdr:colOff>
+      <xdr:colOff>99000</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2078,8 +2086,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10622520" y="4972680"/>
-        <a:ext cx="4943880" cy="4723200"/>
+        <a:off x="10639080" y="4972680"/>
+        <a:ext cx="4951080" cy="4722840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2097,22 +2105,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E96" activeCellId="0" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="16.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,1958 +2151,2270 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>59.93179319</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>114.4817664</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>22.2485089463221</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>12.3127516778524</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="0" t="n">
+      <c r="E3" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>130.114754098361</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>58.1495726495727</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>140.2346446</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>142.1919526</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>30.9538461538461</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>25.7815533980582</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="E5" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <v>16.058981233244</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>76.4009433962264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>16</v>
+      <c r="E6" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>135.5691057</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>6.088336976</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>16</v>
+      <c r="H7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>16</v>
+      <c r="E8" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="0" t="n">
+      <c r="E9" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>50.0230769230769</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>20.0629370629371</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="E10" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>9.83925979680697</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>9.29615547106041</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>16</v>
+      <c r="E11" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>16</v>
+      <c r="E12" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>16</v>
+      <c r="E13" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>5.577733349</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>36.77803059</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>7.51376623376623</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>6.00653518496908</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="0" t="n">
+      <c r="E15" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <v>10.098878695209</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>7.78433862433862</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="0" t="n">
+      <c r="E16" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <v>31.2538461538462</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>16</v>
+      <c r="E17" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>16</v>
+      <c r="E18" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="0" t="n">
+      <c r="E19" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <v>8.47885304659498</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>7.1683748169839</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>8.164440297</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>49.69913676</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>9.82647754137116</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>8.00515093435553</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="0" t="n">
+      <c r="E21" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="0" t="n">
         <v>8.20273461777501</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>7.24497117232543</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>16</v>
+      <c r="E22" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="G23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="0" t="n">
+      <c r="E23" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="0" t="n">
         <v>11.8938313050776</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>10.5844394527262</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>24.18012422</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>54.81517583</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="0" t="n">
         <v>5.80789170506912</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>4.72782874617737</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="0" t="n">
+      <c r="E25" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="0" t="n">
         <v>9.78732545649839</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>4.95272525027809</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="0" t="n">
+      <c r="E26" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="0" t="n">
         <v>28.0041666666667</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>10.8071895424837</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="0" t="n">
+      <c r="E27" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="0" t="n">
         <v>14.8540669856459</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>11.6933911159263</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="0" t="n">
+      <c r="E28" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="0" t="n">
         <v>22.0023201856149</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>2.63057324840764</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="0" t="n">
+      <c r="E29" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="0" t="n">
         <v>5.58258642765685</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="F30" s="0" t="n">
         <v>26.58868425</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>115.1818194</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="0" t="n">
         <v>6.86597467776891</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>6.12341352528888</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="0" t="n">
+      <c r="E31" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="0" t="n">
         <v>5.64466430399685</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>5.66409124356144</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="0" t="n">
+      <c r="E32" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="0" t="n">
         <v>13.2683760683761</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>16</v>
+      <c r="E33" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="0" t="n">
+      <c r="E34" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="0" t="n">
         <v>7.9231573444851</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="J34" s="0" t="n">
         <v>8.43557336621455</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>16</v>
+      <c r="E35" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="0" t="n">
+      <c r="E36" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="0" t="n">
         <v>7.65361077111383</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="J36" s="0" t="n">
         <v>6.97915798249271</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>16</v>
+      <c r="E37" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="E38" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G38" s="0" t="n">
         <v>244.4055742</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="0" t="n">
         <v>7.9217078481492</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="J38" s="0" t="n">
         <v>6.7035458711908</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>16</v>
+      <c r="E39" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>16</v>
+      <c r="E40" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G41" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="0" t="n">
+      <c r="E41" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="0" t="n">
         <v>8.61121495327103</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="J41" s="0" t="n">
         <v>7.96274373259053</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="G42" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="0" t="n">
+      <c r="E42" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="0" t="n">
         <v>8.04856475300401</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="J42" s="0" t="n">
         <v>6.35134728285413</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="G43" s="0" t="s">
-        <v>16</v>
+      <c r="E43" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>16</v>
+      <c r="E44" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="G45" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="0" t="n">
+      <c r="E45" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="0" t="n">
         <v>7.81244700695269</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="J45" s="0" t="n">
         <v>7.10068803490519</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="G46" s="0" t="s">
-        <v>16</v>
+      <c r="E46" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="F47" s="0" t="n">
         <v>32.66219522</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="G47" s="0" t="n">
         <v>48.90482028</v>
       </c>
-      <c r="G47" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="0" t="n">
         <v>7.64022346368715</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="J47" s="0" t="n">
         <v>6.43644805571677</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="0" t="n">
+      <c r="E48" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="0" t="n">
         <v>11.798459563543</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="J48" s="0" t="n">
         <v>2.96830864622804</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="G49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="0" t="n">
+      <c r="E49" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="0" t="n">
         <v>10.4847161572052</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="J49" s="0" t="n">
         <v>9.47640449438202</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F50" s="0" t="n">
         <v>144.5962733</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="G50" s="0" t="n">
         <v>47.19008443</v>
       </c>
-      <c r="G50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="0" t="n">
         <v>10.8403669724771</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="F51" s="0" t="n">
         <v>31.86596927</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="G51" s="0" t="n">
         <v>24.84261045</v>
       </c>
-      <c r="G51" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="0" t="n">
         <v>17.6749226006192</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="J51" s="0" t="n">
         <v>5.58032128514056</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="G52" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="0" t="n">
+      <c r="E52" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="0" t="n">
         <v>11.3988355167394</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="J52" s="0" t="n">
         <v>4.91321499013807</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="0" t="n">
+      <c r="E53" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="0" t="n">
         <v>21.3305439330544</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="J53" s="0" t="n">
         <v>2.77491749174917</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="F54" s="0" t="n">
         <v>127.6422764</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>123</v>
       </c>
+      <c r="E55" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>123</v>
       </c>
+      <c r="E56" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="E57" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="0" t="n">
         <v>8.64847089773101</v>
       </c>
-      <c r="I57" s="0" t="n">
+      <c r="J57" s="0" t="n">
         <v>8.21664180341455</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F58" s="0" t="n">
         <v>18.53988134</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="G58" s="0" t="n">
         <v>206.4532045</v>
       </c>
-      <c r="H58" s="0" t="n">
+      <c r="H58" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="0" t="n">
         <v>7.75922800322888</v>
       </c>
-      <c r="I58" s="0" t="n">
+      <c r="J58" s="0" t="n">
         <v>6.92031090523671</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="H59" s="0" t="n">
+      <c r="E59" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="0" t="n">
         <v>33.8181818181818</v>
       </c>
-      <c r="I59" s="0" t="n">
+      <c r="J59" s="0" t="n">
         <v>13.01269035533</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="E60" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="0" t="n">
         <v>8.79878923052413</v>
       </c>
-      <c r="I60" s="0" t="n">
+      <c r="J60" s="0" t="n">
         <v>8.47593418422267</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>201</v>
       </c>
+      <c r="E61" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>201</v>
       </c>
+      <c r="E62" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>201</v>
       </c>
+      <c r="E63" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>201</v>
       </c>
+      <c r="E64" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="G65" s="0" t="s">
-        <v>16</v>
+      <c r="E65" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="F66" s="0" t="n">
         <v>7.360697997</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="G66" s="0" t="n">
         <v>94.40429427</v>
       </c>
-      <c r="G66" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="0" t="n">
         <v>8.34077131432994</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="J66" s="0" t="n">
         <v>6.82834475297512</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="G67" s="0" t="s">
-        <v>16</v>
+      <c r="E67" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="G68" s="0" t="s">
-        <v>16</v>
+      <c r="E68" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="G69" s="0" t="s">
-        <v>16</v>
+      <c r="E69" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="G70" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="0" t="n">
+      <c r="E70" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="0" t="n">
         <v>8.99420819996952</v>
       </c>
-      <c r="I70" s="0" t="n">
+      <c r="J70" s="0" t="n">
         <v>8.58108995403808</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="F71" s="0" t="n">
         <v>5.35131205</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="G71" s="0" t="n">
         <v>54.4451539</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="0" t="n">
+      <c r="H71" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="0" t="n">
         <v>6.30870495310186</v>
       </c>
-      <c r="I71" s="0" t="n">
+      <c r="J71" s="0" t="n">
         <v>6.19074177356386</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="G72" s="0" t="s">
-        <v>16</v>
+      <c r="E72" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="G73" s="0" t="s">
-        <v>16</v>
+      <c r="E73" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="G74" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="0" t="n">
+      <c r="E74" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="0" t="n">
         <v>8.65703651187522</v>
       </c>
-      <c r="I74" s="0" t="n">
+      <c r="J74" s="0" t="n">
         <v>9.13349633251834</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="G75" s="0" t="s">
-        <v>16</v>
+      <c r="E75" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="F76" s="0" t="n">
         <v>16.09712027</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="G76" s="0" t="n">
         <v>20.25935053</v>
       </c>
-      <c r="G76" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="0" t="n">
+      <c r="H76" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="0" t="n">
         <v>10.9454828660436</v>
       </c>
-      <c r="I76" s="0" t="n">
+      <c r="J76" s="0" t="n">
         <v>6.04868549172347</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="G77" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="0" t="n">
+      <c r="E77" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="0" t="n">
         <v>9.29873853211009</v>
       </c>
-      <c r="I77" s="0" t="n">
+      <c r="J77" s="0" t="n">
         <v>8.32882462686567</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="G78" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" s="0" t="n">
+      <c r="E78" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="0" t="n">
         <v>19.199203187251</v>
       </c>
-      <c r="I78" s="0" t="n">
+      <c r="J78" s="0" t="n">
         <v>12.3678756476684</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="F79" s="0" t="n">
         <v>9.216589862</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="G79" s="0" t="n">
         <v>113.4440422</v>
       </c>
-      <c r="G79" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="0" t="n">
+      <c r="H79" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="0" t="n">
         <v>8.73694779116466</v>
       </c>
-      <c r="I79" s="0" t="n">
+      <c r="J79" s="0" t="n">
         <v>7.42969396195203</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="F80" s="0" t="n">
         <v>13.12777285</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="G80" s="0" t="n">
         <v>29.19970064</v>
       </c>
-      <c r="G80" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="0" t="n">
+      <c r="H80" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="0" t="n">
         <v>11.350332594235</v>
       </c>
-      <c r="I80" s="0" t="n">
+      <c r="J80" s="0" t="n">
         <v>9.40529531568228</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="G81" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="0" t="n">
+      <c r="E81" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="0" t="n">
         <v>5.93717524799244</v>
       </c>
-      <c r="I81" s="0" t="n">
+      <c r="J81" s="0" t="n">
         <v>8.89652777777778</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="G82" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="0" t="n">
+      <c r="E82" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="0" t="n">
         <v>18.6184738955823</v>
       </c>
-      <c r="I82" s="0" t="n">
+      <c r="J82" s="0" t="n">
         <v>10.8880952380952</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="F83" s="0" t="n">
         <v>54.63414634</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="G83" s="0" t="n">
         <v>44.60837344</v>
       </c>
-      <c r="G83" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="0" t="n">
+      <c r="H83" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="0" t="n">
         <v>12.1381118881119</v>
       </c>
-      <c r="I83" s="0" t="n">
+      <c r="J83" s="0" t="n">
         <v>12.2922794117647</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="G84" s="0" t="s">
-        <v>16</v>
+      <c r="E84" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="G85" s="0" t="s">
-        <v>16</v>
+      <c r="E85" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="G86" s="0" t="s">
-        <v>16</v>
+      <c r="E86" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="G87" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="0" t="n">
+      <c r="E87" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="0" t="n">
         <v>8.8652870764861</v>
       </c>
-      <c r="I87" s="0" t="n">
+      <c r="J87" s="0" t="n">
         <v>8.09428794992175</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="G88" s="0" t="s">
-        <v>16</v>
+      <c r="E88" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>843</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="E89" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="G89" s="0" t="n">
         <v>28.51596639</v>
       </c>
-      <c r="G89" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="0" t="n">
+      <c r="H89" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="0" t="n">
         <v>4.53683451508232</v>
       </c>
-      <c r="I89" s="0" t="n">
+      <c r="J89" s="0" t="n">
         <v>4.51894411621226</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>843</v>
       </c>
-      <c r="G90" s="0" t="s">
-        <v>16</v>
+      <c r="E90" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>843</v>
       </c>
-      <c r="G91" s="0" t="s">
-        <v>16</v>
+      <c r="E91" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>843</v>
       </c>
-      <c r="G92" s="0" t="s">
-        <v>16</v>
+      <c r="E92" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>843</v>
       </c>
-      <c r="G93" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="0" t="n">
+      <c r="E93" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="0" t="n">
         <v>9.16191030867793</v>
       </c>
-      <c r="I93" s="0" t="n">
+      <c r="J93" s="0" t="n">
         <v>8.58502772643253</v>
       </c>
     </row>
@@ -4116,11 +4436,11 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4130,15 +4450,15 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50</v>
@@ -4153,7 +4473,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>93</v>
@@ -4168,7 +4488,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>120</v>
@@ -4183,7 +4503,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>122</v>
@@ -4198,7 +4518,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>143</v>
@@ -4213,7 +4533,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>145</v>
@@ -4228,7 +4548,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>190</v>
@@ -4243,7 +4563,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>201</v>
@@ -4258,7 +4578,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>221</v>
@@ -4273,7 +4593,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>288</v>
@@ -4288,7 +4608,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>586</v>
@@ -4303,7 +4623,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>843</v>
@@ -4324,15 +4644,15 @@
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>85</v>
@@ -4347,7 +4667,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>87</v>
@@ -4362,7 +4682,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>121</v>
@@ -4377,7 +4697,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>147</v>
@@ -4392,7 +4712,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>151</v>
@@ -4407,7 +4727,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>368</v>
@@ -4422,7 +4742,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>586</v>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -21,324 +21,333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="112">
   <si>
     <t xml:space="preserve">sample id</t>
   </si>
   <si>
+    <t xml:space="preserve">Station</t>
+  </si>
+  <si>
     <t xml:space="preserve">Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Station</t>
+    <t xml:space="preserve">Depth (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure [dbar]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trap type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux (mg/m2/day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:N organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Org C flux (umol C/m2/day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein flux (ug/m2/day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon protein flux (umol C/m2/day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N production rate (nM N/day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-30_151m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-30_151m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-31_121m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-31_121m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_top_remainder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_+P_remainder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_368m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_368m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_368m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_368m_nw1 (does this exist?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_368m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_368m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_586m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_586m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_586m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_586m_nw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-34_87m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-34_87m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-34_87m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-34_221m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-34_221m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-34_221m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_85m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_85m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_85m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_85m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_85m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_85m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_147m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_147m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_50m_+P1/top1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_50m_+P/top2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_50m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_50m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_120m_+P/top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_120m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_120m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_120m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_120m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-38_122m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-38_122m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-38_122m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-39_120m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-39_190m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-39_190m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-39_190m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_123m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_123m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_123m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_123m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_nw5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_221m_+P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_221m_+P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_221m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_221m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_221m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_221m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_586m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_586m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_586m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_586m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_586m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-43_145m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-43_145m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-43_145m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-43_288m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-44_93m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-44_93m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-44_93m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_143m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_143m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_143m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_143m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_143m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_143m_nw5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_843m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_843m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_843m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_843m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_843m_nw4</t>
   </si>
   <si>
     <t xml:space="preserve">Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressure [dbar]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flux (mg/m2/day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C flux organic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trap type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN organic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-30_151m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-30_151m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-31_121m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-31_121m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-32_147m_top_remainder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-32_147m_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-32_147m_+P_remainder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-32_147m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-32_147m_nw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-32_147m_nw2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-32_147m_nw3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-32_147m_nw4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-33_368m_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-33_368m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-33_368m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-33_368m_nw1 (does this exist?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-33_368m_nw2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-33_368m_nw3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-33_586m_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-33_586m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-33_586m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-33_586m_nw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-34_87m_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-34_87m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-34_87m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-34_221m_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-34_221m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-34_221m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-36_85m_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-36_85m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-36_85m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-36_85m_nw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-36_85m_nw2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-36_85m_nw3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-36_147m_nw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-36_147m_nw2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-37_50m_+P1/top1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-37_50m_+P/top2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-37_50m_nw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-37_50m_nw2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-37_120m_+P/top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-37_120m_nw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-37_120m_nw2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-37_120m_nw3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-37_120m_nw4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-38_122m_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-38_122m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-38_122m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-39_120m_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-39_190m_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-39_190m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-39_190m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-40_123m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-40_123m_nw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-40_123m_nw2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-40_123m_nw3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-40_201m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-40_201m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-40_201m_nw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-40_201m_nw2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-40_201m_nw3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-40_201m_nw4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-40_201m_nw5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-42_221m_+P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-42_221m_+P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-42_221m_nw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-42_221m_nw2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-42_221m_nw3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-42_221m_nw4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-42_586m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-42_586m_nw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-42_586m_nw2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-42_586m_nw3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-42_586m_nw4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-43_145m_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-43_145m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-43_145m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-43_288m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-44_93m_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-44_93m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-44_93m_ctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-45_143m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-45_143m_nw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-45_143m_nw2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-45_143m_nw3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-45_143m_nw4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-45_143m_nw5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-45_843m_+P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-45_843m_nw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-45_843m_nw2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-45_843m_nw3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-45_843m_nw4</t>
   </si>
   <si>
     <t xml:space="preserve">Fz C flux organic</t>
@@ -438,8 +447,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -519,7 +532,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -720,11 +733,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="27133868"/>
-        <c:axId val="42532551"/>
+        <c:axId val="42389324"/>
+        <c:axId val="25263661"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27133868"/>
+        <c:axId val="42389324"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,12 +793,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42532551"/>
+        <c:crossAx val="25263661"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42532551"/>
+        <c:axId val="25263661"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -850,7 +863,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27133868"/>
+        <c:crossAx val="42389324"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -898,7 +911,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1069,11 +1082,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="63987704"/>
-        <c:axId val="99356231"/>
+        <c:axId val="4628659"/>
+        <c:axId val="62961195"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63987704"/>
+        <c:axId val="4628659"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,12 +1142,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99356231"/>
+        <c:crossAx val="62961195"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99356231"/>
+        <c:axId val="62961195"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1199,7 +1212,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63987704"/>
+        <c:crossAx val="4628659"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1247,7 +1260,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1448,11 +1461,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="41804782"/>
-        <c:axId val="21395595"/>
+        <c:axId val="34787098"/>
+        <c:axId val="55617147"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41804782"/>
+        <c:axId val="34787098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,12 +1521,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21395595"/>
+        <c:crossAx val="55617147"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21395595"/>
+        <c:axId val="55617147"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1578,7 +1591,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41804782"/>
+        <c:crossAx val="34787098"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1626,7 +1639,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1797,11 +1810,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="79690787"/>
-        <c:axId val="51389328"/>
+        <c:axId val="16626035"/>
+        <c:axId val="66205091"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79690787"/>
+        <c:axId val="16626035"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,12 +1870,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51389328"/>
+        <c:crossAx val="66205091"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51389328"/>
+        <c:axId val="66205091"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1927,7 +1940,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79690787"/>
+        <c:crossAx val="16626035"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1986,9 +1999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>719280</xdr:colOff>
+      <xdr:colOff>718920</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1996,8 +2009,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5065560" y="86040"/>
-        <a:ext cx="5437800" cy="4550760"/>
+        <a:off x="5073120" y="86040"/>
+        <a:ext cx="5445000" cy="4550400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2016,9 +2029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2026,8 +2039,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5058720" y="4924800"/>
-        <a:ext cx="4951080" cy="4722840"/>
+        <a:off x="5066280" y="4924800"/>
+        <a:ext cx="4958280" cy="4722480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2046,9 +2059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>605520</xdr:colOff>
+      <xdr:colOff>605160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2056,8 +2069,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10658880" y="0"/>
-        <a:ext cx="5437800" cy="4550760"/>
+        <a:off x="10675440" y="0"/>
+        <a:ext cx="5445000" cy="4550400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2076,9 +2089,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>99000</xdr:colOff>
+      <xdr:colOff>98640</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2086,8 +2099,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10639080" y="4972680"/>
-        <a:ext cx="4951080" cy="4722840"/>
+        <a:off x="10655640" y="4972680"/>
+        <a:ext cx="4958280" cy="4722480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2105,22 +2118,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E96" activeCellId="0" sqref="E96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,2267 +2169,2147 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>59.93179319</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
+        <v>12.3127516778524</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>114.4817664</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>22.2485089463221</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>12.3127516778524</v>
+      <c r="L2" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
+      <c r="C3" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>130.114754098361</v>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>58.1495726495727</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>140.2346446</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
+        <v>25.7815533980582</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>142.1919526</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>30.9538461538461</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>25.7815533980582</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>16.058981233244</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>76.4009433962264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>17</v>
+      <c r="F6" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>135.5691057</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>6.088336976</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>17</v>
+      <c r="F8" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>50.0230769230769</v>
-      </c>
-      <c r="J9" s="0" t="n">
+      <c r="F9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>20.0629370629371</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>9.83925979680697</v>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="F10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>9.29615547106041</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>17</v>
+      <c r="F11" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>17</v>
+      <c r="F12" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>17</v>
+      <c r="F13" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>5.577733349</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
+        <v>6.00653518496908</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>36.77803059</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>7.51376623376623</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>6.00653518496908</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>10.098878695209</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="F15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>7.78433862433862</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="0" t="n">
+      <c r="F16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <v>31.2538461538462</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>17</v>
+      <c r="F17" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>17</v>
+      <c r="F18" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>8.47885304659498</v>
-      </c>
-      <c r="J19" s="0" t="n">
+      <c r="F19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>7.1683748169839</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2" t="n">
         <v>586</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>8.164440297</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
+        <v>8.00515093435553</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>49.69913676</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>9.82647754137116</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>8.00515093435553</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2" t="n">
         <v>586</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>8.20273461777501</v>
-      </c>
-      <c r="J21" s="0" t="n">
+      <c r="F21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="0" t="n">
         <v>7.24497117232543</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2" t="n">
         <v>586</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>17</v>
+      <c r="F22" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2" t="n">
         <v>586</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>11.8938313050776</v>
-      </c>
-      <c r="J23" s="0" t="n">
+      <c r="F23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="0" t="n">
         <v>10.5844394527262</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>24.18012422</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
+        <v>4.72782874617737</v>
+      </c>
+      <c r="I24" s="0" t="n">
         <v>54.81517583</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>5.80789170506912</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>4.72782874617737</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>9.78732545649839</v>
-      </c>
-      <c r="J25" s="0" t="n">
+      <c r="F25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="0" t="n">
         <v>4.95272525027809</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>28.0041666666667</v>
-      </c>
-      <c r="J26" s="0" t="n">
+      <c r="F26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="0" t="n">
         <v>10.8071895424837</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>14.8540669856459</v>
-      </c>
-      <c r="J27" s="0" t="n">
+      <c r="F27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="0" t="n">
         <v>11.6933911159263</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>22.0023201856149</v>
-      </c>
-      <c r="J28" s="0" t="n">
+      <c r="F28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="0" t="n">
         <v>2.63057324840764</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="0" t="n">
+      <c r="F29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>5.58258642765685</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>26.58868425</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
+        <v>6.12341352528888</v>
+      </c>
+      <c r="I30" s="0" t="n">
         <v>115.1818194</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>6.86597467776891</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>6.12341352528888</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>5.64466430399685</v>
-      </c>
-      <c r="J31" s="0" t="n">
+      <c r="F31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="0" t="n">
         <v>5.66409124356144</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>530</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="0" t="n">
+      <c r="F32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="0" t="n">
         <v>13.2683760683761</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>17</v>
+      <c r="F33" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="H34" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>7.9231573444851</v>
-      </c>
-      <c r="J34" s="0" t="n">
+      <c r="F34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="0" t="n">
         <v>8.43557336621455</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="H35" s="0" t="s">
-        <v>17</v>
+      <c r="F35" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="H36" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>7.65361077111383</v>
-      </c>
-      <c r="J36" s="0" t="n">
+      <c r="F36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="0" t="n">
         <v>6.97915798249271</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="H37" s="0" t="s">
-        <v>17</v>
+      <c r="F37" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="F38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>6.7035458711908</v>
+      </c>
+      <c r="I38" s="0" t="n">
         <v>244.4055742</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>7.9217078481492</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>6.7035458711908</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>17</v>
+      <c r="F39" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="H40" s="0" t="s">
-        <v>17</v>
+      <c r="F40" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>8.61121495327103</v>
-      </c>
-      <c r="J41" s="0" t="n">
+      <c r="F41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="0" t="n">
         <v>7.96274373259053</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="H42" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>8.04856475300401</v>
-      </c>
-      <c r="J42" s="0" t="n">
+      <c r="F42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="0" t="n">
         <v>6.35134728285413</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="H43" s="0" t="s">
-        <v>17</v>
+      <c r="F43" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>17</v>
+      <c r="F44" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="H45" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>7.81244700695269</v>
-      </c>
-      <c r="J45" s="0" t="n">
+      <c r="F45" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="0" t="n">
         <v>7.10068803490519</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="H46" s="0" t="s">
-        <v>17</v>
+      <c r="F46" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>32.66219522</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="H47" s="0" t="n">
+        <v>6.43644805571677</v>
+      </c>
+      <c r="I47" s="0" t="n">
         <v>48.90482028</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>7.64022346368715</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>6.43644805571677</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>11.798459563543</v>
-      </c>
-      <c r="J48" s="0" t="n">
+      <c r="F48" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="0" t="n">
         <v>2.96830864622804</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>10.4847161572052</v>
-      </c>
-      <c r="J49" s="0" t="n">
+      <c r="F49" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="0" t="n">
         <v>9.47640449438202</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="0" t="n">
         <v>144.5962733</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="I50" s="0" t="n">
         <v>47.19008443</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>10.8403669724771</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E51" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="0" t="n">
         <v>31.86596927</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="H51" s="0" t="n">
+        <v>5.58032128514056</v>
+      </c>
+      <c r="I51" s="0" t="n">
         <v>24.84261045</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>17.6749226006192</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>5.58032128514056</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="E52" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>11.3988355167394</v>
-      </c>
-      <c r="J52" s="0" t="n">
+      <c r="F52" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="0" t="n">
         <v>4.91321499013807</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="E53" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>21.3305439330544</v>
-      </c>
-      <c r="J53" s="0" t="n">
+      <c r="F53" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="0" t="n">
         <v>2.77491749174917</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E54" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="0" t="n">
         <v>127.6422764</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E55" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>17</v>
+      <c r="F55" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="E56" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="H56" s="0" t="s">
-        <v>17</v>
+      <c r="F56" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>50</v>
+        <v>71</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="E57" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="H57" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>8.64847089773101</v>
-      </c>
-      <c r="J57" s="0" t="n">
+      <c r="F57" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="0" t="n">
         <v>8.21664180341455</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="E58" s="1" t="n">
+      <c r="E58" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="0" t="n">
         <v>18.53988134</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="H58" s="0" t="n">
+        <v>6.92031090523671</v>
+      </c>
+      <c r="I58" s="0" t="n">
         <v>206.4532045</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>7.75922800322888</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <v>6.92031090523671</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>50</v>
+        <v>73</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="E59" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="H59" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>33.8181818181818</v>
-      </c>
-      <c r="J59" s="0" t="n">
+      <c r="F59" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="0" t="n">
         <v>13.01269035533</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>50</v>
+        <v>74</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="E60" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="H60" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>8.79878923052413</v>
-      </c>
-      <c r="J60" s="0" t="n">
+      <c r="F60" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="0" t="n">
         <v>8.47593418422267</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>50</v>
+        <v>75</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="E61" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="H61" s="0" t="s">
-        <v>17</v>
+      <c r="F61" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>50</v>
+        <v>76</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="E62" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="H62" s="0" t="s">
-        <v>17</v>
+      <c r="F62" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>50</v>
+        <v>77</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="E63" s="1" t="n">
+      <c r="E63" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="H63" s="0" t="s">
-        <v>17</v>
+      <c r="F63" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>50</v>
+        <v>78</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="E64" s="1" t="n">
+      <c r="E64" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>17</v>
+      <c r="F64" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>50</v>
+        <v>79</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="E65" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="H65" s="0" t="s">
-        <v>17</v>
+      <c r="F65" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="E66" s="1" t="n">
+      <c r="E66" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="0" t="n">
         <v>7.360697997</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="H66" s="0" t="n">
+        <v>6.82834475297512</v>
+      </c>
+      <c r="I66" s="0" t="n">
         <v>94.40429427</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="0" t="n">
-        <v>8.34077131432994</v>
-      </c>
-      <c r="J66" s="0" t="n">
-        <v>6.82834475297512</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="E67" s="1" t="n">
+      <c r="E67" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="H67" s="0" t="s">
-        <v>17</v>
+      <c r="F67" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>50</v>
+        <v>82</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="E68" s="1" t="n">
+      <c r="E68" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="H68" s="0" t="s">
-        <v>17</v>
+      <c r="F68" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>50</v>
+        <v>83</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="E69" s="1" t="n">
+      <c r="E69" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="H69" s="0" t="s">
-        <v>17</v>
+      <c r="F69" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>50</v>
+        <v>84</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="E70" s="1" t="n">
+      <c r="E70" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="H70" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" s="0" t="n">
-        <v>8.99420819996952</v>
-      </c>
-      <c r="J70" s="0" t="n">
+      <c r="F70" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="0" t="n">
         <v>8.58108995403808</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>50</v>
+        <v>85</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="E71" s="1" t="n">
+      <c r="E71" s="2" t="n">
         <v>586</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="0" t="n">
         <v>5.35131205</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="H71" s="0" t="n">
+        <v>6.19074177356386</v>
+      </c>
+      <c r="I71" s="0" t="n">
         <v>54.4451539</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>6.30870495310186</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <v>6.19074177356386</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>50</v>
+        <v>86</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="E72" s="1" t="n">
+      <c r="E72" s="2" t="n">
         <v>586</v>
       </c>
-      <c r="H72" s="0" t="s">
-        <v>17</v>
+      <c r="F72" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>50</v>
+        <v>87</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="E73" s="1" t="n">
+      <c r="E73" s="2" t="n">
         <v>586</v>
       </c>
-      <c r="H73" s="0" t="s">
-        <v>17</v>
+      <c r="F73" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B74" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="E74" s="1" t="n">
+      <c r="E74" s="2" t="n">
         <v>586</v>
       </c>
-      <c r="H74" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="0" t="n">
-        <v>8.65703651187522</v>
-      </c>
-      <c r="J74" s="0" t="n">
+      <c r="F74" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="0" t="n">
         <v>9.13349633251834</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>50</v>
+        <v>89</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="E75" s="1" t="n">
+      <c r="E75" s="2" t="n">
         <v>586</v>
       </c>
-      <c r="H75" s="0" t="s">
-        <v>17</v>
+      <c r="F75" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="E76" s="1" t="n">
+      <c r="E76" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="0" t="n">
         <v>16.09712027</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="H76" s="0" t="n">
+        <v>6.04868549172347</v>
+      </c>
+      <c r="I76" s="0" t="n">
         <v>20.25935053</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>10.9454828660436</v>
-      </c>
-      <c r="J76" s="0" t="n">
-        <v>6.04868549172347</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>50</v>
+        <v>91</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="E77" s="1" t="n">
+      <c r="E77" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="H77" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>9.29873853211009</v>
-      </c>
-      <c r="J77" s="0" t="n">
+      <c r="F77" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="0" t="n">
         <v>8.32882462686567</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B78" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="E78" s="1" t="n">
+      <c r="E78" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="H78" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="0" t="n">
-        <v>19.199203187251</v>
-      </c>
-      <c r="J78" s="0" t="n">
+      <c r="F78" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="0" t="n">
         <v>12.3678756476684</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>50</v>
+        <v>93</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="E79" s="1" t="n">
+      <c r="E79" s="2" t="n">
         <v>288</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="0" t="n">
         <v>9.216589862</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="H79" s="0" t="n">
+        <v>7.42969396195203</v>
+      </c>
+      <c r="I79" s="0" t="n">
         <v>113.4440422</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="0" t="n">
-        <v>8.73694779116466</v>
-      </c>
-      <c r="J79" s="0" t="n">
-        <v>7.42969396195203</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>50</v>
+        <v>94</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="E80" s="1" t="n">
+      <c r="E80" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="0" t="n">
         <v>13.12777285</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="H80" s="0" t="n">
+        <v>9.40529531568228</v>
+      </c>
+      <c r="I80" s="0" t="n">
         <v>29.19970064</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="0" t="n">
-        <v>11.350332594235</v>
-      </c>
-      <c r="J80" s="0" t="n">
-        <v>9.40529531568228</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="E81" s="1" t="n">
+      <c r="E81" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="H81" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="0" t="n">
-        <v>5.93717524799244</v>
-      </c>
-      <c r="J81" s="0" t="n">
+      <c r="F81" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="0" t="n">
         <v>8.89652777777778</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>50</v>
+        <v>96</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="E82" s="1" t="n">
+      <c r="E82" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="H82" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="0" t="n">
-        <v>18.6184738955823</v>
-      </c>
-      <c r="J82" s="0" t="n">
+      <c r="F82" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="0" t="n">
         <v>10.8880952380952</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>50</v>
+        <v>97</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="E83" s="1" t="n">
+      <c r="E83" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="0" t="n">
         <v>54.63414634</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="H83" s="0" t="n">
+        <v>12.2922794117647</v>
+      </c>
+      <c r="I83" s="0" t="n">
         <v>44.60837344</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I83" s="0" t="n">
-        <v>12.1381118881119</v>
-      </c>
-      <c r="J83" s="0" t="n">
-        <v>12.2922794117647</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B84" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>50</v>
+        <v>98</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="E84" s="1" t="n">
+      <c r="E84" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="H84" s="0" t="s">
-        <v>17</v>
+      <c r="F84" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="E85" s="1" t="n">
+      <c r="E85" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="H85" s="0" t="s">
-        <v>17</v>
+      <c r="F85" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="E86" s="1" t="n">
+      <c r="E86" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="H86" s="0" t="s">
-        <v>17</v>
+      <c r="F86" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>50</v>
+        <v>101</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="E87" s="1" t="n">
+      <c r="E87" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="H87" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I87" s="0" t="n">
-        <v>8.8652870764861</v>
-      </c>
-      <c r="J87" s="0" t="n">
+      <c r="F87" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="0" t="n">
         <v>8.09428794992175</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B88" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="E88" s="1" t="n">
+      <c r="E88" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="H88" s="0" t="s">
-        <v>17</v>
+      <c r="F88" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>50</v>
+        <v>103</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>843</v>
       </c>
-      <c r="E89" s="1" t="n">
+      <c r="E89" s="2" t="n">
         <v>843</v>
       </c>
-      <c r="G89" s="0" t="n">
+      <c r="F89" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>4.51894411621226</v>
+      </c>
+      <c r="I89" s="0" t="n">
         <v>28.51596639</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I89" s="0" t="n">
-        <v>4.53683451508232</v>
-      </c>
-      <c r="J89" s="0" t="n">
-        <v>4.51894411621226</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B90" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>50</v>
+        <v>104</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>843</v>
       </c>
-      <c r="E90" s="1" t="n">
+      <c r="E90" s="2" t="n">
         <v>843</v>
       </c>
-      <c r="H90" s="0" t="s">
-        <v>17</v>
+      <c r="F90" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B91" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>50</v>
+        <v>105</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>843</v>
       </c>
-      <c r="E91" s="1" t="n">
+      <c r="E91" s="2" t="n">
         <v>843</v>
       </c>
-      <c r="H91" s="0" t="s">
-        <v>17</v>
+      <c r="F91" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>50</v>
+        <v>106</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>843</v>
       </c>
-      <c r="E92" s="1" t="n">
+      <c r="E92" s="2" t="n">
         <v>843</v>
       </c>
-      <c r="H92" s="0" t="s">
-        <v>17</v>
+      <c r="F92" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B93" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>50</v>
+        <v>107</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>843</v>
       </c>
-      <c r="E93" s="1" t="n">
+      <c r="E93" s="2" t="n">
         <v>843</v>
       </c>
-      <c r="H93" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I93" s="0" t="n">
-        <v>9.16191030867793</v>
-      </c>
-      <c r="J93" s="0" t="n">
+      <c r="F93" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="0" t="n">
         <v>8.58502772643253</v>
       </c>
     </row>
@@ -4440,25 +4335,25 @@
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50</v>
@@ -4473,7 +4368,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>93</v>
@@ -4488,7 +4383,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>120</v>
@@ -4503,7 +4398,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>122</v>
@@ -4518,7 +4413,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>143</v>
@@ -4533,7 +4428,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>145</v>
@@ -4548,7 +4443,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>190</v>
@@ -4563,7 +4458,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>201</v>
@@ -4578,7 +4473,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>221</v>
@@ -4593,7 +4488,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>288</v>
@@ -4608,7 +4503,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>586</v>
@@ -4623,7 +4518,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>843</v>
@@ -4638,21 +4533,21 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>85</v>
@@ -4667,7 +4562,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>87</v>
@@ -4682,7 +4577,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>121</v>
@@ -4697,7 +4592,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>147</v>
@@ -4712,7 +4607,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>151</v>
@@ -4727,7 +4622,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>368</v>
@@ -4742,7 +4637,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>586</v>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="113">
   <si>
     <t xml:space="preserve">sample id</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">N production rate (nM N/day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted N prod (nM N/day)</t>
   </si>
   <si>
     <t xml:space="preserve">1-30_151m_+P</t>
@@ -532,7 +535,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart109.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -733,11 +736,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="42389324"/>
-        <c:axId val="25263661"/>
+        <c:axId val="35953532"/>
+        <c:axId val="47663203"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42389324"/>
+        <c:axId val="35953532"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,12 +796,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25263661"/>
+        <c:crossAx val="47663203"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25263661"/>
+        <c:axId val="47663203"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -863,7 +866,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42389324"/>
+        <c:crossAx val="35953532"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -911,7 +914,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart110.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1082,11 +1085,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="4628659"/>
-        <c:axId val="62961195"/>
+        <c:axId val="81976547"/>
+        <c:axId val="19695846"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4628659"/>
+        <c:axId val="81976547"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,12 +1145,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62961195"/>
+        <c:crossAx val="19695846"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62961195"/>
+        <c:axId val="19695846"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1212,7 +1215,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4628659"/>
+        <c:crossAx val="81976547"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1260,7 +1263,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart111.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1461,11 +1464,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="34787098"/>
-        <c:axId val="55617147"/>
+        <c:axId val="23514814"/>
+        <c:axId val="11888493"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34787098"/>
+        <c:axId val="23514814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,12 +1524,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55617147"/>
+        <c:crossAx val="11888493"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55617147"/>
+        <c:axId val="11888493"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1591,7 +1594,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34787098"/>
+        <c:crossAx val="23514814"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1639,7 +1642,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart112.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1810,11 +1813,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="16626035"/>
-        <c:axId val="66205091"/>
+        <c:axId val="97330228"/>
+        <c:axId val="64868907"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="16626035"/>
+        <c:axId val="97330228"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,12 +1873,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66205091"/>
+        <c:crossAx val="64868907"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66205091"/>
+        <c:axId val="64868907"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1940,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16626035"/>
+        <c:crossAx val="97330228"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1999,9 +2002,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>718920</xdr:colOff>
+      <xdr:colOff>718560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2009,8 +2012,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5073120" y="86040"/>
-        <a:ext cx="5445000" cy="4550400"/>
+        <a:off x="5080680" y="86040"/>
+        <a:ext cx="5452200" cy="4550040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2029,9 +2032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
+      <xdr:colOff>225000</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2039,8 +2042,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5066280" y="4924800"/>
-        <a:ext cx="4958280" cy="4722480"/>
+        <a:off x="5073840" y="4924800"/>
+        <a:ext cx="4965480" cy="4722120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2059,9 +2062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>605160</xdr:colOff>
+      <xdr:colOff>604800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2069,8 +2072,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10675440" y="0"/>
-        <a:ext cx="5445000" cy="4550400"/>
+        <a:off x="10692000" y="0"/>
+        <a:ext cx="5452200" cy="4550040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2089,9 +2092,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>98640</xdr:colOff>
+      <xdr:colOff>98280</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2099,8 +2102,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10655640" y="4972680"/>
-        <a:ext cx="4958280" cy="4722480"/>
+        <a:off x="10672200" y="4972680"/>
+        <a:ext cx="4965480" cy="4722120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2118,13 +2121,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
@@ -2175,13 +2178,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2018</v>
@@ -2193,7 +2199,7 @@
         <v>151</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>59.93179319</v>
@@ -2207,13 +2213,16 @@
       <c r="L2" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="M2" s="0" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2018</v>
@@ -2225,7 +2234,7 @@
         <v>151</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>58.1495726495727</v>
@@ -2233,10 +2242,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2018</v>
@@ -2248,7 +2257,7 @@
         <v>121</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>140.2346446</v>
@@ -2262,10 +2271,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2018</v>
@@ -2277,7 +2286,7 @@
         <v>121</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>76.4009433962264</v>
@@ -2285,10 +2294,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2018</v>
@@ -2300,15 +2309,15 @@
         <v>147</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2018</v>
@@ -2320,7 +2329,7 @@
         <v>147</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>135.5691057</v>
@@ -2331,10 +2340,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2018</v>
@@ -2346,15 +2355,15 @@
         <v>147</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2018</v>
@@ -2366,7 +2375,7 @@
         <v>147</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>20.0629370629371</v>
@@ -2374,10 +2383,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
@@ -2389,7 +2398,7 @@
         <v>147</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>9.29615547106041</v>
@@ -2397,10 +2406,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2018</v>
@@ -2412,15 +2421,15 @@
         <v>147</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2018</v>
@@ -2432,15 +2441,15 @@
         <v>147</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2018</v>
@@ -2452,15 +2461,15 @@
         <v>147</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2018</v>
@@ -2472,7 +2481,7 @@
         <v>368</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>5.577733349</v>
@@ -2486,10 +2495,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2018</v>
@@ -2501,7 +2510,7 @@
         <v>368</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>7.78433862433862</v>
@@ -2509,13 +2518,16 @@
       <c r="L15" s="0" t="n">
         <v>375</v>
       </c>
+      <c r="M15" s="0" t="n">
+        <v>12.09</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2018</v>
@@ -2527,7 +2539,7 @@
         <v>368</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>31.2538461538462</v>
@@ -2535,10 +2547,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2018</v>
@@ -2550,15 +2562,15 @@
         <v>368</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2018</v>
@@ -2570,15 +2582,15 @@
         <v>368</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2018</v>
@@ -2590,7 +2602,7 @@
         <v>368</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>7.1683748169839</v>
@@ -2598,10 +2610,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2018</v>
@@ -2613,7 +2625,7 @@
         <v>586</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>8.164440297</v>
@@ -2627,10 +2639,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2018</v>
@@ -2642,7 +2654,7 @@
         <v>586</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>7.24497117232543</v>
@@ -2650,10 +2662,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2018</v>
@@ -2665,15 +2677,15 @@
         <v>586</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2018</v>
@@ -2685,7 +2697,7 @@
         <v>586</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>10.5844394527262</v>
@@ -2693,10 +2705,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2018</v>
@@ -2708,7 +2720,7 @@
         <v>87</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>24.18012422</v>
@@ -2722,10 +2734,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2018</v>
@@ -2737,7 +2749,7 @@
         <v>87</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>4.95272525027809</v>
@@ -2745,13 +2757,16 @@
       <c r="L25" s="0" t="n">
         <v>38.5</v>
       </c>
+      <c r="M25" s="0" t="n">
+        <v>7.32</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2018</v>
@@ -2763,7 +2778,7 @@
         <v>87</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>10.8071895424837</v>
@@ -2771,10 +2786,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2018</v>
@@ -2786,7 +2801,7 @@
         <v>221</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>11.6933911159263</v>
@@ -2794,10 +2809,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2018</v>
@@ -2809,7 +2824,7 @@
         <v>221</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>2.63057324840764</v>
@@ -2817,13 +2832,16 @@
       <c r="L28" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="M28" s="0" t="n">
+        <v>18.46</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2018</v>
@@ -2835,7 +2853,7 @@
         <v>221</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>5.58258642765685</v>
@@ -2843,10 +2861,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2018</v>
@@ -2858,7 +2876,7 @@
         <v>85</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>26.58868425</v>
@@ -2872,10 +2890,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2018</v>
@@ -2887,7 +2905,7 @@
         <v>85</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>5.66409124356144</v>
@@ -2895,13 +2913,16 @@
       <c r="L31" s="0" t="n">
         <v>530</v>
       </c>
+      <c r="M31" s="0" t="n">
+        <v>21.09</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2018</v>
@@ -2913,7 +2934,7 @@
         <v>85</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>13.2683760683761</v>
@@ -2921,10 +2942,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2018</v>
@@ -2936,15 +2957,15 @@
         <v>85</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2018</v>
@@ -2956,7 +2977,7 @@
         <v>85</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>8.43557336621455</v>
@@ -2964,10 +2985,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2018</v>
@@ -2979,15 +3000,15 @@
         <v>85</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2018</v>
@@ -2999,7 +3020,7 @@
         <v>147</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>6.97915798249271</v>
@@ -3007,10 +3028,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2018</v>
@@ -3022,15 +3043,15 @@
         <v>147</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2018</v>
@@ -3042,7 +3063,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>6.7035458711908</v>
@@ -3053,10 +3074,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2018</v>
@@ -3068,15 +3089,15 @@
         <v>50</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2018</v>
@@ -3088,15 +3109,15 @@
         <v>50</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2018</v>
@@ -3108,7 +3129,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>7.96274373259053</v>
@@ -3116,10 +3137,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2018</v>
@@ -3131,7 +3152,7 @@
         <v>120</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>6.35134728285413</v>
@@ -3139,10 +3160,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2018</v>
@@ -3154,15 +3175,15 @@
         <v>120</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2018</v>
@@ -3174,15 +3195,15 @@
         <v>120</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2018</v>
@@ -3194,7 +3215,7 @@
         <v>120</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>7.10068803490519</v>
@@ -3202,10 +3223,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2018</v>
@@ -3217,15 +3238,15 @@
         <v>120</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2018</v>
@@ -3237,7 +3258,7 @@
         <v>122</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>32.66219522</v>
@@ -3251,10 +3272,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2018</v>
@@ -3266,7 +3287,7 @@
         <v>122</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>2.96830864622804</v>
@@ -3274,13 +3295,16 @@
       <c r="L48" s="0" t="n">
         <v>54</v>
       </c>
+      <c r="M48" s="0" t="n">
+        <v>9.88</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2018</v>
@@ -3292,7 +3316,7 @@
         <v>122</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>9.47640449438202</v>
@@ -3300,10 +3324,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2018</v>
@@ -3315,7 +3339,7 @@
         <v>120</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>144.5962733</v>
@@ -3326,10 +3350,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2018</v>
@@ -3341,7 +3365,7 @@
         <v>190</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>31.86596927</v>
@@ -3355,10 +3379,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2018</v>
@@ -3370,7 +3394,7 @@
         <v>190</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>4.91321499013807</v>
@@ -3378,13 +3402,16 @@
       <c r="L52" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="M52" s="0" t="n">
+        <v>6.97</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2018</v>
@@ -3396,7 +3423,7 @@
         <v>190</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>2.77491749174917</v>
@@ -3404,10 +3431,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2018</v>
@@ -3419,7 +3446,7 @@
         <v>123</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>127.6422764</v>
@@ -3427,10 +3454,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2018</v>
@@ -3442,15 +3469,15 @@
         <v>123</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2018</v>
@@ -3462,15 +3489,15 @@
         <v>123</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2018</v>
@@ -3482,7 +3509,7 @@
         <v>123</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>8.21664180341455</v>
@@ -3490,10 +3517,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2018</v>
@@ -3505,7 +3532,7 @@
         <v>201</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>18.53988134</v>
@@ -3519,10 +3546,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2018</v>
@@ -3534,7 +3561,7 @@
         <v>201</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>13.01269035533</v>
@@ -3542,10 +3569,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2018</v>
@@ -3557,7 +3584,7 @@
         <v>201</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>8.47593418422267</v>
@@ -3565,10 +3592,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2018</v>
@@ -3580,15 +3607,15 @@
         <v>201</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2018</v>
@@ -3600,15 +3627,15 @@
         <v>201</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2018</v>
@@ -3620,15 +3647,15 @@
         <v>201</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2018</v>
@@ -3640,15 +3667,15 @@
         <v>201</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2018</v>
@@ -3660,15 +3687,15 @@
         <v>221</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2018</v>
@@ -3680,7 +3707,7 @@
         <v>221</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>7.360697997</v>
@@ -3694,10 +3721,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2018</v>
@@ -3709,15 +3736,15 @@
         <v>221</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>2018</v>
@@ -3729,15 +3756,15 @@
         <v>221</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2018</v>
@@ -3749,15 +3776,15 @@
         <v>221</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2018</v>
@@ -3769,7 +3796,7 @@
         <v>221</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>8.58108995403808</v>
@@ -3777,10 +3804,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>2018</v>
@@ -3792,7 +3819,7 @@
         <v>586</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G71" s="0" t="n">
         <v>5.35131205</v>
@@ -3806,10 +3833,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2018</v>
@@ -3821,15 +3848,15 @@
         <v>586</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2018</v>
@@ -3841,15 +3868,15 @@
         <v>586</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2018</v>
@@ -3861,7 +3888,7 @@
         <v>586</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>9.13349633251834</v>
@@ -3869,10 +3896,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2018</v>
@@ -3884,15 +3911,15 @@
         <v>586</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2018</v>
@@ -3904,7 +3931,7 @@
         <v>145</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>16.09712027</v>
@@ -3918,10 +3945,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2018</v>
@@ -3933,7 +3960,7 @@
         <v>145</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>8.32882462686567</v>
@@ -3941,13 +3968,16 @@
       <c r="L77" s="0" t="n">
         <v>181</v>
       </c>
+      <c r="M77" s="0" t="n">
+        <v>7.36</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2018</v>
@@ -3959,7 +3989,7 @@
         <v>145</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>12.3678756476684</v>
@@ -3967,10 +3997,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2018</v>
@@ -3982,7 +4012,7 @@
         <v>288</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>9.216589862</v>
@@ -3996,10 +4026,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2018</v>
@@ -4011,7 +4041,7 @@
         <v>93</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>13.12777285</v>
@@ -4025,10 +4055,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2018</v>
@@ -4040,7 +4070,7 @@
         <v>93</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>8.89652777777778</v>
@@ -4048,13 +4078,16 @@
       <c r="L81" s="0" t="n">
         <v>160</v>
       </c>
+      <c r="M81" s="0" t="n">
+        <v>12.96</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2018</v>
@@ -4066,7 +4099,7 @@
         <v>93</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>10.8880952380952</v>
@@ -4074,10 +4107,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2018</v>
@@ -4089,7 +4122,7 @@
         <v>143</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>54.63414634</v>
@@ -4103,10 +4136,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2018</v>
@@ -4118,15 +4151,15 @@
         <v>143</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>2018</v>
@@ -4138,15 +4171,15 @@
         <v>143</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2018</v>
@@ -4158,15 +4191,15 @@
         <v>143</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2018</v>
@@ -4178,7 +4211,7 @@
         <v>143</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>8.09428794992175</v>
@@ -4186,10 +4219,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2018</v>
@@ -4201,15 +4234,15 @@
         <v>143</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2018</v>
@@ -4221,7 +4254,7 @@
         <v>843</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>4.51894411621226</v>
@@ -4232,10 +4265,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2018</v>
@@ -4247,15 +4280,15 @@
         <v>843</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2018</v>
@@ -4267,15 +4300,15 @@
         <v>843</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2018</v>
@@ -4287,15 +4320,15 @@
         <v>843</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2018</v>
@@ -4307,7 +4340,7 @@
         <v>843</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>8.58502772643253</v>
@@ -4335,25 +4368,25 @@
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50</v>
@@ -4368,7 +4401,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>93</v>
@@ -4383,7 +4416,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>120</v>
@@ -4398,7 +4431,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>122</v>
@@ -4413,7 +4446,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>143</v>
@@ -4428,7 +4461,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>145</v>
@@ -4443,7 +4476,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>190</v>
@@ -4458,7 +4491,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>201</v>
@@ -4473,7 +4506,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>221</v>
@@ -4488,7 +4521,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>288</v>
@@ -4503,7 +4536,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>586</v>
@@ -4518,7 +4551,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>843</v>
@@ -4536,18 +4569,18 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>85</v>
@@ -4562,7 +4595,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>87</v>
@@ -4577,7 +4610,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>121</v>
@@ -4592,7 +4625,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>147</v>
@@ -4607,7 +4640,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>151</v>
@@ -4622,7 +4655,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>368</v>
@@ -4637,7 +4670,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>586</v>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -535,7 +535,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart113.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -736,11 +736,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="35953532"/>
-        <c:axId val="47663203"/>
+        <c:axId val="95005120"/>
+        <c:axId val="3301010"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35953532"/>
+        <c:axId val="95005120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,12 +796,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47663203"/>
+        <c:crossAx val="3301010"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47663203"/>
+        <c:axId val="3301010"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -866,7 +866,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35953532"/>
+        <c:crossAx val="95005120"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -914,7 +914,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart110.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart114.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1085,11 +1085,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81976547"/>
-        <c:axId val="19695846"/>
+        <c:axId val="21512473"/>
+        <c:axId val="58273497"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81976547"/>
+        <c:axId val="21512473"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,12 +1145,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19695846"/>
+        <c:crossAx val="58273497"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19695846"/>
+        <c:axId val="58273497"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1215,7 +1215,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81976547"/>
+        <c:crossAx val="21512473"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1263,7 +1263,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart115.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1464,11 +1464,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="23514814"/>
-        <c:axId val="11888493"/>
+        <c:axId val="67952650"/>
+        <c:axId val="53403612"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23514814"/>
+        <c:axId val="67952650"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,12 +1524,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11888493"/>
+        <c:crossAx val="53403612"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="11888493"/>
+        <c:axId val="53403612"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1594,7 +1594,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23514814"/>
+        <c:crossAx val="67952650"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1642,7 +1642,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart116.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1813,11 +1813,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="97330228"/>
-        <c:axId val="64868907"/>
+        <c:axId val="62324970"/>
+        <c:axId val="27608640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97330228"/>
+        <c:axId val="62324970"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,12 +1873,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64868907"/>
+        <c:crossAx val="27608640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64868907"/>
+        <c:axId val="27608640"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97330228"/>
+        <c:crossAx val="62324970"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2124,7 +2124,7 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="114">
   <si>
     <t xml:space="preserve">sample id</t>
   </si>
@@ -62,12 +62,18 @@
     <t xml:space="preserve">Adjusted N prod (nM N/day)</t>
   </si>
   <si>
+    <t xml:space="preserve">Babbin N production rates  (nM N/day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-30_151m_+P</t>
   </si>
   <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
     <t xml:space="preserve">cone</t>
   </si>
   <si>
@@ -81,9 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve">3-32_147m_top_remainder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net</t>
   </si>
   <si>
     <t xml:space="preserve">3-32_147m_top</t>
@@ -535,7 +538,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart131.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -736,11 +739,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="95005120"/>
-        <c:axId val="3301010"/>
+        <c:axId val="36488341"/>
+        <c:axId val="868967"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95005120"/>
+        <c:axId val="36488341"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,12 +799,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3301010"/>
+        <c:crossAx val="868967"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3301010"/>
+        <c:axId val="868967"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -866,7 +869,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95005120"/>
+        <c:crossAx val="36488341"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -914,7 +917,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart132.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1085,11 +1088,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="21512473"/>
-        <c:axId val="58273497"/>
+        <c:axId val="88112210"/>
+        <c:axId val="36782191"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21512473"/>
+        <c:axId val="88112210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,12 +1148,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58273497"/>
+        <c:crossAx val="36782191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58273497"/>
+        <c:axId val="36782191"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1215,7 +1218,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21512473"/>
+        <c:crossAx val="88112210"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1263,7 +1266,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart133.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1464,11 +1467,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67952650"/>
-        <c:axId val="53403612"/>
+        <c:axId val="31688535"/>
+        <c:axId val="10576364"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67952650"/>
+        <c:axId val="31688535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,12 +1527,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53403612"/>
+        <c:crossAx val="10576364"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53403612"/>
+        <c:axId val="10576364"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1594,7 +1597,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67952650"/>
+        <c:crossAx val="31688535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1642,7 +1645,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart134.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1813,11 +1816,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="62324970"/>
-        <c:axId val="27608640"/>
+        <c:axId val="7497611"/>
+        <c:axId val="18671237"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62324970"/>
+        <c:axId val="7497611"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,12 +1876,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27608640"/>
+        <c:crossAx val="18671237"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27608640"/>
+        <c:axId val="18671237"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1943,7 +1946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62324970"/>
+        <c:crossAx val="7497611"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2002,9 +2005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>718560</xdr:colOff>
+      <xdr:colOff>718200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2012,8 +2015,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5080680" y="86040"/>
-        <a:ext cx="5452200" cy="4550040"/>
+        <a:off x="5088240" y="86040"/>
+        <a:ext cx="5459760" cy="4549680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2032,9 +2035,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>225000</xdr:colOff>
+      <xdr:colOff>224640</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2042,8 +2045,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5073840" y="4924800"/>
-        <a:ext cx="4965480" cy="4722120"/>
+        <a:off x="5081400" y="4924800"/>
+        <a:ext cx="4973040" cy="4721760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2062,9 +2065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>604800</xdr:colOff>
+      <xdr:colOff>604440</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2072,8 +2075,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10692000" y="0"/>
-        <a:ext cx="5452200" cy="4550040"/>
+        <a:off x="10708560" y="0"/>
+        <a:ext cx="5459400" cy="4549680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2092,9 +2095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
+      <xdr:colOff>97920</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2102,8 +2105,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10672200" y="4972680"/>
-        <a:ext cx="4965480" cy="4722120"/>
+        <a:off x="10688760" y="4972680"/>
+        <a:ext cx="4972680" cy="4721760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2121,13 +2124,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N45" activeCellId="0" sqref="N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
@@ -2181,11 +2184,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
@@ -2193,28 +2196,18 @@
         <v>2018</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>151</v>
+        <v>100</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>59.93179319</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>12.3127516778524</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>114.4817664</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>0.22</v>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="0" t="n">
+        <v>9.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,15 +2227,30 @@
         <v>151</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>59.93179319</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>58.1495726495727</v>
+        <v>12.3127516778524</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>114.4817664</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>14</v>
@@ -2251,27 +2259,21 @@
         <v>2018</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>140.2346446</v>
+        <v>17</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>25.7815533980582</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>142.1919526</v>
+        <v>58.1495726495727</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
@@ -2286,15 +2288,21 @@
         <v>121</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>140.2346446</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>76.4009433962264</v>
+        <v>25.7815533980582</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>142.1919526</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>14</v>
@@ -2303,13 +2311,16 @@
         <v>2018</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>76.4009433962264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,13 +2340,7 @@
         <v>147</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>135.5691057</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>6.088336976</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,7 +2360,13 @@
         <v>147</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>135.5691057</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>6.088336976</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,10 +2386,7 @@
         <v>147</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>20.0629370629371</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,10 +2406,10 @@
         <v>147</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>9.29615547106041</v>
+        <v>20.0629370629371</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2429,10 @@
         <v>147</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>9.29615547106041</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,7 +2452,7 @@
         <v>147</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2461,7 +2472,7 @@
         <v>147</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,22 +2486,13 @@
         <v>2018</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>368</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>368</v>
+        <v>147</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>5.577733349</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>6.00653518496908</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>36.77803059</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,16 +2512,16 @@
         <v>368</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>5.577733349</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>7.78433862433862</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>375</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>12.09</v>
+        <v>6.00653518496908</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>36.77803059</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,10 +2541,16 @@
         <v>368</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>31.2538461538462</v>
+        <v>7.78433862433862</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>375</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>12.09</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,7 +2570,10 @@
         <v>368</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>31.2538461538462</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,7 +2593,7 @@
         <v>368</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,10 +2613,7 @@
         <v>368</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>7.1683748169839</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,22 +2627,16 @@
         <v>2018</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>586</v>
+        <v>368</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>586</v>
+        <v>368</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>8.164440297</v>
+        <v>15</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>8.00515093435553</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>49.69913676</v>
+        <v>7.1683748169839</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,10 +2656,16 @@
         <v>586</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>8.164440297</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>7.24497117232543</v>
+        <v>8.00515093435553</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>49.69913676</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,7 +2685,10 @@
         <v>586</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>7.24497117232543</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,10 +2708,7 @@
         <v>586</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>10.5844394527262</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,22 +2722,16 @@
         <v>2018</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>87</v>
+        <v>586</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>87</v>
+        <v>586</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <v>24.18012422</v>
-      </c>
       <c r="H24" s="0" t="n">
-        <v>4.72782874617737</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>54.81517583</v>
+        <v>10.5844394527262</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,16 +2751,16 @@
         <v>87</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>24.18012422</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>4.95272525027809</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>7.32</v>
+        <v>4.72782874617737</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>54.81517583</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,10 +2780,16 @@
         <v>87</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>10.8071895424837</v>
+        <v>4.95272525027809</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>7.32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,16 +2803,16 @@
         <v>2018</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>11.6933911159263</v>
+        <v>10.8071895424837</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,16 +2832,10 @@
         <v>221</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>2.63057324840764</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>18.46</v>
+        <v>11.6933911159263</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,10 +2855,16 @@
         <v>221</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>5.58258642765685</v>
+        <v>2.63057324840764</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>18.46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,22 +2878,16 @@
         <v>2018</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>26.58868425</v>
+        <v>17</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>6.12341352528888</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>115.1818194</v>
+        <v>5.58258642765685</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,16 +2907,16 @@
         <v>85</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>26.58868425</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>5.66409124356144</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>530</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>21.09</v>
+        <v>6.12341352528888</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>115.1818194</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,10 +2936,16 @@
         <v>85</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>13.2683760683761</v>
+        <v>5.66409124356144</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>530</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>21.09</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2957,7 +2965,10 @@
         <v>85</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>13.2683760683761</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,10 +2988,7 @@
         <v>85</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>8.43557336621455</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +3008,10 @@
         <v>85</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>8.43557336621455</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,16 +3025,13 @@
         <v>2018</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>6.97915798249271</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,7 +3051,10 @@
         <v>147</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>6.97915798249271</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,33 +3062,27 @@
         <v>52</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>6.7035458711908</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>244.4055742</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2018</v>
@@ -3089,7 +3094,13 @@
         <v>50</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>6.7035458711908</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>244.4055742</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,7 +3108,7 @@
         <v>55</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2018</v>
@@ -3109,7 +3120,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,7 +3128,7 @@
         <v>56</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2018</v>
@@ -3129,10 +3140,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>7.96274373259053</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,70 +3148,70 @@
         <v>57</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>6.35134728285413</v>
+        <v>7.96274373259053</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="B43" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>45.2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="B44" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>42.8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2018</v>
@@ -3215,18 +3223,18 @@
         <v>120</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>7.10068803490519</v>
+        <v>6.35134728285413</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2018</v>
@@ -3238,266 +3246,266 @@
         <v>120</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>32.66219522</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>6.43644805571677</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>48.90482028</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>2.96830864622804</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>9.88</v>
+        <v>7.10068803490519</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>9.47640449438202</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>144.5962733</v>
+        <v>32.66219522</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>6.43644805571677</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>47.19008443</v>
+        <v>48.90482028</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>31.86596927</v>
+        <v>17</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>5.58032128514056</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>24.84261045</v>
+        <v>2.96830864622804</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>9.88</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>4.91321499013807</v>
-      </c>
-      <c r="L52" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="M52" s="0" t="n">
-        <v>6.97</v>
+        <v>9.47640449438202</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>2.77491749174917</v>
+        <v>17</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>144.5962733</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>47.19008443</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>127.6422764</v>
+        <v>31.86596927</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>5.58032128514056</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>24.84261045</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>4.91321499013807</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>6.97</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>2.77491749174917</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2018</v>
@@ -3509,93 +3517,81 @@
         <v>123</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>8.21664180341455</v>
+        <v>15</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>127.6422764</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>18.53988134</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>6.92031090523671</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>206.4532045</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>13.01269035533</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>8.47593418422267</v>
+        <v>8.21664180341455</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2018</v>
@@ -3607,15 +3603,24 @@
         <v>201</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>18.53988134</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>6.92031090523671</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>206.4532045</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2018</v>
@@ -3627,15 +3632,18 @@
         <v>201</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>13.01269035533</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2018</v>
@@ -3647,15 +3655,18 @@
         <v>201</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>8.47593418422267</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2018</v>
@@ -3667,84 +3678,75 @@
         <v>201</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <v>7.360697997</v>
-      </c>
-      <c r="H66" s="0" t="n">
-        <v>6.82834475297512</v>
-      </c>
-      <c r="I66" s="0" t="n">
-        <v>94.40429427</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>2018</v>
@@ -3756,15 +3758,15 @@
         <v>221</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2018</v>
@@ -3776,15 +3778,24 @@
         <v>221</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>7.360697997</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>6.82834475297512</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>94.40429427</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2018</v>
@@ -3796,87 +3807,78 @@
         <v>221</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <v>8.58108995403808</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>586</v>
+        <v>221</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>586</v>
+        <v>221</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="0" t="n">
-        <v>5.35131205</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>6.19074177356386</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>54.4451539</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>586</v>
+        <v>221</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>586</v>
+        <v>221</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>586</v>
+        <v>221</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>586</v>
+        <v>221</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>8.58108995403808</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2018</v>
@@ -3888,18 +3890,24 @@
         <v>586</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>5.35131205</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>9.13349633251834</v>
+        <v>6.19074177356386</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>54.4451539</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2018</v>
@@ -3911,275 +3919,269 @@
         <v>586</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>145</v>
+        <v>586</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>145</v>
+        <v>586</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="G76" s="0" t="n">
-        <v>16.09712027</v>
-      </c>
-      <c r="H76" s="0" t="n">
-        <v>6.04868549172347</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>20.25935053</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>145</v>
+        <v>586</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>145</v>
+        <v>586</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>8.32882462686567</v>
-      </c>
-      <c r="L77" s="0" t="n">
-        <v>181</v>
-      </c>
-      <c r="M77" s="0" t="n">
-        <v>7.36</v>
+        <v>9.13349633251834</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>145</v>
+        <v>586</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>145</v>
+        <v>586</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H78" s="0" t="n">
-        <v>12.3678756476684</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>288</v>
+        <v>145</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>288</v>
+        <v>145</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>9.216589862</v>
+        <v>16.09712027</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>7.42969396195203</v>
+        <v>6.04868549172347</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>113.4440422</v>
+        <v>20.25935053</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="0" t="n">
-        <v>13.12777285</v>
+        <v>17</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>9.40529531568228</v>
-      </c>
-      <c r="I80" s="0" t="n">
-        <v>29.19970064</v>
+        <v>8.32882462686567</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>7.36</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>8.89652777777778</v>
-      </c>
-      <c r="L81" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="M81" s="0" t="n">
-        <v>12.96</v>
+        <v>12.3678756476684</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>93</v>
+        <v>288</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>93</v>
+        <v>288</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>9.216589862</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>10.8880952380952</v>
+        <v>7.42969396195203</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>113.4440422</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>54.63414634</v>
+        <v>13.12777285</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>12.2922794117647</v>
+        <v>9.40529531568228</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>44.60837344</v>
+        <v>29.19970064</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>8.89652777777778</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>12.96</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>10.8880952380952</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2018</v>
@@ -4191,15 +4193,24 @@
         <v>143</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>54.63414634</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>12.2922794117647</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>44.60837344</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2018</v>
@@ -4211,18 +4222,15 @@
         <v>143</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>8.09428794992175</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2018</v>
@@ -4234,81 +4242,78 @@
         <v>143</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>843</v>
+        <v>143</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>843</v>
+        <v>143</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="0" t="n">
-        <v>4.51894411621226</v>
-      </c>
-      <c r="I89" s="0" t="n">
-        <v>28.51596639</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>843</v>
+        <v>143</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>843</v>
+        <v>143</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>8.09428794992175</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>843</v>
+        <v>143</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>843</v>
+        <v>143</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2018</v>
@@ -4320,15 +4325,21 @@
         <v>843</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>4.51894411621226</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>28.51596639</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2018</v>
@@ -4340,9 +4351,69 @@
         <v>843</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>843</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>843</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>843</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>843</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>843</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>843</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="0" t="n">
         <v>8.58502772643253</v>
       </c>
     </row>
@@ -4368,25 +4439,25 @@
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50</v>
@@ -4401,7 +4472,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>93</v>
@@ -4416,7 +4487,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>120</v>
@@ -4431,7 +4502,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>122</v>
@@ -4446,7 +4517,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>143</v>
@@ -4461,7 +4532,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>145</v>
@@ -4476,7 +4547,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>190</v>
@@ -4491,7 +4562,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>201</v>
@@ -4506,7 +4577,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>221</v>
@@ -4521,7 +4592,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>288</v>
@@ -4536,7 +4607,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>586</v>
@@ -4551,7 +4622,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>843</v>
@@ -4569,13 +4640,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -538,7 +538,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart149.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -739,11 +739,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="36488341"/>
-        <c:axId val="868967"/>
+        <c:axId val="8848436"/>
+        <c:axId val="71870407"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36488341"/>
+        <c:axId val="8848436"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,12 +799,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="868967"/>
+        <c:crossAx val="71870407"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="868967"/>
+        <c:axId val="71870407"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -869,7 +869,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36488341"/>
+        <c:crossAx val="8848436"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -917,7 +917,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart150.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1088,11 +1088,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="88112210"/>
-        <c:axId val="36782191"/>
+        <c:axId val="15634645"/>
+        <c:axId val="10116966"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88112210"/>
+        <c:axId val="15634645"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,12 +1148,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36782191"/>
+        <c:crossAx val="10116966"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36782191"/>
+        <c:axId val="10116966"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1218,7 +1218,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88112210"/>
+        <c:crossAx val="15634645"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1266,7 +1266,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart151.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1467,11 +1467,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="31688535"/>
-        <c:axId val="10576364"/>
+        <c:axId val="67196722"/>
+        <c:axId val="20575046"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31688535"/>
+        <c:axId val="67196722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,12 +1527,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10576364"/>
+        <c:crossAx val="20575046"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10576364"/>
+        <c:axId val="20575046"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1597,7 +1597,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31688535"/>
+        <c:crossAx val="67196722"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1645,7 +1645,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart152.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1816,11 +1816,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="7497611"/>
-        <c:axId val="18671237"/>
+        <c:axId val="70524357"/>
+        <c:axId val="58822130"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7497611"/>
+        <c:axId val="70524357"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,12 +1876,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18671237"/>
+        <c:crossAx val="58822130"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="18671237"/>
+        <c:axId val="58822130"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1946,7 +1946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7497611"/>
+        <c:crossAx val="70524357"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2005,9 +2005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>718200</xdr:colOff>
+      <xdr:colOff>717840</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2015,8 +2015,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5088240" y="86040"/>
-        <a:ext cx="5459760" cy="4549680"/>
+        <a:off x="5095800" y="86040"/>
+        <a:ext cx="5466960" cy="4549320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2035,9 +2035,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>224640</xdr:colOff>
+      <xdr:colOff>224280</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2045,8 +2045,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5081400" y="4924800"/>
-        <a:ext cx="4973040" cy="4721760"/>
+        <a:off x="5088960" y="4924800"/>
+        <a:ext cx="4980240" cy="4721400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2065,9 +2065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>604440</xdr:colOff>
+      <xdr:colOff>604080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2075,8 +2075,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10708560" y="0"/>
-        <a:ext cx="5459400" cy="4549680"/>
+        <a:off x="10725120" y="0"/>
+        <a:ext cx="5466600" cy="4549320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2095,9 +2095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>97920</xdr:colOff>
+      <xdr:colOff>97560</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2105,8 +2105,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10688760" y="4972680"/>
-        <a:ext cx="4972680" cy="4721760"/>
+        <a:off x="10705320" y="4972680"/>
+        <a:ext cx="4979880" cy="4721400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2126,11 +2126,11 @@
   </sheetPr>
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N45" activeCellId="0" sqref="N45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
@@ -2242,7 +2242,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.22</v>
+        <v>4.07</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>21.1</v>
@@ -4439,7 +4439,7 @@
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="116">
   <si>
     <t xml:space="preserve">sample id</t>
   </si>
@@ -62,6 +62,9 @@
     <t xml:space="preserve">Adjusted N prod (nM N/day)</t>
   </si>
   <si>
+    <t xml:space="preserve">Ctl bottle N2 production (nM/day)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Babbin N production rates  (nM N/day)</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
   </si>
   <si>
     <t xml:space="preserve">1-37_50m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babbin</t>
   </si>
   <si>
     <t xml:space="preserve">1-37_120m_+P/top</t>
@@ -538,7 +544,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart149.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -739,11 +745,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="8848436"/>
-        <c:axId val="71870407"/>
+        <c:axId val="43842820"/>
+        <c:axId val="5662907"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8848436"/>
+        <c:axId val="43842820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,12 +805,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71870407"/>
+        <c:crossAx val="5662907"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71870407"/>
+        <c:axId val="5662907"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -869,7 +875,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8848436"/>
+        <c:crossAx val="43842820"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -917,7 +923,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart150.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1088,11 +1094,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="15634645"/>
-        <c:axId val="10116966"/>
+        <c:axId val="37271454"/>
+        <c:axId val="21769727"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15634645"/>
+        <c:axId val="37271454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,12 +1154,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10116966"/>
+        <c:crossAx val="21769727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10116966"/>
+        <c:axId val="21769727"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1218,7 +1224,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15634645"/>
+        <c:crossAx val="37271454"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1266,7 +1272,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart151.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1467,11 +1473,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67196722"/>
-        <c:axId val="20575046"/>
+        <c:axId val="8262804"/>
+        <c:axId val="74162629"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67196722"/>
+        <c:axId val="8262804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,12 +1533,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20575046"/>
+        <c:crossAx val="74162629"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20575046"/>
+        <c:axId val="74162629"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1597,7 +1603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67196722"/>
+        <c:crossAx val="8262804"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1645,7 +1651,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart152.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1816,11 +1822,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="70524357"/>
-        <c:axId val="58822130"/>
+        <c:axId val="10922740"/>
+        <c:axId val="60923263"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70524357"/>
+        <c:axId val="10922740"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,12 +1882,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58822130"/>
+        <c:crossAx val="60923263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58822130"/>
+        <c:axId val="60923263"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1946,7 +1952,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70524357"/>
+        <c:crossAx val="10922740"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2005,9 +2011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>717840</xdr:colOff>
+      <xdr:colOff>717120</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2015,8 +2021,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5095800" y="86040"/>
-        <a:ext cx="5466960" cy="4549320"/>
+        <a:off x="5107320" y="86040"/>
+        <a:ext cx="5477400" cy="4548600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2035,9 +2041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>224280</xdr:colOff>
+      <xdr:colOff>223560</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2045,8 +2051,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5088960" y="4924800"/>
-        <a:ext cx="4980240" cy="4721400"/>
+        <a:off x="5100480" y="4924800"/>
+        <a:ext cx="4990680" cy="4720680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2065,9 +2071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>604080</xdr:colOff>
+      <xdr:colOff>603360</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2075,8 +2081,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10725120" y="0"/>
-        <a:ext cx="5466600" cy="4549320"/>
+        <a:off x="10749960" y="0"/>
+        <a:ext cx="5477400" cy="4548600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2095,9 +2101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>97560</xdr:colOff>
+      <xdr:colOff>96840</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2105,8 +2111,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10705320" y="4972680"/>
-        <a:ext cx="4979880" cy="4721400"/>
+        <a:off x="10730160" y="4972680"/>
+        <a:ext cx="4990680" cy="4720680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2124,13 +2130,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N60" activeCellId="0" sqref="N60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
@@ -2184,13 +2190,16 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2018</v>
@@ -2202,20 +2211,21 @@
         <v>100</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1"/>
+      <c r="O2" s="0" t="n">
         <v>9.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2018</v>
@@ -2227,7 +2237,7 @@
         <v>151</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>59.93179319</v>
@@ -2245,15 +2255,18 @@
         <v>4.07</v>
       </c>
       <c r="N3" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O3" s="0" t="n">
         <v>21.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2018</v>
@@ -2265,7 +2278,7 @@
         <v>151</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>58.1495726495727</v>
@@ -2273,10 +2286,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2018</v>
@@ -2288,7 +2301,7 @@
         <v>121</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>140.2346446</v>
@@ -2302,10 +2315,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2018</v>
@@ -2317,7 +2330,7 @@
         <v>121</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>76.4009433962264</v>
@@ -2325,10 +2338,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2018</v>
@@ -2340,15 +2353,15 @@
         <v>147</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2018</v>
@@ -2360,7 +2373,7 @@
         <v>147</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>135.5691057</v>
@@ -2371,10 +2384,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2018</v>
@@ -2386,15 +2399,15 @@
         <v>147</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
@@ -2406,7 +2419,7 @@
         <v>147</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>20.0629370629371</v>
@@ -2414,10 +2427,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2018</v>
@@ -2429,7 +2442,7 @@
         <v>147</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>9.29615547106041</v>
@@ -2437,10 +2450,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2018</v>
@@ -2452,15 +2465,15 @@
         <v>147</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2018</v>
@@ -2472,15 +2485,15 @@
         <v>147</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2018</v>
@@ -2492,15 +2505,15 @@
         <v>147</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2018</v>
@@ -2512,7 +2525,7 @@
         <v>368</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>5.577733349</v>
@@ -2526,10 +2539,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2018</v>
@@ -2541,7 +2554,7 @@
         <v>368</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>7.78433862433862</v>
@@ -2552,13 +2565,16 @@
       <c r="M16" s="0" t="n">
         <v>12.09</v>
       </c>
+      <c r="N16" s="0" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2018</v>
@@ -2570,7 +2586,7 @@
         <v>368</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>31.2538461538462</v>
@@ -2578,10 +2594,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2018</v>
@@ -2593,15 +2609,15 @@
         <v>368</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2018</v>
@@ -2613,15 +2629,15 @@
         <v>368</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2018</v>
@@ -2633,7 +2649,7 @@
         <v>368</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>7.1683748169839</v>
@@ -2641,10 +2657,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2018</v>
@@ -2656,7 +2672,7 @@
         <v>586</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>8.164440297</v>
@@ -2670,10 +2686,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2018</v>
@@ -2685,7 +2701,7 @@
         <v>586</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>7.24497117232543</v>
@@ -2693,10 +2709,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2018</v>
@@ -2708,15 +2724,15 @@
         <v>586</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2018</v>
@@ -2728,7 +2744,7 @@
         <v>586</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>10.5844394527262</v>
@@ -2736,10 +2752,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2018</v>
@@ -2751,7 +2767,7 @@
         <v>87</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>24.18012422</v>
@@ -2765,10 +2781,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2018</v>
@@ -2780,7 +2796,7 @@
         <v>87</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>4.95272525027809</v>
@@ -2791,13 +2807,16 @@
       <c r="M26" s="0" t="n">
         <v>7.32</v>
       </c>
+      <c r="N26" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2018</v>
@@ -2809,7 +2828,7 @@
         <v>87</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>10.8071895424837</v>
@@ -2817,10 +2836,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2018</v>
@@ -2832,7 +2851,7 @@
         <v>221</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>11.6933911159263</v>
@@ -2840,10 +2859,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2018</v>
@@ -2855,7 +2874,7 @@
         <v>221</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>2.63057324840764</v>
@@ -2866,13 +2885,16 @@
       <c r="M29" s="0" t="n">
         <v>18.46</v>
       </c>
+      <c r="N29" s="0" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2018</v>
@@ -2884,7 +2906,7 @@
         <v>221</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>5.58258642765685</v>
@@ -2892,10 +2914,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2018</v>
@@ -2907,7 +2929,7 @@
         <v>85</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>26.58868425</v>
@@ -2921,10 +2943,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2018</v>
@@ -2936,7 +2958,7 @@
         <v>85</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>5.66409124356144</v>
@@ -2947,13 +2969,16 @@
       <c r="M32" s="0" t="n">
         <v>21.09</v>
       </c>
+      <c r="N32" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2018</v>
@@ -2965,7 +2990,7 @@
         <v>85</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>13.2683760683761</v>
@@ -2973,10 +2998,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2018</v>
@@ -2988,15 +3013,15 @@
         <v>85</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2018</v>
@@ -3008,7 +3033,7 @@
         <v>85</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>8.43557336621455</v>
@@ -3016,10 +3041,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2018</v>
@@ -3031,15 +3056,15 @@
         <v>85</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2018</v>
@@ -3051,7 +3076,7 @@
         <v>147</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>6.97915798249271</v>
@@ -3059,10 +3084,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2018</v>
@@ -3074,15 +3099,15 @@
         <v>147</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2018</v>
@@ -3094,7 +3119,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>6.7035458711908</v>
@@ -3105,10 +3130,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2018</v>
@@ -3120,15 +3145,15 @@
         <v>50</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2018</v>
@@ -3140,15 +3165,15 @@
         <v>50</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2018</v>
@@ -3160,15 +3185,18 @@
         <v>50</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>7.96274373259053</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>59</v>
+      </c>
       <c r="B43" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2018</v>
@@ -3180,15 +3208,18 @@
         <v>60</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="N43" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="O43" s="0" t="n">
         <v>45.2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>59</v>
+      </c>
       <c r="B44" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2018</v>
@@ -3200,18 +3231,18 @@
         <v>100</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="N44" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="O44" s="0" t="n">
         <v>42.8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2018</v>
@@ -3223,7 +3254,7 @@
         <v>120</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>6.35134728285413</v>
@@ -3231,10 +3262,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2018</v>
@@ -3246,15 +3277,15 @@
         <v>120</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2018</v>
@@ -3266,15 +3297,15 @@
         <v>120</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2018</v>
@@ -3286,7 +3317,7 @@
         <v>120</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>7.10068803490519</v>
@@ -3294,10 +3325,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2018</v>
@@ -3309,15 +3340,15 @@
         <v>120</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2018</v>
@@ -3329,7 +3360,7 @@
         <v>122</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>32.66219522</v>
@@ -3343,10 +3374,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2018</v>
@@ -3358,7 +3389,7 @@
         <v>122</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>2.96830864622804</v>
@@ -3369,13 +3400,16 @@
       <c r="M51" s="0" t="n">
         <v>9.88</v>
       </c>
+      <c r="N51" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2018</v>
@@ -3387,7 +3421,7 @@
         <v>122</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>9.47640449438202</v>
@@ -3395,10 +3429,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2018</v>
@@ -3410,7 +3444,7 @@
         <v>120</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>144.5962733</v>
@@ -3421,10 +3455,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2018</v>
@@ -3436,7 +3470,7 @@
         <v>190</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>31.86596927</v>
@@ -3450,10 +3484,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2018</v>
@@ -3465,7 +3499,7 @@
         <v>190</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>4.91321499013807</v>
@@ -3476,13 +3510,16 @@
       <c r="M55" s="0" t="n">
         <v>6.97</v>
       </c>
+      <c r="N55" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2018</v>
@@ -3494,7 +3531,7 @@
         <v>190</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>2.77491749174917</v>
@@ -3502,10 +3539,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2018</v>
@@ -3517,7 +3554,7 @@
         <v>123</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>127.6422764</v>
@@ -3525,10 +3562,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2018</v>
@@ -3540,15 +3577,15 @@
         <v>123</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2018</v>
@@ -3560,15 +3597,15 @@
         <v>123</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2018</v>
@@ -3580,7 +3617,7 @@
         <v>123</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>8.21664180341455</v>
@@ -3588,10 +3625,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2018</v>
@@ -3603,7 +3640,7 @@
         <v>201</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>18.53988134</v>
@@ -3617,10 +3654,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2018</v>
@@ -3632,7 +3669,7 @@
         <v>201</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>13.01269035533</v>
@@ -3640,10 +3677,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2018</v>
@@ -3655,7 +3692,7 @@
         <v>201</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>8.47593418422267</v>
@@ -3663,10 +3700,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2018</v>
@@ -3678,15 +3715,15 @@
         <v>201</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2018</v>
@@ -3698,15 +3735,15 @@
         <v>201</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2018</v>
@@ -3718,15 +3755,15 @@
         <v>201</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2018</v>
@@ -3738,15 +3775,15 @@
         <v>201</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>2018</v>
@@ -3758,15 +3795,15 @@
         <v>221</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2018</v>
@@ -3778,7 +3815,7 @@
         <v>221</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>7.360697997</v>
@@ -3792,10 +3829,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2018</v>
@@ -3807,15 +3844,15 @@
         <v>221</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>2018</v>
@@ -3827,15 +3864,15 @@
         <v>221</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2018</v>
@@ -3847,15 +3884,15 @@
         <v>221</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2018</v>
@@ -3867,7 +3904,7 @@
         <v>221</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>8.58108995403808</v>
@@ -3875,10 +3912,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2018</v>
@@ -3890,7 +3927,7 @@
         <v>586</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>5.35131205</v>
@@ -3904,10 +3941,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2018</v>
@@ -3919,15 +3956,15 @@
         <v>586</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2018</v>
@@ -3939,15 +3976,15 @@
         <v>586</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2018</v>
@@ -3959,7 +3996,7 @@
         <v>586</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>9.13349633251834</v>
@@ -3967,10 +4004,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2018</v>
@@ -3982,15 +4019,15 @@
         <v>586</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2018</v>
@@ -4002,7 +4039,7 @@
         <v>145</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>16.09712027</v>
@@ -4016,10 +4053,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2018</v>
@@ -4031,7 +4068,7 @@
         <v>145</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>8.32882462686567</v>
@@ -4042,13 +4079,16 @@
       <c r="M80" s="0" t="n">
         <v>7.36</v>
       </c>
+      <c r="N80" s="0" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2018</v>
@@ -4060,7 +4100,7 @@
         <v>145</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>12.3678756476684</v>
@@ -4068,10 +4108,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2018</v>
@@ -4083,7 +4123,7 @@
         <v>288</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>9.216589862</v>
@@ -4097,10 +4137,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2018</v>
@@ -4112,7 +4152,7 @@
         <v>93</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>13.12777285</v>
@@ -4126,10 +4166,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2018</v>
@@ -4141,7 +4181,7 @@
         <v>93</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>8.89652777777778</v>
@@ -4152,13 +4192,16 @@
       <c r="M84" s="0" t="n">
         <v>12.96</v>
       </c>
+      <c r="N84" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>2018</v>
@@ -4170,7 +4213,7 @@
         <v>93</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>10.8880952380952</v>
@@ -4178,10 +4221,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2018</v>
@@ -4193,7 +4236,7 @@
         <v>143</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>54.63414634</v>
@@ -4207,10 +4250,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2018</v>
@@ -4222,15 +4265,15 @@
         <v>143</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2018</v>
@@ -4242,15 +4285,15 @@
         <v>143</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2018</v>
@@ -4262,15 +4305,15 @@
         <v>143</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2018</v>
@@ -4282,7 +4325,7 @@
         <v>143</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>8.09428794992175</v>
@@ -4290,10 +4333,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2018</v>
@@ -4305,15 +4348,15 @@
         <v>143</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2018</v>
@@ -4325,7 +4368,7 @@
         <v>843</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>4.51894411621226</v>
@@ -4336,10 +4379,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2018</v>
@@ -4351,15 +4394,15 @@
         <v>843</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2018</v>
@@ -4371,15 +4414,15 @@
         <v>843</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>2018</v>
@@ -4391,15 +4434,15 @@
         <v>843</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2018</v>
@@ -4411,7 +4454,7 @@
         <v>843</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>8.58502772643253</v>
@@ -4439,25 +4482,25 @@
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50</v>
@@ -4472,7 +4515,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>93</v>
@@ -4487,7 +4530,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>120</v>
@@ -4502,7 +4545,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>122</v>
@@ -4517,7 +4560,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>143</v>
@@ -4532,7 +4575,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>145</v>
@@ -4547,7 +4590,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>190</v>
@@ -4562,7 +4605,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>201</v>
@@ -4577,7 +4620,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>221</v>
@@ -4592,7 +4635,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>288</v>
@@ -4607,7 +4650,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>586</v>
@@ -4622,7 +4665,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>843</v>
@@ -4640,18 +4683,18 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>85</v>
@@ -4666,7 +4709,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>87</v>
@@ -4681,7 +4724,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>121</v>
@@ -4696,7 +4739,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>147</v>
@@ -4711,7 +4754,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>151</v>
@@ -4726,7 +4769,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>368</v>
@@ -4741,7 +4784,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>586</v>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -544,7 +544,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart140.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -745,11 +745,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="43842820"/>
-        <c:axId val="5662907"/>
+        <c:axId val="27447601"/>
+        <c:axId val="65623402"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43842820"/>
+        <c:axId val="27447601"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,12 +805,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5662907"/>
+        <c:crossAx val="65623402"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5662907"/>
+        <c:axId val="65623402"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -875,7 +875,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43842820"/>
+        <c:crossAx val="27447601"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -923,7 +923,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart141.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1094,11 +1094,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="37271454"/>
-        <c:axId val="21769727"/>
+        <c:axId val="41869196"/>
+        <c:axId val="29199994"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37271454"/>
+        <c:axId val="41869196"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,12 +1154,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21769727"/>
+        <c:crossAx val="29199994"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21769727"/>
+        <c:axId val="29199994"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1224,7 +1224,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37271454"/>
+        <c:crossAx val="41869196"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1272,7 +1272,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart142.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1473,11 +1473,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="8262804"/>
-        <c:axId val="74162629"/>
+        <c:axId val="1200342"/>
+        <c:axId val="32779726"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8262804"/>
+        <c:axId val="1200342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,12 +1533,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74162629"/>
+        <c:crossAx val="32779726"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74162629"/>
+        <c:axId val="32779726"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1603,7 +1603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8262804"/>
+        <c:crossAx val="1200342"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1651,7 +1651,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart143.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1822,11 +1822,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="10922740"/>
-        <c:axId val="60923263"/>
+        <c:axId val="43754104"/>
+        <c:axId val="52110172"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="10922740"/>
+        <c:axId val="43754104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,12 +1882,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60923263"/>
+        <c:crossAx val="52110172"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60923263"/>
+        <c:axId val="52110172"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1952,7 +1952,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10922740"/>
+        <c:crossAx val="43754104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2011,9 +2011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>717120</xdr:colOff>
+      <xdr:colOff>716760</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2021,8 +2021,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5107320" y="86040"/>
-        <a:ext cx="5477400" cy="4548600"/>
+        <a:off x="5114880" y="86040"/>
+        <a:ext cx="5484960" cy="4548240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2041,9 +2041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>223560</xdr:colOff>
+      <xdr:colOff>223200</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2051,8 +2051,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5100480" y="4924800"/>
-        <a:ext cx="4990680" cy="4720680"/>
+        <a:off x="5108040" y="4924800"/>
+        <a:ext cx="4998240" cy="4720320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2071,9 +2071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>603360</xdr:colOff>
+      <xdr:colOff>603000</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2081,8 +2081,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10749960" y="0"/>
-        <a:ext cx="5477400" cy="4548600"/>
+        <a:off x="10766160" y="0"/>
+        <a:ext cx="5484960" cy="4548240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2101,9 +2101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>96840</xdr:colOff>
+      <xdr:colOff>96480</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2111,8 +2111,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10730160" y="4972680"/>
-        <a:ext cx="4990680" cy="4720680"/>
+        <a:off x="10746360" y="4972680"/>
+        <a:ext cx="4998240" cy="4720320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2132,11 +2132,11 @@
   </sheetPr>
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N60" activeCellId="0" sqref="N60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M80" activeCellId="0" sqref="M80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
@@ -4482,7 +4482,7 @@
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -544,7 +544,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart140.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -745,11 +745,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="27447601"/>
-        <c:axId val="65623402"/>
+        <c:axId val="12221273"/>
+        <c:axId val="35166984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27447601"/>
+        <c:axId val="12221273"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,12 +805,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65623402"/>
+        <c:crossAx val="35166984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65623402"/>
+        <c:axId val="35166984"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -875,7 +875,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27447601"/>
+        <c:crossAx val="12221273"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -923,7 +923,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart141.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1094,11 +1094,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="41869196"/>
-        <c:axId val="29199994"/>
+        <c:axId val="22980108"/>
+        <c:axId val="36867245"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41869196"/>
+        <c:axId val="22980108"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,12 +1154,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29199994"/>
+        <c:crossAx val="36867245"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="29199994"/>
+        <c:axId val="36867245"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1224,7 +1224,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41869196"/>
+        <c:crossAx val="22980108"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1272,7 +1272,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart142.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1473,11 +1473,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1200342"/>
-        <c:axId val="32779726"/>
+        <c:axId val="85053520"/>
+        <c:axId val="2510107"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1200342"/>
+        <c:axId val="85053520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,12 +1533,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32779726"/>
+        <c:crossAx val="2510107"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32779726"/>
+        <c:axId val="2510107"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1603,7 +1603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1200342"/>
+        <c:crossAx val="85053520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1651,7 +1651,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart143.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1822,11 +1822,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="43754104"/>
-        <c:axId val="52110172"/>
+        <c:axId val="30073782"/>
+        <c:axId val="50921259"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43754104"/>
+        <c:axId val="30073782"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,12 +1882,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52110172"/>
+        <c:crossAx val="50921259"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52110172"/>
+        <c:axId val="50921259"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1952,7 +1952,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43754104"/>
+        <c:crossAx val="30073782"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2011,9 +2011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>716760</xdr:colOff>
+      <xdr:colOff>716400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2021,8 +2021,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5114880" y="86040"/>
-        <a:ext cx="5484960" cy="4548240"/>
+        <a:off x="5122440" y="86040"/>
+        <a:ext cx="5492160" cy="4547880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2041,9 +2041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>223200</xdr:colOff>
+      <xdr:colOff>222840</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2051,8 +2051,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5108040" y="4924800"/>
-        <a:ext cx="4998240" cy="4720320"/>
+        <a:off x="5115600" y="4924800"/>
+        <a:ext cx="5005440" cy="4719960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2071,9 +2071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>603000</xdr:colOff>
+      <xdr:colOff>602640</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2081,8 +2081,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10766160" y="0"/>
-        <a:ext cx="5484960" cy="4548240"/>
+        <a:off x="10782720" y="0"/>
+        <a:ext cx="5492160" cy="4547880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2101,9 +2101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>96480</xdr:colOff>
+      <xdr:colOff>96120</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2111,8 +2111,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10746360" y="4972680"/>
-        <a:ext cx="4998240" cy="4720320"/>
+        <a:off x="10762920" y="4972680"/>
+        <a:ext cx="5005440" cy="4719960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2133,10 +2133,10 @@
   <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M80" activeCellId="0" sqref="M80"/>
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
@@ -4482,7 +4482,7 @@
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -544,7 +544,1084 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>2018 P2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'martin power law'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz C flux organic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'martin power law'!$C$17:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>115.1818194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.81517583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.1919526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.088336976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.4817664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.77803059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.69913676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'martin power law'!$B$17:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="52459790"/>
+        <c:axId val="40304668"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52459790"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Org C flux (umol/m2/day0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40304668"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="40304668"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52459790"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>2018 P1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'martin power law'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz C flux organic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'martin power law'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15.6987637849462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.19970064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.677033083871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.3049836352688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.8984644249462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.5264149763441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.6553023827957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.1090304154839</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.3885359294624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.4248794012903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>183.98951155957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264.681157414194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'martin power law'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>244.4055742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.19970064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.19008443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.90482028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.60837344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.25935053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.84261045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>206.4532045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.40429427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.4440422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.4451539</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.51596639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="61824635"/>
+        <c:axId val="13012146"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="61824635"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Org C flux (umol C/m2/day)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13012146"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="13012146"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61824635"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>2018 P2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'martin power law'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz C flux organic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'martin power law'!$D$17:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>53.5550568454023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.81517583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.2371985681609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.6187453679311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.1389833371264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231.861893165977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>369.214862487126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'martin power law'!$C$17:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>115.1818194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.81517583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.1919526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.088336976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.4817664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.77803059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.69913676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="68735430"/>
+        <c:axId val="43739347"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="68735430"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Org C flux (umol/m2/day0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43739347"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43739347"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68735430"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -745,11 +1822,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="12221273"/>
-        <c:axId val="35166984"/>
+        <c:axId val="10920619"/>
+        <c:axId val="39785361"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12221273"/>
+        <c:axId val="10920619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,12 +1882,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35166984"/>
+        <c:crossAx val="39785361"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35166984"/>
+        <c:axId val="39785361"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -875,1085 +1952,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12221273"/>
+        <c:crossAx val="10920619"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>2018 P2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'martin power law'!$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fz C flux organic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'martin power law'!$C$17:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>115.1818194</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54.81517583</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>142.1919526</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.088336976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>114.4817664</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.77803059</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49.69913676</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'martin power law'!$B$17:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>586</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="22980108"/>
-        <c:axId val="36867245"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="22980108"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Org C flux (umol/m2/day0</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36867245"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="36867245"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="22980108"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>2018 P1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'martin power law'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fz C flux organic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'martin power law'!$D$2:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>15.6987637849462</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.19970064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.677033083871</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38.3049836352688</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.8984644249462</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45.5264149763441</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59.6553023827957</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.1090304154839</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>69.3885359294624</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90.4248794012903</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>183.98951155957</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>264.681157414194</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'martin power law'!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>244.4055742</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.19970064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.19008443</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.90482028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.60837344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.25935053</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.84261045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>206.4532045</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>94.40429427</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>113.4440422</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54.4451539</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.51596639</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="85053520"/>
-        <c:axId val="2510107"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="85053520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Org C flux (umol C/m2/day)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2510107"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2510107"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="85053520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>2018 P2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'martin power law'!$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fz C flux organic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'martin power law'!$D$17:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>53.5550568454023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54.81517583</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>76.2371985681609</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>92.6187453679311</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95.1389833371264</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>231.861893165977</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>369.214862487126</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'martin power law'!$C$17:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>115.1818194</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54.81517583</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>142.1919526</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.088336976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>114.4817664</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.77803059</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49.69913676</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="30073782"/>
-        <c:axId val="50921259"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="30073782"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Org C flux (umol/m2/day0</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50921259"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50921259"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="30073782"/>
-        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2011,9 +2011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>716400</xdr:colOff>
+      <xdr:colOff>716040</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2021,8 +2021,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5122440" y="86040"/>
-        <a:ext cx="5492160" cy="4547880"/>
+        <a:off x="5130000" y="86040"/>
+        <a:ext cx="5499360" cy="4547520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2041,9 +2041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>222840</xdr:colOff>
+      <xdr:colOff>222480</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2051,8 +2051,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5115600" y="4924800"/>
-        <a:ext cx="5005440" cy="4719960"/>
+        <a:off x="5123160" y="4924800"/>
+        <a:ext cx="5012640" cy="4719600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2071,9 +2071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>602640</xdr:colOff>
+      <xdr:colOff>602280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2081,8 +2081,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10782720" y="0"/>
-        <a:ext cx="5492160" cy="4547880"/>
+        <a:off x="10799280" y="0"/>
+        <a:ext cx="5499360" cy="4547520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2101,9 +2101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>96120</xdr:colOff>
+      <xdr:colOff>95760</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2111,8 +2111,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10762920" y="4972680"/>
-        <a:ext cx="5005440" cy="4719960"/>
+        <a:off x="10779480" y="4972680"/>
+        <a:ext cx="5012640" cy="4719600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2132,11 +2132,11 @@
   </sheetPr>
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
@@ -2855,6 +2855,9 @@
       </c>
       <c r="H28" s="0" t="n">
         <v>11.6933911159263</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>55.89644311</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4482,7 +4485,7 @@
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -544,7 +544,386 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>2018 P1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'martin power law'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz C flux organic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'martin power law'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>244.4055742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.19970064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.19008443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.90482028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.60837344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.25935053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.84261045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>206.4532045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.40429427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.4440422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.4451539</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.51596639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'martin power law'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="88620627"/>
+        <c:axId val="57037738"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88620627"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Org C flux (umol C/m2/day)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57037738"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="57037738"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88620627"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -715,11 +1094,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="52459790"/>
-        <c:axId val="40304668"/>
+        <c:axId val="21245078"/>
+        <c:axId val="74191768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52459790"/>
+        <c:axId val="21245078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,12 +1154,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40304668"/>
+        <c:crossAx val="74191768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40304668"/>
+        <c:axId val="74191768"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -845,7 +1224,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52459790"/>
+        <c:crossAx val="21245078"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -893,7 +1272,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1094,11 +1473,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="61824635"/>
-        <c:axId val="13012146"/>
+        <c:axId val="53280557"/>
+        <c:axId val="52412150"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61824635"/>
+        <c:axId val="53280557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,12 +1533,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13012146"/>
+        <c:crossAx val="52412150"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13012146"/>
+        <c:axId val="52412150"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1224,7 +1603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61824635"/>
+        <c:crossAx val="53280557"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1272,7 +1651,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1443,11 +1822,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="68735430"/>
-        <c:axId val="43739347"/>
+        <c:axId val="23347013"/>
+        <c:axId val="30247770"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68735430"/>
+        <c:axId val="23347013"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,12 +1882,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43739347"/>
+        <c:crossAx val="30247770"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43739347"/>
+        <c:axId val="30247770"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1573,387 +1952,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68735430"/>
+        <c:crossAx val="23347013"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>2018 P1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'martin power law'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fz C flux organic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'martin power law'!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>244.4055742</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.19970064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.19008443</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.90482028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.60837344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.25935053</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.84261045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>206.4532045</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>94.40429427</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>113.4440422</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54.4451539</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.51596639</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'martin power law'!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>843</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="10920619"/>
-        <c:axId val="39785361"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="10920619"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Org C flux (umol C/m2/day)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="39785361"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="39785361"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="10920619"/>
-        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2011,9 +2011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2021,8 +2021,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5130000" y="86040"/>
-        <a:ext cx="5499360" cy="4547520"/>
+        <a:off x="5137920" y="86040"/>
+        <a:ext cx="5506560" cy="4547160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2041,9 +2041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>222480</xdr:colOff>
+      <xdr:colOff>222120</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2051,8 +2051,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5123160" y="4924800"/>
-        <a:ext cx="5012640" cy="4719600"/>
+        <a:off x="5131080" y="4924800"/>
+        <a:ext cx="5019840" cy="4719240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2071,9 +2071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>602280</xdr:colOff>
+      <xdr:colOff>601920</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2081,8 +2081,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10799280" y="0"/>
-        <a:ext cx="5499360" cy="4547520"/>
+        <a:off x="10815840" y="0"/>
+        <a:ext cx="5506560" cy="4547160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2101,9 +2101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>95760</xdr:colOff>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2111,8 +2111,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10779480" y="4972680"/>
-        <a:ext cx="5012640" cy="4719600"/>
+        <a:off x="10796040" y="4972680"/>
+        <a:ext cx="5019840" cy="4719240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2132,11 +2132,11 @@
   </sheetPr>
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H99" activeCellId="0" sqref="H99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
@@ -4485,7 +4485,7 @@
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -1251,7 +1251,1084 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>2018 P2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'martin power law'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz C flux organic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'martin power law'!$C$17:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>115.1818194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.81517583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.1919526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.088336976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.4817664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.77803059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.69913676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'martin power law'!$B$17:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="44750915"/>
+        <c:axId val="14021547"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="44750915"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Org C flux (umol/m2/day0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14021547"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="14021547"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44750915"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>2018 P1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'martin power law'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz C flux organic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'martin power law'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15.6987637849462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.19970064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.677033083871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.3049836352688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.8984644249462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.5264149763441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.6553023827957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.1090304154839</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.3885359294624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.4248794012903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>183.98951155957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264.681157414194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'martin power law'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>244.4055742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.19970064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.19008443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.90482028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.60837344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.25935053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.84261045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>206.4532045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.40429427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.4440422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.4451539</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.51596639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="1699133"/>
+        <c:axId val="6883477"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1699133"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Org C flux (umol C/m2/day)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6883477"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="6883477"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1699133"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>2018 P2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'martin power law'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz C flux organic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'martin power law'!$D$17:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>53.5550568454023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.81517583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.2371985681609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.6187453679311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.1389833371264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231.861893165977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>369.214862487126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'martin power law'!$C$17:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>115.1818194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.81517583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.1919526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.088336976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.4817664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.77803059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.69913676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="1720729"/>
+        <c:axId val="32534370"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1720729"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Org C flux (umol/m2/day0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32534370"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="32534370"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720729"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1452,11 +2529,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="64439864"/>
-        <c:axId val="29484826"/>
+        <c:axId val="3519189"/>
+        <c:axId val="40360850"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64439864"/>
+        <c:axId val="3519189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,12 +2589,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29484826"/>
+        <c:crossAx val="40360850"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="29484826"/>
+        <c:axId val="40360850"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1582,1085 +2659,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64439864"/>
+        <c:crossAx val="3519189"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>2018 P2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'martin power law'!$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fz C flux organic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'martin power law'!$C$17:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>115.1818194</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54.81517583</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>142.1919526</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.088336976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>114.4817664</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.77803059</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49.69913676</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'martin power law'!$B$17:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>586</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="13887672"/>
-        <c:axId val="95168473"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="13887672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Org C flux (umol/m2/day0</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="95168473"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="95168473"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="13887672"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>2018 P1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'martin power law'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fz C flux organic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'martin power law'!$D$2:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>15.6987637849462</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.19970064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.677033083871</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38.3049836352688</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.8984644249462</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45.5264149763441</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59.6553023827957</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.1090304154839</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>69.3885359294624</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90.4248794012903</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>183.98951155957</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>264.681157414194</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'martin power law'!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>244.4055742</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.19970064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.19008443</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.90482028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.60837344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.25935053</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.84261045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>206.4532045</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>94.40429427</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>113.4440422</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54.4451539</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.51596639</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="40488500"/>
-        <c:axId val="42386068"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="40488500"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Org C flux (umol C/m2/day)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="42386068"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="42386068"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="40488500"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>2018 P2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'martin power law'!$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fz C flux organic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'martin power law'!$D$17:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>53.5550568454023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54.81517583</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>76.2371985681609</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>92.6187453679311</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95.1389833371264</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>231.861893165977</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>369.214862487126</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'martin power law'!$C$17:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>115.1818194</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54.81517583</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>142.1919526</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.088336976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>114.4817664</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.77803059</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49.69913676</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="1931826"/>
-        <c:axId val="41028811"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1931826"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Org C flux (umol/m2/day0</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="41028811"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="41028811"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1931826"/>
-        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2839,8 +2839,8 @@
   </sheetPr>
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P92" activeCellId="0" sqref="P92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P93" activeCellId="0" sqref="P93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3462,6 +3462,9 @@
       <c r="H24" s="0" t="n">
         <v>10.5844394527262</v>
       </c>
+      <c r="P24" s="0" t="n">
+        <v>17.77</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -3889,6 +3892,9 @@
       <c r="F41" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="P41" s="0" t="n">
+        <v>10.35</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -5138,6 +5144,9 @@
       </c>
       <c r="F93" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="P93" s="0" t="n">
+        <v>15.82</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,8 +5568,8 @@
   </sheetPr>
   <dimension ref="A1:M215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K97" activeCellId="0" sqref="K97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K137" activeCellId="0" sqref="K137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="351">
   <si>
     <t xml:space="preserve">sample id</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">d13C vs VPDB (permil)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/C</t>
   </si>
   <si>
     <t xml:space="preserve">P2</t>
@@ -1251,7 +1254,386 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>2018 P1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'martin power law'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz C flux organic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'martin power law'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>244.4055742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.19970064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.19008443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.90482028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.60837344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.25935053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.84261045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>206.4532045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.40429427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.4440422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.4451539</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.51596639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'martin power law'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="34693719"/>
+        <c:axId val="62927243"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="34693719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Org C flux (umol C/m2/day)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62927243"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="62927243"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34693719"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1422,11 +1804,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="44750915"/>
-        <c:axId val="14021547"/>
+        <c:axId val="10676451"/>
+        <c:axId val="30260305"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44750915"/>
+        <c:axId val="10676451"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,12 +1864,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14021547"/>
+        <c:crossAx val="30260305"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14021547"/>
+        <c:axId val="30260305"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1552,7 +1934,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44750915"/>
+        <c:crossAx val="10676451"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1600,7 +1982,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1801,11 +2183,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1699133"/>
-        <c:axId val="6883477"/>
+        <c:axId val="67965262"/>
+        <c:axId val="80326762"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1699133"/>
+        <c:axId val="67965262"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,12 +2243,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6883477"/>
+        <c:crossAx val="80326762"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="6883477"/>
+        <c:axId val="80326762"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1931,7 +2313,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1699133"/>
+        <c:crossAx val="67965262"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1979,7 +2361,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2150,11 +2532,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1720729"/>
-        <c:axId val="32534370"/>
+        <c:axId val="33694530"/>
+        <c:axId val="98944682"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1720729"/>
+        <c:axId val="33694530"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,12 +2592,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32534370"/>
+        <c:crossAx val="98944682"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32534370"/>
+        <c:axId val="98944682"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2280,387 +2662,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720729"/>
+        <c:crossAx val="33694530"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>2018 P1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'martin power law'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fz C flux organic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'martin power law'!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>244.4055742</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.19970064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.19008443</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.90482028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.60837344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.25935053</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.84261045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>206.4532045</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>94.40429427</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>113.4440422</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54.4451539</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.51596639</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'martin power law'!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>843</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="3519189"/>
-        <c:axId val="40360850"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="3519189"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Org C flux (umol C/m2/day)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="40360850"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="40360850"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="3519189"/>
-        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2718,9 +2721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>715320</xdr:colOff>
+      <xdr:colOff>714960</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2728,8 +2731,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5145480" y="86040"/>
-        <a:ext cx="5513760" cy="4546800"/>
+        <a:off x="5153040" y="86040"/>
+        <a:ext cx="5520960" cy="4546440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2748,9 +2751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>221760</xdr:colOff>
+      <xdr:colOff>221400</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2758,8 +2761,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5138640" y="4924800"/>
-        <a:ext cx="5027040" cy="4718880"/>
+        <a:off x="5146200" y="4924800"/>
+        <a:ext cx="5034240" cy="4718520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2778,9 +2781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>601560</xdr:colOff>
+      <xdr:colOff>601200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2788,8 +2791,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10832400" y="0"/>
-        <a:ext cx="5513760" cy="4546800"/>
+        <a:off x="10848960" y="0"/>
+        <a:ext cx="5520960" cy="4546440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2808,9 +2811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2818,8 +2821,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10812600" y="4972680"/>
-        <a:ext cx="5027040" cy="4718880"/>
+        <a:off x="10829160" y="4972680"/>
+        <a:ext cx="5034240" cy="4718520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2837,13 +2840,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P93" activeCellId="0" sqref="P93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
@@ -2909,10 +2912,13 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2018</v>
@@ -2924,7 +2930,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -2935,10 +2941,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2018</v>
@@ -2950,7 +2956,7 @@
         <v>151</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>59.93179319</v>
@@ -2973,13 +2979,17 @@
       <c r="O3" s="0" t="n">
         <v>21.1</v>
       </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">1/H3</f>
+        <v>0.0812166139757982</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2018</v>
@@ -2991,18 +3001,22 @@
         <v>151</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>58.1495726495727</v>
       </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">1/H4</f>
+        <v>0.0171970309399574</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2018</v>
@@ -3014,7 +3028,7 @@
         <v>121</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>140.2346446</v>
@@ -3025,13 +3039,17 @@
       <c r="I5" s="0" t="n">
         <v>142.1919526</v>
       </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">1/H5</f>
+        <v>0.0387874223310112</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2018</v>
@@ -3043,18 +3061,22 @@
         <v>121</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>76.4009433962264</v>
       </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">1/H6</f>
+        <v>0.0130888436130148</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2018</v>
@@ -3066,15 +3088,15 @@
         <v>147</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2018</v>
@@ -3086,7 +3108,7 @@
         <v>147</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>135.5691057</v>
@@ -3097,10 +3119,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2018</v>
@@ -3112,15 +3134,15 @@
         <v>147</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
@@ -3132,18 +3154,22 @@
         <v>147</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>20.0629370629371</v>
       </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">1/H10</f>
+        <v>0.0498431509236667</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2018</v>
@@ -3155,18 +3181,22 @@
         <v>147</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>9.29615547106041</v>
       </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">1/H11</f>
+        <v>0.107571350663516</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2018</v>
@@ -3178,15 +3208,15 @@
         <v>147</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2018</v>
@@ -3198,15 +3228,15 @@
         <v>147</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2018</v>
@@ -3218,15 +3248,15 @@
         <v>147</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2018</v>
@@ -3238,7 +3268,7 @@
         <v>368</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>5.577733349</v>
@@ -3249,13 +3279,17 @@
       <c r="I15" s="0" t="n">
         <v>36.77803059</v>
       </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">1/H15</f>
+        <v>0.166485331260929</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2018</v>
@@ -3267,7 +3301,7 @@
         <v>368</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>7.78433862433862</v>
@@ -3281,13 +3315,17 @@
       <c r="N16" s="0" t="n">
         <v>1.5</v>
       </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">1/H16</f>
+        <v>0.128463065169517</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2018</v>
@@ -3299,18 +3337,22 @@
         <v>368</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>31.2538461538462</v>
       </c>
+      <c r="R17" s="0" t="n">
+        <f aca="false">1/H17</f>
+        <v>0.0319960620231356</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2018</v>
@@ -3322,15 +3364,15 @@
         <v>368</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2018</v>
@@ -3342,15 +3384,15 @@
         <v>368</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2018</v>
@@ -3362,18 +3404,22 @@
         <v>368</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>7.1683748169839</v>
       </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">1/H20</f>
+        <v>0.139501633986928</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2018</v>
@@ -3385,7 +3431,7 @@
         <v>586</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>8.164440297</v>
@@ -3396,13 +3442,17 @@
       <c r="I21" s="0" t="n">
         <v>49.69913676</v>
       </c>
+      <c r="R21" s="0" t="n">
+        <f aca="false">1/H21</f>
+        <v>0.124919568437907</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2018</v>
@@ -3414,18 +3464,22 @@
         <v>586</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>7.24497117232543</v>
       </c>
+      <c r="R22" s="0" t="n">
+        <f aca="false">1/H22</f>
+        <v>0.138026774187844</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2018</v>
@@ -3437,15 +3491,15 @@
         <v>586</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2018</v>
@@ -3457,7 +3511,7 @@
         <v>586</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>10.5844394527262</v>
@@ -3465,13 +3519,17 @@
       <c r="P24" s="0" t="n">
         <v>17.77</v>
       </c>
+      <c r="R24" s="0" t="n">
+        <f aca="false">1/H24</f>
+        <v>0.0944783145547149</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2018</v>
@@ -3483,7 +3541,7 @@
         <v>87</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>24.18012422</v>
@@ -3494,13 +3552,17 @@
       <c r="I25" s="0" t="n">
         <v>54.81517583</v>
       </c>
+      <c r="R25" s="0" t="n">
+        <f aca="false">1/H25</f>
+        <v>0.211513583441138</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2018</v>
@@ -3512,7 +3574,7 @@
         <v>87</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>4.95272525027809</v>
@@ -3526,13 +3588,17 @@
       <c r="N26" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="R26" s="0" t="n">
+        <f aca="false">1/H26</f>
+        <v>0.201909039865244</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2018</v>
@@ -3544,18 +3610,22 @@
         <v>87</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>10.8071895424837</v>
       </c>
+      <c r="R27" s="0" t="n">
+        <f aca="false">1/H27</f>
+        <v>0.0925309948593888</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2018</v>
@@ -3567,7 +3637,7 @@
         <v>221</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>11.6933911159263</v>
@@ -3575,13 +3645,17 @@
       <c r="I28" s="0" t="n">
         <v>55.89644311</v>
       </c>
+      <c r="R28" s="0" t="n">
+        <f aca="false">1/H28</f>
+        <v>0.085518391550079</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2018</v>
@@ -3593,7 +3667,7 @@
         <v>221</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>2.63057324840764</v>
@@ -3607,13 +3681,17 @@
       <c r="N29" s="0" t="n">
         <v>2.2</v>
       </c>
+      <c r="R29" s="0" t="n">
+        <f aca="false">1/H29</f>
+        <v>0.380145278450364</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2018</v>
@@ -3625,18 +3703,22 @@
         <v>221</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>5.58258642765685</v>
       </c>
+      <c r="R30" s="0" t="n">
+        <f aca="false">1/H30</f>
+        <v>0.179128440366972</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2018</v>
@@ -3648,7 +3730,7 @@
         <v>85</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>26.58868425</v>
@@ -3659,13 +3741,17 @@
       <c r="I31" s="0" t="n">
         <v>115.1818194</v>
       </c>
+      <c r="R31" s="0" t="n">
+        <f aca="false">1/H31</f>
+        <v>0.163307605450805</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2018</v>
@@ -3677,7 +3763,7 @@
         <v>85</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>5.66409124356144</v>
@@ -3694,13 +3780,17 @@
       <c r="P32" s="0" t="n">
         <v>7.18</v>
       </c>
+      <c r="R32" s="0" t="n">
+        <f aca="false">1/H32</f>
+        <v>0.176550828190971</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2018</v>
@@ -3712,18 +3802,22 @@
         <v>85</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>13.2683760683761</v>
       </c>
+      <c r="R33" s="0" t="n">
+        <f aca="false">1/H33</f>
+        <v>0.0753671734089151</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2018</v>
@@ -3735,15 +3829,15 @@
         <v>85</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2018</v>
@@ -3755,18 +3849,22 @@
         <v>85</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>8.43557336621455</v>
       </c>
+      <c r="R35" s="0" t="n">
+        <f aca="false">1/H35</f>
+        <v>0.118545587429198</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2018</v>
@@ -3778,15 +3876,15 @@
         <v>85</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2018</v>
@@ -3798,7 +3896,7 @@
         <v>147</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>6.97915798249271</v>
@@ -3806,13 +3904,17 @@
       <c r="P37" s="0" t="n">
         <v>4.89</v>
       </c>
+      <c r="R37" s="0" t="n">
+        <f aca="false">1/H37</f>
+        <v>0.143283760377471</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2018</v>
@@ -3824,15 +3926,15 @@
         <v>147</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2018</v>
@@ -3844,7 +3946,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>6.7035458711908</v>
@@ -3852,13 +3954,17 @@
       <c r="I39" s="0" t="n">
         <v>244.4055742</v>
       </c>
+      <c r="R39" s="0" t="n">
+        <f aca="false">1/H39</f>
+        <v>0.149174782900734</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2018</v>
@@ -3870,15 +3976,15 @@
         <v>50</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2018</v>
@@ -3890,7 +3996,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>10.35</v>
@@ -3898,10 +4004,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2018</v>
@@ -3913,18 +4019,22 @@
         <v>50</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>7.96274373259053</v>
       </c>
+      <c r="R42" s="0" t="n">
+        <f aca="false">1/H42</f>
+        <v>0.12558485285758</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2018</v>
@@ -3936,7 +4046,7 @@
         <v>60</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O43" s="0" t="n">
         <v>45.2</v>
@@ -3944,10 +4054,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2018</v>
@@ -3959,7 +4069,7 @@
         <v>100</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O44" s="0" t="n">
         <v>42.8</v>
@@ -3967,10 +4077,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2018</v>
@@ -3982,7 +4092,7 @@
         <v>120</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>6.35134728285413</v>
@@ -3990,13 +4100,17 @@
       <c r="P45" s="0" t="n">
         <v>8.61</v>
       </c>
+      <c r="R45" s="0" t="n">
+        <f aca="false">1/H45</f>
+        <v>0.157446909366705</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2018</v>
@@ -4008,15 +4122,15 @@
         <v>120</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2018</v>
@@ -4028,15 +4142,15 @@
         <v>120</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2018</v>
@@ -4048,18 +4162,22 @@
         <v>120</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>7.10068803490519</v>
       </c>
+      <c r="R48" s="0" t="n">
+        <f aca="false">1/H48</f>
+        <v>0.140831422966937</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2018</v>
@@ -4071,15 +4189,15 @@
         <v>120</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2018</v>
@@ -4091,7 +4209,7 @@
         <v>122</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>32.66219522</v>
@@ -4102,13 +4220,17 @@
       <c r="I50" s="0" t="n">
         <v>48.90482028</v>
       </c>
+      <c r="R50" s="0" t="n">
+        <f aca="false">1/H50</f>
+        <v>0.15536519386835</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2018</v>
@@ -4120,7 +4242,7 @@
         <v>122</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>2.96830864622804</v>
@@ -4134,13 +4256,17 @@
       <c r="N51" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="R51" s="0" t="n">
+        <f aca="false">1/H51</f>
+        <v>0.336892189857259</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2018</v>
@@ -4152,18 +4278,22 @@
         <v>122</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>9.47640449438202</v>
       </c>
+      <c r="R52" s="0" t="n">
+        <f aca="false">1/H52</f>
+        <v>0.10552525492056</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2018</v>
@@ -4175,7 +4305,7 @@
         <v>120</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>144.5962733</v>
@@ -4186,10 +4316,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2018</v>
@@ -4201,7 +4331,7 @@
         <v>190</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>31.86596927</v>
@@ -4212,13 +4342,17 @@
       <c r="I54" s="0" t="n">
         <v>24.84261045</v>
       </c>
+      <c r="R54" s="0" t="n">
+        <f aca="false">1/H54</f>
+        <v>0.179201151493343</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2018</v>
@@ -4230,7 +4364,7 @@
         <v>190</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>4.91321499013807</v>
@@ -4244,13 +4378,17 @@
       <c r="N55" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="R55" s="0" t="n">
+        <f aca="false">1/H55</f>
+        <v>0.203532717784022</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2018</v>
@@ -4262,18 +4400,22 @@
         <v>190</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>2.77491749174917</v>
       </c>
+      <c r="R56" s="0" t="n">
+        <f aca="false">1/H56</f>
+        <v>0.360371075166509</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2018</v>
@@ -4285,7 +4427,7 @@
         <v>123</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>127.6422764</v>
@@ -4296,10 +4438,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2018</v>
@@ -4311,15 +4453,15 @@
         <v>123</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2018</v>
@@ -4331,15 +4473,15 @@
         <v>123</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2018</v>
@@ -4351,18 +4493,22 @@
         <v>123</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>8.21664180341455</v>
       </c>
+      <c r="R60" s="0" t="n">
+        <f aca="false">1/H60</f>
+        <v>0.121704222226705</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2018</v>
@@ -4374,7 +4520,7 @@
         <v>201</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>18.53988134</v>
@@ -4388,13 +4534,17 @@
       <c r="P61" s="0" t="n">
         <v>9.16</v>
       </c>
+      <c r="R61" s="0" t="n">
+        <f aca="false">1/H61</f>
+        <v>0.144502178253767</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2018</v>
@@ -4406,18 +4556,22 @@
         <v>201</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>13.01269035533</v>
       </c>
+      <c r="R62" s="0" t="n">
+        <f aca="false">1/H62</f>
+        <v>0.0768480592939338</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2018</v>
@@ -4429,18 +4583,22 @@
         <v>201</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>8.47593418422267</v>
       </c>
+      <c r="R63" s="0" t="n">
+        <f aca="false">1/H63</f>
+        <v>0.117981095448031</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2018</v>
@@ -4452,15 +4610,15 @@
         <v>201</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2018</v>
@@ -4472,15 +4630,15 @@
         <v>201</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2018</v>
@@ -4492,15 +4650,15 @@
         <v>201</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2018</v>
@@ -4512,15 +4670,15 @@
         <v>201</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>2018</v>
@@ -4532,15 +4690,15 @@
         <v>221</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2018</v>
@@ -4552,7 +4710,7 @@
         <v>221</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>7.360697997</v>
@@ -4566,13 +4724,17 @@
       <c r="P69" s="0" t="n">
         <v>9.27</v>
       </c>
+      <c r="R69" s="0" t="n">
+        <f aca="false">1/H69</f>
+        <v>0.146448376023237</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2018</v>
@@ -4584,15 +4746,15 @@
         <v>221</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>2018</v>
@@ -4604,15 +4766,15 @@
         <v>221</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2018</v>
@@ -4624,15 +4786,15 @@
         <v>221</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2018</v>
@@ -4644,18 +4806,22 @@
         <v>221</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>8.58108995403808</v>
       </c>
+      <c r="R73" s="0" t="n">
+        <f aca="false">1/H73</f>
+        <v>0.116535312571735</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2018</v>
@@ -4667,7 +4833,7 @@
         <v>586</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>5.35131205</v>
@@ -4681,13 +4847,17 @@
       <c r="P74" s="0" t="n">
         <v>9.16</v>
       </c>
+      <c r="R74" s="0" t="n">
+        <f aca="false">1/H74</f>
+        <v>0.161531531531532</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2018</v>
@@ -4699,15 +4869,15 @@
         <v>586</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2018</v>
@@ -4719,15 +4889,15 @@
         <v>586</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2018</v>
@@ -4739,18 +4909,22 @@
         <v>586</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>9.13349633251834</v>
       </c>
+      <c r="R77" s="0" t="n">
+        <f aca="false">1/H77</f>
+        <v>0.109487097119606</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2018</v>
@@ -4762,15 +4936,15 @@
         <v>586</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2018</v>
@@ -4782,7 +4956,7 @@
         <v>145</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>16.09712027</v>
@@ -4793,13 +4967,17 @@
       <c r="I79" s="0" t="n">
         <v>20.25935053</v>
       </c>
+      <c r="R79" s="0" t="n">
+        <f aca="false">1/H79</f>
+        <v>0.165325177076626</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2018</v>
@@ -4811,7 +4989,7 @@
         <v>145</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>8.32882462686567</v>
@@ -4825,13 +5003,17 @@
       <c r="N80" s="0" t="n">
         <v>53</v>
       </c>
+      <c r="R80" s="0" t="n">
+        <f aca="false">1/H80</f>
+        <v>0.120064960519684</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2018</v>
@@ -4843,18 +5025,22 @@
         <v>145</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>12.3678756476684</v>
       </c>
+      <c r="R81" s="0" t="n">
+        <f aca="false">1/H81</f>
+        <v>0.080854629241726</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2018</v>
@@ -4866,7 +5052,7 @@
         <v>288</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>9.216589862</v>
@@ -4877,13 +5063,17 @@
       <c r="I82" s="0" t="n">
         <v>113.4440422</v>
       </c>
+      <c r="R82" s="0" t="n">
+        <f aca="false">1/H82</f>
+        <v>0.134595045922627</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2018</v>
@@ -4895,7 +5085,7 @@
         <v>93</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>13.12777285</v>
@@ -4906,13 +5096,17 @@
       <c r="I83" s="0" t="n">
         <v>29.19970064</v>
       </c>
+      <c r="R83" s="0" t="n">
+        <f aca="false">1/H83</f>
+        <v>0.106323083585968</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2018</v>
@@ -4924,7 +5118,7 @@
         <v>93</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>8.89652777777778</v>
@@ -4938,13 +5132,17 @@
       <c r="N84" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="R84" s="0" t="n">
+        <f aca="false">1/H84</f>
+        <v>0.112403403325267</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>2018</v>
@@ -4956,18 +5154,22 @@
         <v>93</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>10.8880952380952</v>
       </c>
+      <c r="R85" s="0" t="n">
+        <f aca="false">1/H85</f>
+        <v>0.091843428821343</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2018</v>
@@ -4979,7 +5181,7 @@
         <v>143</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>54.63414634</v>
@@ -4993,13 +5195,17 @@
       <c r="P86" s="0" t="n">
         <v>9.4</v>
       </c>
+      <c r="R86" s="0" t="n">
+        <f aca="false">1/H86</f>
+        <v>0.0813518767758337</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2018</v>
@@ -5011,15 +5217,15 @@
         <v>143</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2018</v>
@@ -5031,15 +5237,15 @@
         <v>143</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2018</v>
@@ -5051,15 +5257,15 @@
         <v>143</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2018</v>
@@ -5071,18 +5277,22 @@
         <v>143</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>8.09428794992175</v>
       </c>
+      <c r="R90" s="0" t="n">
+        <f aca="false">1/H90</f>
+        <v>0.123543912223887</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2018</v>
@@ -5094,15 +5304,15 @@
         <v>143</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2018</v>
@@ -5114,7 +5324,7 @@
         <v>843</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>4.51894411621226</v>
@@ -5125,13 +5335,17 @@
       <c r="P92" s="0" t="n">
         <v>10.3</v>
       </c>
+      <c r="R92" s="0" t="n">
+        <f aca="false">1/H92</f>
+        <v>0.221290632121866</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2018</v>
@@ -5143,7 +5357,7 @@
         <v>843</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P93" s="0" t="n">
         <v>15.82</v>
@@ -5151,10 +5365,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2018</v>
@@ -5166,15 +5380,15 @@
         <v>843</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>2018</v>
@@ -5186,15 +5400,15 @@
         <v>843</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2018</v>
@@ -5206,10 +5420,14 @@
         <v>843</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>8.58502772643253</v>
+      </c>
+      <c r="R96" s="0" t="n">
+        <f aca="false">1/H96</f>
+        <v>0.116481860264829</v>
       </c>
     </row>
   </sheetData>
@@ -5234,25 +5452,25 @@
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50</v>
@@ -5267,7 +5485,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>93</v>
@@ -5282,7 +5500,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>120</v>
@@ -5297,7 +5515,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>122</v>
@@ -5312,7 +5530,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>143</v>
@@ -5327,7 +5545,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>145</v>
@@ -5342,7 +5560,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>190</v>
@@ -5357,7 +5575,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>201</v>
@@ -5372,7 +5590,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>221</v>
@@ -5387,7 +5605,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>288</v>
@@ -5402,7 +5620,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>586</v>
@@ -5417,7 +5635,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>843</v>
@@ -5435,18 +5653,18 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>85</v>
@@ -5461,7 +5679,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>87</v>
@@ -5476,7 +5694,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>121</v>
@@ -5491,7 +5709,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>147</v>
@@ -5506,7 +5724,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>151</v>
@@ -5521,7 +5739,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>368</v>
@@ -5536,7 +5754,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>586</v>
@@ -5572,14 +5790,14 @@
       <selection pane="topLeft" activeCell="K137" activeCellId="0" sqref="K137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.04"/>
@@ -5602,33 +5820,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2018</v>
@@ -5649,15 +5867,15 @@
         <v>1154.6</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2018</v>
@@ -5678,15 +5896,15 @@
         <v>289.46</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2018</v>
@@ -5707,15 +5925,15 @@
         <v>114.51</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2018</v>
@@ -5736,15 +5954,15 @@
         <v>336.77</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2018</v>
@@ -5762,21 +5980,21 @@
         <v>65.03</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>59.73</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2018</v>
@@ -5791,18 +6009,18 @@
         <v>78.26</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2018</v>
@@ -5823,12 +6041,12 @@
         <v>10.61</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2018</v>
@@ -5849,12 +6067,12 @@
         <v>19.39</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
@@ -5875,12 +6093,12 @@
         <v>17.77</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2018</v>
@@ -5895,18 +6113,18 @@
         <v>90.08</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2018</v>
@@ -5924,21 +6142,21 @@
         <v>67.21</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>3587.73</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2018</v>
@@ -5953,18 +6171,18 @@
         <v>40.09</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2018</v>
@@ -5979,18 +6197,18 @@
         <v>83.35</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2018</v>
@@ -6011,12 +6229,12 @@
         <v>154.25</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2018</v>
@@ -6037,12 +6255,12 @@
         <v>19.5</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2018</v>
@@ -6063,12 +6281,12 @@
         <v>271.38</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2018</v>
@@ -6089,12 +6307,12 @@
         <v>19.72</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2018</v>
@@ -6115,15 +6333,15 @@
         <v>108.91</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2018</v>
@@ -6141,21 +6359,21 @@
         <v>94.83</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>720.97</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2018</v>
@@ -6176,12 +6394,12 @@
         <v>10.35</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2018</v>
@@ -6202,12 +6420,12 @@
         <v>23.43</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2018</v>
@@ -6228,12 +6446,12 @@
         <v>18.68</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2018</v>
@@ -6254,12 +6472,12 @@
         <v>8.61</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2018</v>
@@ -6277,21 +6495,21 @@
         <v>91.12</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>1274.2</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2018</v>
@@ -6312,12 +6530,12 @@
         <v>75.77</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2018</v>
@@ -6335,21 +6553,21 @@
         <v>57.09</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>121.93</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2018</v>
@@ -6370,15 +6588,15 @@
         <v>33.05</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2018</v>
@@ -6396,21 +6614,21 @@
         <v>48.02</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>819.69</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2018</v>
@@ -6428,21 +6646,21 @@
         <v>91.91</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>603.87</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2018</v>
@@ -6460,21 +6678,21 @@
         <v>50.98</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1149.86</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2018</v>
@@ -6492,21 +6710,21 @@
         <v>78.31</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>483.21</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2018</v>
@@ -6524,21 +6742,21 @@
         <v>59.08</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>2.75</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2018</v>
@@ -6559,15 +6777,15 @@
         <v>4.72</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2018</v>
@@ -6588,12 +6806,12 @@
         <v>7.18</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2018</v>
@@ -6614,12 +6832,12 @@
         <v>4.89</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2018</v>
@@ -6640,12 +6858,12 @@
         <v>9.16</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2018</v>
@@ -6663,21 +6881,21 @@
         <v>66.96</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1081.05</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2018</v>
@@ -6698,12 +6916,12 @@
         <v>146.88</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2018</v>
@@ -6724,12 +6942,12 @@
         <v>9.78</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2018</v>
@@ -6750,15 +6968,15 @@
         <v>73.41</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2018</v>
@@ -6776,21 +6994,21 @@
         <v>70.27</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>76.87</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2018</v>
@@ -6808,21 +7026,21 @@
         <v>48.19</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>1906.01</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2018</v>
@@ -6840,21 +7058,21 @@
         <v>46.36</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>2013.71</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2018</v>
@@ -6875,12 +7093,12 @@
         <v>247.55</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2018</v>
@@ -6901,15 +7119,15 @@
         <v>400.75</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2018</v>
@@ -6930,15 +7148,15 @@
         <v>18.06</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2018</v>
@@ -6959,12 +7177,12 @@
         <v>14.5</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2018</v>
@@ -6985,12 +7203,12 @@
         <v>15.82</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2018</v>
@@ -7011,12 +7229,12 @@
         <v>9.4</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2018</v>
@@ -7037,12 +7255,12 @@
         <v>9.27</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2018</v>
@@ -7063,12 +7281,12 @@
         <v>20.17</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2018</v>
@@ -7089,12 +7307,12 @@
         <v>9.16</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2018</v>
@@ -7115,12 +7333,12 @@
         <v>10.3</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2018</v>
@@ -7135,18 +7353,18 @@
         <v>31.8</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2018</v>
@@ -7164,21 +7382,21 @@
         <v>69.43</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>20.87</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2018</v>
@@ -7199,15 +7417,15 @@
         <v>19.53</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2018</v>
@@ -7228,12 +7446,12 @@
         <v>12.86</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2018</v>
@@ -7254,15 +7472,15 @@
         <v>611.6</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2018</v>
@@ -7280,21 +7498,21 @@
         <v>91.73</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>146.96</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2018</v>
@@ -7315,15 +7533,15 @@
         <v>399.46</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2018</v>
@@ -7344,15 +7562,15 @@
         <v>235.88</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2018</v>
@@ -7370,21 +7588,21 @@
         <v>57.38</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>33.37</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2018</v>
@@ -7399,18 +7617,18 @@
         <v>76.41</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2018</v>
@@ -7431,12 +7649,12 @@
         <v>9.4</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2018</v>
@@ -7457,12 +7675,12 @@
         <v>18.4</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2018</v>
@@ -7483,12 +7701,12 @@
         <v>14.29</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>2018</v>
@@ -7506,21 +7724,21 @@
         <v>81.26</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>444.27</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2018</v>
@@ -7538,21 +7756,21 @@
         <v>66.14</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>1682.55</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2018</v>
@@ -7570,21 +7788,21 @@
         <v>43.6</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>306.21</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>2018</v>
@@ -7602,21 +7820,21 @@
         <v>77.62</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>242.35</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2018</v>
@@ -7637,12 +7855,12 @@
         <v>202.26</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2018</v>
@@ -7663,12 +7881,12 @@
         <v>17.52</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2018</v>
@@ -7689,12 +7907,12 @@
         <v>246.29</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2018</v>
@@ -7715,12 +7933,12 @@
         <v>17.65</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2018</v>
@@ -7741,15 +7959,15 @@
         <v>95.24</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2018</v>
@@ -7767,18 +7985,18 @@
         <v>70.21</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>113.86</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2018</v>
@@ -7799,12 +8017,12 @@
         <v>10.41</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2018</v>
@@ -7825,12 +8043,12 @@
         <v>20.92</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2018</v>
@@ -7851,12 +8069,12 @@
         <v>15.22</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2018</v>
@@ -7877,12 +8095,12 @@
         <v>9.08</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2018</v>
@@ -7900,21 +8118,21 @@
         <v>89.05</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>718.18</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2018</v>
@@ -7935,12 +8153,12 @@
         <v>61.76</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2018</v>
@@ -7958,21 +8176,21 @@
         <v>55.58</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>51.43</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>2018</v>
@@ -7993,15 +8211,15 @@
         <v>33.91</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2018</v>
@@ -8019,21 +8237,21 @@
         <v>42.17</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>848.87</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2018</v>
@@ -8051,18 +8269,18 @@
         <v>86.17</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>168.35</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2018</v>
@@ -8080,21 +8298,21 @@
         <v>42.04</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>200.85</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2018</v>
@@ -8112,21 +8330,21 @@
         <v>74.73</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>233.03</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2018</v>
@@ -8141,18 +8359,18 @@
         <v>50.56</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2018</v>
@@ -8170,21 +8388,21 @@
         <v>97.92</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>9.36</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2018</v>
@@ -8205,12 +8423,12 @@
         <v>10.03</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2018</v>
@@ -8231,12 +8449,12 @@
         <v>8.92</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2018</v>
@@ -8257,12 +8475,12 @@
         <v>9.53</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>2018</v>
@@ -8280,21 +8498,21 @@
         <v>51.27</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>618.92</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2018</v>
@@ -8315,12 +8533,12 @@
         <v>140.73</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>2018</v>
@@ -8341,12 +8559,12 @@
         <v>9.78</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>2018</v>
@@ -8364,21 +8582,21 @@
         <v>92.36</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>66.32</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>2018</v>
@@ -8396,21 +8614,21 @@
         <v>62.12</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>49.3</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>2018</v>
@@ -8428,21 +8646,21 @@
         <v>47.74</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>1059.7</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>2018</v>
@@ -8460,21 +8678,21 @@
         <v>45.73</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>1176.91</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>2018</v>
@@ -8495,15 +8713,15 @@
         <v>337.64</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>2018</v>
@@ -8524,12 +8742,12 @@
         <v>342.16</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>2018</v>
@@ -8550,12 +8768,12 @@
         <v>15.19</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>2018</v>
@@ -8576,12 +8794,12 @@
         <v>13.63</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>2018</v>
@@ -8602,12 +8820,12 @@
         <v>15.03</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>2018</v>
@@ -8628,12 +8846,12 @@
         <v>9.35</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>2018</v>
@@ -8654,12 +8872,12 @@
         <v>9.29</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>2018</v>
@@ -8680,12 +8898,12 @@
         <v>18.48</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>2018</v>
@@ -8706,12 +8924,12 @@
         <v>10.08</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>2018</v>
@@ -8732,12 +8950,12 @@
         <v>10.56</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>2018</v>
@@ -8752,18 +8970,18 @@
         <v>34.03</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>2018</v>
@@ -8781,21 +8999,21 @@
         <v>66.87</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>18.08</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>2018</v>
@@ -8816,15 +9034,15 @@
         <v>15.45</v>
       </c>
       <c r="L114" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>2018</v>
@@ -8845,12 +9063,12 @@
         <v>10.63</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>2018</v>
@@ -8868,21 +9086,21 @@
         <v>69.11</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>2514.46</v>
       </c>
       <c r="L116" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>2018</v>
@@ -8903,15 +9121,15 @@
         <v>205.33</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>2018</v>
@@ -8926,18 +9144,18 @@
         <v>21.19</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>2018</v>
@@ -8955,21 +9173,21 @@
         <v>76.26</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K119" s="0" t="n">
         <v>204.28</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>2018</v>
@@ -8990,15 +9208,15 @@
         <v>21.59</v>
       </c>
       <c r="L120" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>2018</v>
@@ -9016,21 +9234,21 @@
         <v>28.9</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>992.57</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>2018</v>
@@ -9048,21 +9266,21 @@
         <v>69.32</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>91.32</v>
       </c>
       <c r="L122" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M122" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>2018</v>
@@ -9083,12 +9301,12 @@
         <v>16.61</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2018</v>
@@ -9106,21 +9324,21 @@
         <v>47.16</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>42.42</v>
       </c>
       <c r="L124" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2018</v>
@@ -9141,12 +9359,12 @@
         <v>16.93</v>
       </c>
       <c r="M125" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2018</v>
@@ -9167,12 +9385,12 @@
         <v>13.83</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2018</v>
@@ -9193,12 +9411,12 @@
         <v>13.7</v>
       </c>
       <c r="M127" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2018</v>
@@ -9219,12 +9437,12 @@
         <v>18.2</v>
       </c>
       <c r="M128" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>2018</v>
@@ -9245,12 +9463,12 @@
         <v>17.16</v>
       </c>
       <c r="M129" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>2018</v>
@@ -9271,15 +9489,15 @@
         <v>686.25</v>
       </c>
       <c r="L130" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2018</v>
@@ -9297,21 +9515,21 @@
         <v>47.71</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>3116.31</v>
       </c>
       <c r="L131" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M131" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2018</v>
@@ -9329,21 +9547,21 @@
         <v>50.5</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>179.92</v>
       </c>
       <c r="L132" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2018</v>
@@ -9361,21 +9579,21 @@
         <v>45.35</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>20.93</v>
       </c>
       <c r="L133" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M133" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2018</v>
@@ -9396,15 +9614,15 @@
         <v>236.08</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>2018</v>
@@ -9425,15 +9643,15 @@
         <v>19.05</v>
       </c>
       <c r="L135" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>2018</v>
@@ -9448,18 +9666,18 @@
         <v>70.32</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L136" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>2018</v>
@@ -9477,21 +9695,21 @@
         <v>55.53</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>8.73</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>2018</v>
@@ -9509,21 +9727,21 @@
         <v>100.49</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>154.61</v>
       </c>
       <c r="L138" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M138" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>2018</v>
@@ -9538,18 +9756,18 @@
         <v>34.87</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L139" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>2018</v>
@@ -9567,21 +9785,21 @@
         <v>92.47</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>1007.16</v>
       </c>
       <c r="L140" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M140" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>2018</v>
@@ -9599,21 +9817,21 @@
         <v>53.91</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>3023.61</v>
       </c>
       <c r="L141" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2018</v>
@@ -9631,21 +9849,21 @@
         <v>55.2</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>362.69</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M142" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>2018</v>
@@ -9663,21 +9881,21 @@
         <v>84.3</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>78.64</v>
       </c>
       <c r="L143" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M143" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>2018</v>
@@ -9695,21 +9913,21 @@
         <v>79.86</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>454.14</v>
       </c>
       <c r="L144" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M144" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>2018</v>
@@ -9727,21 +9945,21 @@
         <v>44.6</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>142.04</v>
       </c>
       <c r="L145" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M145" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>2018</v>
@@ -9759,21 +9977,21 @@
         <v>61.33</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>37.69</v>
       </c>
       <c r="L146" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>2018</v>
@@ -9791,21 +10009,21 @@
         <v>54.17</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>892.99</v>
       </c>
       <c r="L147" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>2018</v>
@@ -9823,21 +10041,21 @@
         <v>29.43</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>108.72</v>
       </c>
       <c r="L148" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>2018</v>
@@ -9855,21 +10073,21 @@
         <v>48.18</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>2539.49</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>2018</v>
@@ -9887,21 +10105,21 @@
         <v>49.91</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>70.64</v>
       </c>
       <c r="L150" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>2018</v>
@@ -9919,21 +10137,21 @@
         <v>74.72</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>1192.33</v>
       </c>
       <c r="L151" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>2018</v>
@@ -9951,21 +10169,21 @@
         <v>47.45</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>192.26</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>2018</v>
@@ -9986,15 +10204,15 @@
         <v>579.12</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M153" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>2018</v>
@@ -10009,18 +10227,18 @@
         <v>56.59</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L154" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M154" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>2018</v>
@@ -10038,21 +10256,21 @@
         <v>81.09</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>47.32</v>
       </c>
       <c r="L155" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>2018</v>
@@ -10070,21 +10288,21 @@
         <v>42.38</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>33.53</v>
       </c>
       <c r="L156" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>2018</v>
@@ -10105,12 +10323,12 @@
         <v>14.37</v>
       </c>
       <c r="M157" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>2018</v>
@@ -10128,21 +10346,21 @@
         <v>41.93</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>261.59</v>
       </c>
       <c r="L158" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M158" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>2018</v>
@@ -10160,21 +10378,21 @@
         <v>96.09</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>42.62</v>
       </c>
       <c r="L159" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>2018</v>
@@ -10192,21 +10410,21 @@
         <v>64.26</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>36.75</v>
       </c>
       <c r="L160" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>2018</v>
@@ -10224,21 +10442,21 @@
         <v>57.9</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>53.42</v>
       </c>
       <c r="L161" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M161" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>2018</v>
@@ -10256,21 +10474,21 @@
         <v>91.75</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>27.03</v>
       </c>
       <c r="L162" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>2018</v>
@@ -10288,21 +10506,21 @@
         <v>60.4</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>57.71</v>
       </c>
       <c r="L163" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M163" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>2018</v>
@@ -10323,15 +10541,15 @@
         <v>94.31</v>
       </c>
       <c r="L164" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M164" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>2018</v>
@@ -10349,21 +10567,21 @@
         <v>77.9</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>21.35</v>
       </c>
       <c r="L165" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M165" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>2018</v>
@@ -10381,21 +10599,21 @@
         <v>78.85</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>202.6</v>
       </c>
       <c r="L166" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M166" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>2018</v>
@@ -10416,15 +10634,15 @@
         <v>166.29</v>
       </c>
       <c r="L167" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M167" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>2018</v>
@@ -10442,21 +10660,21 @@
         <v>19.41</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>245.63</v>
       </c>
       <c r="L168" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M168" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>2018</v>
@@ -10474,21 +10692,21 @@
         <v>60.58</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>98.68</v>
       </c>
       <c r="L169" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M169" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>2018</v>
@@ -10506,21 +10724,21 @@
         <v>88.8</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>19.09</v>
       </c>
       <c r="L170" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>2018</v>
@@ -10538,18 +10756,18 @@
         <v>47.42</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>46.16</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>2018</v>
@@ -10567,21 +10785,21 @@
         <v>67.83</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>50.13</v>
       </c>
       <c r="L172" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M172" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>2018</v>
@@ -10602,12 +10820,12 @@
         <v>14.55</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>2018</v>
@@ -10625,21 +10843,21 @@
         <v>42.2</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K174" s="0" t="n">
         <v>40.07</v>
       </c>
       <c r="L174" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>2018</v>
@@ -10660,12 +10878,12 @@
         <v>17.91</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>2018</v>
@@ -10686,12 +10904,12 @@
         <v>14.92</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>2018</v>
@@ -10712,12 +10930,12 @@
         <v>14.01</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>2018</v>
@@ -10738,12 +10956,12 @@
         <v>13.85</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>2018</v>
@@ -10764,12 +10982,12 @@
         <v>16.06</v>
       </c>
       <c r="M179" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>2018</v>
@@ -10790,15 +11008,15 @@
         <v>460.13</v>
       </c>
       <c r="L180" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M180" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>2018</v>
@@ -10816,21 +11034,21 @@
         <v>49.86</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K181" s="0" t="n">
         <v>1073.08</v>
       </c>
       <c r="L181" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M181" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>2018</v>
@@ -10848,21 +11066,21 @@
         <v>61.46</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K182" s="0" t="n">
         <v>154.31</v>
       </c>
       <c r="L182" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M182" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>2018</v>
@@ -10880,21 +11098,21 @@
         <v>53.32</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K183" s="0" t="n">
         <v>18.63</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M183" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>2018</v>
@@ -10915,15 +11133,15 @@
         <v>129.52</v>
       </c>
       <c r="L184" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M184" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>2018</v>
@@ -10944,15 +11162,15 @@
         <v>20.8</v>
       </c>
       <c r="L185" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M185" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>2018</v>
@@ -10970,21 +11188,21 @@
         <v>65.52</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K186" s="0" t="n">
         <v>258.24</v>
       </c>
       <c r="L186" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M186" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>2018</v>
@@ -11002,21 +11220,21 @@
         <v>71.82</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K187" s="0" t="n">
         <v>24.01</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M187" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>2018</v>
@@ -11034,21 +11252,21 @@
         <v>86.41</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K188" s="0" t="n">
         <v>18.93</v>
       </c>
       <c r="L188" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M188" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>2018</v>
@@ -11066,21 +11284,21 @@
         <v>93.62</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K189" s="0" t="n">
         <v>47.85</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M189" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>2018</v>
@@ -11101,15 +11319,15 @@
         <v>483.35</v>
       </c>
       <c r="L190" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M190" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>2018</v>
@@ -11127,21 +11345,21 @@
         <v>72.48</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K191" s="0" t="n">
         <v>875.01</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M191" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>2018</v>
@@ -11159,21 +11377,21 @@
         <v>65.38</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K192" s="0" t="n">
         <v>195.5</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M192" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>2018</v>
@@ -11191,21 +11409,21 @@
         <v>70.01</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K193" s="0" t="n">
         <v>72.41</v>
       </c>
       <c r="L193" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M193" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>2018</v>
@@ -11223,21 +11441,21 @@
         <v>80.21</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K194" s="0" t="n">
         <v>273.9</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M194" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>2018</v>
@@ -11255,21 +11473,21 @@
         <v>57.27</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K195" s="0" t="n">
         <v>55.55</v>
       </c>
       <c r="L195" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M195" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>2018</v>
@@ -11287,21 +11505,21 @@
         <v>74.02</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K196" s="0" t="n">
         <v>24.07</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M196" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>2018</v>
@@ -11319,21 +11537,21 @@
         <v>73.53</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K197" s="0" t="n">
         <v>604.8</v>
       </c>
       <c r="L197" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M197" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>2018</v>
@@ -11351,21 +11569,21 @@
         <v>36.44</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K198" s="0" t="n">
         <v>50.75</v>
       </c>
       <c r="L198" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M198" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>2018</v>
@@ -11383,21 +11601,21 @@
         <v>51.74</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K199" s="0" t="n">
         <v>1362.49</v>
       </c>
       <c r="L199" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M199" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>2018</v>
@@ -11415,21 +11633,21 @@
         <v>49.09</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K200" s="0" t="n">
         <v>47.57</v>
       </c>
       <c r="L200" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M200" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>2018</v>
@@ -11447,21 +11665,21 @@
         <v>65.2</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K201" s="0" t="n">
         <v>171.6</v>
       </c>
       <c r="L201" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M201" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>2018</v>
@@ -11479,21 +11697,21 @@
         <v>58.06</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K202" s="0" t="n">
         <v>127.88</v>
       </c>
       <c r="L202" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M202" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>2018</v>
@@ -11514,15 +11732,15 @@
         <v>440.79</v>
       </c>
       <c r="L203" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M203" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>2018</v>
@@ -11540,21 +11758,21 @@
         <v>48.13</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K204" s="0" t="n">
         <v>356.31</v>
       </c>
       <c r="L204" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M204" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>2018</v>
@@ -11572,21 +11790,21 @@
         <v>67.83</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K205" s="0" t="n">
         <v>91.01</v>
       </c>
       <c r="L205" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M205" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>2018</v>
@@ -11604,21 +11822,21 @@
         <v>41.64</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K206" s="0" t="n">
         <v>11.95</v>
       </c>
       <c r="L206" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M206" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>2018</v>
@@ -11639,12 +11857,12 @@
         <v>13.46</v>
       </c>
       <c r="M207" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>2018</v>
@@ -11662,21 +11880,21 @@
         <v>58.67</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K208" s="0" t="n">
         <v>168.4</v>
       </c>
       <c r="L208" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M208" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>2018</v>
@@ -11694,21 +11912,21 @@
         <v>89.45</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K209" s="0" t="n">
         <v>40.75</v>
       </c>
       <c r="L209" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M209" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>2018</v>
@@ -11726,21 +11944,21 @@
         <v>94.51</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K210" s="0" t="n">
         <v>22.43</v>
       </c>
       <c r="L210" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M210" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>2018</v>
@@ -11758,21 +11976,21 @@
         <v>67.14</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K211" s="0" t="n">
         <v>43.34</v>
       </c>
       <c r="L211" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M211" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>2018</v>
@@ -11790,21 +12008,21 @@
         <v>90.43</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K212" s="0" t="n">
         <v>26.93</v>
       </c>
       <c r="L212" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M212" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>2018</v>
@@ -11822,21 +12040,21 @@
         <v>55.14</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K213" s="0" t="n">
         <v>73.17</v>
       </c>
       <c r="L213" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M213" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>2018</v>
@@ -11854,21 +12072,21 @@
         <v>99.64</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K214" s="0" t="n">
         <v>75.46</v>
       </c>
       <c r="L214" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M214" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>2018</v>
@@ -11886,16 +12104,16 @@
         <v>78.08</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K215" s="0" t="n">
         <v>24.82</v>
       </c>
       <c r="L215" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M215" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="355">
   <si>
     <t xml:space="preserve">sample id</t>
   </si>
@@ -42,6 +42,9 @@
     <t xml:space="preserve">Trap type</t>
   </si>
   <si>
+    <t xml:space="preserve">Chamber</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flux (mg/m2/day)</t>
   </si>
   <si>
@@ -69,15 +72,18 @@
     <t xml:space="preserve">Babbin N production rates  (nM N/day)</t>
   </si>
   <si>
-    <t xml:space="preserve">d15N vs Air N2 (permil)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d13C vs VPDB (permil)</t>
+    <t xml:space="preserve">d15N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d13C</t>
   </si>
   <si>
     <t xml:space="preserve">N/C</t>
   </si>
   <si>
+    <t xml:space="preserve">Babbin</t>
+  </si>
+  <si>
     <t xml:space="preserve">P2</t>
   </si>
   <si>
@@ -90,9 +96,15 @@
     <t xml:space="preserve">cone</t>
   </si>
   <si>
+    <t xml:space="preserve">particles</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-30_151m_ctl</t>
   </si>
   <si>
+    <t xml:space="preserve">control</t>
+  </si>
+  <si>
     <t xml:space="preserve">4-31_121m_+P</t>
   </si>
   <si>
@@ -102,6 +114,9 @@
     <t xml:space="preserve">3-32_147m_top_remainder</t>
   </si>
   <si>
+    <t xml:space="preserve">top</t>
+  </si>
+  <si>
     <t xml:space="preserve">3-32_147m_top</t>
   </si>
   <si>
@@ -114,6 +129,9 @@
     <t xml:space="preserve">3-32_147m_nw1</t>
   </si>
   <si>
+    <t xml:space="preserve">netwash</t>
+  </si>
+  <si>
     <t xml:space="preserve">3-32_147m_nw2</t>
   </si>
   <si>
@@ -201,6 +219,9 @@
     <t xml:space="preserve">P1</t>
   </si>
   <si>
+    <t xml:space="preserve">combined</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-37_50m_+P/top2</t>
   </si>
   <si>
@@ -210,9 +231,6 @@
     <t xml:space="preserve">1-37_50m_nw2</t>
   </si>
   <si>
-    <t xml:space="preserve">Babbin</t>
-  </si>
-  <si>
     <t xml:space="preserve">1-37_120m_+P/top</t>
   </si>
   <si>
@@ -381,9 +399,6 @@
     <t xml:space="preserve">fz0(z/z0) Normalized to 87 m</t>
   </si>
   <si>
-    <t xml:space="preserve">d13C</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sample Weight (mg) from Sample List</t>
   </si>
   <si>
@@ -394,9 +409,6 @@
   </si>
   <si>
     <t xml:space="preserve">C Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d15N</t>
   </si>
   <si>
     <t xml:space="preserve">N Comment</t>
@@ -1254,7 +1266,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1455,11 +1467,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="34693719"/>
-        <c:axId val="62927243"/>
+        <c:axId val="47249765"/>
+        <c:axId val="97075186"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34693719"/>
+        <c:axId val="47249765"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,12 +1527,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62927243"/>
+        <c:crossAx val="97075186"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62927243"/>
+        <c:axId val="97075186"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1585,7 +1597,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34693719"/>
+        <c:crossAx val="47249765"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1633,7 +1645,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1804,11 +1816,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="10676451"/>
-        <c:axId val="30260305"/>
+        <c:axId val="51618569"/>
+        <c:axId val="51589986"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="10676451"/>
+        <c:axId val="51618569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,12 +1876,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30260305"/>
+        <c:crossAx val="51589986"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30260305"/>
+        <c:axId val="51589986"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1934,7 +1946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10676451"/>
+        <c:crossAx val="51618569"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1982,7 +1994,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2183,11 +2195,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67965262"/>
-        <c:axId val="80326762"/>
+        <c:axId val="68430740"/>
+        <c:axId val="8196771"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67965262"/>
+        <c:axId val="68430740"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,12 +2255,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80326762"/>
+        <c:crossAx val="8196771"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80326762"/>
+        <c:axId val="8196771"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2313,7 +2325,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67965262"/>
+        <c:crossAx val="68430740"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2361,7 +2373,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2532,11 +2544,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="33694530"/>
-        <c:axId val="98944682"/>
+        <c:axId val="17831098"/>
+        <c:axId val="61726390"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="33694530"/>
+        <c:axId val="17831098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,12 +2604,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98944682"/>
+        <c:crossAx val="61726390"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98944682"/>
+        <c:axId val="61726390"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2662,7 +2674,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33694530"/>
+        <c:crossAx val="17831098"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2721,9 +2733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>714960</xdr:colOff>
+      <xdr:colOff>714600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2731,8 +2743,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5153040" y="86040"/>
-        <a:ext cx="5520960" cy="4546440"/>
+        <a:off x="5157000" y="86040"/>
+        <a:ext cx="5524560" cy="4546440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2751,9 +2763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>221400</xdr:colOff>
+      <xdr:colOff>221040</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2761,8 +2773,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5146200" y="4924800"/>
-        <a:ext cx="5034240" cy="4718520"/>
+        <a:off x="5150160" y="4925160"/>
+        <a:ext cx="5037840" cy="4718160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2781,9 +2793,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>601200</xdr:colOff>
+      <xdr:colOff>600840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2791,8 +2803,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10848960" y="0"/>
-        <a:ext cx="5520960" cy="4546440"/>
+        <a:off x="10857240" y="0"/>
+        <a:ext cx="5524560" cy="4546080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2811,9 +2823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
+      <xdr:colOff>94320</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2821,8 +2833,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10829160" y="4972680"/>
-        <a:ext cx="5034240" cy="4718520"/>
+        <a:off x="10837440" y="4973040"/>
+        <a:ext cx="5037840" cy="4718160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2840,13 +2852,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
@@ -2854,13 +2866,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2894,7 +2906,7 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -2903,22 +2915,28 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2018</v>
@@ -2930,21 +2948,21 @@
         <v>100</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1"/>
+        <v>21</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1"/>
+      <c r="P2" s="0" t="n">
         <v>9.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2018</v>
@@ -2956,40 +2974,43 @@
         <v>151</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>59.93179319</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>12.3127516778524</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>114.4817664</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>4.07</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>4.2</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>21.1</v>
       </c>
-      <c r="R3" s="0" t="n">
-        <f aca="false">1/H3</f>
+      <c r="S3" s="0" t="n">
+        <f aca="false">1/I3</f>
         <v>0.0812166139757982</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2018</v>
@@ -3001,22 +3022,25 @@
         <v>151</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>58.1495726495727</v>
       </c>
-      <c r="R4" s="0" t="n">
-        <f aca="false">1/H4</f>
+      <c r="S4" s="0" t="n">
+        <f aca="false">1/I4</f>
         <v>0.0171970309399574</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2018</v>
@@ -3028,28 +3052,31 @@
         <v>121</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>140.2346446</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>25.7815533980582</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>142.1919526</v>
       </c>
-      <c r="R5" s="0" t="n">
-        <f aca="false">1/H5</f>
+      <c r="S5" s="0" t="n">
+        <f aca="false">1/I5</f>
         <v>0.0387874223310112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2018</v>
@@ -3061,22 +3088,25 @@
         <v>121</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>76.4009433962264</v>
       </c>
-      <c r="R6" s="0" t="n">
-        <f aca="false">1/H6</f>
+      <c r="S6" s="0" t="n">
+        <f aca="false">1/I6</f>
         <v>0.0130888436130148</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2018</v>
@@ -3088,15 +3118,18 @@
         <v>147</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2018</v>
@@ -3108,21 +3141,24 @@
         <v>147</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>135.5691057</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>6.088336976</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2018</v>
@@ -3134,15 +3170,18 @@
         <v>147</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
@@ -3154,22 +3193,25 @@
         <v>147</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>20.0629370629371</v>
       </c>
-      <c r="R10" s="0" t="n">
-        <f aca="false">1/H10</f>
+      <c r="S10" s="0" t="n">
+        <f aca="false">1/I10</f>
         <v>0.0498431509236667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2018</v>
@@ -3181,22 +3223,25 @@
         <v>147</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>9.29615547106041</v>
       </c>
-      <c r="R11" s="0" t="n">
-        <f aca="false">1/H11</f>
+      <c r="S11" s="0" t="n">
+        <f aca="false">1/I11</f>
         <v>0.107571350663516</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2018</v>
@@ -3208,15 +3253,18 @@
         <v>147</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2018</v>
@@ -3228,15 +3276,18 @@
         <v>147</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2018</v>
@@ -3248,15 +3299,18 @@
         <v>147</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2018</v>
@@ -3268,28 +3322,31 @@
         <v>368</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>5.577733349</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>6.00653518496908</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>36.77803059</v>
       </c>
-      <c r="R15" s="0" t="n">
-        <f aca="false">1/H15</f>
+      <c r="S15" s="0" t="n">
+        <f aca="false">1/I15</f>
         <v>0.166485331260929</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2018</v>
@@ -3301,31 +3358,34 @@
         <v>368</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>7.78433862433862</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>375</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>12.09</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="R16" s="0" t="n">
-        <f aca="false">1/H16</f>
+      <c r="S16" s="0" t="n">
+        <f aca="false">1/I16</f>
         <v>0.128463065169517</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2018</v>
@@ -3337,22 +3397,25 @@
         <v>368</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="0" t="n">
         <v>31.2538461538462</v>
       </c>
-      <c r="R17" s="0" t="n">
-        <f aca="false">1/H17</f>
+      <c r="S17" s="0" t="n">
+        <f aca="false">1/I17</f>
         <v>0.0319960620231356</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2018</v>
@@ -3364,15 +3427,18 @@
         <v>368</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2018</v>
@@ -3384,15 +3450,18 @@
         <v>368</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2018</v>
@@ -3404,22 +3473,25 @@
         <v>368</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>7.1683748169839</v>
       </c>
-      <c r="R20" s="0" t="n">
-        <f aca="false">1/H20</f>
+      <c r="S20" s="0" t="n">
+        <f aca="false">1/I20</f>
         <v>0.139501633986928</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2018</v>
@@ -3431,28 +3503,31 @@
         <v>586</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="0" t="n">
         <v>8.164440297</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>8.00515093435553</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>49.69913676</v>
       </c>
-      <c r="R21" s="0" t="n">
-        <f aca="false">1/H21</f>
+      <c r="S21" s="0" t="n">
+        <f aca="false">1/I21</f>
         <v>0.124919568437907</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2018</v>
@@ -3464,22 +3539,25 @@
         <v>586</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="0" t="n">
         <v>7.24497117232543</v>
       </c>
-      <c r="R22" s="0" t="n">
-        <f aca="false">1/H22</f>
+      <c r="S22" s="0" t="n">
+        <f aca="false">1/I22</f>
         <v>0.138026774187844</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2018</v>
@@ -3491,15 +3569,18 @@
         <v>586</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2018</v>
@@ -3511,25 +3592,28 @@
         <v>586</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="0" t="n">
         <v>10.5844394527262</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>17.77</v>
       </c>
-      <c r="R24" s="0" t="n">
-        <f aca="false">1/H24</f>
+      <c r="S24" s="0" t="n">
+        <f aca="false">1/I24</f>
         <v>0.0944783145547149</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2018</v>
@@ -3541,28 +3625,31 @@
         <v>87</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="0" t="n">
         <v>24.18012422</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>4.72782874617737</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>54.81517583</v>
       </c>
-      <c r="R25" s="0" t="n">
-        <f aca="false">1/H25</f>
+      <c r="S25" s="0" t="n">
+        <f aca="false">1/I25</f>
         <v>0.211513583441138</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2018</v>
@@ -3574,31 +3661,34 @@
         <v>87</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="0" t="n">
         <v>4.95272525027809</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>38.5</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>7.32</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="R26" s="0" t="n">
-        <f aca="false">1/H26</f>
+      <c r="S26" s="0" t="n">
+        <f aca="false">1/I26</f>
         <v>0.201909039865244</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2018</v>
@@ -3610,22 +3700,25 @@
         <v>87</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="0" t="n">
         <v>10.8071895424837</v>
       </c>
-      <c r="R27" s="0" t="n">
-        <f aca="false">1/H27</f>
+      <c r="S27" s="0" t="n">
+        <f aca="false">1/I27</f>
         <v>0.0925309948593888</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2018</v>
@@ -3637,25 +3730,28 @@
         <v>221</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="0" t="n">
         <v>11.6933911159263</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>55.89644311</v>
       </c>
-      <c r="R28" s="0" t="n">
-        <f aca="false">1/H28</f>
+      <c r="S28" s="0" t="n">
+        <f aca="false">1/I28</f>
         <v>0.085518391550079</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2018</v>
@@ -3667,31 +3763,34 @@
         <v>221</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="0" t="n">
         <v>2.63057324840764</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>18.46</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>2.2</v>
       </c>
-      <c r="R29" s="0" t="n">
-        <f aca="false">1/H29</f>
+      <c r="S29" s="0" t="n">
+        <f aca="false">1/I29</f>
         <v>0.380145278450364</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2018</v>
@@ -3703,22 +3802,25 @@
         <v>221</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="0" t="n">
         <v>5.58258642765685</v>
       </c>
-      <c r="R30" s="0" t="n">
-        <f aca="false">1/H30</f>
+      <c r="S30" s="0" t="n">
+        <f aca="false">1/I30</f>
         <v>0.179128440366972</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2018</v>
@@ -3730,28 +3832,31 @@
         <v>85</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="0" t="n">
         <v>26.58868425</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>6.12341352528888</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>115.1818194</v>
       </c>
-      <c r="R31" s="0" t="n">
-        <f aca="false">1/H31</f>
+      <c r="S31" s="0" t="n">
+        <f aca="false">1/I31</f>
         <v>0.163307605450805</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2018</v>
@@ -3763,34 +3868,37 @@
         <v>85</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="0" t="n">
         <v>5.66409124356144</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>530</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>21.09</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>7.18</v>
       </c>
-      <c r="R32" s="0" t="n">
-        <f aca="false">1/H32</f>
+      <c r="S32" s="0" t="n">
+        <f aca="false">1/I32</f>
         <v>0.176550828190971</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2018</v>
@@ -3802,22 +3910,25 @@
         <v>85</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="0" t="n">
         <v>13.2683760683761</v>
       </c>
-      <c r="R33" s="0" t="n">
-        <f aca="false">1/H33</f>
+      <c r="S33" s="0" t="n">
+        <f aca="false">1/I33</f>
         <v>0.0753671734089151</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2018</v>
@@ -3829,15 +3940,18 @@
         <v>85</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2018</v>
@@ -3849,22 +3963,25 @@
         <v>85</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="0" t="n">
         <v>8.43557336621455</v>
       </c>
-      <c r="R35" s="0" t="n">
-        <f aca="false">1/H35</f>
+      <c r="S35" s="0" t="n">
+        <f aca="false">1/I35</f>
         <v>0.118545587429198</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2018</v>
@@ -3876,15 +3993,18 @@
         <v>85</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2018</v>
@@ -3896,25 +4016,28 @@
         <v>147</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="0" t="n">
         <v>6.97915798249271</v>
       </c>
-      <c r="P37" s="0" t="n">
+      <c r="Q37" s="0" t="n">
         <v>4.89</v>
       </c>
-      <c r="R37" s="0" t="n">
-        <f aca="false">1/H37</f>
+      <c r="S37" s="0" t="n">
+        <f aca="false">1/I37</f>
         <v>0.143283760377471</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2018</v>
@@ -3926,15 +4049,18 @@
         <v>147</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2018</v>
@@ -3946,25 +4072,28 @@
         <v>50</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="0" t="n">
         <v>6.7035458711908</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="J39" s="0" t="n">
         <v>244.4055742</v>
       </c>
-      <c r="R39" s="0" t="n">
-        <f aca="false">1/H39</f>
+      <c r="S39" s="0" t="n">
+        <f aca="false">1/I39</f>
         <v>0.149174782900734</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2018</v>
@@ -3976,15 +4105,18 @@
         <v>50</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2018</v>
@@ -3996,18 +4128,21 @@
         <v>50</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="P41" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="0" t="n">
         <v>10.35</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2018</v>
@@ -4019,22 +4154,25 @@
         <v>50</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="0" t="n">
         <v>7.96274373259053</v>
       </c>
-      <c r="R42" s="0" t="n">
-        <f aca="false">1/H42</f>
+      <c r="S42" s="0" t="n">
+        <f aca="false">1/I42</f>
         <v>0.12558485285758</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2018</v>
@@ -4046,18 +4184,18 @@
         <v>60</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="O43" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="P43" s="0" t="n">
         <v>45.2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2018</v>
@@ -4069,18 +4207,18 @@
         <v>100</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="O44" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="P44" s="0" t="n">
         <v>42.8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2018</v>
@@ -4092,25 +4230,28 @@
         <v>120</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="0" t="n">
         <v>6.35134728285413</v>
       </c>
-      <c r="P45" s="0" t="n">
+      <c r="Q45" s="0" t="n">
         <v>8.61</v>
       </c>
-      <c r="R45" s="0" t="n">
-        <f aca="false">1/H45</f>
+      <c r="S45" s="0" t="n">
+        <f aca="false">1/I45</f>
         <v>0.157446909366705</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2018</v>
@@ -4122,15 +4263,18 @@
         <v>120</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2018</v>
@@ -4142,15 +4286,18 @@
         <v>120</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2018</v>
@@ -4162,22 +4309,25 @@
         <v>120</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="0" t="n">
         <v>7.10068803490519</v>
       </c>
-      <c r="R48" s="0" t="n">
-        <f aca="false">1/H48</f>
+      <c r="S48" s="0" t="n">
+        <f aca="false">1/I48</f>
         <v>0.140831422966937</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2018</v>
@@ -4189,15 +4339,18 @@
         <v>120</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2018</v>
@@ -4209,28 +4362,31 @@
         <v>122</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="0" t="n">
         <v>32.66219522</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="I50" s="0" t="n">
         <v>6.43644805571677</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="J50" s="0" t="n">
         <v>48.90482028</v>
       </c>
-      <c r="R50" s="0" t="n">
-        <f aca="false">1/H50</f>
+      <c r="S50" s="0" t="n">
+        <f aca="false">1/I50</f>
         <v>0.15536519386835</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2018</v>
@@ -4242,31 +4398,34 @@
         <v>122</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="0" t="n">
         <v>2.96830864622804</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="M51" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="M51" s="0" t="n">
+      <c r="N51" s="0" t="n">
         <v>9.88</v>
       </c>
-      <c r="N51" s="0" t="n">
+      <c r="O51" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R51" s="0" t="n">
-        <f aca="false">1/H51</f>
+      <c r="S51" s="0" t="n">
+        <f aca="false">1/I51</f>
         <v>0.336892189857259</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2018</v>
@@ -4278,22 +4437,25 @@
         <v>122</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="0" t="n">
         <v>9.47640449438202</v>
       </c>
-      <c r="R52" s="0" t="n">
-        <f aca="false">1/H52</f>
+      <c r="S52" s="0" t="n">
+        <f aca="false">1/I52</f>
         <v>0.10552525492056</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2018</v>
@@ -4305,21 +4467,24 @@
         <v>120</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="0" t="n">
         <v>144.5962733</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="J53" s="0" t="n">
         <v>47.19008443</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2018</v>
@@ -4331,28 +4496,31 @@
         <v>190</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="0" t="n">
         <v>31.86596927</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="I54" s="0" t="n">
         <v>5.58032128514056</v>
       </c>
-      <c r="I54" s="0" t="n">
+      <c r="J54" s="0" t="n">
         <v>24.84261045</v>
       </c>
-      <c r="R54" s="0" t="n">
-        <f aca="false">1/H54</f>
+      <c r="S54" s="0" t="n">
+        <f aca="false">1/I54</f>
         <v>0.179201151493343</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2018</v>
@@ -4364,31 +4532,34 @@
         <v>190</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="0" t="n">
         <v>4.91321499013807</v>
       </c>
-      <c r="L55" s="0" t="n">
+      <c r="M55" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="M55" s="0" t="n">
+      <c r="N55" s="0" t="n">
         <v>6.97</v>
       </c>
-      <c r="N55" s="0" t="n">
+      <c r="O55" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="R55" s="0" t="n">
-        <f aca="false">1/H55</f>
+      <c r="S55" s="0" t="n">
+        <f aca="false">1/I55</f>
         <v>0.203532717784022</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2018</v>
@@ -4400,22 +4571,25 @@
         <v>190</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="0" t="n">
         <v>2.77491749174917</v>
       </c>
-      <c r="R56" s="0" t="n">
-        <f aca="false">1/H56</f>
+      <c r="S56" s="0" t="n">
+        <f aca="false">1/I56</f>
         <v>0.360371075166509</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2018</v>
@@ -4427,21 +4601,24 @@
         <v>123</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="0" t="n">
         <v>127.6422764</v>
       </c>
-      <c r="P57" s="0" t="n">
+      <c r="Q57" s="0" t="n">
         <v>9.78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2018</v>
@@ -4453,15 +4630,18 @@
         <v>123</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2018</v>
@@ -4473,15 +4653,18 @@
         <v>123</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2018</v>
@@ -4493,22 +4676,25 @@
         <v>123</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="0" t="n">
         <v>8.21664180341455</v>
       </c>
-      <c r="R60" s="0" t="n">
-        <f aca="false">1/H60</f>
+      <c r="S60" s="0" t="n">
+        <f aca="false">1/I60</f>
         <v>0.121704222226705</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2018</v>
@@ -4520,31 +4706,34 @@
         <v>201</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="0" t="n">
         <v>18.53988134</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="I61" s="0" t="n">
         <v>6.92031090523671</v>
       </c>
-      <c r="I61" s="0" t="n">
+      <c r="J61" s="0" t="n">
         <v>206.4532045</v>
       </c>
-      <c r="P61" s="0" t="n">
+      <c r="Q61" s="0" t="n">
         <v>9.16</v>
       </c>
-      <c r="R61" s="0" t="n">
-        <f aca="false">1/H61</f>
+      <c r="S61" s="0" t="n">
+        <f aca="false">1/I61</f>
         <v>0.144502178253767</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2018</v>
@@ -4556,22 +4745,25 @@
         <v>201</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="0" t="n">
         <v>13.01269035533</v>
       </c>
-      <c r="R62" s="0" t="n">
-        <f aca="false">1/H62</f>
+      <c r="S62" s="0" t="n">
+        <f aca="false">1/I62</f>
         <v>0.0768480592939338</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2018</v>
@@ -4583,22 +4775,25 @@
         <v>201</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="0" t="n">
         <v>8.47593418422267</v>
       </c>
-      <c r="R63" s="0" t="n">
-        <f aca="false">1/H63</f>
+      <c r="S63" s="0" t="n">
+        <f aca="false">1/I63</f>
         <v>0.117981095448031</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2018</v>
@@ -4610,15 +4805,18 @@
         <v>201</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2018</v>
@@ -4630,15 +4828,18 @@
         <v>201</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2018</v>
@@ -4650,15 +4851,18 @@
         <v>201</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2018</v>
@@ -4670,15 +4874,18 @@
         <v>201</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>2018</v>
@@ -4690,15 +4897,18 @@
         <v>221</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2018</v>
@@ -4710,31 +4920,34 @@
         <v>221</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="0" t="n">
         <v>7.360697997</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="I69" s="0" t="n">
         <v>6.82834475297512</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="J69" s="0" t="n">
         <v>94.40429427</v>
       </c>
-      <c r="P69" s="0" t="n">
+      <c r="Q69" s="0" t="n">
         <v>9.27</v>
       </c>
-      <c r="R69" s="0" t="n">
-        <f aca="false">1/H69</f>
+      <c r="S69" s="0" t="n">
+        <f aca="false">1/I69</f>
         <v>0.146448376023237</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2018</v>
@@ -4746,15 +4959,18 @@
         <v>221</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>2018</v>
@@ -4766,15 +4982,18 @@
         <v>221</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2018</v>
@@ -4786,15 +5005,18 @@
         <v>221</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2018</v>
@@ -4806,22 +5028,25 @@
         <v>221</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" s="0" t="n">
         <v>8.58108995403808</v>
       </c>
-      <c r="R73" s="0" t="n">
-        <f aca="false">1/H73</f>
+      <c r="S73" s="0" t="n">
+        <f aca="false">1/I73</f>
         <v>0.116535312571735</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2018</v>
@@ -4833,31 +5058,34 @@
         <v>586</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="0" t="n">
         <v>5.35131205</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="I74" s="0" t="n">
         <v>6.19074177356386</v>
       </c>
-      <c r="I74" s="0" t="n">
+      <c r="J74" s="0" t="n">
         <v>54.4451539</v>
       </c>
-      <c r="P74" s="0" t="n">
+      <c r="Q74" s="0" t="n">
         <v>9.16</v>
       </c>
-      <c r="R74" s="0" t="n">
-        <f aca="false">1/H74</f>
+      <c r="S74" s="0" t="n">
+        <f aca="false">1/I74</f>
         <v>0.161531531531532</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2018</v>
@@ -4869,15 +5097,18 @@
         <v>586</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2018</v>
@@ -4889,15 +5120,18 @@
         <v>586</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2018</v>
@@ -4909,22 +5143,25 @@
         <v>586</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" s="0" t="n">
         <v>9.13349633251834</v>
       </c>
-      <c r="R77" s="0" t="n">
-        <f aca="false">1/H77</f>
+      <c r="S77" s="0" t="n">
+        <f aca="false">1/I77</f>
         <v>0.109487097119606</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2018</v>
@@ -4936,15 +5173,18 @@
         <v>586</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2018</v>
@@ -4956,28 +5196,31 @@
         <v>145</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="0" t="n">
         <v>16.09712027</v>
       </c>
-      <c r="H79" s="0" t="n">
+      <c r="I79" s="0" t="n">
         <v>6.04868549172347</v>
       </c>
-      <c r="I79" s="0" t="n">
+      <c r="J79" s="0" t="n">
         <v>20.25935053</v>
       </c>
-      <c r="R79" s="0" t="n">
-        <f aca="false">1/H79</f>
+      <c r="S79" s="0" t="n">
+        <f aca="false">1/I79</f>
         <v>0.165325177076626</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2018</v>
@@ -4989,31 +5232,34 @@
         <v>145</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I80" s="0" t="n">
         <v>8.32882462686567</v>
       </c>
-      <c r="L80" s="0" t="n">
+      <c r="M80" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="M80" s="0" t="n">
+      <c r="N80" s="0" t="n">
         <v>7.36</v>
       </c>
-      <c r="N80" s="0" t="n">
+      <c r="O80" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="R80" s="0" t="n">
-        <f aca="false">1/H80</f>
+      <c r="S80" s="0" t="n">
+        <f aca="false">1/I80</f>
         <v>0.120064960519684</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2018</v>
@@ -5025,22 +5271,25 @@
         <v>145</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="0" t="n">
         <v>12.3678756476684</v>
       </c>
-      <c r="R81" s="0" t="n">
-        <f aca="false">1/H81</f>
+      <c r="S81" s="0" t="n">
+        <f aca="false">1/I81</f>
         <v>0.080854629241726</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2018</v>
@@ -5052,28 +5301,31 @@
         <v>288</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="0" t="n">
         <v>9.216589862</v>
       </c>
-      <c r="H82" s="0" t="n">
+      <c r="I82" s="0" t="n">
         <v>7.42969396195203</v>
       </c>
-      <c r="I82" s="0" t="n">
+      <c r="J82" s="0" t="n">
         <v>113.4440422</v>
       </c>
-      <c r="R82" s="0" t="n">
-        <f aca="false">1/H82</f>
+      <c r="S82" s="0" t="n">
+        <f aca="false">1/I82</f>
         <v>0.134595045922627</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2018</v>
@@ -5085,28 +5337,31 @@
         <v>93</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" s="0" t="n">
         <v>13.12777285</v>
       </c>
-      <c r="H83" s="0" t="n">
+      <c r="I83" s="0" t="n">
         <v>9.40529531568228</v>
       </c>
-      <c r="I83" s="0" t="n">
+      <c r="J83" s="0" t="n">
         <v>29.19970064</v>
       </c>
-      <c r="R83" s="0" t="n">
-        <f aca="false">1/H83</f>
+      <c r="S83" s="0" t="n">
+        <f aca="false">1/I83</f>
         <v>0.106323083585968</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2018</v>
@@ -5118,31 +5373,34 @@
         <v>93</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="0" t="n">
         <v>8.89652777777778</v>
       </c>
-      <c r="L84" s="0" t="n">
+      <c r="M84" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="M84" s="0" t="n">
+      <c r="N84" s="0" t="n">
         <v>12.96</v>
       </c>
-      <c r="N84" s="0" t="n">
+      <c r="O84" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="R84" s="0" t="n">
-        <f aca="false">1/H84</f>
+      <c r="S84" s="0" t="n">
+        <f aca="false">1/I84</f>
         <v>0.112403403325267</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>2018</v>
@@ -5154,22 +5412,25 @@
         <v>93</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="0" t="n">
         <v>10.8880952380952</v>
       </c>
-      <c r="R85" s="0" t="n">
-        <f aca="false">1/H85</f>
+      <c r="S85" s="0" t="n">
+        <f aca="false">1/I85</f>
         <v>0.091843428821343</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2018</v>
@@ -5181,31 +5442,34 @@
         <v>143</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" s="0" t="n">
         <v>54.63414634</v>
       </c>
-      <c r="H86" s="0" t="n">
+      <c r="I86" s="0" t="n">
         <v>12.2922794117647</v>
       </c>
-      <c r="I86" s="0" t="n">
+      <c r="J86" s="0" t="n">
         <v>44.60837344</v>
       </c>
-      <c r="P86" s="0" t="n">
+      <c r="Q86" s="0" t="n">
         <v>9.4</v>
       </c>
-      <c r="R86" s="0" t="n">
-        <f aca="false">1/H86</f>
+      <c r="S86" s="0" t="n">
+        <f aca="false">1/I86</f>
         <v>0.0813518767758337</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2018</v>
@@ -5217,15 +5481,18 @@
         <v>143</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2018</v>
@@ -5237,15 +5504,18 @@
         <v>143</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2018</v>
@@ -5257,15 +5527,18 @@
         <v>143</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2018</v>
@@ -5277,22 +5550,25 @@
         <v>143</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" s="0" t="n">
         <v>8.09428794992175</v>
       </c>
-      <c r="R90" s="0" t="n">
-        <f aca="false">1/H90</f>
+      <c r="S90" s="0" t="n">
+        <f aca="false">1/I90</f>
         <v>0.123543912223887</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2018</v>
@@ -5304,15 +5580,18 @@
         <v>143</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2018</v>
@@ -5324,28 +5603,31 @@
         <v>843</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" s="0" t="n">
         <v>4.51894411621226</v>
       </c>
-      <c r="I92" s="0" t="n">
+      <c r="J92" s="0" t="n">
         <v>28.51596639</v>
       </c>
-      <c r="P92" s="0" t="n">
+      <c r="Q92" s="0" t="n">
         <v>10.3</v>
       </c>
-      <c r="R92" s="0" t="n">
-        <f aca="false">1/H92</f>
+      <c r="S92" s="0" t="n">
+        <f aca="false">1/I92</f>
         <v>0.221290632121866</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2018</v>
@@ -5357,18 +5639,21 @@
         <v>843</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="P93" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q93" s="0" t="n">
         <v>15.82</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2018</v>
@@ -5380,15 +5665,18 @@
         <v>843</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>2018</v>
@@ -5400,15 +5688,18 @@
         <v>843</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2018</v>
@@ -5420,13 +5711,16 @@
         <v>843</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" s="0" t="n">
         <v>8.58502772643253</v>
       </c>
-      <c r="R96" s="0" t="n">
-        <f aca="false">1/H96</f>
+      <c r="S96" s="0" t="n">
+        <f aca="false">1/I96</f>
         <v>0.116481860264829</v>
       </c>
     </row>
@@ -5452,25 +5746,25 @@
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50</v>
@@ -5485,7 +5779,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>93</v>
@@ -5500,7 +5794,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>120</v>
@@ -5515,7 +5809,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>122</v>
@@ -5530,7 +5824,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>143</v>
@@ -5545,7 +5839,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>145</v>
@@ -5560,7 +5854,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>190</v>
@@ -5575,7 +5869,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>201</v>
@@ -5590,7 +5884,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>221</v>
@@ -5605,7 +5899,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>288</v>
@@ -5620,7 +5914,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>586</v>
@@ -5635,7 +5929,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>843</v>
@@ -5653,18 +5947,18 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>85</v>
@@ -5679,7 +5973,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>87</v>
@@ -5694,7 +5988,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>121</v>
@@ -5709,7 +6003,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>147</v>
@@ -5724,7 +6018,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>151</v>
@@ -5739,7 +6033,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>368</v>
@@ -5754,7 +6048,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>586</v>
@@ -5786,11 +6080,11 @@
   </sheetPr>
   <dimension ref="A1:M215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K137" activeCellId="0" sqref="K137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.16"/>
@@ -5820,33 +6114,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2018</v>
@@ -5867,15 +6161,15 @@
         <v>1154.6</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2018</v>
@@ -5896,15 +6190,15 @@
         <v>289.46</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2018</v>
@@ -5925,15 +6219,15 @@
         <v>114.51</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2018</v>
@@ -5954,15 +6248,15 @@
         <v>336.77</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2018</v>
@@ -5980,21 +6274,21 @@
         <v>65.03</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>59.73</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2018</v>
@@ -6009,18 +6303,18 @@
         <v>78.26</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2018</v>
@@ -6041,12 +6335,12 @@
         <v>10.61</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2018</v>
@@ -6067,12 +6361,12 @@
         <v>19.39</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
@@ -6093,12 +6387,12 @@
         <v>17.77</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2018</v>
@@ -6113,18 +6407,18 @@
         <v>90.08</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2018</v>
@@ -6142,21 +6436,21 @@
         <v>67.21</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>3587.73</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2018</v>
@@ -6171,18 +6465,18 @@
         <v>40.09</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2018</v>
@@ -6197,18 +6491,18 @@
         <v>83.35</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2018</v>
@@ -6229,12 +6523,12 @@
         <v>154.25</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2018</v>
@@ -6255,12 +6549,12 @@
         <v>19.5</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2018</v>
@@ -6281,12 +6575,12 @@
         <v>271.38</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2018</v>
@@ -6307,12 +6601,12 @@
         <v>19.72</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2018</v>
@@ -6333,15 +6627,15 @@
         <v>108.91</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2018</v>
@@ -6359,21 +6653,21 @@
         <v>94.83</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>720.97</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2018</v>
@@ -6394,12 +6688,12 @@
         <v>10.35</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2018</v>
@@ -6420,12 +6714,12 @@
         <v>23.43</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2018</v>
@@ -6446,12 +6740,12 @@
         <v>18.68</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2018</v>
@@ -6472,12 +6766,12 @@
         <v>8.61</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2018</v>
@@ -6495,21 +6789,21 @@
         <v>91.12</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>1274.2</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2018</v>
@@ -6530,12 +6824,12 @@
         <v>75.77</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2018</v>
@@ -6553,21 +6847,21 @@
         <v>57.09</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>121.93</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2018</v>
@@ -6588,15 +6882,15 @@
         <v>33.05</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2018</v>
@@ -6614,21 +6908,21 @@
         <v>48.02</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>819.69</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2018</v>
@@ -6646,21 +6940,21 @@
         <v>91.91</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>603.87</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2018</v>
@@ -6678,21 +6972,21 @@
         <v>50.98</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1149.86</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2018</v>
@@ -6710,21 +7004,21 @@
         <v>78.31</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>483.21</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2018</v>
@@ -6742,21 +7036,21 @@
         <v>59.08</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>2.75</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2018</v>
@@ -6777,15 +7071,15 @@
         <v>4.72</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2018</v>
@@ -6806,12 +7100,12 @@
         <v>7.18</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2018</v>
@@ -6832,12 +7126,12 @@
         <v>4.89</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2018</v>
@@ -6858,12 +7152,12 @@
         <v>9.16</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2018</v>
@@ -6881,21 +7175,21 @@
         <v>66.96</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1081.05</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2018</v>
@@ -6916,12 +7210,12 @@
         <v>146.88</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2018</v>
@@ -6942,12 +7236,12 @@
         <v>9.78</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2018</v>
@@ -6968,15 +7262,15 @@
         <v>73.41</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2018</v>
@@ -6994,21 +7288,21 @@
         <v>70.27</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>76.87</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2018</v>
@@ -7026,21 +7320,21 @@
         <v>48.19</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>1906.01</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2018</v>
@@ -7058,21 +7352,21 @@
         <v>46.36</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>2013.71</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2018</v>
@@ -7093,12 +7387,12 @@
         <v>247.55</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2018</v>
@@ -7119,15 +7413,15 @@
         <v>400.75</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2018</v>
@@ -7148,15 +7442,15 @@
         <v>18.06</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2018</v>
@@ -7177,12 +7471,12 @@
         <v>14.5</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2018</v>
@@ -7203,12 +7497,12 @@
         <v>15.82</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2018</v>
@@ -7229,12 +7523,12 @@
         <v>9.4</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2018</v>
@@ -7255,12 +7549,12 @@
         <v>9.27</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2018</v>
@@ -7281,12 +7575,12 @@
         <v>20.17</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2018</v>
@@ -7307,12 +7601,12 @@
         <v>9.16</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2018</v>
@@ -7333,12 +7627,12 @@
         <v>10.3</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2018</v>
@@ -7353,18 +7647,18 @@
         <v>31.8</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2018</v>
@@ -7382,21 +7676,21 @@
         <v>69.43</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>20.87</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2018</v>
@@ -7417,15 +7711,15 @@
         <v>19.53</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2018</v>
@@ -7446,12 +7740,12 @@
         <v>12.86</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2018</v>
@@ -7472,15 +7766,15 @@
         <v>611.6</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2018</v>
@@ -7498,21 +7792,21 @@
         <v>91.73</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>146.96</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2018</v>
@@ -7533,15 +7827,15 @@
         <v>399.46</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2018</v>
@@ -7562,15 +7856,15 @@
         <v>235.88</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2018</v>
@@ -7588,21 +7882,21 @@
         <v>57.38</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>33.37</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2018</v>
@@ -7617,18 +7911,18 @@
         <v>76.41</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2018</v>
@@ -7649,12 +7943,12 @@
         <v>9.4</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2018</v>
@@ -7675,12 +7969,12 @@
         <v>18.4</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2018</v>
@@ -7701,12 +7995,12 @@
         <v>14.29</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>2018</v>
@@ -7724,21 +8018,21 @@
         <v>81.26</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>444.27</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2018</v>
@@ -7756,21 +8050,21 @@
         <v>66.14</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>1682.55</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2018</v>
@@ -7788,21 +8082,21 @@
         <v>43.6</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>306.21</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>2018</v>
@@ -7820,21 +8114,21 @@
         <v>77.62</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>242.35</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2018</v>
@@ -7855,12 +8149,12 @@
         <v>202.26</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2018</v>
@@ -7881,12 +8175,12 @@
         <v>17.52</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2018</v>
@@ -7907,12 +8201,12 @@
         <v>246.29</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2018</v>
@@ -7933,12 +8227,12 @@
         <v>17.65</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2018</v>
@@ -7959,15 +8253,15 @@
         <v>95.24</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2018</v>
@@ -7985,18 +8279,18 @@
         <v>70.21</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>113.86</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2018</v>
@@ -8017,12 +8311,12 @@
         <v>10.41</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2018</v>
@@ -8043,12 +8337,12 @@
         <v>20.92</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2018</v>
@@ -8069,12 +8363,12 @@
         <v>15.22</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2018</v>
@@ -8095,12 +8389,12 @@
         <v>9.08</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2018</v>
@@ -8118,21 +8412,21 @@
         <v>89.05</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>718.18</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2018</v>
@@ -8153,12 +8447,12 @@
         <v>61.76</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2018</v>
@@ -8176,21 +8470,21 @@
         <v>55.58</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>51.43</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>2018</v>
@@ -8211,15 +8505,15 @@
         <v>33.91</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2018</v>
@@ -8237,21 +8531,21 @@
         <v>42.17</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>848.87</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2018</v>
@@ -8269,18 +8563,18 @@
         <v>86.17</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>168.35</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2018</v>
@@ -8298,21 +8592,21 @@
         <v>42.04</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>200.85</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2018</v>
@@ -8330,21 +8624,21 @@
         <v>74.73</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>233.03</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2018</v>
@@ -8359,18 +8653,18 @@
         <v>50.56</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2018</v>
@@ -8388,21 +8682,21 @@
         <v>97.92</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>9.36</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2018</v>
@@ -8423,12 +8717,12 @@
         <v>10.03</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2018</v>
@@ -8449,12 +8743,12 @@
         <v>8.92</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2018</v>
@@ -8475,12 +8769,12 @@
         <v>9.53</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>2018</v>
@@ -8498,21 +8792,21 @@
         <v>51.27</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>618.92</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2018</v>
@@ -8533,12 +8827,12 @@
         <v>140.73</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>2018</v>
@@ -8559,12 +8853,12 @@
         <v>9.78</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>2018</v>
@@ -8582,21 +8876,21 @@
         <v>92.36</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>66.32</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>2018</v>
@@ -8614,21 +8908,21 @@
         <v>62.12</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>49.3</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>2018</v>
@@ -8646,21 +8940,21 @@
         <v>47.74</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>1059.7</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>2018</v>
@@ -8678,21 +8972,21 @@
         <v>45.73</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>1176.91</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>2018</v>
@@ -8713,15 +9007,15 @@
         <v>337.64</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>2018</v>
@@ -8742,12 +9036,12 @@
         <v>342.16</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>2018</v>
@@ -8768,12 +9062,12 @@
         <v>15.19</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>2018</v>
@@ -8794,12 +9088,12 @@
         <v>13.63</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>2018</v>
@@ -8820,12 +9114,12 @@
         <v>15.03</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>2018</v>
@@ -8846,12 +9140,12 @@
         <v>9.35</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>2018</v>
@@ -8872,12 +9166,12 @@
         <v>9.29</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>2018</v>
@@ -8898,12 +9192,12 @@
         <v>18.48</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>2018</v>
@@ -8924,12 +9218,12 @@
         <v>10.08</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>2018</v>
@@ -8950,12 +9244,12 @@
         <v>10.56</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>2018</v>
@@ -8970,18 +9264,18 @@
         <v>34.03</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>2018</v>
@@ -8999,21 +9293,21 @@
         <v>66.87</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>18.08</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>2018</v>
@@ -9034,15 +9328,15 @@
         <v>15.45</v>
       </c>
       <c r="L114" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>2018</v>
@@ -9063,12 +9357,12 @@
         <v>10.63</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>2018</v>
@@ -9086,21 +9380,21 @@
         <v>69.11</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>2514.46</v>
       </c>
       <c r="L116" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>2018</v>
@@ -9121,15 +9415,15 @@
         <v>205.33</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>2018</v>
@@ -9144,18 +9438,18 @@
         <v>21.19</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>2018</v>
@@ -9173,21 +9467,21 @@
         <v>76.26</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K119" s="0" t="n">
         <v>204.28</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>2018</v>
@@ -9208,15 +9502,15 @@
         <v>21.59</v>
       </c>
       <c r="L120" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>2018</v>
@@ -9234,21 +9528,21 @@
         <v>28.9</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>992.57</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>2018</v>
@@ -9266,21 +9560,21 @@
         <v>69.32</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>91.32</v>
       </c>
       <c r="L122" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M122" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>2018</v>
@@ -9301,12 +9595,12 @@
         <v>16.61</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2018</v>
@@ -9324,21 +9618,21 @@
         <v>47.16</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>42.42</v>
       </c>
       <c r="L124" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2018</v>
@@ -9359,12 +9653,12 @@
         <v>16.93</v>
       </c>
       <c r="M125" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2018</v>
@@ -9385,12 +9679,12 @@
         <v>13.83</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2018</v>
@@ -9411,12 +9705,12 @@
         <v>13.7</v>
       </c>
       <c r="M127" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2018</v>
@@ -9437,12 +9731,12 @@
         <v>18.2</v>
       </c>
       <c r="M128" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>2018</v>
@@ -9463,12 +9757,12 @@
         <v>17.16</v>
       </c>
       <c r="M129" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>2018</v>
@@ -9489,15 +9783,15 @@
         <v>686.25</v>
       </c>
       <c r="L130" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2018</v>
@@ -9515,21 +9809,21 @@
         <v>47.71</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>3116.31</v>
       </c>
       <c r="L131" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M131" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2018</v>
@@ -9547,21 +9841,21 @@
         <v>50.5</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>179.92</v>
       </c>
       <c r="L132" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2018</v>
@@ -9579,21 +9873,21 @@
         <v>45.35</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>20.93</v>
       </c>
       <c r="L133" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M133" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2018</v>
@@ -9614,15 +9908,15 @@
         <v>236.08</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>2018</v>
@@ -9643,15 +9937,15 @@
         <v>19.05</v>
       </c>
       <c r="L135" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>2018</v>
@@ -9666,18 +9960,18 @@
         <v>70.32</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L136" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>2018</v>
@@ -9695,21 +9989,21 @@
         <v>55.53</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>8.73</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>2018</v>
@@ -9727,21 +10021,21 @@
         <v>100.49</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>154.61</v>
       </c>
       <c r="L138" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M138" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>2018</v>
@@ -9756,18 +10050,18 @@
         <v>34.87</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L139" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>2018</v>
@@ -9785,21 +10079,21 @@
         <v>92.47</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>1007.16</v>
       </c>
       <c r="L140" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M140" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>2018</v>
@@ -9817,21 +10111,21 @@
         <v>53.91</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>3023.61</v>
       </c>
       <c r="L141" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2018</v>
@@ -9849,21 +10143,21 @@
         <v>55.2</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>362.69</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M142" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>2018</v>
@@ -9881,21 +10175,21 @@
         <v>84.3</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>78.64</v>
       </c>
       <c r="L143" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M143" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>2018</v>
@@ -9913,21 +10207,21 @@
         <v>79.86</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>454.14</v>
       </c>
       <c r="L144" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M144" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>2018</v>
@@ -9945,21 +10239,21 @@
         <v>44.6</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>142.04</v>
       </c>
       <c r="L145" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M145" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>2018</v>
@@ -9977,21 +10271,21 @@
         <v>61.33</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>37.69</v>
       </c>
       <c r="L146" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>2018</v>
@@ -10009,21 +10303,21 @@
         <v>54.17</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>892.99</v>
       </c>
       <c r="L147" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>2018</v>
@@ -10041,21 +10335,21 @@
         <v>29.43</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>108.72</v>
       </c>
       <c r="L148" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>2018</v>
@@ -10073,21 +10367,21 @@
         <v>48.18</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>2539.49</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>2018</v>
@@ -10105,21 +10399,21 @@
         <v>49.91</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>70.64</v>
       </c>
       <c r="L150" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>2018</v>
@@ -10137,21 +10431,21 @@
         <v>74.72</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>1192.33</v>
       </c>
       <c r="L151" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>2018</v>
@@ -10169,21 +10463,21 @@
         <v>47.45</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>192.26</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>2018</v>
@@ -10204,15 +10498,15 @@
         <v>579.12</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M153" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>2018</v>
@@ -10227,18 +10521,18 @@
         <v>56.59</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L154" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M154" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>2018</v>
@@ -10256,21 +10550,21 @@
         <v>81.09</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>47.32</v>
       </c>
       <c r="L155" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>2018</v>
@@ -10288,21 +10582,21 @@
         <v>42.38</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>33.53</v>
       </c>
       <c r="L156" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>2018</v>
@@ -10323,12 +10617,12 @@
         <v>14.37</v>
       </c>
       <c r="M157" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>2018</v>
@@ -10346,21 +10640,21 @@
         <v>41.93</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>261.59</v>
       </c>
       <c r="L158" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M158" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>2018</v>
@@ -10378,21 +10672,21 @@
         <v>96.09</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>42.62</v>
       </c>
       <c r="L159" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>2018</v>
@@ -10410,21 +10704,21 @@
         <v>64.26</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>36.75</v>
       </c>
       <c r="L160" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>2018</v>
@@ -10442,21 +10736,21 @@
         <v>57.9</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>53.42</v>
       </c>
       <c r="L161" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M161" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>2018</v>
@@ -10474,21 +10768,21 @@
         <v>91.75</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>27.03</v>
       </c>
       <c r="L162" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>2018</v>
@@ -10506,21 +10800,21 @@
         <v>60.4</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>57.71</v>
       </c>
       <c r="L163" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M163" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>2018</v>
@@ -10541,15 +10835,15 @@
         <v>94.31</v>
       </c>
       <c r="L164" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M164" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>2018</v>
@@ -10567,21 +10861,21 @@
         <v>77.9</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>21.35</v>
       </c>
       <c r="L165" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M165" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>2018</v>
@@ -10599,21 +10893,21 @@
         <v>78.85</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>202.6</v>
       </c>
       <c r="L166" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M166" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>2018</v>
@@ -10634,15 +10928,15 @@
         <v>166.29</v>
       </c>
       <c r="L167" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M167" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>2018</v>
@@ -10660,21 +10954,21 @@
         <v>19.41</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>245.63</v>
       </c>
       <c r="L168" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M168" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>2018</v>
@@ -10692,21 +10986,21 @@
         <v>60.58</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>98.68</v>
       </c>
       <c r="L169" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M169" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>2018</v>
@@ -10724,21 +11018,21 @@
         <v>88.8</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>19.09</v>
       </c>
       <c r="L170" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>2018</v>
@@ -10756,18 +11050,18 @@
         <v>47.42</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>46.16</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>2018</v>
@@ -10785,21 +11079,21 @@
         <v>67.83</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>50.13</v>
       </c>
       <c r="L172" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M172" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>2018</v>
@@ -10820,12 +11114,12 @@
         <v>14.55</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>2018</v>
@@ -10843,21 +11137,21 @@
         <v>42.2</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K174" s="0" t="n">
         <v>40.07</v>
       </c>
       <c r="L174" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>2018</v>
@@ -10878,12 +11172,12 @@
         <v>17.91</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>2018</v>
@@ -10904,12 +11198,12 @@
         <v>14.92</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>2018</v>
@@ -10930,12 +11224,12 @@
         <v>14.01</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>2018</v>
@@ -10956,12 +11250,12 @@
         <v>13.85</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>2018</v>
@@ -10982,12 +11276,12 @@
         <v>16.06</v>
       </c>
       <c r="M179" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>2018</v>
@@ -11008,15 +11302,15 @@
         <v>460.13</v>
       </c>
       <c r="L180" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M180" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>2018</v>
@@ -11034,21 +11328,21 @@
         <v>49.86</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K181" s="0" t="n">
         <v>1073.08</v>
       </c>
       <c r="L181" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M181" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>2018</v>
@@ -11066,21 +11360,21 @@
         <v>61.46</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K182" s="0" t="n">
         <v>154.31</v>
       </c>
       <c r="L182" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M182" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>2018</v>
@@ -11098,21 +11392,21 @@
         <v>53.32</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K183" s="0" t="n">
         <v>18.63</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M183" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>2018</v>
@@ -11133,15 +11427,15 @@
         <v>129.52</v>
       </c>
       <c r="L184" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M184" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>2018</v>
@@ -11162,15 +11456,15 @@
         <v>20.8</v>
       </c>
       <c r="L185" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M185" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>2018</v>
@@ -11188,21 +11482,21 @@
         <v>65.52</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K186" s="0" t="n">
         <v>258.24</v>
       </c>
       <c r="L186" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M186" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>2018</v>
@@ -11220,21 +11514,21 @@
         <v>71.82</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K187" s="0" t="n">
         <v>24.01</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M187" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>2018</v>
@@ -11252,21 +11546,21 @@
         <v>86.41</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K188" s="0" t="n">
         <v>18.93</v>
       </c>
       <c r="L188" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M188" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>2018</v>
@@ -11284,21 +11578,21 @@
         <v>93.62</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K189" s="0" t="n">
         <v>47.85</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M189" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>2018</v>
@@ -11319,15 +11613,15 @@
         <v>483.35</v>
       </c>
       <c r="L190" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M190" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>2018</v>
@@ -11345,21 +11639,21 @@
         <v>72.48</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K191" s="0" t="n">
         <v>875.01</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M191" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>2018</v>
@@ -11377,21 +11671,21 @@
         <v>65.38</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K192" s="0" t="n">
         <v>195.5</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M192" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>2018</v>
@@ -11409,21 +11703,21 @@
         <v>70.01</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K193" s="0" t="n">
         <v>72.41</v>
       </c>
       <c r="L193" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M193" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>2018</v>
@@ -11441,21 +11735,21 @@
         <v>80.21</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K194" s="0" t="n">
         <v>273.9</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M194" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>2018</v>
@@ -11473,21 +11767,21 @@
         <v>57.27</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K195" s="0" t="n">
         <v>55.55</v>
       </c>
       <c r="L195" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M195" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>2018</v>
@@ -11505,21 +11799,21 @@
         <v>74.02</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K196" s="0" t="n">
         <v>24.07</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M196" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>2018</v>
@@ -11537,21 +11831,21 @@
         <v>73.53</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K197" s="0" t="n">
         <v>604.8</v>
       </c>
       <c r="L197" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M197" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>2018</v>
@@ -11569,21 +11863,21 @@
         <v>36.44</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K198" s="0" t="n">
         <v>50.75</v>
       </c>
       <c r="L198" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M198" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>2018</v>
@@ -11601,21 +11895,21 @@
         <v>51.74</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K199" s="0" t="n">
         <v>1362.49</v>
       </c>
       <c r="L199" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M199" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>2018</v>
@@ -11633,21 +11927,21 @@
         <v>49.09</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K200" s="0" t="n">
         <v>47.57</v>
       </c>
       <c r="L200" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M200" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>2018</v>
@@ -11665,21 +11959,21 @@
         <v>65.2</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K201" s="0" t="n">
         <v>171.6</v>
       </c>
       <c r="L201" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M201" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>2018</v>
@@ -11697,21 +11991,21 @@
         <v>58.06</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K202" s="0" t="n">
         <v>127.88</v>
       </c>
       <c r="L202" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M202" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>2018</v>
@@ -11732,15 +12026,15 @@
         <v>440.79</v>
       </c>
       <c r="L203" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M203" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>2018</v>
@@ -11758,21 +12052,21 @@
         <v>48.13</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K204" s="0" t="n">
         <v>356.31</v>
       </c>
       <c r="L204" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M204" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>2018</v>
@@ -11790,21 +12084,21 @@
         <v>67.83</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K205" s="0" t="n">
         <v>91.01</v>
       </c>
       <c r="L205" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M205" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>2018</v>
@@ -11822,21 +12116,21 @@
         <v>41.64</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K206" s="0" t="n">
         <v>11.95</v>
       </c>
       <c r="L206" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M206" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>2018</v>
@@ -11857,12 +12151,12 @@
         <v>13.46</v>
       </c>
       <c r="M207" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>2018</v>
@@ -11880,21 +12174,21 @@
         <v>58.67</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K208" s="0" t="n">
         <v>168.4</v>
       </c>
       <c r="L208" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M208" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>2018</v>
@@ -11912,21 +12206,21 @@
         <v>89.45</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K209" s="0" t="n">
         <v>40.75</v>
       </c>
       <c r="L209" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M209" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>2018</v>
@@ -11944,21 +12238,21 @@
         <v>94.51</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K210" s="0" t="n">
         <v>22.43</v>
       </c>
       <c r="L210" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M210" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>2018</v>
@@ -11976,21 +12270,21 @@
         <v>67.14</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K211" s="0" t="n">
         <v>43.34</v>
       </c>
       <c r="L211" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M211" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>2018</v>
@@ -12008,21 +12302,21 @@
         <v>90.43</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K212" s="0" t="n">
         <v>26.93</v>
       </c>
       <c r="L212" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M212" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>2018</v>
@@ -12040,21 +12334,21 @@
         <v>55.14</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K213" s="0" t="n">
         <v>73.17</v>
       </c>
       <c r="L213" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M213" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>2018</v>
@@ -12072,21 +12366,21 @@
         <v>99.64</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K214" s="0" t="n">
         <v>75.46</v>
       </c>
       <c r="L214" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M214" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>2018</v>
@@ -12104,16 +12398,16 @@
         <v>78.08</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K215" s="0" t="n">
         <v>24.82</v>
       </c>
       <c r="L215" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M215" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="360">
   <si>
     <t xml:space="preserve">sample id</t>
   </si>
@@ -45,6 +45,9 @@
     <t xml:space="preserve">Chamber</t>
   </si>
   <si>
+    <t xml:space="preserve">Incubation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flux (mg/m2/day)</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
     <t xml:space="preserve">particles</t>
   </si>
   <si>
+    <t xml:space="preserve">NO2</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-30_151m_ctl</t>
   </si>
   <si>
@@ -117,12 +123,18 @@
     <t xml:space="preserve">top</t>
   </si>
   <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
     <t xml:space="preserve">3-32_147m_top</t>
   </si>
   <si>
     <t xml:space="preserve">3-32_147m_+P_remainder</t>
   </si>
   <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
     <t xml:space="preserve">3-32_147m_ctl</t>
   </si>
   <si>
@@ -343,6 +355,9 @@
   </si>
   <si>
     <t xml:space="preserve">2-43_288m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fe</t>
   </si>
   <si>
     <t xml:space="preserve">3-44_93m_top</t>
@@ -1266,7 +1281,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1467,11 +1482,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="47249765"/>
-        <c:axId val="97075186"/>
+        <c:axId val="92840968"/>
+        <c:axId val="9938350"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47249765"/>
+        <c:axId val="92840968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,12 +1542,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97075186"/>
+        <c:crossAx val="9938350"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97075186"/>
+        <c:axId val="9938350"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1597,7 +1612,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47249765"/>
+        <c:crossAx val="92840968"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1645,7 +1660,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1816,11 +1831,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="51618569"/>
-        <c:axId val="51589986"/>
+        <c:axId val="40008330"/>
+        <c:axId val="34000887"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51618569"/>
+        <c:axId val="40008330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,12 +1891,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51589986"/>
+        <c:crossAx val="34000887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51589986"/>
+        <c:axId val="34000887"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1946,7 +1961,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51618569"/>
+        <c:crossAx val="40008330"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1994,7 +2009,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2195,11 +2210,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="68430740"/>
-        <c:axId val="8196771"/>
+        <c:axId val="26747368"/>
+        <c:axId val="76926831"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68430740"/>
+        <c:axId val="26747368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,12 +2270,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8196771"/>
+        <c:crossAx val="76926831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8196771"/>
+        <c:axId val="76926831"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2325,7 +2340,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68430740"/>
+        <c:crossAx val="26747368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2373,7 +2388,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2544,11 +2559,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="17831098"/>
-        <c:axId val="61726390"/>
+        <c:axId val="40188192"/>
+        <c:axId val="2107528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17831098"/>
+        <c:axId val="40188192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,12 +2619,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61726390"/>
+        <c:crossAx val="2107528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61726390"/>
+        <c:axId val="2107528"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2674,7 +2689,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17831098"/>
+        <c:crossAx val="40188192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2733,9 +2748,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
+      <xdr:colOff>714240</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2743,8 +2758,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5157000" y="86040"/>
-        <a:ext cx="5524560" cy="4546440"/>
+        <a:off x="5164560" y="86040"/>
+        <a:ext cx="5531760" cy="4546080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2763,9 +2778,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>221040</xdr:colOff>
+      <xdr:colOff>220680</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2773,8 +2788,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5150160" y="4925160"/>
-        <a:ext cx="5037840" cy="4718160"/>
+        <a:off x="5157720" y="4925160"/>
+        <a:ext cx="5045040" cy="4717800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2793,9 +2808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>600840</xdr:colOff>
+      <xdr:colOff>600480</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2803,8 +2818,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10857240" y="0"/>
-        <a:ext cx="5524560" cy="4546080"/>
+        <a:off x="10873800" y="0"/>
+        <a:ext cx="5531760" cy="4545720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2823,9 +2838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>94320</xdr:colOff>
+      <xdr:colOff>93960</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2833,8 +2848,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10837440" y="4973040"/>
-        <a:ext cx="5037840" cy="4718160"/>
+        <a:off x="10854000" y="4973040"/>
+        <a:ext cx="5045040" cy="4717800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2852,13 +2867,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S96"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A93" activeCellId="0" sqref="93:93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
@@ -2866,10 +2881,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,7 +2924,7 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -2918,25 +2933,28 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2018</v>
@@ -2948,21 +2966,21 @@
         <v>100</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1"/>
+        <v>22</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="0" t="n">
         <v>9.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2018</v>
@@ -2974,43 +2992,46 @@
         <v>151</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>59.93179319</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>12.3127516778524</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>114.4817664</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>4.07</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>4.2</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>21.1</v>
       </c>
-      <c r="S3" s="0" t="n">
-        <f aca="false">1/I3</f>
+      <c r="T3" s="0" t="n">
+        <f aca="false">1/J3</f>
         <v>0.0812166139757982</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2018</v>
@@ -3022,25 +3043,28 @@
         <v>151</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>58.1495726495727</v>
       </c>
-      <c r="S4" s="0" t="n">
-        <f aca="false">1/I4</f>
+      <c r="T4" s="0" t="n">
+        <f aca="false">1/J4</f>
         <v>0.0171970309399574</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2018</v>
@@ -3052,31 +3076,34 @@
         <v>121</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <v>140.2346446</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>25.7815533980582</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>142.1919526</v>
       </c>
-      <c r="S5" s="0" t="n">
-        <f aca="false">1/I5</f>
+      <c r="T5" s="0" t="n">
+        <f aca="false">1/J5</f>
         <v>0.0387874223310112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2018</v>
@@ -3088,25 +3115,28 @@
         <v>121</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>76.4009433962264</v>
       </c>
-      <c r="S6" s="0" t="n">
-        <f aca="false">1/I6</f>
+      <c r="T6" s="0" t="n">
+        <f aca="false">1/J6</f>
         <v>0.0130888436130148</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2018</v>
@@ -3118,18 +3148,21 @@
         <v>147</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2018</v>
@@ -3141,24 +3174,27 @@
         <v>147</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>135.5691057</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>6.088336976</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2018</v>
@@ -3170,18 +3206,21 @@
         <v>147</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
@@ -3193,25 +3232,28 @@
         <v>147</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>20.0629370629371</v>
       </c>
-      <c r="S10" s="0" t="n">
-        <f aca="false">1/I10</f>
+      <c r="T10" s="0" t="n">
+        <f aca="false">1/J10</f>
         <v>0.0498431509236667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2018</v>
@@ -3223,25 +3265,28 @@
         <v>147</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>9.29615547106041</v>
       </c>
-      <c r="S11" s="0" t="n">
-        <f aca="false">1/I11</f>
+      <c r="T11" s="0" t="n">
+        <f aca="false">1/J11</f>
         <v>0.107571350663516</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2018</v>
@@ -3253,18 +3298,21 @@
         <v>147</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2018</v>
@@ -3276,18 +3324,21 @@
         <v>147</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2018</v>
@@ -3299,18 +3350,21 @@
         <v>147</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2018</v>
@@ -3322,31 +3376,34 @@
         <v>368</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <v>5.577733349</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>6.00653518496908</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>36.77803059</v>
       </c>
-      <c r="S15" s="0" t="n">
-        <f aca="false">1/I15</f>
+      <c r="T15" s="0" t="n">
+        <f aca="false">1/J15</f>
         <v>0.166485331260929</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2018</v>
@@ -3358,34 +3415,37 @@
         <v>368</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <v>7.78433862433862</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>375</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>12.09</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="S16" s="0" t="n">
-        <f aca="false">1/I16</f>
+      <c r="T16" s="0" t="n">
+        <f aca="false">1/J16</f>
         <v>0.128463065169517</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2018</v>
@@ -3397,25 +3457,28 @@
         <v>368</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>31.2538461538462</v>
       </c>
-      <c r="S17" s="0" t="n">
-        <f aca="false">1/I17</f>
+      <c r="T17" s="0" t="n">
+        <f aca="false">1/J17</f>
         <v>0.0319960620231356</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2018</v>
@@ -3427,18 +3490,21 @@
         <v>368</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2018</v>
@@ -3450,18 +3516,21 @@
         <v>368</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2018</v>
@@ -3473,25 +3542,28 @@
         <v>368</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="0" t="n">
         <v>7.1683748169839</v>
       </c>
-      <c r="S20" s="0" t="n">
-        <f aca="false">1/I20</f>
+      <c r="T20" s="0" t="n">
+        <f aca="false">1/J20</f>
         <v>0.139501633986928</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2018</v>
@@ -3503,31 +3575,34 @@
         <v>586</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="0" t="n">
         <v>8.164440297</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>8.00515093435553</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>49.69913676</v>
       </c>
-      <c r="S21" s="0" t="n">
-        <f aca="false">1/I21</f>
+      <c r="T21" s="0" t="n">
+        <f aca="false">1/J21</f>
         <v>0.124919568437907</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2018</v>
@@ -3539,25 +3614,28 @@
         <v>586</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="0" t="n">
         <v>7.24497117232543</v>
       </c>
-      <c r="S22" s="0" t="n">
-        <f aca="false">1/I22</f>
+      <c r="T22" s="0" t="n">
+        <f aca="false">1/J22</f>
         <v>0.138026774187844</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2018</v>
@@ -3569,18 +3647,21 @@
         <v>586</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2018</v>
@@ -3592,28 +3673,31 @@
         <v>586</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="0" t="n">
         <v>10.5844394527262</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>17.77</v>
       </c>
-      <c r="S24" s="0" t="n">
-        <f aca="false">1/I24</f>
+      <c r="T24" s="0" t="n">
+        <f aca="false">1/J24</f>
         <v>0.0944783145547149</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2018</v>
@@ -3625,31 +3709,34 @@
         <v>87</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="0" t="n">
         <v>24.18012422</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>4.72782874617737</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>54.81517583</v>
       </c>
-      <c r="S25" s="0" t="n">
-        <f aca="false">1/I25</f>
+      <c r="T25" s="0" t="n">
+        <f aca="false">1/J25</f>
         <v>0.211513583441138</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2018</v>
@@ -3661,34 +3748,37 @@
         <v>87</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="0" t="n">
         <v>4.95272525027809</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>38.5</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>7.32</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="S26" s="0" t="n">
-        <f aca="false">1/I26</f>
+      <c r="T26" s="0" t="n">
+        <f aca="false">1/J26</f>
         <v>0.201909039865244</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2018</v>
@@ -3700,25 +3790,28 @@
         <v>87</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>10.8071895424837</v>
       </c>
-      <c r="S27" s="0" t="n">
-        <f aca="false">1/I27</f>
+      <c r="T27" s="0" t="n">
+        <f aca="false">1/J27</f>
         <v>0.0925309948593888</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2018</v>
@@ -3730,28 +3823,31 @@
         <v>221</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="0" t="n">
         <v>11.6933911159263</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>55.89644311</v>
       </c>
-      <c r="S28" s="0" t="n">
-        <f aca="false">1/I28</f>
+      <c r="T28" s="0" t="n">
+        <f aca="false">1/J28</f>
         <v>0.085518391550079</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2018</v>
@@ -3763,34 +3859,37 @@
         <v>221</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="0" t="n">
         <v>2.63057324840764</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>18.46</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>2.2</v>
       </c>
-      <c r="S29" s="0" t="n">
-        <f aca="false">1/I29</f>
+      <c r="T29" s="0" t="n">
+        <f aca="false">1/J29</f>
         <v>0.380145278450364</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2018</v>
@@ -3802,25 +3901,28 @@
         <v>221</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>5.58258642765685</v>
       </c>
-      <c r="S30" s="0" t="n">
-        <f aca="false">1/I30</f>
+      <c r="T30" s="0" t="n">
+        <f aca="false">1/J30</f>
         <v>0.179128440366972</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2018</v>
@@ -3832,31 +3934,34 @@
         <v>85</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="0" t="n">
         <v>26.58868425</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>6.12341352528888</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>115.1818194</v>
       </c>
-      <c r="S31" s="0" t="n">
-        <f aca="false">1/I31</f>
+      <c r="T31" s="0" t="n">
+        <f aca="false">1/J31</f>
         <v>0.163307605450805</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2018</v>
@@ -3868,37 +3973,40 @@
         <v>85</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="0" t="n">
         <v>5.66409124356144</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>530</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>21.09</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>7.18</v>
       </c>
-      <c r="S32" s="0" t="n">
-        <f aca="false">1/I32</f>
+      <c r="T32" s="0" t="n">
+        <f aca="false">1/J32</f>
         <v>0.176550828190971</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2018</v>
@@ -3910,25 +4018,28 @@
         <v>85</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="J33" s="0" t="n">
         <v>13.2683760683761</v>
       </c>
-      <c r="S33" s="0" t="n">
-        <f aca="false">1/I33</f>
+      <c r="T33" s="0" t="n">
+        <f aca="false">1/J33</f>
         <v>0.0753671734089151</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2018</v>
@@ -3940,18 +4051,21 @@
         <v>85</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2018</v>
@@ -3963,25 +4077,28 @@
         <v>85</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="0" t="n">
         <v>8.43557336621455</v>
       </c>
-      <c r="S35" s="0" t="n">
-        <f aca="false">1/I35</f>
+      <c r="T35" s="0" t="n">
+        <f aca="false">1/J35</f>
         <v>0.118545587429198</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2018</v>
@@ -3993,18 +4110,21 @@
         <v>85</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2018</v>
@@ -4016,28 +4136,31 @@
         <v>147</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="0" t="n">
         <v>6.97915798249271</v>
       </c>
-      <c r="Q37" s="0" t="n">
+      <c r="R37" s="0" t="n">
         <v>4.89</v>
       </c>
-      <c r="S37" s="0" t="n">
-        <f aca="false">1/I37</f>
+      <c r="T37" s="0" t="n">
+        <f aca="false">1/J37</f>
         <v>0.143283760377471</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2018</v>
@@ -4049,18 +4172,21 @@
         <v>147</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2018</v>
@@ -4072,28 +4198,31 @@
         <v>50</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="0" t="n">
         <v>6.7035458711908</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="K39" s="0" t="n">
         <v>244.4055742</v>
       </c>
-      <c r="S39" s="0" t="n">
-        <f aca="false">1/I39</f>
+      <c r="T39" s="0" t="n">
+        <f aca="false">1/J39</f>
         <v>0.149174782900734</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2018</v>
@@ -4105,18 +4234,21 @@
         <v>50</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2018</v>
@@ -4128,21 +4260,24 @@
         <v>50</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q41" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" s="0" t="n">
         <v>10.35</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2018</v>
@@ -4154,25 +4289,28 @@
         <v>50</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="0" t="n">
         <v>7.96274373259053</v>
       </c>
-      <c r="S42" s="0" t="n">
-        <f aca="false">1/I42</f>
+      <c r="T42" s="0" t="n">
+        <f aca="false">1/J42</f>
         <v>0.12558485285758</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2018</v>
@@ -4184,18 +4322,18 @@
         <v>60</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P43" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q43" s="0" t="n">
         <v>45.2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2018</v>
@@ -4207,18 +4345,18 @@
         <v>100</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P44" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q44" s="0" t="n">
         <v>42.8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2018</v>
@@ -4230,28 +4368,31 @@
         <v>120</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I45" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="0" t="n">
         <v>6.35134728285413</v>
       </c>
-      <c r="Q45" s="0" t="n">
+      <c r="R45" s="0" t="n">
         <v>8.61</v>
       </c>
-      <c r="S45" s="0" t="n">
-        <f aca="false">1/I45</f>
+      <c r="T45" s="0" t="n">
+        <f aca="false">1/J45</f>
         <v>0.157446909366705</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2018</v>
@@ -4263,18 +4404,21 @@
         <v>120</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2018</v>
@@ -4286,18 +4430,21 @@
         <v>120</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2018</v>
@@ -4309,25 +4456,28 @@
         <v>120</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="0" t="n">
         <v>7.10068803490519</v>
       </c>
-      <c r="S48" s="0" t="n">
-        <f aca="false">1/I48</f>
+      <c r="T48" s="0" t="n">
+        <f aca="false">1/J48</f>
         <v>0.140831422966937</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2018</v>
@@ -4339,18 +4489,21 @@
         <v>120</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2018</v>
@@ -4362,31 +4515,34 @@
         <v>122</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="0" t="n">
         <v>32.66219522</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="J50" s="0" t="n">
         <v>6.43644805571677</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="K50" s="0" t="n">
         <v>48.90482028</v>
       </c>
-      <c r="S50" s="0" t="n">
-        <f aca="false">1/I50</f>
+      <c r="T50" s="0" t="n">
+        <f aca="false">1/J50</f>
         <v>0.15536519386835</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2018</v>
@@ -4398,34 +4554,37 @@
         <v>122</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="0" t="n">
         <v>2.96830864622804</v>
       </c>
-      <c r="M51" s="0" t="n">
+      <c r="N51" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="N51" s="0" t="n">
+      <c r="O51" s="0" t="n">
         <v>9.88</v>
       </c>
-      <c r="O51" s="0" t="n">
+      <c r="P51" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="S51" s="0" t="n">
-        <f aca="false">1/I51</f>
+      <c r="T51" s="0" t="n">
+        <f aca="false">1/J51</f>
         <v>0.336892189857259</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2018</v>
@@ -4437,25 +4596,28 @@
         <v>122</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G52" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="J52" s="0" t="n">
         <v>9.47640449438202</v>
       </c>
-      <c r="S52" s="0" t="n">
-        <f aca="false">1/I52</f>
+      <c r="T52" s="0" t="n">
+        <f aca="false">1/J52</f>
         <v>0.10552525492056</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2018</v>
@@ -4467,24 +4629,27 @@
         <v>120</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="0" t="n">
         <v>144.5962733</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="K53" s="0" t="n">
         <v>47.19008443</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2018</v>
@@ -4496,31 +4661,34 @@
         <v>190</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="0" t="n">
         <v>31.86596927</v>
       </c>
-      <c r="I54" s="0" t="n">
+      <c r="J54" s="0" t="n">
         <v>5.58032128514056</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="K54" s="0" t="n">
         <v>24.84261045</v>
       </c>
-      <c r="S54" s="0" t="n">
-        <f aca="false">1/I54</f>
+      <c r="T54" s="0" t="n">
+        <f aca="false">1/J54</f>
         <v>0.179201151493343</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2018</v>
@@ -4532,34 +4700,37 @@
         <v>190</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="0" t="n">
         <v>4.91321499013807</v>
       </c>
-      <c r="M55" s="0" t="n">
+      <c r="N55" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="N55" s="0" t="n">
+      <c r="O55" s="0" t="n">
         <v>6.97</v>
       </c>
-      <c r="O55" s="0" t="n">
+      <c r="P55" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S55" s="0" t="n">
-        <f aca="false">1/I55</f>
+      <c r="T55" s="0" t="n">
+        <f aca="false">1/J55</f>
         <v>0.203532717784022</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2018</v>
@@ -4571,25 +4742,28 @@
         <v>190</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G56" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="J56" s="0" t="n">
         <v>2.77491749174917</v>
       </c>
-      <c r="S56" s="0" t="n">
-        <f aca="false">1/I56</f>
+      <c r="T56" s="0" t="n">
+        <f aca="false">1/J56</f>
         <v>0.360371075166509</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2018</v>
@@ -4601,24 +4775,27 @@
         <v>123</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" s="0" t="n">
         <v>127.6422764</v>
       </c>
-      <c r="Q57" s="0" t="n">
+      <c r="R57" s="0" t="n">
         <v>9.78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2018</v>
@@ -4630,18 +4807,21 @@
         <v>123</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2018</v>
@@ -4653,18 +4833,21 @@
         <v>123</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2018</v>
@@ -4676,25 +4859,28 @@
         <v>123</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="0" t="n">
         <v>8.21664180341455</v>
       </c>
-      <c r="S60" s="0" t="n">
-        <f aca="false">1/I60</f>
+      <c r="T60" s="0" t="n">
+        <f aca="false">1/J60</f>
         <v>0.121704222226705</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2018</v>
@@ -4706,34 +4892,37 @@
         <v>201</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="0" t="n">
         <v>18.53988134</v>
       </c>
-      <c r="I61" s="0" t="n">
+      <c r="J61" s="0" t="n">
         <v>6.92031090523671</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="K61" s="0" t="n">
         <v>206.4532045</v>
       </c>
-      <c r="Q61" s="0" t="n">
+      <c r="R61" s="0" t="n">
         <v>9.16</v>
       </c>
-      <c r="S61" s="0" t="n">
-        <f aca="false">1/I61</f>
+      <c r="T61" s="0" t="n">
+        <f aca="false">1/J61</f>
         <v>0.144502178253767</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2018</v>
@@ -4745,25 +4934,28 @@
         <v>201</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G62" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="0" t="n">
+      <c r="J62" s="0" t="n">
         <v>13.01269035533</v>
       </c>
-      <c r="S62" s="0" t="n">
-        <f aca="false">1/I62</f>
+      <c r="T62" s="0" t="n">
+        <f aca="false">1/J62</f>
         <v>0.0768480592939338</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2018</v>
@@ -4775,25 +4967,28 @@
         <v>201</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I63" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" s="0" t="n">
         <v>8.47593418422267</v>
       </c>
-      <c r="S63" s="0" t="n">
-        <f aca="false">1/I63</f>
+      <c r="T63" s="0" t="n">
+        <f aca="false">1/J63</f>
         <v>0.117981095448031</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2018</v>
@@ -4805,18 +5000,21 @@
         <v>201</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2018</v>
@@ -4828,18 +5026,21 @@
         <v>201</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2018</v>
@@ -4851,18 +5052,21 @@
         <v>201</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2018</v>
@@ -4874,18 +5078,21 @@
         <v>201</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>2018</v>
@@ -4897,18 +5104,21 @@
         <v>221</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2018</v>
@@ -4920,34 +5130,37 @@
         <v>221</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" s="0" t="n">
         <v>7.360697997</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="J69" s="0" t="n">
         <v>6.82834475297512</v>
       </c>
-      <c r="J69" s="0" t="n">
+      <c r="K69" s="0" t="n">
         <v>94.40429427</v>
       </c>
-      <c r="Q69" s="0" t="n">
+      <c r="R69" s="0" t="n">
         <v>9.27</v>
       </c>
-      <c r="S69" s="0" t="n">
-        <f aca="false">1/I69</f>
+      <c r="T69" s="0" t="n">
+        <f aca="false">1/J69</f>
         <v>0.146448376023237</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2018</v>
@@ -4959,18 +5172,21 @@
         <v>221</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>2018</v>
@@ -4982,18 +5198,21 @@
         <v>221</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2018</v>
@@ -5005,18 +5224,21 @@
         <v>221</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2018</v>
@@ -5028,25 +5250,28 @@
         <v>221</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I73" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" s="0" t="n">
         <v>8.58108995403808</v>
       </c>
-      <c r="S73" s="0" t="n">
-        <f aca="false">1/I73</f>
+      <c r="T73" s="0" t="n">
+        <f aca="false">1/J73</f>
         <v>0.116535312571735</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2018</v>
@@ -5058,34 +5283,37 @@
         <v>586</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" s="0" t="n">
         <v>5.35131205</v>
       </c>
-      <c r="I74" s="0" t="n">
+      <c r="J74" s="0" t="n">
         <v>6.19074177356386</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="K74" s="0" t="n">
         <v>54.4451539</v>
       </c>
-      <c r="Q74" s="0" t="n">
+      <c r="R74" s="0" t="n">
         <v>9.16</v>
       </c>
-      <c r="S74" s="0" t="n">
-        <f aca="false">1/I74</f>
+      <c r="T74" s="0" t="n">
+        <f aca="false">1/J74</f>
         <v>0.161531531531532</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2018</v>
@@ -5097,18 +5325,21 @@
         <v>586</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2018</v>
@@ -5120,18 +5351,21 @@
         <v>586</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2018</v>
@@ -5143,25 +5377,28 @@
         <v>586</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I77" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" s="0" t="n">
         <v>9.13349633251834</v>
       </c>
-      <c r="S77" s="0" t="n">
-        <f aca="false">1/I77</f>
+      <c r="T77" s="0" t="n">
+        <f aca="false">1/J77</f>
         <v>0.109487097119606</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2018</v>
@@ -5173,18 +5410,21 @@
         <v>586</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2018</v>
@@ -5196,31 +5436,34 @@
         <v>145</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" s="0" t="n">
         <v>16.09712027</v>
       </c>
-      <c r="I79" s="0" t="n">
+      <c r="J79" s="0" t="n">
         <v>6.04868549172347</v>
       </c>
-      <c r="J79" s="0" t="n">
+      <c r="K79" s="0" t="n">
         <v>20.25935053</v>
       </c>
-      <c r="S79" s="0" t="n">
-        <f aca="false">1/I79</f>
+      <c r="T79" s="0" t="n">
+        <f aca="false">1/J79</f>
         <v>0.165325177076626</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2018</v>
@@ -5232,34 +5475,37 @@
         <v>145</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I80" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="0" t="n">
         <v>8.32882462686567</v>
       </c>
-      <c r="M80" s="0" t="n">
+      <c r="N80" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="N80" s="0" t="n">
+      <c r="O80" s="0" t="n">
         <v>7.36</v>
       </c>
-      <c r="O80" s="0" t="n">
+      <c r="P80" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="S80" s="0" t="n">
-        <f aca="false">1/I80</f>
+      <c r="T80" s="0" t="n">
+        <f aca="false">1/J80</f>
         <v>0.120064960519684</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2018</v>
@@ -5271,25 +5517,28 @@
         <v>145</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G81" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I81" s="0" t="n">
+      <c r="J81" s="0" t="n">
         <v>12.3678756476684</v>
       </c>
-      <c r="S81" s="0" t="n">
-        <f aca="false">1/I81</f>
+      <c r="T81" s="0" t="n">
+        <f aca="false">1/J81</f>
         <v>0.080854629241726</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2018</v>
@@ -5301,31 +5550,34 @@
         <v>288</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I82" s="0" t="n">
         <v>9.216589862</v>
       </c>
-      <c r="I82" s="0" t="n">
+      <c r="J82" s="0" t="n">
         <v>7.42969396195203</v>
       </c>
-      <c r="J82" s="0" t="n">
+      <c r="K82" s="0" t="n">
         <v>113.4440422</v>
       </c>
-      <c r="S82" s="0" t="n">
-        <f aca="false">1/I82</f>
+      <c r="T82" s="0" t="n">
+        <f aca="false">1/J82</f>
         <v>0.134595045922627</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2018</v>
@@ -5337,31 +5589,34 @@
         <v>93</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" s="0" t="n">
         <v>13.12777285</v>
       </c>
-      <c r="I83" s="0" t="n">
+      <c r="J83" s="0" t="n">
         <v>9.40529531568228</v>
       </c>
-      <c r="J83" s="0" t="n">
+      <c r="K83" s="0" t="n">
         <v>29.19970064</v>
       </c>
-      <c r="S83" s="0" t="n">
-        <f aca="false">1/I83</f>
+      <c r="T83" s="0" t="n">
+        <f aca="false">1/J83</f>
         <v>0.106323083585968</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2018</v>
@@ -5373,34 +5628,37 @@
         <v>93</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I84" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" s="0" t="n">
         <v>8.89652777777778</v>
       </c>
-      <c r="M84" s="0" t="n">
+      <c r="N84" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="N84" s="0" t="n">
+      <c r="O84" s="0" t="n">
         <v>12.96</v>
       </c>
-      <c r="O84" s="0" t="n">
+      <c r="P84" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="S84" s="0" t="n">
-        <f aca="false">1/I84</f>
+      <c r="T84" s="0" t="n">
+        <f aca="false">1/J84</f>
         <v>0.112403403325267</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>2018</v>
@@ -5412,25 +5670,28 @@
         <v>93</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G85" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I85" s="0" t="n">
+      <c r="J85" s="0" t="n">
         <v>10.8880952380952</v>
       </c>
-      <c r="S85" s="0" t="n">
-        <f aca="false">1/I85</f>
+      <c r="T85" s="0" t="n">
+        <f aca="false">1/J85</f>
         <v>0.091843428821343</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2018</v>
@@ -5442,34 +5703,37 @@
         <v>143</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H86" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I86" s="0" t="n">
         <v>54.63414634</v>
       </c>
-      <c r="I86" s="0" t="n">
+      <c r="J86" s="0" t="n">
         <v>12.2922794117647</v>
       </c>
-      <c r="J86" s="0" t="n">
+      <c r="K86" s="0" t="n">
         <v>44.60837344</v>
       </c>
-      <c r="Q86" s="0" t="n">
+      <c r="R86" s="0" t="n">
         <v>9.4</v>
       </c>
-      <c r="S86" s="0" t="n">
-        <f aca="false">1/I86</f>
+      <c r="T86" s="0" t="n">
+        <f aca="false">1/J86</f>
         <v>0.0813518767758337</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2018</v>
@@ -5481,18 +5745,21 @@
         <v>143</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2018</v>
@@ -5504,18 +5771,21 @@
         <v>143</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2018</v>
@@ -5527,18 +5797,21 @@
         <v>143</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2018</v>
@@ -5550,25 +5823,28 @@
         <v>143</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I90" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J90" s="0" t="n">
         <v>8.09428794992175</v>
       </c>
-      <c r="S90" s="0" t="n">
-        <f aca="false">1/I90</f>
+      <c r="T90" s="0" t="n">
+        <f aca="false">1/J90</f>
         <v>0.123543912223887</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2018</v>
@@ -5580,18 +5856,21 @@
         <v>143</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2018</v>
@@ -5603,31 +5882,34 @@
         <v>843</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I92" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J92" s="0" t="n">
         <v>4.51894411621226</v>
       </c>
-      <c r="J92" s="0" t="n">
+      <c r="K92" s="0" t="n">
         <v>28.51596639</v>
       </c>
-      <c r="Q92" s="0" t="n">
+      <c r="R92" s="0" t="n">
         <v>10.3</v>
       </c>
-      <c r="S92" s="0" t="n">
-        <f aca="false">1/I92</f>
+      <c r="T92" s="0" t="n">
+        <f aca="false">1/J92</f>
         <v>0.221290632121866</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2018</v>
@@ -5639,21 +5921,24 @@
         <v>843</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q93" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="R93" s="0" t="n">
         <v>15.82</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2018</v>
@@ -5665,18 +5950,21 @@
         <v>843</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>2018</v>
@@ -5688,18 +5976,21 @@
         <v>843</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2018</v>
@@ -5711,16 +6002,19 @@
         <v>843</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I96" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J96" s="0" t="n">
         <v>8.58502772643253</v>
       </c>
-      <c r="S96" s="0" t="n">
-        <f aca="false">1/I96</f>
+      <c r="T96" s="0" t="n">
+        <f aca="false">1/J96</f>
         <v>0.116481860264829</v>
       </c>
     </row>
@@ -5743,28 +6037,28 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
+      <selection pane="topLeft" activeCell="T38" activeCellId="1" sqref="93:93 T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50</v>
@@ -5779,7 +6073,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>93</v>
@@ -5794,7 +6088,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>120</v>
@@ -5809,7 +6103,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>122</v>
@@ -5824,7 +6118,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>143</v>
@@ -5839,7 +6133,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>145</v>
@@ -5854,7 +6148,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>190</v>
@@ -5869,7 +6163,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>201</v>
@@ -5884,7 +6178,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>221</v>
@@ -5899,7 +6193,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>288</v>
@@ -5914,7 +6208,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>586</v>
@@ -5929,7 +6223,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>843</v>
@@ -5947,18 +6241,18 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>85</v>
@@ -5973,7 +6267,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>87</v>
@@ -5988,7 +6282,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>121</v>
@@ -6003,7 +6297,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>147</v>
@@ -6018,7 +6312,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>151</v>
@@ -6033,7 +6327,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>368</v>
@@ -6048,7 +6342,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>586</v>
@@ -6081,10 +6375,10 @@
   <dimension ref="A1:M215"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K137" activeCellId="0" sqref="K137"/>
+      <selection pane="topLeft" activeCell="K137" activeCellId="1" sqref="93:93 K137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.16"/>
@@ -6114,33 +6408,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="L1" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2018</v>
@@ -6161,15 +6455,15 @@
         <v>1154.6</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2018</v>
@@ -6190,15 +6484,15 @@
         <v>289.46</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2018</v>
@@ -6219,15 +6513,15 @@
         <v>114.51</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2018</v>
@@ -6248,15 +6542,15 @@
         <v>336.77</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2018</v>
@@ -6274,21 +6568,21 @@
         <v>65.03</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>59.73</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2018</v>
@@ -6303,18 +6597,18 @@
         <v>78.26</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2018</v>
@@ -6335,12 +6629,12 @@
         <v>10.61</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2018</v>
@@ -6361,12 +6655,12 @@
         <v>19.39</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
@@ -6387,12 +6681,12 @@
         <v>17.77</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2018</v>
@@ -6407,18 +6701,18 @@
         <v>90.08</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2018</v>
@@ -6436,21 +6730,21 @@
         <v>67.21</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>3587.73</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2018</v>
@@ -6465,18 +6759,18 @@
         <v>40.09</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2018</v>
@@ -6491,18 +6785,18 @@
         <v>83.35</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2018</v>
@@ -6523,12 +6817,12 @@
         <v>154.25</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2018</v>
@@ -6549,12 +6843,12 @@
         <v>19.5</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2018</v>
@@ -6575,12 +6869,12 @@
         <v>271.38</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2018</v>
@@ -6601,12 +6895,12 @@
         <v>19.72</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2018</v>
@@ -6627,15 +6921,15 @@
         <v>108.91</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2018</v>
@@ -6653,21 +6947,21 @@
         <v>94.83</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>720.97</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2018</v>
@@ -6688,12 +6982,12 @@
         <v>10.35</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2018</v>
@@ -6714,12 +7008,12 @@
         <v>23.43</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2018</v>
@@ -6740,12 +7034,12 @@
         <v>18.68</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2018</v>
@@ -6766,12 +7060,12 @@
         <v>8.61</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2018</v>
@@ -6789,21 +7083,21 @@
         <v>91.12</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>1274.2</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2018</v>
@@ -6824,12 +7118,12 @@
         <v>75.77</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2018</v>
@@ -6847,21 +7141,21 @@
         <v>57.09</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>121.93</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2018</v>
@@ -6882,15 +7176,15 @@
         <v>33.05</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2018</v>
@@ -6908,21 +7202,21 @@
         <v>48.02</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>819.69</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2018</v>
@@ -6940,21 +7234,21 @@
         <v>91.91</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>603.87</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2018</v>
@@ -6972,21 +7266,21 @@
         <v>50.98</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1149.86</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2018</v>
@@ -7004,21 +7298,21 @@
         <v>78.31</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>483.21</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2018</v>
@@ -7036,21 +7330,21 @@
         <v>59.08</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>2.75</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2018</v>
@@ -7071,15 +7365,15 @@
         <v>4.72</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2018</v>
@@ -7100,12 +7394,12 @@
         <v>7.18</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2018</v>
@@ -7126,12 +7420,12 @@
         <v>4.89</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2018</v>
@@ -7152,12 +7446,12 @@
         <v>9.16</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2018</v>
@@ -7175,21 +7469,21 @@
         <v>66.96</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1081.05</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2018</v>
@@ -7210,12 +7504,12 @@
         <v>146.88</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2018</v>
@@ -7236,12 +7530,12 @@
         <v>9.78</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2018</v>
@@ -7262,15 +7556,15 @@
         <v>73.41</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2018</v>
@@ -7288,21 +7582,21 @@
         <v>70.27</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>76.87</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2018</v>
@@ -7320,21 +7614,21 @@
         <v>48.19</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>1906.01</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2018</v>
@@ -7352,21 +7646,21 @@
         <v>46.36</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>2013.71</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2018</v>
@@ -7387,12 +7681,12 @@
         <v>247.55</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2018</v>
@@ -7413,15 +7707,15 @@
         <v>400.75</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2018</v>
@@ -7442,15 +7736,15 @@
         <v>18.06</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2018</v>
@@ -7471,12 +7765,12 @@
         <v>14.5</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2018</v>
@@ -7497,12 +7791,12 @@
         <v>15.82</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2018</v>
@@ -7523,12 +7817,12 @@
         <v>9.4</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2018</v>
@@ -7549,12 +7843,12 @@
         <v>9.27</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2018</v>
@@ -7575,12 +7869,12 @@
         <v>20.17</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2018</v>
@@ -7601,12 +7895,12 @@
         <v>9.16</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2018</v>
@@ -7627,12 +7921,12 @@
         <v>10.3</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2018</v>
@@ -7647,18 +7941,18 @@
         <v>31.8</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2018</v>
@@ -7676,21 +7970,21 @@
         <v>69.43</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>20.87</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2018</v>
@@ -7711,15 +8005,15 @@
         <v>19.53</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2018</v>
@@ -7740,12 +8034,12 @@
         <v>12.86</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2018</v>
@@ -7766,15 +8060,15 @@
         <v>611.6</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2018</v>
@@ -7792,21 +8086,21 @@
         <v>91.73</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>146.96</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2018</v>
@@ -7827,15 +8121,15 @@
         <v>399.46</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2018</v>
@@ -7856,15 +8150,15 @@
         <v>235.88</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2018</v>
@@ -7882,21 +8176,21 @@
         <v>57.38</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>33.37</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2018</v>
@@ -7911,18 +8205,18 @@
         <v>76.41</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2018</v>
@@ -7943,12 +8237,12 @@
         <v>9.4</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2018</v>
@@ -7969,12 +8263,12 @@
         <v>18.4</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2018</v>
@@ -7995,12 +8289,12 @@
         <v>14.29</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>2018</v>
@@ -8018,21 +8312,21 @@
         <v>81.26</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>444.27</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2018</v>
@@ -8050,21 +8344,21 @@
         <v>66.14</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>1682.55</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2018</v>
@@ -8082,21 +8376,21 @@
         <v>43.6</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>306.21</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>2018</v>
@@ -8114,21 +8408,21 @@
         <v>77.62</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>242.35</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2018</v>
@@ -8149,12 +8443,12 @@
         <v>202.26</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2018</v>
@@ -8175,12 +8469,12 @@
         <v>17.52</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2018</v>
@@ -8201,12 +8495,12 @@
         <v>246.29</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2018</v>
@@ -8227,12 +8521,12 @@
         <v>17.65</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2018</v>
@@ -8253,15 +8547,15 @@
         <v>95.24</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2018</v>
@@ -8279,18 +8573,18 @@
         <v>70.21</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>113.86</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2018</v>
@@ -8311,12 +8605,12 @@
         <v>10.41</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2018</v>
@@ -8337,12 +8631,12 @@
         <v>20.92</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2018</v>
@@ -8363,12 +8657,12 @@
         <v>15.22</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2018</v>
@@ -8389,12 +8683,12 @@
         <v>9.08</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2018</v>
@@ -8412,21 +8706,21 @@
         <v>89.05</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>718.18</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2018</v>
@@ -8447,12 +8741,12 @@
         <v>61.76</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2018</v>
@@ -8470,21 +8764,21 @@
         <v>55.58</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>51.43</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>2018</v>
@@ -8505,15 +8799,15 @@
         <v>33.91</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2018</v>
@@ -8531,21 +8825,21 @@
         <v>42.17</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>848.87</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2018</v>
@@ -8563,18 +8857,18 @@
         <v>86.17</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>168.35</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2018</v>
@@ -8592,21 +8886,21 @@
         <v>42.04</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>200.85</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2018</v>
@@ -8624,21 +8918,21 @@
         <v>74.73</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>233.03</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2018</v>
@@ -8653,18 +8947,18 @@
         <v>50.56</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2018</v>
@@ -8682,21 +8976,21 @@
         <v>97.92</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>9.36</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2018</v>
@@ -8717,12 +9011,12 @@
         <v>10.03</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2018</v>
@@ -8743,12 +9037,12 @@
         <v>8.92</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2018</v>
@@ -8769,12 +9063,12 @@
         <v>9.53</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>2018</v>
@@ -8792,21 +9086,21 @@
         <v>51.27</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>618.92</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2018</v>
@@ -8827,12 +9121,12 @@
         <v>140.73</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>2018</v>
@@ -8853,12 +9147,12 @@
         <v>9.78</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>2018</v>
@@ -8876,21 +9170,21 @@
         <v>92.36</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>66.32</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>2018</v>
@@ -8908,21 +9202,21 @@
         <v>62.12</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>49.3</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>2018</v>
@@ -8940,21 +9234,21 @@
         <v>47.74</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>1059.7</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>2018</v>
@@ -8972,21 +9266,21 @@
         <v>45.73</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>1176.91</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>2018</v>
@@ -9007,15 +9301,15 @@
         <v>337.64</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>2018</v>
@@ -9036,12 +9330,12 @@
         <v>342.16</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>2018</v>
@@ -9062,12 +9356,12 @@
         <v>15.19</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>2018</v>
@@ -9088,12 +9382,12 @@
         <v>13.63</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>2018</v>
@@ -9114,12 +9408,12 @@
         <v>15.03</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>2018</v>
@@ -9140,12 +9434,12 @@
         <v>9.35</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>2018</v>
@@ -9166,12 +9460,12 @@
         <v>9.29</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>2018</v>
@@ -9192,12 +9486,12 @@
         <v>18.48</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>2018</v>
@@ -9218,12 +9512,12 @@
         <v>10.08</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>2018</v>
@@ -9244,12 +9538,12 @@
         <v>10.56</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>2018</v>
@@ -9264,18 +9558,18 @@
         <v>34.03</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>2018</v>
@@ -9293,21 +9587,21 @@
         <v>66.87</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>18.08</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>2018</v>
@@ -9328,15 +9622,15 @@
         <v>15.45</v>
       </c>
       <c r="L114" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>2018</v>
@@ -9357,12 +9651,12 @@
         <v>10.63</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>2018</v>
@@ -9380,21 +9674,21 @@
         <v>69.11</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>2514.46</v>
       </c>
       <c r="L116" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>2018</v>
@@ -9415,15 +9709,15 @@
         <v>205.33</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>2018</v>
@@ -9438,18 +9732,18 @@
         <v>21.19</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>2018</v>
@@ -9467,21 +9761,21 @@
         <v>76.26</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K119" s="0" t="n">
         <v>204.28</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>2018</v>
@@ -9502,15 +9796,15 @@
         <v>21.59</v>
       </c>
       <c r="L120" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>2018</v>
@@ -9528,21 +9822,21 @@
         <v>28.9</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>992.57</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>2018</v>
@@ -9560,21 +9854,21 @@
         <v>69.32</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>91.32</v>
       </c>
       <c r="L122" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M122" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>2018</v>
@@ -9595,12 +9889,12 @@
         <v>16.61</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2018</v>
@@ -9618,21 +9912,21 @@
         <v>47.16</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>42.42</v>
       </c>
       <c r="L124" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2018</v>
@@ -9653,12 +9947,12 @@
         <v>16.93</v>
       </c>
       <c r="M125" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2018</v>
@@ -9679,12 +9973,12 @@
         <v>13.83</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2018</v>
@@ -9705,12 +9999,12 @@
         <v>13.7</v>
       </c>
       <c r="M127" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2018</v>
@@ -9731,12 +10025,12 @@
         <v>18.2</v>
       </c>
       <c r="M128" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>2018</v>
@@ -9757,12 +10051,12 @@
         <v>17.16</v>
       </c>
       <c r="M129" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>2018</v>
@@ -9783,15 +10077,15 @@
         <v>686.25</v>
       </c>
       <c r="L130" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2018</v>
@@ -9809,21 +10103,21 @@
         <v>47.71</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>3116.31</v>
       </c>
       <c r="L131" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M131" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2018</v>
@@ -9841,21 +10135,21 @@
         <v>50.5</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>179.92</v>
       </c>
       <c r="L132" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2018</v>
@@ -9873,21 +10167,21 @@
         <v>45.35</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>20.93</v>
       </c>
       <c r="L133" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M133" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2018</v>
@@ -9908,15 +10202,15 @@
         <v>236.08</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>2018</v>
@@ -9937,15 +10231,15 @@
         <v>19.05</v>
       </c>
       <c r="L135" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>2018</v>
@@ -9960,18 +10254,18 @@
         <v>70.32</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L136" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>2018</v>
@@ -9989,21 +10283,21 @@
         <v>55.53</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>8.73</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>2018</v>
@@ -10021,21 +10315,21 @@
         <v>100.49</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>154.61</v>
       </c>
       <c r="L138" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M138" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>2018</v>
@@ -10050,18 +10344,18 @@
         <v>34.87</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L139" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>2018</v>
@@ -10079,21 +10373,21 @@
         <v>92.47</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>1007.16</v>
       </c>
       <c r="L140" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M140" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>2018</v>
@@ -10111,21 +10405,21 @@
         <v>53.91</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>3023.61</v>
       </c>
       <c r="L141" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2018</v>
@@ -10143,21 +10437,21 @@
         <v>55.2</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>362.69</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M142" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>2018</v>
@@ -10175,21 +10469,21 @@
         <v>84.3</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>78.64</v>
       </c>
       <c r="L143" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M143" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>2018</v>
@@ -10207,21 +10501,21 @@
         <v>79.86</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>454.14</v>
       </c>
       <c r="L144" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M144" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>2018</v>
@@ -10239,21 +10533,21 @@
         <v>44.6</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>142.04</v>
       </c>
       <c r="L145" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M145" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>2018</v>
@@ -10271,21 +10565,21 @@
         <v>61.33</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>37.69</v>
       </c>
       <c r="L146" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>2018</v>
@@ -10303,21 +10597,21 @@
         <v>54.17</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>892.99</v>
       </c>
       <c r="L147" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>2018</v>
@@ -10335,21 +10629,21 @@
         <v>29.43</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>108.72</v>
       </c>
       <c r="L148" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>2018</v>
@@ -10367,21 +10661,21 @@
         <v>48.18</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>2539.49</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>2018</v>
@@ -10399,21 +10693,21 @@
         <v>49.91</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>70.64</v>
       </c>
       <c r="L150" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>2018</v>
@@ -10431,21 +10725,21 @@
         <v>74.72</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>1192.33</v>
       </c>
       <c r="L151" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>2018</v>
@@ -10463,21 +10757,21 @@
         <v>47.45</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>192.26</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>2018</v>
@@ -10498,15 +10792,15 @@
         <v>579.12</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M153" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>2018</v>
@@ -10521,18 +10815,18 @@
         <v>56.59</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L154" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M154" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>2018</v>
@@ -10550,21 +10844,21 @@
         <v>81.09</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>47.32</v>
       </c>
       <c r="L155" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>2018</v>
@@ -10582,21 +10876,21 @@
         <v>42.38</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>33.53</v>
       </c>
       <c r="L156" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>2018</v>
@@ -10617,12 +10911,12 @@
         <v>14.37</v>
       </c>
       <c r="M157" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>2018</v>
@@ -10640,21 +10934,21 @@
         <v>41.93</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>261.59</v>
       </c>
       <c r="L158" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M158" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>2018</v>
@@ -10672,21 +10966,21 @@
         <v>96.09</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>42.62</v>
       </c>
       <c r="L159" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>2018</v>
@@ -10704,21 +10998,21 @@
         <v>64.26</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>36.75</v>
       </c>
       <c r="L160" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>2018</v>
@@ -10736,21 +11030,21 @@
         <v>57.9</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>53.42</v>
       </c>
       <c r="L161" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M161" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>2018</v>
@@ -10768,21 +11062,21 @@
         <v>91.75</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>27.03</v>
       </c>
       <c r="L162" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>2018</v>
@@ -10800,21 +11094,21 @@
         <v>60.4</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>57.71</v>
       </c>
       <c r="L163" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M163" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>2018</v>
@@ -10835,15 +11129,15 @@
         <v>94.31</v>
       </c>
       <c r="L164" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M164" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>2018</v>
@@ -10861,21 +11155,21 @@
         <v>77.9</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>21.35</v>
       </c>
       <c r="L165" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M165" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>2018</v>
@@ -10893,21 +11187,21 @@
         <v>78.85</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>202.6</v>
       </c>
       <c r="L166" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M166" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>2018</v>
@@ -10928,15 +11222,15 @@
         <v>166.29</v>
       </c>
       <c r="L167" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M167" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>2018</v>
@@ -10954,21 +11248,21 @@
         <v>19.41</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>245.63</v>
       </c>
       <c r="L168" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M168" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>2018</v>
@@ -10986,21 +11280,21 @@
         <v>60.58</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>98.68</v>
       </c>
       <c r="L169" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M169" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>2018</v>
@@ -11018,21 +11312,21 @@
         <v>88.8</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>19.09</v>
       </c>
       <c r="L170" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>2018</v>
@@ -11050,18 +11344,18 @@
         <v>47.42</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>46.16</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>2018</v>
@@ -11079,21 +11373,21 @@
         <v>67.83</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>50.13</v>
       </c>
       <c r="L172" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M172" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>2018</v>
@@ -11114,12 +11408,12 @@
         <v>14.55</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>2018</v>
@@ -11137,21 +11431,21 @@
         <v>42.2</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K174" s="0" t="n">
         <v>40.07</v>
       </c>
       <c r="L174" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>2018</v>
@@ -11172,12 +11466,12 @@
         <v>17.91</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>2018</v>
@@ -11198,12 +11492,12 @@
         <v>14.92</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>2018</v>
@@ -11224,12 +11518,12 @@
         <v>14.01</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>2018</v>
@@ -11250,12 +11544,12 @@
         <v>13.85</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>2018</v>
@@ -11276,12 +11570,12 @@
         <v>16.06</v>
       </c>
       <c r="M179" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>2018</v>
@@ -11302,15 +11596,15 @@
         <v>460.13</v>
       </c>
       <c r="L180" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M180" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>2018</v>
@@ -11328,21 +11622,21 @@
         <v>49.86</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K181" s="0" t="n">
         <v>1073.08</v>
       </c>
       <c r="L181" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M181" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>2018</v>
@@ -11360,21 +11654,21 @@
         <v>61.46</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K182" s="0" t="n">
         <v>154.31</v>
       </c>
       <c r="L182" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M182" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>2018</v>
@@ -11392,21 +11686,21 @@
         <v>53.32</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K183" s="0" t="n">
         <v>18.63</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M183" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>2018</v>
@@ -11427,15 +11721,15 @@
         <v>129.52</v>
       </c>
       <c r="L184" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M184" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>2018</v>
@@ -11456,15 +11750,15 @@
         <v>20.8</v>
       </c>
       <c r="L185" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M185" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>2018</v>
@@ -11482,21 +11776,21 @@
         <v>65.52</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K186" s="0" t="n">
         <v>258.24</v>
       </c>
       <c r="L186" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M186" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>2018</v>
@@ -11514,21 +11808,21 @@
         <v>71.82</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K187" s="0" t="n">
         <v>24.01</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M187" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>2018</v>
@@ -11546,21 +11840,21 @@
         <v>86.41</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K188" s="0" t="n">
         <v>18.93</v>
       </c>
       <c r="L188" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M188" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>2018</v>
@@ -11578,21 +11872,21 @@
         <v>93.62</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K189" s="0" t="n">
         <v>47.85</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M189" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>2018</v>
@@ -11613,15 +11907,15 @@
         <v>483.35</v>
       </c>
       <c r="L190" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M190" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>2018</v>
@@ -11639,21 +11933,21 @@
         <v>72.48</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K191" s="0" t="n">
         <v>875.01</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M191" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>2018</v>
@@ -11671,21 +11965,21 @@
         <v>65.38</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K192" s="0" t="n">
         <v>195.5</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M192" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>2018</v>
@@ -11703,21 +11997,21 @@
         <v>70.01</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K193" s="0" t="n">
         <v>72.41</v>
       </c>
       <c r="L193" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M193" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>2018</v>
@@ -11735,21 +12029,21 @@
         <v>80.21</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K194" s="0" t="n">
         <v>273.9</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M194" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>2018</v>
@@ -11767,21 +12061,21 @@
         <v>57.27</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K195" s="0" t="n">
         <v>55.55</v>
       </c>
       <c r="L195" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M195" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>2018</v>
@@ -11799,21 +12093,21 @@
         <v>74.02</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K196" s="0" t="n">
         <v>24.07</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M196" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>2018</v>
@@ -11831,21 +12125,21 @@
         <v>73.53</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K197" s="0" t="n">
         <v>604.8</v>
       </c>
       <c r="L197" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M197" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>2018</v>
@@ -11863,21 +12157,21 @@
         <v>36.44</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K198" s="0" t="n">
         <v>50.75</v>
       </c>
       <c r="L198" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M198" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>2018</v>
@@ -11895,21 +12189,21 @@
         <v>51.74</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K199" s="0" t="n">
         <v>1362.49</v>
       </c>
       <c r="L199" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M199" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>2018</v>
@@ -11927,21 +12221,21 @@
         <v>49.09</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K200" s="0" t="n">
         <v>47.57</v>
       </c>
       <c r="L200" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M200" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>2018</v>
@@ -11959,21 +12253,21 @@
         <v>65.2</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K201" s="0" t="n">
         <v>171.6</v>
       </c>
       <c r="L201" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M201" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>2018</v>
@@ -11991,21 +12285,21 @@
         <v>58.06</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K202" s="0" t="n">
         <v>127.88</v>
       </c>
       <c r="L202" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M202" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>2018</v>
@@ -12026,15 +12320,15 @@
         <v>440.79</v>
       </c>
       <c r="L203" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M203" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>2018</v>
@@ -12052,21 +12346,21 @@
         <v>48.13</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K204" s="0" t="n">
         <v>356.31</v>
       </c>
       <c r="L204" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M204" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>2018</v>
@@ -12084,21 +12378,21 @@
         <v>67.83</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K205" s="0" t="n">
         <v>91.01</v>
       </c>
       <c r="L205" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M205" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>2018</v>
@@ -12116,21 +12410,21 @@
         <v>41.64</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K206" s="0" t="n">
         <v>11.95</v>
       </c>
       <c r="L206" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M206" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>2018</v>
@@ -12151,12 +12445,12 @@
         <v>13.46</v>
       </c>
       <c r="M207" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>2018</v>
@@ -12174,21 +12468,21 @@
         <v>58.67</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K208" s="0" t="n">
         <v>168.4</v>
       </c>
       <c r="L208" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M208" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>2018</v>
@@ -12206,21 +12500,21 @@
         <v>89.45</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K209" s="0" t="n">
         <v>40.75</v>
       </c>
       <c r="L209" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M209" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>2018</v>
@@ -12238,21 +12532,21 @@
         <v>94.51</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K210" s="0" t="n">
         <v>22.43</v>
       </c>
       <c r="L210" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M210" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>2018</v>
@@ -12270,21 +12564,21 @@
         <v>67.14</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K211" s="0" t="n">
         <v>43.34</v>
       </c>
       <c r="L211" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M211" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>2018</v>
@@ -12302,21 +12596,21 @@
         <v>90.43</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K212" s="0" t="n">
         <v>26.93</v>
       </c>
       <c r="L212" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M212" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>2018</v>
@@ -12334,21 +12628,21 @@
         <v>55.14</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K213" s="0" t="n">
         <v>73.17</v>
       </c>
       <c r="L213" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M213" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>2018</v>
@@ -12366,21 +12660,21 @@
         <v>99.64</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K214" s="0" t="n">
         <v>75.46</v>
       </c>
       <c r="L214" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M214" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>2018</v>
@@ -12398,16 +12692,16 @@
         <v>78.08</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K215" s="0" t="n">
         <v>24.82</v>
       </c>
       <c r="L215" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M215" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -1285,7 +1285,386 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart100.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>2018 P1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'martin power law'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz C flux organic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'martin power law'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>244.4055742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.19970064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.19008443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.90482028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.60837344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.25935053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.84261045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>206.4532045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.40429427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.4440422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.4451539</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.51596639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'martin power law'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="84174626"/>
+        <c:axId val="98419843"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84174626"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Org C flux (umol C/m2/day)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98419843"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98419843"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84174626"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1456,11 +1835,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="43284399"/>
-        <c:axId val="35112559"/>
+        <c:axId val="44255887"/>
+        <c:axId val="13532329"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43284399"/>
+        <c:axId val="44255887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,12 +1895,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35112559"/>
+        <c:crossAx val="13532329"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35112559"/>
+        <c:axId val="13532329"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1586,7 +1965,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43284399"/>
+        <c:crossAx val="44255887"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1634,7 +2013,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1835,11 +2214,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="13047167"/>
-        <c:axId val="26506460"/>
+        <c:axId val="34273245"/>
+        <c:axId val="77235741"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13047167"/>
+        <c:axId val="34273245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,12 +2274,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26506460"/>
+        <c:crossAx val="77235741"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26506460"/>
+        <c:axId val="77235741"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1965,7 +2344,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13047167"/>
+        <c:crossAx val="34273245"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2013,7 +2392,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2184,11 +2563,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="76102035"/>
-        <c:axId val="65838917"/>
+        <c:axId val="41561160"/>
+        <c:axId val="95620272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76102035"/>
+        <c:axId val="41561160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,12 +2623,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65838917"/>
+        <c:crossAx val="95620272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65838917"/>
+        <c:axId val="95620272"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2314,387 +2693,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76102035"/>
+        <c:crossAx val="41561160"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart99.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>2018 P1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'martin power law'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fz C flux organic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'martin power law'!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>244.4055742</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.19970064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.19008443</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.90482028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.60837344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.25935053</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.84261045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>206.4532045</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>94.40429427</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>113.4440422</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54.4451539</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.51596639</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'martin power law'!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>843</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="23969576"/>
-        <c:axId val="56645242"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="23969576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Org C flux (umol C/m2/day)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="56645242"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="56645242"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="23969576"/>
-        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2752,9 +2752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>713880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2762,8 +2762,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5164560" y="86040"/>
-        <a:ext cx="5531760" cy="4546080"/>
+        <a:off x="5172120" y="86040"/>
+        <a:ext cx="5539320" cy="4545720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2782,9 +2782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>220680</xdr:colOff>
+      <xdr:colOff>220320</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2792,8 +2792,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5157720" y="4925160"/>
-        <a:ext cx="5045040" cy="4717800"/>
+        <a:off x="5165280" y="4925160"/>
+        <a:ext cx="5052600" cy="4717440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2812,9 +2812,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>600480</xdr:colOff>
+      <xdr:colOff>600120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2822,8 +2822,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10873800" y="0"/>
-        <a:ext cx="5531760" cy="4545720"/>
+        <a:off x="10890360" y="0"/>
+        <a:ext cx="5538960" cy="4545360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2842,9 +2842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2852,8 +2852,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10854000" y="4973040"/>
-        <a:ext cx="5045040" cy="4717800"/>
+        <a:off x="10870560" y="4973040"/>
+        <a:ext cx="5052240" cy="4717440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2873,11 +2873,11 @@
   </sheetPr>
   <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S23" activeCellId="0" sqref="S23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
@@ -6149,7 +6149,7 @@
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6487,7 +6487,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.16"/>
@@ -12835,7 +12835,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.16"/>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2018-fluxes" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="martin power law" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="stable isos" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="stable isos_sorting" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="stable isos_sorting_unfumed" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="stable isos_sorting_fumed" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="361">
   <si>
     <t xml:space="preserve">sample id</t>
   </si>
@@ -1285,7 +1286,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1486,11 +1487,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="84174626"/>
-        <c:axId val="98419843"/>
+        <c:axId val="34904482"/>
+        <c:axId val="11415670"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84174626"/>
+        <c:axId val="34904482"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,12 +1547,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98419843"/>
+        <c:crossAx val="11415670"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98419843"/>
+        <c:axId val="11415670"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1616,7 +1617,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84174626"/>
+        <c:crossAx val="34904482"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1664,7 +1665,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1835,11 +1836,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="44255887"/>
-        <c:axId val="13532329"/>
+        <c:axId val="1427671"/>
+        <c:axId val="57661495"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44255887"/>
+        <c:axId val="1427671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,12 +1896,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13532329"/>
+        <c:crossAx val="57661495"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13532329"/>
+        <c:axId val="57661495"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1965,7 +1966,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44255887"/>
+        <c:crossAx val="1427671"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2013,7 +2014,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2214,11 +2215,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="34273245"/>
-        <c:axId val="77235741"/>
+        <c:axId val="68436682"/>
+        <c:axId val="44930855"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34273245"/>
+        <c:axId val="68436682"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,12 +2275,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77235741"/>
+        <c:crossAx val="44930855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77235741"/>
+        <c:axId val="44930855"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2344,7 +2345,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34273245"/>
+        <c:crossAx val="68436682"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2392,7 +2393,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2563,11 +2564,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="41561160"/>
-        <c:axId val="95620272"/>
+        <c:axId val="67471382"/>
+        <c:axId val="9198943"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41561160"/>
+        <c:axId val="67471382"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,12 +2624,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95620272"/>
+        <c:crossAx val="9198943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95620272"/>
+        <c:axId val="9198943"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2693,7 +2694,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41561160"/>
+        <c:crossAx val="67471382"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2873,8 +2874,8 @@
   </sheetPr>
   <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H85" activeCellId="1" sqref="24:24 H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3298,6 +3299,9 @@
       <c r="J11" s="0" t="n">
         <v>9.29615547106041</v>
       </c>
+      <c r="S11" s="0" t="n">
+        <v>-23.21</v>
+      </c>
       <c r="T11" s="0" t="n">
         <f aca="false">1/J11</f>
         <v>0.107571350663516</v>
@@ -3693,7 +3697,10 @@
         <v>28</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>-32.59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,6 +4165,9 @@
       <c r="J35" s="0" t="n">
         <v>8.43557336621455</v>
       </c>
+      <c r="S35" s="0" t="n">
+        <v>-23.7</v>
+      </c>
       <c r="T35" s="0" t="n">
         <f aca="false">1/J35</f>
         <v>0.118545587429198</v>
@@ -4220,6 +4230,9 @@
       <c r="R37" s="0" t="n">
         <v>4.89</v>
       </c>
+      <c r="S37" s="0" t="n">
+        <v>-23.36</v>
+      </c>
       <c r="T37" s="0" t="n">
         <f aca="false">1/J37</f>
         <v>0.143283760377471</v>
@@ -4973,6 +4986,9 @@
       <c r="J60" s="0" t="n">
         <v>8.21664180341455</v>
       </c>
+      <c r="S60" s="0" t="n">
+        <v>-23.84</v>
+      </c>
       <c r="T60" s="0" t="n">
         <f aca="false">1/J60</f>
         <v>0.121704222226705</v>
@@ -5015,6 +5031,9 @@
       <c r="R61" s="0" t="n">
         <v>9.16</v>
       </c>
+      <c r="S61" s="0" t="n">
+        <v>-22.26</v>
+      </c>
       <c r="T61" s="0" t="n">
         <f aca="false">1/J61</f>
         <v>0.144502178253767</v>
@@ -5048,6 +5067,9 @@
       <c r="J62" s="0" t="n">
         <v>13.01269035533</v>
       </c>
+      <c r="S62" s="0" t="n">
+        <v>-31.39</v>
+      </c>
       <c r="T62" s="0" t="n">
         <f aca="false">1/J62</f>
         <v>0.0768480592939338</v>
@@ -5081,6 +5103,9 @@
       <c r="J63" s="0" t="n">
         <v>8.47593418422267</v>
       </c>
+      <c r="S63" s="0" t="n">
+        <v>-22.36</v>
+      </c>
       <c r="T63" s="0" t="n">
         <f aca="false">1/J63</f>
         <v>0.117981095448031</v>
@@ -5253,6 +5278,9 @@
       <c r="R69" s="0" t="n">
         <v>9.27</v>
       </c>
+      <c r="S69" s="0" t="n">
+        <v>-21.38</v>
+      </c>
       <c r="T69" s="0" t="n">
         <f aca="false">1/J69</f>
         <v>0.146448376023237</v>
@@ -5364,6 +5392,9 @@
       <c r="J73" s="0" t="n">
         <v>8.58108995403808</v>
       </c>
+      <c r="S73" s="0" t="n">
+        <v>-22.22</v>
+      </c>
       <c r="T73" s="0" t="n">
         <f aca="false">1/J73</f>
         <v>0.116535312571735</v>
@@ -5406,6 +5437,9 @@
       <c r="R74" s="0" t="n">
         <v>9.16</v>
       </c>
+      <c r="S74" s="0" t="n">
+        <v>-22.93</v>
+      </c>
       <c r="T74" s="0" t="n">
         <f aca="false">1/J74</f>
         <v>0.161531531531532</v>
@@ -5491,6 +5525,9 @@
       <c r="J77" s="0" t="n">
         <v>9.13349633251834</v>
       </c>
+      <c r="S77" s="0" t="n">
+        <v>-23.09</v>
+      </c>
       <c r="T77" s="0" t="n">
         <f aca="false">1/J77</f>
         <v>0.109487097119606</v>
@@ -5601,6 +5638,9 @@
       <c r="P80" s="0" t="n">
         <v>53</v>
       </c>
+      <c r="S80" s="0" t="n">
+        <v>-24.97</v>
+      </c>
       <c r="T80" s="0" t="n">
         <f aca="false">1/J80</f>
         <v>0.120064960519684</v>
@@ -5634,6 +5674,9 @@
       <c r="J81" s="0" t="n">
         <v>12.3678756476684</v>
       </c>
+      <c r="S81" s="0" t="n">
+        <v>-28.2</v>
+      </c>
       <c r="T81" s="0" t="n">
         <f aca="false">1/J81</f>
         <v>0.080854629241726</v>
@@ -5673,6 +5716,9 @@
       <c r="K82" s="0" t="n">
         <v>113.4440422</v>
       </c>
+      <c r="S82" s="0" t="n">
+        <v>-25.48</v>
+      </c>
       <c r="T82" s="0" t="n">
         <f aca="false">1/J82</f>
         <v>0.134595045922627</v>
@@ -5757,6 +5803,9 @@
       <c r="P84" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="S84" s="0" t="n">
+        <v>-25.53</v>
+      </c>
       <c r="T84" s="0" t="n">
         <f aca="false">1/J84</f>
         <v>0.112403403325267</v>
@@ -5790,6 +5839,9 @@
       <c r="J85" s="0" t="n">
         <v>10.8880952380952</v>
       </c>
+      <c r="S85" s="0" t="n">
+        <v>-28.74</v>
+      </c>
       <c r="T85" s="0" t="n">
         <f aca="false">1/J85</f>
         <v>0.091843428821343</v>
@@ -5832,6 +5884,9 @@
       <c r="R86" s="0" t="n">
         <v>9.4</v>
       </c>
+      <c r="S86" s="0" t="n">
+        <v>-26.05</v>
+      </c>
       <c r="T86" s="0" t="n">
         <f aca="false">1/J86</f>
         <v>0.0813518767758337</v>
@@ -5943,6 +5998,9 @@
       <c r="J90" s="0" t="n">
         <v>8.09428794992175</v>
       </c>
+      <c r="S90" s="0" t="n">
+        <v>-23.36</v>
+      </c>
       <c r="T90" s="0" t="n">
         <f aca="false">1/J90</f>
         <v>0.123543912223887</v>
@@ -6008,6 +6066,9 @@
       <c r="R92" s="0" t="n">
         <v>10.3</v>
       </c>
+      <c r="S92" s="0" t="n">
+        <v>-21.61</v>
+      </c>
       <c r="T92" s="0" t="n">
         <f aca="false">1/J92</f>
         <v>0.221290632121866</v>
@@ -6121,6 +6182,9 @@
       </c>
       <c r="J96" s="0" t="n">
         <v>8.58502772643253</v>
+      </c>
+      <c r="S96" s="0" t="n">
+        <v>-22.87</v>
       </c>
       <c r="T96" s="0" t="n">
         <f aca="false">1/J96</f>
@@ -6146,7 +6210,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
+      <selection pane="topLeft" activeCell="T38" activeCellId="1" sqref="24:24 T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6484,7 +6548,7 @@
   <dimension ref="A1:M215"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="24:24 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12829,10 +12893,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M277"/>
+  <dimension ref="A1:M253"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="24:24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12891,352 +12955,222 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>-27.75</v>
+        <v>-27.65</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>37.7</v>
+        <v>31.1</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>5.03</v>
+        <v>7.45</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>111.91</v>
+        <v>91.73</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>289.46</v>
+        <v>146.96</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-28</v>
+        <v>-27.97</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>35.8</v>
+        <v>30.4</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1.22</v>
+        <v>2.34</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>158.74</v>
+        <v>136.07</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1154.6</v>
+        <v>611.6</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>-27.23</v>
+        <v>-27.27</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>3.25</v>
+        <v>4.12</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>100.6</v>
+        <v>106.22</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>336.77</v>
+        <v>235.88</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-28.24</v>
+        <v>-28.18</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>35.7</v>
+        <v>31.5</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>11.19</v>
+        <v>2.12</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>179.7</v>
+        <v>161.97</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>114.51</v>
+        <v>399.46</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>-27.5</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>-31.61</v>
+        <v>-30.84</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>32.3</v>
+        <v>31.7</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1.3</v>
+        <v>2.86</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>65.03</v>
+        <v>57.38</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>59.73</v>
+        <v>33.37</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>-19.57</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>578.56</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>19.72</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>-20.37</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>396.28</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>271.38</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>-32.43</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>90.08</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>-24.62</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>118.28</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-21.13</v>
+        <v>-24.4</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>30.5</v>
+        <v>30.1</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>63.45</v>
+        <v>83.48</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>623.49</v>
+        <v>668.27</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>10.61</v>
+        <v>9.4</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-21.28</v>
+        <v>-23.52</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>80.45</v>
+        <v>78.05</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>659.91</v>
+        <v>565.47</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>19.39</v>
+        <v>18.4</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-32.59</v>
+        <v>-30.76</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>30.2</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>78.26</v>
+        <v>76.41</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>145</v>
@@ -13245,1279 +13179,482 @@
         <v>147</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-21.8</v>
+        <v>-23.27</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>31.4</v>
+        <v>31.8</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>47.66</v>
+        <v>48.97</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>566.86</v>
+        <v>518.32</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>17.77</v>
+        <v>14.29</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>-21.91</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>34.72</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>201.65</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>75.77</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>-25.74</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>91.12</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>1274.2</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>-27.23</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>67.21</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>3587.73</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>-25.54</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>8.36</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>124.18</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>108.91</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>-28.36</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>94.83</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>720.97</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>-28.91</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>40.09</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>-21.54</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>87.67</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>601.94</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>-20.94</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>203.16</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>1146.77</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>154.25</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>-29.68</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>83.35</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>-25.22</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>105.63</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>836.77</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>23.43</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>-25.56</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>460.7</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="M42" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>-25.32</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>59.92</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>482.27</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="M45" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>-23.56</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>58.97</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>460.7</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <v>8.61</v>
-      </c>
-      <c r="M48" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>-22.91</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>136.76</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <v>33.05</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>-27.24</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>91.91</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <v>603.87</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>-29.65</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>48.02</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <v>819.69</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M52" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>-27.88</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>59.08</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>-27.22</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="I54" s="0" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K54" s="0" t="n">
-        <v>121.93</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>-26.59</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>78.31</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <v>483.21</v>
-      </c>
-      <c r="L55" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M55" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>-29.36</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>50.98</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>1149.86</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>-25.7</v>
-      </c>
-      <c r="G79" s="0" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="I79" s="0" t="n">
-        <v>70.27</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K79" s="0" t="n">
-        <v>76.87</v>
-      </c>
-      <c r="L79" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M79" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F83" s="0" t="n">
-        <v>-26.65</v>
-      </c>
-      <c r="G83" s="0" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="I83" s="0" t="n">
-        <v>102.38</v>
-      </c>
-      <c r="K83" s="0" t="n">
-        <v>73.41</v>
-      </c>
-      <c r="L83" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M83" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>-23.7</v>
-      </c>
-      <c r="G97" s="0" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="H97" s="0" t="n">
-        <v>38.26</v>
-      </c>
-      <c r="I97" s="0" t="n">
-        <v>303.14</v>
-      </c>
-      <c r="K97" s="0" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="M97" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C98" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F98" s="0" t="n">
-        <v>-23.36</v>
-      </c>
-      <c r="G98" s="0" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="H98" s="0" t="n">
-        <v>24.51</v>
-      </c>
-      <c r="I98" s="0" t="n">
-        <v>187.59</v>
-      </c>
-      <c r="K98" s="0" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="M98" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>-22.36</v>
-      </c>
-      <c r="G99" s="0" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="H99" s="0" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="I99" s="0" t="n">
-        <v>552.3</v>
-      </c>
-      <c r="K99" s="0" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="M99" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F100" s="0" t="n">
-        <v>-31.39</v>
-      </c>
-      <c r="G100" s="0" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I100" s="0" t="n">
-        <v>66.96</v>
-      </c>
-      <c r="J100" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K100" s="0" t="n">
-        <v>1081.05</v>
-      </c>
-      <c r="L100" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M100" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C101" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F101" s="0" t="n">
-        <v>-22.26</v>
-      </c>
-      <c r="G101" s="0" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="H101" s="0" t="n">
-        <v>136.27</v>
-      </c>
-      <c r="I101" s="0" t="n">
-        <v>1057.35</v>
-      </c>
-      <c r="K101" s="0" t="n">
-        <v>146.88</v>
-      </c>
-      <c r="M101" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C102" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F102" s="0" t="n">
-        <v>-23.84</v>
-      </c>
-      <c r="G102" s="0" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>60.82</v>
-      </c>
-      <c r="I102" s="0" t="n">
-        <v>526</v>
-      </c>
-      <c r="K102" s="0" t="n">
-        <v>9.78</v>
-      </c>
-      <c r="M102" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F105" s="0" t="n">
-        <v>-28.2</v>
-      </c>
-      <c r="G105" s="0" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="H105" s="0" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>48.19</v>
-      </c>
-      <c r="J105" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K105" s="0" t="n">
-        <v>1906.01</v>
-      </c>
-      <c r="L105" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M105" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>-28.74</v>
+        <v>-30.79</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>31.1</v>
+        <v>30.5</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>2.49</v>
+        <v>2.6</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>46.36</v>
+        <v>81.26</v>
       </c>
       <c r="J106" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K106" s="0" t="n">
-        <v>2013.71</v>
+        <v>444.27</v>
       </c>
       <c r="L106" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>-25.53</v>
+        <v>-27.81</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>30.7</v>
+        <v>31.8</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>21.17</v>
+        <v>6.12</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>125.69</v>
+        <v>66.14</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K107" s="0" t="n">
-        <v>247.55</v>
+        <v>1682.55</v>
+      </c>
+      <c r="L107" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>-24.97</v>
+        <v>-28.15</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>17.44</v>
+        <v>7.81</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>162.17</v>
+        <v>43.6</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K108" s="0" t="n">
-        <v>400.75</v>
+        <v>306.21</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>-25.48</v>
+        <v>-28.43</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>19.92</v>
+        <v>5.85</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>174.04</v>
+        <v>77.62</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K109" s="0" t="n">
-        <v>18.06</v>
+        <v>242.35</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>-22.93</v>
+        <v>-22</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>31.2</v>
+        <v>32.1</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>60.77</v>
+        <v>163.08</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>383.38</v>
+        <v>923.7</v>
       </c>
       <c r="K110" s="0" t="n">
-        <v>14.5</v>
+        <v>202.26</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>-21.61</v>
+        <v>-22.45</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>30.6</v>
+        <v>31.9</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>166.42</v>
+        <v>105.58</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>755.02</v>
+        <v>646.51</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>15.82</v>
+        <v>17.52</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>-23.36</v>
+        <v>-24.8</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>49.29</v>
+        <v>47.25</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>436.97</v>
+        <v>367.81</v>
       </c>
       <c r="K112" s="0" t="n">
-        <v>9.4</v>
+        <v>246.29</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>-22.22</v>
+        <v>-22.37</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>31.6</v>
+        <v>30.4</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>65.61</v>
+        <v>85.69</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>590.11</v>
+        <v>514.7</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>9.27</v>
+        <v>17.65</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>-21.38</v>
+        <v>-26.37</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>31.6</v>
+        <v>30.2</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>77.53</v>
+        <v>9.23</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>646.66</v>
+        <v>107.93</v>
       </c>
       <c r="K114" s="0" t="n">
-        <v>20.17</v>
+        <v>95.24</v>
+      </c>
+      <c r="L114" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>-23.09</v>
+        <v>-28.21</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>31.4</v>
+        <v>30.6</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>56.42</v>
+        <v>26.69</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>488.43</v>
+        <v>70.21</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K115" s="0" t="n">
-        <v>9.16</v>
+        <v>113.86</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>-22.87</v>
+        <v>-26.08</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>51.51</v>
+        <v>57.44</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>471.93</v>
+        <v>457.38</v>
       </c>
       <c r="K116" s="0" t="n">
-        <v>10.3</v>
+        <v>10.41</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>-26.58</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>124.37</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>833.72</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="M117" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>-26.05</v>
+        <v>-27.15</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>5.72</v>
+        <v>66.43</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>69.43</v>
-      </c>
-      <c r="J118" s="0" t="s">
-        <v>145</v>
+        <v>421.92</v>
       </c>
       <c r="K118" s="0" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="L118" s="0" t="s">
-        <v>138</v>
+        <v>15.22</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>-25.2</v>
+        <v>-24.29</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>15.74</v>
+        <v>59.59</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>133.99</v>
+        <v>423.13</v>
       </c>
       <c r="K119" s="0" t="n">
-        <v>19.53</v>
-      </c>
-      <c r="L119" s="0" t="s">
-        <v>142</v>
+        <v>9.08</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>-23.21</v>
+        <v>-26.32</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>31.9</v>
+        <v>30.1</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>27.56</v>
+        <v>17.98</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>271.17</v>
+        <v>89.05</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K120" s="0" t="n">
-        <v>12.86</v>
+        <v>718.18</v>
+      </c>
+      <c r="L120" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>-27.97</v>
+        <v>-22.85</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>30.4</v>
+        <v>31.7</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>2.34</v>
+        <v>42.51</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>136.07</v>
+        <v>200.98</v>
       </c>
       <c r="K121" s="0" t="n">
-        <v>611.6</v>
-      </c>
-      <c r="L121" s="0" t="s">
-        <v>138</v>
+        <v>61.76</v>
       </c>
       <c r="M121" s="0" t="s">
         <v>200</v>
@@ -14525,28 +13662,28 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>-27.65</v>
+        <v>-27.57</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>7.45</v>
+        <v>9.96</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>91.73</v>
+        <v>55.58</v>
       </c>
       <c r="J122" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K122" s="0" t="n">
-        <v>146.96</v>
+        <v>51.43</v>
       </c>
       <c r="L122" s="0" t="s">
         <v>138</v>
@@ -14557,28 +13694,28 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>-28.18</v>
+        <v>-25.48</v>
       </c>
       <c r="G123" s="0" t="n">
         <v>31.5</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>2.12</v>
+        <v>17.23</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>161.97</v>
+        <v>110.9</v>
       </c>
       <c r="K123" s="0" t="n">
-        <v>399.46</v>
+        <v>33.91</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M123" s="0" t="s">
         <v>200</v>
@@ -14586,25 +13723,28 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>-27.27</v>
+        <v>-29.15</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>4.12</v>
+        <v>4.45</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>106.22</v>
+        <v>42.17</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K124" s="0" t="n">
-        <v>235.88</v>
+        <v>848.87</v>
       </c>
       <c r="L124" s="0" t="s">
         <v>138</v>
@@ -14615,31 +13755,28 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>-30.84</v>
+        <v>-27.43</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>2.86</v>
+        <v>29.03</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>57.38</v>
+        <v>86.17</v>
       </c>
       <c r="J125" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K125" s="0" t="n">
-        <v>33.37</v>
-      </c>
-      <c r="L125" s="0" t="s">
-        <v>138</v>
+        <v>168.35</v>
       </c>
       <c r="M125" s="0" t="s">
         <v>200</v>
@@ -14647,25 +13784,31 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>-30.76</v>
+        <v>-28.88</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>30.2</v>
+        <v>31</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>15.15</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>76.41</v>
+        <v>42.04</v>
       </c>
       <c r="J126" s="0" t="s">
         <v>145</v>
       </c>
+      <c r="K126" s="0" t="n">
+        <v>200.85</v>
+      </c>
       <c r="L126" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M126" s="0" t="s">
         <v>200</v>
@@ -14673,25 +13816,31 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>-24.4</v>
+        <v>-26.83</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>30.1</v>
+        <v>31.8</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>83.48</v>
+        <v>15.21</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>668.27</v>
+        <v>74.73</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K127" s="0" t="n">
-        <v>9.4</v>
+        <v>233.03</v>
+      </c>
+      <c r="L127" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="M127" s="0" t="s">
         <v>200</v>
@@ -14699,25 +13848,25 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>-23.52</v>
+        <v>-27.91</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H128" s="0" t="n">
-        <v>78.05</v>
+        <v>30.7</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>565.47</v>
-      </c>
-      <c r="K128" s="0" t="n">
-        <v>18.4</v>
+        <v>50.56</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L128" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="M128" s="0" t="s">
         <v>200</v>
@@ -14725,25 +13874,31 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>-23.27</v>
+        <v>-26.35</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>48.97</v>
+        <v>13.66</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>518.32</v>
+        <v>97.92</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K129" s="0" t="n">
-        <v>14.29</v>
+        <v>9.36</v>
+      </c>
+      <c r="L129" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="M129" s="0" t="s">
         <v>200</v>
@@ -14751,31 +13906,25 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>-30.79</v>
+        <v>-24.85</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>2.6</v>
+        <v>32.44</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>81.26</v>
-      </c>
-      <c r="J130" s="0" t="s">
-        <v>145</v>
+        <v>273.65</v>
       </c>
       <c r="K130" s="0" t="n">
-        <v>444.27</v>
-      </c>
-      <c r="L130" s="0" t="s">
-        <v>138</v>
+        <v>10.03</v>
       </c>
       <c r="M130" s="0" t="s">
         <v>200</v>
@@ -14783,31 +13932,25 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>-27.81</v>
+        <v>-24.69</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>6.12</v>
+        <v>23.99</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>66.14</v>
-      </c>
-      <c r="J131" s="0" t="s">
-        <v>145</v>
+        <v>167.43</v>
       </c>
       <c r="K131" s="0" t="n">
-        <v>1682.55</v>
-      </c>
-      <c r="L131" s="0" t="s">
-        <v>138</v>
+        <v>8.92</v>
       </c>
       <c r="M131" s="0" t="s">
         <v>200</v>
@@ -14815,31 +13958,25 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>-28.15</v>
+        <v>-23.88</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>7.81</v>
+        <v>65.03</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J132" s="0" t="s">
-        <v>145</v>
+        <v>551.19</v>
       </c>
       <c r="K132" s="0" t="n">
-        <v>306.21</v>
-      </c>
-      <c r="L132" s="0" t="s">
-        <v>138</v>
+        <v>9.53</v>
       </c>
       <c r="M132" s="0" t="s">
         <v>200</v>
@@ -14847,28 +13984,28 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>-28.43</v>
+        <v>-31.29</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>30.6</v>
+        <v>31.2</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>5.85</v>
+        <v>3.94</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>77.62</v>
+        <v>51.27</v>
       </c>
       <c r="J133" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K133" s="0" t="n">
-        <v>242.35</v>
+        <v>618.92</v>
       </c>
       <c r="L133" s="0" t="s">
         <v>138</v>
@@ -14879,25 +14016,25 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>-22</v>
+        <v>-24.23</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>32.1</v>
+        <v>31.5</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>163.08</v>
+        <v>127.37</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>923.7</v>
+        <v>881.44</v>
       </c>
       <c r="K134" s="0" t="n">
-        <v>202.26</v>
+        <v>140.73</v>
       </c>
       <c r="M134" s="0" t="s">
         <v>200</v>
@@ -14905,25 +14042,25 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>-22.45</v>
+        <v>-24.76</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>31.9</v>
+        <v>30.2</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>105.58</v>
+        <v>60.33</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>646.51</v>
+        <v>495.71</v>
       </c>
       <c r="K135" s="0" t="n">
-        <v>17.52</v>
+        <v>9.78</v>
       </c>
       <c r="M135" s="0" t="s">
         <v>200</v>
@@ -14931,25 +14068,31 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>-24.8</v>
+        <v>-26.87</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>30.7</v>
+        <v>32</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>47.25</v>
+        <v>9.82</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>367.81</v>
+        <v>92.36</v>
+      </c>
+      <c r="J136" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K136" s="0" t="n">
-        <v>246.29</v>
+        <v>66.32</v>
+      </c>
+      <c r="L136" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M136" s="0" t="s">
         <v>200</v>
@@ -14957,25 +14100,31 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>-22.37</v>
+        <v>-26.72</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>85.69</v>
+        <v>10.27</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>514.7</v>
+        <v>62.12</v>
+      </c>
+      <c r="J137" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K137" s="0" t="n">
-        <v>17.65</v>
+        <v>49.3</v>
+      </c>
+      <c r="L137" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="M137" s="0" t="s">
         <v>200</v>
@@ -14983,25 +14132,28 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>-26.37</v>
+        <v>-27.88</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>30.2</v>
+        <v>31.8</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>9.23</v>
+        <v>3.86</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>107.93</v>
+        <v>47.74</v>
+      </c>
+      <c r="J138" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K138" s="0" t="n">
-        <v>95.24</v>
+        <v>1059.7</v>
       </c>
       <c r="L138" s="0" t="s">
         <v>138</v>
@@ -15012,28 +14164,31 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>-28.21</v>
+        <v>-27.9</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>30.6</v>
+        <v>32.4</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>26.69</v>
+        <v>4.2</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>70.21</v>
+        <v>45.73</v>
       </c>
       <c r="J139" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K139" s="0" t="n">
-        <v>113.86</v>
+        <v>1176.91</v>
+      </c>
+      <c r="L139" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M139" s="0" t="s">
         <v>200</v>
@@ -15041,25 +14196,28 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>-26.08</v>
+        <v>-26.27</v>
       </c>
       <c r="G140" s="0" t="n">
         <v>31.9</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>57.44</v>
+        <v>14.4</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>457.38</v>
+        <v>128.11</v>
       </c>
       <c r="K140" s="0" t="n">
-        <v>10.41</v>
+        <v>337.64</v>
+      </c>
+      <c r="L140" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="M140" s="0" t="s">
         <v>200</v>
@@ -15067,25 +14225,25 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>-26.58</v>
+        <v>-25.98</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>124.37</v>
+        <v>21.44</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>833.72</v>
+        <v>178.57</v>
       </c>
       <c r="K141" s="0" t="n">
-        <v>20.92</v>
+        <v>342.16</v>
       </c>
       <c r="M141" s="0" t="s">
         <v>200</v>
@@ -15093,25 +14251,25 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>-27.15</v>
+        <v>-25.33</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>30.1</v>
+        <v>31.5</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>66.43</v>
+        <v>24.18</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>421.92</v>
+        <v>179.65</v>
       </c>
       <c r="K142" s="0" t="n">
-        <v>15.22</v>
+        <v>15.19</v>
       </c>
       <c r="M142" s="0" t="s">
         <v>200</v>
@@ -15119,25 +14277,25 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>-24.29</v>
+        <v>-24.78</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>59.59</v>
+        <v>53.79</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>423.13</v>
+        <v>333</v>
       </c>
       <c r="K143" s="0" t="n">
-        <v>9.08</v>
+        <v>13.63</v>
       </c>
       <c r="M143" s="0" t="s">
         <v>200</v>
@@ -15145,31 +14303,25 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>-26.32</v>
+        <v>-21.7</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>17.98</v>
+        <v>184.49</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>89.05</v>
-      </c>
-      <c r="J144" s="0" t="s">
-        <v>145</v>
+        <v>833.7</v>
       </c>
       <c r="K144" s="0" t="n">
-        <v>718.18</v>
-      </c>
-      <c r="L144" s="0" t="s">
-        <v>142</v>
+        <v>15.03</v>
       </c>
       <c r="M144" s="0" t="s">
         <v>200</v>
@@ -15177,25 +14329,25 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>-22.85</v>
+        <v>-24.43</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>31.7</v>
+        <v>32.1</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>42.51</v>
+        <v>51.12</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>200.98</v>
+        <v>413.78</v>
       </c>
       <c r="K145" s="0" t="n">
-        <v>61.76</v>
+        <v>9.35</v>
       </c>
       <c r="M145" s="0" t="s">
         <v>200</v>
@@ -15203,31 +14355,25 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>-27.57</v>
+        <v>-23.65</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>9.96</v>
+        <v>60.92</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>55.58</v>
-      </c>
-      <c r="J146" s="0" t="s">
-        <v>145</v>
+        <v>522.76</v>
       </c>
       <c r="K146" s="0" t="n">
-        <v>51.43</v>
-      </c>
-      <c r="L146" s="0" t="s">
-        <v>138</v>
+        <v>9.29</v>
       </c>
       <c r="M146" s="0" t="s">
         <v>200</v>
@@ -15235,28 +14381,25 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>-25.48</v>
+        <v>-24.46</v>
       </c>
       <c r="G147" s="0" t="n">
         <v>31.5</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>17.23</v>
+        <v>83.19</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>110.9</v>
+        <v>568.05</v>
       </c>
       <c r="K147" s="0" t="n">
-        <v>33.91</v>
-      </c>
-      <c r="L147" s="0" t="s">
-        <v>142</v>
+        <v>18.48</v>
       </c>
       <c r="M147" s="0" t="s">
         <v>200</v>
@@ -15264,31 +14407,25 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>-29.15</v>
+        <v>-24.71</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>30.1</v>
+        <v>30.5</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>4.45</v>
+        <v>40.9</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>42.17</v>
-      </c>
-      <c r="J148" s="0" t="s">
-        <v>145</v>
+        <v>373.56</v>
       </c>
       <c r="K148" s="0" t="n">
-        <v>848.87</v>
-      </c>
-      <c r="L148" s="0" t="s">
-        <v>138</v>
+        <v>10.08</v>
       </c>
       <c r="M148" s="0" t="s">
         <v>200</v>
@@ -15296,28 +14433,25 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>-27.43</v>
+        <v>-24.22</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>31.5</v>
+        <v>32.2</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>29.03</v>
+        <v>54.1</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="J149" s="0" t="s">
-        <v>145</v>
+        <v>464.45</v>
       </c>
       <c r="K149" s="0" t="n">
-        <v>168.35</v>
+        <v>10.56</v>
       </c>
       <c r="M149" s="0" t="s">
         <v>200</v>
@@ -15325,31 +14459,25 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>-28.88</v>
+        <v>-27.82</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="H150" s="0" t="n">
-        <v>15.15</v>
+        <v>31.2</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>42.04</v>
+        <v>34.03</v>
       </c>
       <c r="J150" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="K150" s="0" t="n">
-        <v>200.85</v>
-      </c>
       <c r="L150" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M150" s="0" t="s">
         <v>200</v>
@@ -15357,31 +14485,31 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>-26.83</v>
+        <v>-26.35</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>31.8</v>
+        <v>31.1</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>15.21</v>
+        <v>5.44</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>74.73</v>
+        <v>66.87</v>
       </c>
       <c r="J151" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K151" s="0" t="n">
-        <v>233.03</v>
+        <v>18.08</v>
       </c>
       <c r="L151" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M151" s="0" t="s">
         <v>200</v>
@@ -15389,25 +14517,28 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>-27.91</v>
+        <v>-25.4</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>15.37</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="J152" s="0" t="s">
-        <v>145</v>
+        <v>121.58</v>
+      </c>
+      <c r="K152" s="0" t="n">
+        <v>15.45</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M152" s="0" t="s">
         <v>200</v>
@@ -15415,31 +14546,25 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>-26.35</v>
+        <v>-24.66</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>13.66</v>
+        <v>23.67</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>97.92</v>
-      </c>
-      <c r="J153" s="0" t="s">
-        <v>145</v>
+        <v>220.04</v>
       </c>
       <c r="K153" s="0" t="n">
-        <v>9.36</v>
-      </c>
-      <c r="L153" s="0" t="s">
-        <v>142</v>
+        <v>10.63</v>
       </c>
       <c r="M153" s="0" t="s">
         <v>200</v>
@@ -15447,572 +14572,602 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>-24.85</v>
+        <v>-27.82</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>30.8</v>
+        <v>31.2</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>32.44</v>
+        <v>1.22</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>273.65</v>
+        <v>69.11</v>
+      </c>
+      <c r="J154" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K154" s="0" t="n">
-        <v>10.03</v>
+        <v>2514.46</v>
+      </c>
+      <c r="L154" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M154" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>-24.69</v>
+        <v>-21.68</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>32.1</v>
+        <v>31.2</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>23.99</v>
+        <v>17.44</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>167.43</v>
+        <v>245.58</v>
       </c>
       <c r="K155" s="0" t="n">
-        <v>8.92</v>
+        <v>205.33</v>
+      </c>
+      <c r="L155" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>-23.88</v>
+        <v>-29.63</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="H156" s="0" t="n">
-        <v>65.03</v>
+        <v>30.5</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>551.19</v>
-      </c>
-      <c r="K156" s="0" t="n">
-        <v>9.53</v>
+        <v>21.19</v>
+      </c>
+      <c r="J156" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L156" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>-31.29</v>
+        <v>-22.36</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>3.94</v>
+        <v>7.6</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>51.27</v>
+        <v>76.26</v>
       </c>
       <c r="J157" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K157" s="0" t="n">
-        <v>618.92</v>
+        <v>204.28</v>
       </c>
       <c r="L157" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M157" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>-24.23</v>
+        <v>-23.34</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>127.37</v>
+        <v>9.3</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>881.44</v>
+        <v>101.96</v>
       </c>
       <c r="K158" s="0" t="n">
-        <v>140.73</v>
+        <v>21.59</v>
+      </c>
+      <c r="L158" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M158" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>-24.76</v>
+        <v>-27.4</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>30.2</v>
+        <v>31.2</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>60.33</v>
+        <v>1.11</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>495.71</v>
+        <v>28.9</v>
+      </c>
+      <c r="J159" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K159" s="0" t="n">
-        <v>9.78</v>
+        <v>992.57</v>
+      </c>
+      <c r="L159" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>-26.87</v>
+        <v>-20.3</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>32</v>
+        <v>32.3</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>9.82</v>
+        <v>6.56</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>92.36</v>
+        <v>69.32</v>
       </c>
       <c r="J160" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K160" s="0" t="n">
-        <v>66.32</v>
+        <v>91.32</v>
       </c>
       <c r="L160" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>-26.72</v>
+        <v>-20.65</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>10.27</v>
+        <v>34.92</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>62.12</v>
-      </c>
-      <c r="J161" s="0" t="s">
-        <v>145</v>
+        <v>264.64</v>
       </c>
       <c r="K161" s="0" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L161" s="0" t="s">
-        <v>142</v>
+        <v>16.61</v>
       </c>
       <c r="M161" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>-27.88</v>
+        <v>-29.51</v>
       </c>
       <c r="G162" s="0" t="n">
         <v>31.8</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>3.86</v>
+        <v>1.65</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>47.74</v>
+        <v>47.16</v>
       </c>
       <c r="J162" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K162" s="0" t="n">
-        <v>1059.7</v>
+        <v>42.42</v>
       </c>
       <c r="L162" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>-27.9</v>
+        <v>-19.65</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>32.4</v>
+        <v>30.8</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>4.2</v>
+        <v>39.46</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>45.73</v>
-      </c>
-      <c r="J163" s="0" t="s">
-        <v>145</v>
+        <v>254.5</v>
       </c>
       <c r="K163" s="0" t="n">
-        <v>1176.91</v>
-      </c>
-      <c r="L163" s="0" t="s">
-        <v>138</v>
+        <v>16.93</v>
       </c>
       <c r="M163" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>-26.27</v>
+        <v>-21.09</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>31.9</v>
+        <v>31.3</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>14.4</v>
+        <v>28.92</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>128.11</v>
+        <v>255.31</v>
       </c>
       <c r="K164" s="0" t="n">
-        <v>337.64</v>
-      </c>
-      <c r="L164" s="0" t="s">
-        <v>142</v>
+        <v>13.83</v>
       </c>
       <c r="M164" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>-25.98</v>
+        <v>-21.7</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>21.44</v>
+        <v>20.31</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>178.57</v>
+        <v>234.42</v>
       </c>
       <c r="K165" s="0" t="n">
-        <v>342.16</v>
+        <v>13.7</v>
       </c>
       <c r="M165" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>-25.33</v>
+        <v>-22.08</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>31.5</v>
+        <v>31.9</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>24.18</v>
+        <v>21.31</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>179.65</v>
+        <v>245.99</v>
       </c>
       <c r="K166" s="0" t="n">
-        <v>15.19</v>
+        <v>18.2</v>
       </c>
       <c r="M166" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>-24.78</v>
+        <v>-19.3</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>31.8</v>
+        <v>31.1</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>53.79</v>
+        <v>59.47</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>333</v>
+        <v>545.56</v>
       </c>
       <c r="K167" s="0" t="n">
-        <v>13.63</v>
+        <v>17.16</v>
       </c>
       <c r="M167" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>-21.7</v>
+        <v>-25.1</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>30.9</v>
+        <v>31.8</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>184.49</v>
+        <v>7.36</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>833.7</v>
+        <v>144.09</v>
       </c>
       <c r="K168" s="0" t="n">
-        <v>15.03</v>
+        <v>686.25</v>
+      </c>
+      <c r="L168" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M168" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>-24.43</v>
+        <v>-26.13</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>32.1</v>
+        <v>30.9</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>51.12</v>
+        <v>1.85</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>413.78</v>
+        <v>47.71</v>
+      </c>
+      <c r="J169" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K169" s="0" t="n">
-        <v>9.35</v>
+        <v>3116.31</v>
+      </c>
+      <c r="L169" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M169" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>-23.65</v>
+        <v>-24.47</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>30.8</v>
+        <v>30.2</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>60.92</v>
+        <v>1.99</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>522.76</v>
+        <v>50.5</v>
+      </c>
+      <c r="J170" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K170" s="0" t="n">
-        <v>9.29</v>
+        <v>179.92</v>
+      </c>
+      <c r="L170" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>-24.46</v>
+        <v>-25.88</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>83.19</v>
+        <v>2.98</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>568.05</v>
+        <v>45.35</v>
+      </c>
+      <c r="J171" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K171" s="0" t="n">
-        <v>18.48</v>
+        <v>20.93</v>
+      </c>
+      <c r="L171" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>-24.71</v>
+        <v>-24.01</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>30.5</v>
+        <v>31.6</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>40.9</v>
+        <v>10.07</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>373.56</v>
+        <v>119.45</v>
       </c>
       <c r="K172" s="0" t="n">
-        <v>10.08</v>
+        <v>236.08</v>
+      </c>
+      <c r="L172" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="M172" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>-24.22</v>
+        <v>-19.16</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>32.2</v>
+        <v>30.6</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>54.1</v>
+        <v>10.52</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>464.45</v>
+        <v>120.49</v>
       </c>
       <c r="K173" s="0" t="n">
-        <v>10.56</v>
+        <v>19.05</v>
+      </c>
+      <c r="L173" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>-27.82</v>
+        <v>-28.41</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>34.03</v>
+        <v>70.32</v>
       </c>
       <c r="J174" s="0" t="s">
         <v>145</v>
@@ -16021,120 +15176,123 @@
         <v>147</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>-26.35</v>
+        <v>-23.92</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>5.44</v>
+        <v>17.73</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>66.87</v>
+        <v>55.53</v>
       </c>
       <c r="J175" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K175" s="0" t="n">
-        <v>18.08</v>
+        <v>8.73</v>
       </c>
       <c r="L175" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>-25.4</v>
+        <v>15.37</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>30.6</v>
+        <v>31.1</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>15.37</v>
+        <v>15.25</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>121.58</v>
+        <v>100.49</v>
+      </c>
+      <c r="J176" s="0" t="s">
+        <v>281</v>
       </c>
       <c r="K176" s="0" t="n">
-        <v>15.45</v>
+        <v>154.61</v>
       </c>
       <c r="L176" s="0" t="s">
         <v>142</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>-24.66</v>
+        <v>-29.2</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="H177" s="0" t="n">
-        <v>23.67</v>
+        <v>30.9</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>220.04</v>
-      </c>
-      <c r="K177" s="0" t="n">
-        <v>10.63</v>
+        <v>34.87</v>
+      </c>
+      <c r="J177" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L177" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>-27.82</v>
+        <v>-24.95</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>1.22</v>
+        <v>5.18</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>69.11</v>
+        <v>92.47</v>
       </c>
       <c r="J178" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K178" s="0" t="n">
-        <v>2514.46</v>
+        <v>1007.16</v>
       </c>
       <c r="L178" s="0" t="s">
         <v>138</v>
@@ -16145,28 +15303,31 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>-21.68</v>
+        <v>-28.22</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>31.2</v>
+        <v>30.3</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>17.44</v>
+        <v>1.17</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>245.58</v>
+        <v>53.91</v>
+      </c>
+      <c r="J179" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K179" s="0" t="n">
-        <v>205.33</v>
+        <v>3023.61</v>
       </c>
       <c r="L179" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M179" s="0" t="s">
         <v>258</v>
@@ -16174,25 +15335,31 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>-29.63</v>
+        <v>-24.19</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>2.22</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>21.19</v>
+        <v>55.2</v>
       </c>
       <c r="J180" s="0" t="s">
         <v>145</v>
       </c>
+      <c r="K180" s="0" t="n">
+        <v>362.69</v>
+      </c>
       <c r="L180" s="0" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M180" s="0" t="s">
         <v>258</v>
@@ -16200,28 +15367,28 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>-22.36</v>
+        <v>-26.45</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>7.6</v>
+        <v>5.29</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>76.26</v>
+        <v>84.3</v>
       </c>
       <c r="J181" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K181" s="0" t="n">
-        <v>204.28</v>
+        <v>78.64</v>
       </c>
       <c r="L181" s="0" t="s">
         <v>138</v>
@@ -16232,25 +15399,28 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>-23.34</v>
+        <v>-31.03</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>9.3</v>
+        <v>2</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>101.96</v>
+        <v>79.86</v>
+      </c>
+      <c r="J182" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K182" s="0" t="n">
-        <v>21.59</v>
+        <v>454.14</v>
       </c>
       <c r="L182" s="0" t="s">
         <v>138</v>
@@ -16261,28 +15431,28 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>-27.4</v>
+        <v>-30.19</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>31.2</v>
+        <v>32.1</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>28.9</v>
+        <v>44.6</v>
       </c>
       <c r="J183" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K183" s="0" t="n">
-        <v>992.57</v>
+        <v>142.04</v>
       </c>
       <c r="L183" s="0" t="s">
         <v>138</v>
@@ -16293,28 +15463,28 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>-20.3</v>
+        <v>-26.59</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>32.3</v>
+        <v>30.4</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>6.56</v>
+        <v>2.52</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>69.32</v>
+        <v>61.33</v>
       </c>
       <c r="J184" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K184" s="0" t="n">
-        <v>91.32</v>
+        <v>37.69</v>
       </c>
       <c r="L184" s="0" t="s">
         <v>138</v>
@@ -16325,25 +15495,31 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>-20.65</v>
+        <v>-27.7</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>34.92</v>
+        <v>2.07</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>264.64</v>
+        <v>54.17</v>
+      </c>
+      <c r="J185" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K185" s="0" t="n">
-        <v>16.61</v>
+        <v>892.99</v>
+      </c>
+      <c r="L185" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M185" s="0" t="s">
         <v>258</v>
@@ -16351,28 +15527,28 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>-29.51</v>
+        <v>-25.63</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>31.8</v>
+        <v>30.7</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>47.16</v>
+        <v>29.43</v>
       </c>
       <c r="J186" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K186" s="0" t="n">
-        <v>42.42</v>
+        <v>108.72</v>
       </c>
       <c r="L186" s="0" t="s">
         <v>138</v>
@@ -16383,25 +15559,31 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>-19.65</v>
+        <v>-28.51</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>30.8</v>
+        <v>31.7</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>39.46</v>
+        <v>1.78</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>254.5</v>
+        <v>48.18</v>
+      </c>
+      <c r="J187" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K187" s="0" t="n">
-        <v>16.93</v>
+        <v>2539.49</v>
+      </c>
+      <c r="L187" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M187" s="0" t="s">
         <v>258</v>
@@ -16409,25 +15591,31 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>-21.09</v>
+        <v>-26.91</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>31.3</v>
+        <v>31.9</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>28.92</v>
+        <v>2.02</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>255.31</v>
+        <v>49.91</v>
+      </c>
+      <c r="J188" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K188" s="0" t="n">
-        <v>13.83</v>
+        <v>70.64</v>
+      </c>
+      <c r="L188" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M188" s="0" t="s">
         <v>258</v>
@@ -16435,25 +15623,31 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>-21.7</v>
+        <v>-30.43</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>32.2</v>
+        <v>31.6</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>20.31</v>
+        <v>1.21</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>234.42</v>
+        <v>74.72</v>
+      </c>
+      <c r="J189" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K189" s="0" t="n">
-        <v>13.7</v>
+        <v>1192.33</v>
+      </c>
+      <c r="L189" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M189" s="0" t="s">
         <v>258</v>
@@ -16461,25 +15655,31 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>-22.08</v>
+        <v>-25.95</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>31.9</v>
+        <v>30.8</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>21.31</v>
+        <v>3.12</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>245.99</v>
+        <v>47.45</v>
+      </c>
+      <c r="J190" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K190" s="0" t="n">
-        <v>18.2</v>
+        <v>192.26</v>
+      </c>
+      <c r="L190" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M190" s="0" t="s">
         <v>258</v>
@@ -16487,25 +15687,28 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>-19.3</v>
+        <v>-24.22</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>59.47</v>
+        <v>10.23</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>545.56</v>
+        <v>120.04</v>
       </c>
       <c r="K191" s="0" t="n">
-        <v>17.16</v>
+        <v>579.12</v>
+      </c>
+      <c r="L191" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="M191" s="0" t="s">
         <v>258</v>
@@ -16513,28 +15716,25 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>-25.1</v>
+        <v>-34.37</v>
       </c>
       <c r="G192" s="0" t="n">
         <v>31.8</v>
       </c>
-      <c r="H192" s="0" t="n">
-        <v>7.36</v>
-      </c>
       <c r="I192" s="0" t="n">
-        <v>144.09</v>
-      </c>
-      <c r="K192" s="0" t="n">
-        <v>686.25</v>
+        <v>56.59</v>
+      </c>
+      <c r="J192" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="M192" s="0" t="s">
         <v>258</v>
@@ -16542,28 +15742,28 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>-26.13</v>
+        <v>-27.61</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>1.85</v>
+        <v>8.92</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>47.71</v>
+        <v>81.09</v>
       </c>
       <c r="J193" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K193" s="0" t="n">
-        <v>3116.31</v>
+        <v>47.32</v>
       </c>
       <c r="L193" s="0" t="s">
         <v>138</v>
@@ -16574,28 +15774,28 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>-24.47</v>
+        <v>-27.89</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>30.2</v>
+        <v>30.8</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>1.99</v>
+        <v>1.06</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>50.5</v>
+        <v>42.38</v>
       </c>
       <c r="J194" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K194" s="0" t="n">
-        <v>179.92</v>
+        <v>33.53</v>
       </c>
       <c r="L194" s="0" t="s">
         <v>138</v>
@@ -16606,31 +15806,25 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>-25.88</v>
+        <v>-21.65</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>31.8</v>
+        <v>31.3</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>2.98</v>
+        <v>78.9</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>45.35</v>
-      </c>
-      <c r="J195" s="0" t="s">
-        <v>145</v>
+        <v>435.38</v>
       </c>
       <c r="K195" s="0" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="L195" s="0" t="s">
-        <v>138</v>
+        <v>14.37</v>
       </c>
       <c r="M195" s="0" t="s">
         <v>258</v>
@@ -16638,28 +15832,31 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>-24.01</v>
+        <v>-29.71</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>31.6</v>
+        <v>31.3</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>10.07</v>
+        <v>1.08</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>119.45</v>
+        <v>41.93</v>
+      </c>
+      <c r="J196" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K196" s="0" t="n">
-        <v>236.08</v>
+        <v>261.59</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M196" s="0" t="s">
         <v>258</v>
@@ -16667,28 +15864,31 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>-19.16</v>
+        <v>-33.31</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>10.52</v>
+        <v>3.82</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>120.49</v>
+        <v>96.09</v>
+      </c>
+      <c r="J197" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K197" s="0" t="n">
-        <v>19.05</v>
+        <v>42.62</v>
       </c>
       <c r="L197" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M197" s="0" t="s">
         <v>258</v>
@@ -16696,25 +15896,31 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>-28.41</v>
+        <v>-29.09</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>31.1</v>
+        <v>31.9</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>2.23</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>70.32</v>
+        <v>64.26</v>
       </c>
       <c r="J198" s="0" t="s">
         <v>145</v>
       </c>
+      <c r="K198" s="0" t="n">
+        <v>36.75</v>
+      </c>
       <c r="L198" s="0" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M198" s="0" t="s">
         <v>258</v>
@@ -16722,31 +15928,31 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>-23.92</v>
+        <v>-30.43</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>17.73</v>
+        <v>5.35</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>55.53</v>
+        <v>57.9</v>
       </c>
       <c r="J199" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K199" s="0" t="n">
-        <v>8.73</v>
+        <v>53.42</v>
       </c>
       <c r="L199" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M199" s="0" t="s">
         <v>258</v>
@@ -16754,31 +15960,31 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>15.37</v>
+        <v>-27.97</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>31.1</v>
+        <v>31.6</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>15.25</v>
+        <v>7.99</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>100.49</v>
+        <v>91.75</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="K200" s="0" t="n">
-        <v>154.61</v>
+        <v>27.03</v>
       </c>
       <c r="L200" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M200" s="0" t="s">
         <v>258</v>
@@ -16786,25 +15992,31 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>-29.2</v>
+        <v>-27.34</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>30.9</v>
+        <v>31.4</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <v>8.43</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>34.87</v>
+        <v>60.4</v>
       </c>
       <c r="J201" s="0" t="s">
         <v>145</v>
       </c>
+      <c r="K201" s="0" t="n">
+        <v>57.71</v>
+      </c>
       <c r="L201" s="0" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M201" s="0" t="s">
         <v>258</v>
@@ -16812,28 +16024,25 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>-24.95</v>
+        <v>-22.73</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>30.8</v>
+        <v>32.1</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>5.18</v>
+        <v>7.64</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>92.47</v>
-      </c>
-      <c r="J202" s="0" t="s">
-        <v>145</v>
+        <v>106.64</v>
       </c>
       <c r="K202" s="0" t="n">
-        <v>1007.16</v>
+        <v>94.31</v>
       </c>
       <c r="L202" s="0" t="s">
         <v>138</v>
@@ -16844,28 +16053,28 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>-28.22</v>
+        <v>-31.92</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>30.3</v>
+        <v>31</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>1.17</v>
+        <v>5.58</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>53.91</v>
+        <v>77.9</v>
       </c>
       <c r="J203" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K203" s="0" t="n">
-        <v>3023.61</v>
+        <v>21.35</v>
       </c>
       <c r="L203" s="0" t="s">
         <v>138</v>
@@ -16876,781 +16085,745 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>-24.19</v>
+        <v>-28.26</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>30.7</v>
+        <v>32.1</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>2.22</v>
+        <v>10.17</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>55.2</v>
+        <v>78.85</v>
       </c>
       <c r="J204" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K204" s="0" t="n">
-        <v>362.69</v>
+        <v>202.6</v>
       </c>
       <c r="L204" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M204" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>-26.45</v>
+        <v>-25.88</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>31.8</v>
+        <v>31.5</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>5.29</v>
+        <v>15</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>84.3</v>
-      </c>
-      <c r="J205" s="0" t="s">
-        <v>145</v>
+        <v>197.74</v>
       </c>
       <c r="K205" s="0" t="n">
-        <v>78.64</v>
+        <v>166.29</v>
       </c>
       <c r="L205" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M205" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>-31.03</v>
+        <v>-30.29</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>31.3</v>
+        <v>31.8</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>79.86</v>
+        <v>19.41</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>145</v>
+        <v>313</v>
       </c>
       <c r="K206" s="0" t="n">
-        <v>454.14</v>
+        <v>245.63</v>
       </c>
       <c r="L206" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M206" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>-30.19</v>
+        <v>-26.66</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>1.33</v>
+        <v>8.3</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>44.6</v>
+        <v>60.58</v>
       </c>
       <c r="J207" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K207" s="0" t="n">
-        <v>142.04</v>
+        <v>98.68</v>
       </c>
       <c r="L207" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M207" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>-26.59</v>
+        <v>-25.39</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>30.4</v>
+        <v>31.8</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>2.52</v>
+        <v>9.13</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>61.33</v>
+        <v>88.8</v>
       </c>
       <c r="J208" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K208" s="0" t="n">
-        <v>37.69</v>
+        <v>19.09</v>
       </c>
       <c r="L208" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M208" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>-27.7</v>
+        <v>-28.08</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>2.07</v>
+        <v>25.52</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>54.17</v>
+        <v>47.42</v>
       </c>
       <c r="J209" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K209" s="0" t="n">
-        <v>892.99</v>
-      </c>
-      <c r="L209" s="0" t="s">
-        <v>138</v>
+        <v>46.16</v>
       </c>
       <c r="M209" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>-25.63</v>
+        <v>-25.3</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>30.7</v>
+        <v>32.2</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>1.57</v>
+        <v>12.34</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>29.43</v>
+        <v>67.83</v>
       </c>
       <c r="J210" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K210" s="0" t="n">
-        <v>108.72</v>
+        <v>50.13</v>
       </c>
       <c r="L210" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M210" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>-28.51</v>
+        <v>-22.98</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>31.7</v>
+        <v>30.5</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>1.78</v>
+        <v>37.87</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>48.18</v>
-      </c>
-      <c r="J211" s="0" t="s">
-        <v>145</v>
+        <v>249.17</v>
       </c>
       <c r="K211" s="0" t="n">
-        <v>2539.49</v>
-      </c>
-      <c r="L211" s="0" t="s">
-        <v>138</v>
+        <v>14.55</v>
       </c>
       <c r="M211" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>-26.91</v>
+        <v>-30.35</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>31.9</v>
+        <v>30.9</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>49.91</v>
+        <v>42.2</v>
       </c>
       <c r="J212" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K212" s="0" t="n">
-        <v>70.64</v>
+        <v>40.07</v>
       </c>
       <c r="L212" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M212" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>-30.43</v>
+        <v>-22.31</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>31.6</v>
+        <v>31.1</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>1.21</v>
+        <v>28.89</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>74.72</v>
-      </c>
-      <c r="J213" s="0" t="s">
-        <v>145</v>
+        <v>165.59</v>
       </c>
       <c r="K213" s="0" t="n">
-        <v>1192.33</v>
-      </c>
-      <c r="L213" s="0" t="s">
-        <v>138</v>
+        <v>17.91</v>
       </c>
       <c r="M213" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>-25.95</v>
+        <v>-24.3</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>3.12</v>
+        <v>25.06</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>47.45</v>
-      </c>
-      <c r="J214" s="0" t="s">
-        <v>145</v>
+        <v>239.05</v>
       </c>
       <c r="K214" s="0" t="n">
-        <v>192.26</v>
-      </c>
-      <c r="L214" s="0" t="s">
-        <v>138</v>
+        <v>14.92</v>
       </c>
       <c r="M214" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>-24.22</v>
+        <v>-25.61</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>10.23</v>
+        <v>23.52</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>120.04</v>
+        <v>197.46</v>
       </c>
       <c r="K215" s="0" t="n">
-        <v>579.12</v>
-      </c>
-      <c r="L215" s="0" t="s">
-        <v>142</v>
+        <v>14.01</v>
       </c>
       <c r="M215" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>-34.37</v>
+        <v>-24.55</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>31.8</v>
+        <v>30.8</v>
+      </c>
+      <c r="H216" s="0" t="n">
+        <v>25.56</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>56.59</v>
-      </c>
-      <c r="J216" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="L216" s="0" t="s">
-        <v>147</v>
+        <v>281.63</v>
+      </c>
+      <c r="K216" s="0" t="n">
+        <v>13.85</v>
       </c>
       <c r="M216" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="C217" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>-27.61</v>
+        <v>-23.44</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>8.92</v>
+        <v>56.39</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>81.09</v>
-      </c>
-      <c r="J217" s="0" t="s">
-        <v>145</v>
+        <v>402.23</v>
       </c>
       <c r="K217" s="0" t="n">
-        <v>47.32</v>
-      </c>
-      <c r="L217" s="0" t="s">
-        <v>138</v>
+        <v>16.06</v>
       </c>
       <c r="M217" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="C218" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>-27.89</v>
+        <v>-26.8</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>30.8</v>
+        <v>32.5</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>1.06</v>
+        <v>8.6</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>42.38</v>
-      </c>
-      <c r="J218" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K218" s="0" t="n">
-        <v>33.53</v>
+        <v>460.13</v>
       </c>
       <c r="L218" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M218" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>-21.65</v>
+        <v>-28.29</v>
       </c>
       <c r="G219" s="0" t="n">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>78.9</v>
+        <v>4.97</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>435.38</v>
+        <v>49.86</v>
+      </c>
+      <c r="J219" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K219" s="0" t="n">
-        <v>14.37</v>
+        <v>1073.08</v>
+      </c>
+      <c r="L219" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M219" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>-29.71</v>
+        <v>-27.18</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>1.08</v>
+        <v>2.42</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>41.93</v>
+        <v>61.46</v>
       </c>
       <c r="J220" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K220" s="0" t="n">
-        <v>261.59</v>
+        <v>154.31</v>
       </c>
       <c r="L220" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M220" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="C221" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>-33.31</v>
+        <v>-27.12</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>3.82</v>
+        <v>5.99</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>96.09</v>
+        <v>53.32</v>
       </c>
       <c r="J221" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K221" s="0" t="n">
-        <v>42.62</v>
+        <v>18.63</v>
       </c>
       <c r="L221" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M221" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>-29.09</v>
+        <v>-27.04</v>
       </c>
       <c r="G222" s="0" t="n">
-        <v>31.9</v>
+        <v>30.8</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>2.23</v>
+        <v>10.69</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>64.26</v>
-      </c>
-      <c r="J222" s="0" t="s">
-        <v>145</v>
+        <v>110.75</v>
       </c>
       <c r="K222" s="0" t="n">
-        <v>36.75</v>
+        <v>129.52</v>
       </c>
       <c r="L222" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M222" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="C223" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>-30.43</v>
+        <v>-25.75</v>
       </c>
       <c r="G223" s="0" t="n">
-        <v>32.1</v>
+        <v>31.1</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>5.35</v>
+        <v>10.74</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="J223" s="0" t="s">
-        <v>145</v>
+        <v>119.36</v>
       </c>
       <c r="K223" s="0" t="n">
-        <v>53.42</v>
+        <v>20.8</v>
       </c>
       <c r="L223" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M223" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="C224" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>-27.97</v>
+        <v>-28.87</v>
       </c>
       <c r="G224" s="0" t="n">
-        <v>31.6</v>
+        <v>33</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>7.99</v>
+        <v>5.31</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>91.75</v>
+        <v>65.52</v>
       </c>
       <c r="J224" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K224" s="0" t="n">
-        <v>27.03</v>
+        <v>258.24</v>
       </c>
       <c r="L224" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M224" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>-27.34</v>
+        <v>-27.45</v>
       </c>
       <c r="G225" s="0" t="n">
-        <v>31.4</v>
+        <v>33</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>8.43</v>
+        <v>3.55</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>60.4</v>
+        <v>71.82</v>
       </c>
       <c r="J225" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K225" s="0" t="n">
-        <v>57.71</v>
+        <v>24.01</v>
       </c>
       <c r="L225" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M225" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="C226" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>-22.73</v>
+        <v>-26.84</v>
       </c>
       <c r="G226" s="0" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>7.64</v>
+        <v>7.01</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>106.64</v>
+        <v>86.41</v>
+      </c>
+      <c r="J226" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K226" s="0" t="n">
-        <v>94.31</v>
+        <v>18.93</v>
       </c>
       <c r="L226" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M226" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="C227" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>-31.92</v>
+        <v>-28.41</v>
       </c>
       <c r="G227" s="0" t="n">
-        <v>31</v>
+        <v>32.2</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>5.58</v>
+        <v>2.61</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>77.9</v>
+        <v>93.62</v>
       </c>
       <c r="J227" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K227" s="0" t="n">
-        <v>21.35</v>
+        <v>47.85</v>
       </c>
       <c r="L227" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M227" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C228" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>-28.26</v>
+        <v>-25.48</v>
       </c>
       <c r="G228" s="0" t="n">
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
       <c r="H228" s="0" t="n">
-        <v>10.17</v>
+        <v>8.57</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>78.85</v>
-      </c>
-      <c r="J228" s="0" t="s">
-        <v>145</v>
+        <v>128.68</v>
       </c>
       <c r="K228" s="0" t="n">
-        <v>202.6</v>
+        <v>483.35</v>
       </c>
       <c r="L228" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M228" s="0" t="s">
         <v>310</v>
@@ -17658,28 +16831,31 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="C229" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>-25.88</v>
+        <v>-28.12</v>
       </c>
       <c r="G229" s="0" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>15</v>
+        <v>2.43</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>197.74</v>
+        <v>72.48</v>
+      </c>
+      <c r="J229" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K229" s="0" t="n">
-        <v>166.29</v>
+        <v>875.01</v>
       </c>
       <c r="L229" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M229" s="0" t="s">
         <v>310</v>
@@ -17687,28 +16863,28 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="C230" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>-30.29</v>
+        <v>-26.07</v>
       </c>
       <c r="G230" s="0" t="n">
-        <v>31.8</v>
+        <v>31.2</v>
       </c>
       <c r="H230" s="0" t="n">
-        <v>5.3</v>
+        <v>4.62</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>19.41</v>
+        <v>65.38</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>313</v>
+        <v>145</v>
       </c>
       <c r="K230" s="0" t="n">
-        <v>245.63</v>
+        <v>195.5</v>
       </c>
       <c r="L230" s="0" t="s">
         <v>138</v>
@@ -17719,28 +16895,28 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>-26.66</v>
+        <v>-28.03</v>
       </c>
       <c r="G231" s="0" t="n">
-        <v>31.8</v>
+        <v>30.2</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>8.3</v>
+        <v>6.21</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>60.58</v>
+        <v>70.01</v>
       </c>
       <c r="J231" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K231" s="0" t="n">
-        <v>98.68</v>
+        <v>72.41</v>
       </c>
       <c r="L231" s="0" t="s">
         <v>138</v>
@@ -17751,28 +16927,28 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F232" s="0" t="n">
-        <v>-25.39</v>
+        <v>-29.83</v>
       </c>
       <c r="G232" s="0" t="n">
-        <v>31.8</v>
+        <v>32.4</v>
       </c>
       <c r="H232" s="0" t="n">
-        <v>9.13</v>
+        <v>2.66</v>
       </c>
       <c r="I232" s="0" t="n">
-        <v>88.8</v>
+        <v>80.21</v>
       </c>
       <c r="J232" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K232" s="0" t="n">
-        <v>19.09</v>
+        <v>273.9</v>
       </c>
       <c r="L232" s="0" t="s">
         <v>138</v>
@@ -17783,28 +16959,31 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F233" s="0" t="n">
-        <v>-28.08</v>
+        <v>-28.26</v>
       </c>
       <c r="G233" s="0" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="H233" s="0" t="n">
-        <v>25.52</v>
+        <v>3.48</v>
       </c>
       <c r="I233" s="0" t="n">
-        <v>47.42</v>
+        <v>57.27</v>
       </c>
       <c r="J233" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K233" s="0" t="n">
-        <v>46.16</v>
+        <v>55.55</v>
+      </c>
+      <c r="L233" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M233" s="0" t="s">
         <v>310</v>
@@ -17812,31 +16991,31 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F234" s="0" t="n">
-        <v>-25.3</v>
+        <v>-27.53</v>
       </c>
       <c r="G234" s="0" t="n">
-        <v>32.2</v>
+        <v>31.6</v>
       </c>
       <c r="H234" s="0" t="n">
-        <v>12.34</v>
+        <v>4.71</v>
       </c>
       <c r="I234" s="0" t="n">
-        <v>67.83</v>
+        <v>74.02</v>
       </c>
       <c r="J234" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K234" s="0" t="n">
-        <v>50.13</v>
+        <v>24.07</v>
       </c>
       <c r="L234" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M234" s="0" t="s">
         <v>310</v>
@@ -17844,25 +17023,31 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F235" s="0" t="n">
-        <v>-22.98</v>
+        <v>-27.69</v>
       </c>
       <c r="G235" s="0" t="n">
-        <v>30.5</v>
+        <v>31.4</v>
       </c>
       <c r="H235" s="0" t="n">
-        <v>37.87</v>
+        <v>2.54</v>
       </c>
       <c r="I235" s="0" t="n">
-        <v>249.17</v>
+        <v>73.53</v>
+      </c>
+      <c r="J235" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K235" s="0" t="n">
-        <v>14.55</v>
+        <v>604.8</v>
+      </c>
+      <c r="L235" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M235" s="0" t="s">
         <v>310</v>
@@ -17870,28 +17055,28 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F236" s="0" t="n">
-        <v>-30.35</v>
+        <v>-27.27</v>
       </c>
       <c r="G236" s="0" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="H236" s="0" t="n">
-        <v>1.69</v>
+        <v>3.4</v>
       </c>
       <c r="I236" s="0" t="n">
-        <v>42.2</v>
+        <v>36.44</v>
       </c>
       <c r="J236" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K236" s="0" t="n">
-        <v>40.07</v>
+        <v>50.75</v>
       </c>
       <c r="L236" s="0" t="s">
         <v>138</v>
@@ -17902,25 +17087,31 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F237" s="0" t="n">
-        <v>-22.31</v>
+        <v>-28.12</v>
       </c>
       <c r="G237" s="0" t="n">
-        <v>31.1</v>
+        <v>30.3</v>
       </c>
       <c r="H237" s="0" t="n">
-        <v>28.89</v>
+        <v>2.05</v>
       </c>
       <c r="I237" s="0" t="n">
-        <v>165.59</v>
+        <v>51.74</v>
+      </c>
+      <c r="J237" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K237" s="0" t="n">
-        <v>17.91</v>
+        <v>1362.49</v>
+      </c>
+      <c r="L237" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M237" s="0" t="s">
         <v>310</v>
@@ -17928,25 +17119,31 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F238" s="0" t="n">
-        <v>-24.3</v>
+        <v>-27.84</v>
       </c>
       <c r="G238" s="0" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="H238" s="0" t="n">
-        <v>25.06</v>
+        <v>2.72</v>
       </c>
       <c r="I238" s="0" t="n">
-        <v>239.05</v>
+        <v>49.09</v>
+      </c>
+      <c r="J238" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K238" s="0" t="n">
-        <v>14.92</v>
+        <v>47.57</v>
+      </c>
+      <c r="L238" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M238" s="0" t="s">
         <v>310</v>
@@ -17954,25 +17151,31 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F239" s="0" t="n">
-        <v>-25.61</v>
+        <v>-29.93</v>
       </c>
       <c r="G239" s="0" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="H239" s="0" t="n">
-        <v>23.52</v>
+        <v>2.78</v>
       </c>
       <c r="I239" s="0" t="n">
-        <v>197.46</v>
+        <v>65.2</v>
+      </c>
+      <c r="J239" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K239" s="0" t="n">
-        <v>14.01</v>
+        <v>171.6</v>
+      </c>
+      <c r="L239" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M239" s="0" t="s">
         <v>310</v>
@@ -17980,25 +17183,31 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F240" s="0" t="n">
-        <v>-24.55</v>
+        <v>-27.26</v>
       </c>
       <c r="G240" s="0" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="H240" s="0" t="n">
-        <v>25.56</v>
+        <v>3.4</v>
       </c>
       <c r="I240" s="0" t="n">
-        <v>281.63</v>
+        <v>58.06</v>
+      </c>
+      <c r="J240" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K240" s="0" t="n">
-        <v>13.85</v>
+        <v>127.88</v>
+      </c>
+      <c r="L240" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M240" s="0" t="s">
         <v>310</v>
@@ -18006,25 +17215,28 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F241" s="0" t="n">
-        <v>-23.44</v>
+        <v>-26.91</v>
       </c>
       <c r="G241" s="0" t="n">
-        <v>31.2</v>
+        <v>32.3</v>
       </c>
       <c r="H241" s="0" t="n">
-        <v>56.39</v>
+        <v>9.13</v>
       </c>
       <c r="I241" s="0" t="n">
-        <v>402.23</v>
+        <v>101.18</v>
       </c>
       <c r="K241" s="0" t="n">
-        <v>16.06</v>
+        <v>440.79</v>
+      </c>
+      <c r="L241" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M241" s="0" t="s">
         <v>310</v>
@@ -18032,25 +17244,28 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F242" s="0" t="n">
-        <v>-26.8</v>
+        <v>-33.21</v>
       </c>
       <c r="G242" s="0" t="n">
-        <v>32.5</v>
+        <v>31.7</v>
       </c>
       <c r="H242" s="0" t="n">
-        <v>8.6</v>
+        <v>1.41</v>
       </c>
       <c r="I242" s="0" t="n">
+        <v>48.13</v>
+      </c>
+      <c r="J242" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K242" s="0" t="n">
-        <v>460.13</v>
+        <v>356.31</v>
       </c>
       <c r="L242" s="0" t="s">
         <v>138</v>
@@ -18061,28 +17276,28 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F243" s="0" t="n">
-        <v>-28.29</v>
+        <v>-30.25</v>
       </c>
       <c r="G243" s="0" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="H243" s="0" t="n">
-        <v>4.97</v>
+        <v>3.49</v>
       </c>
       <c r="I243" s="0" t="n">
-        <v>49.86</v>
+        <v>67.83</v>
       </c>
       <c r="J243" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K243" s="0" t="n">
-        <v>1073.08</v>
+        <v>91.01</v>
       </c>
       <c r="L243" s="0" t="s">
         <v>138</v>
@@ -18093,28 +17308,28 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="C244" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F244" s="0" t="n">
-        <v>-27.18</v>
+        <v>-28.32</v>
       </c>
       <c r="G244" s="0" t="n">
-        <v>31</v>
+        <v>31.9</v>
       </c>
       <c r="H244" s="0" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="I244" s="0" t="n">
-        <v>61.46</v>
+        <v>41.64</v>
       </c>
       <c r="J244" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K244" s="0" t="n">
-        <v>154.31</v>
+        <v>11.95</v>
       </c>
       <c r="L244" s="0" t="s">
         <v>138</v>
@@ -18125,31 +17340,25 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F245" s="0" t="n">
-        <v>-27.12</v>
+        <v>-22.64</v>
       </c>
       <c r="G245" s="0" t="n">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="H245" s="0" t="n">
-        <v>5.99</v>
+        <v>103.12</v>
       </c>
       <c r="I245" s="0" t="n">
-        <v>53.32</v>
-      </c>
-      <c r="J245" s="0" t="s">
-        <v>145</v>
+        <v>476.48</v>
       </c>
       <c r="K245" s="0" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="L245" s="0" t="s">
-        <v>138</v>
+        <v>13.46</v>
       </c>
       <c r="M245" s="0" t="s">
         <v>310</v>
@@ -18157,28 +17366,31 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="C246" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F246" s="0" t="n">
-        <v>-27.04</v>
+        <v>-28.82</v>
       </c>
       <c r="G246" s="0" t="n">
-        <v>30.8</v>
+        <v>33.1</v>
       </c>
       <c r="H246" s="0" t="n">
-        <v>10.69</v>
+        <v>1.52</v>
       </c>
       <c r="I246" s="0" t="n">
-        <v>110.75</v>
+        <v>58.67</v>
+      </c>
+      <c r="J246" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K246" s="0" t="n">
-        <v>129.52</v>
+        <v>168.4</v>
       </c>
       <c r="L246" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M246" s="0" t="s">
         <v>310</v>
@@ -18186,28 +17398,31 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F247" s="0" t="n">
-        <v>-25.75</v>
+        <v>-30.62</v>
       </c>
       <c r="G247" s="0" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="H247" s="0" t="n">
-        <v>10.74</v>
+        <v>4.21</v>
       </c>
       <c r="I247" s="0" t="n">
-        <v>119.36</v>
+        <v>89.45</v>
+      </c>
+      <c r="J247" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K247" s="0" t="n">
-        <v>20.8</v>
+        <v>40.75</v>
       </c>
       <c r="L247" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M247" s="0" t="s">
         <v>310</v>
@@ -18215,28 +17430,28 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F248" s="0" t="n">
-        <v>-28.87</v>
+        <v>-28.83</v>
       </c>
       <c r="G248" s="0" t="n">
-        <v>33</v>
+        <v>31.2</v>
       </c>
       <c r="H248" s="0" t="n">
-        <v>5.31</v>
+        <v>5</v>
       </c>
       <c r="I248" s="0" t="n">
-        <v>65.52</v>
+        <v>94.51</v>
       </c>
       <c r="J248" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K248" s="0" t="n">
-        <v>258.24</v>
+        <v>22.43</v>
       </c>
       <c r="L248" s="0" t="s">
         <v>138</v>
@@ -18247,28 +17462,28 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="C249" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F249" s="0" t="n">
-        <v>-27.45</v>
+        <v>-29.35</v>
       </c>
       <c r="G249" s="0" t="n">
-        <v>33</v>
+        <v>31.5</v>
       </c>
       <c r="H249" s="0" t="n">
-        <v>3.55</v>
+        <v>3.63</v>
       </c>
       <c r="I249" s="0" t="n">
-        <v>71.82</v>
+        <v>67.14</v>
       </c>
       <c r="J249" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K249" s="0" t="n">
-        <v>24.01</v>
+        <v>43.34</v>
       </c>
       <c r="L249" s="0" t="s">
         <v>138</v>
@@ -18279,28 +17494,28 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="C250" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F250" s="0" t="n">
-        <v>-26.84</v>
+        <v>-27.56</v>
       </c>
       <c r="G250" s="0" t="n">
-        <v>31.8</v>
+        <v>32.5</v>
       </c>
       <c r="H250" s="0" t="n">
-        <v>7.01</v>
+        <v>6.69</v>
       </c>
       <c r="I250" s="0" t="n">
-        <v>86.41</v>
+        <v>90.43</v>
       </c>
       <c r="J250" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K250" s="0" t="n">
-        <v>18.93</v>
+        <v>26.93</v>
       </c>
       <c r="L250" s="0" t="s">
         <v>138</v>
@@ -18311,28 +17526,28 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="C251" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F251" s="0" t="n">
-        <v>-28.41</v>
+        <v>-27.58</v>
       </c>
       <c r="G251" s="0" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="H251" s="0" t="n">
-        <v>2.61</v>
+        <v>4.63</v>
       </c>
       <c r="I251" s="0" t="n">
-        <v>93.62</v>
+        <v>55.14</v>
       </c>
       <c r="J251" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K251" s="0" t="n">
-        <v>47.85</v>
+        <v>73.17</v>
       </c>
       <c r="L251" s="0" t="s">
         <v>138</v>
@@ -18343,25 +17558,28 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="C252" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F252" s="0" t="n">
-        <v>-25.48</v>
+        <v>-26.59</v>
       </c>
       <c r="G252" s="0" t="n">
-        <v>32.6</v>
+        <v>30.4</v>
       </c>
       <c r="H252" s="0" t="n">
-        <v>8.57</v>
+        <v>7.59</v>
       </c>
       <c r="I252" s="0" t="n">
-        <v>128.68</v>
+        <v>99.64</v>
+      </c>
+      <c r="J252" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K252" s="0" t="n">
-        <v>483.35</v>
+        <v>75.46</v>
       </c>
       <c r="L252" s="0" t="s">
         <v>138</v>
@@ -18372,792 +17590,33 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="C253" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F253" s="0" t="n">
-        <v>-28.12</v>
+        <v>-31.31</v>
       </c>
       <c r="G253" s="0" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="H253" s="0" t="n">
-        <v>2.43</v>
+        <v>3.28</v>
       </c>
       <c r="I253" s="0" t="n">
-        <v>72.48</v>
+        <v>78.08</v>
       </c>
       <c r="J253" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K253" s="0" t="n">
-        <v>875.01</v>
+        <v>24.82</v>
       </c>
       <c r="L253" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M253" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="C254" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F254" s="0" t="n">
-        <v>-26.07</v>
-      </c>
-      <c r="G254" s="0" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H254" s="0" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="I254" s="0" t="n">
-        <v>65.38</v>
-      </c>
-      <c r="J254" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K254" s="0" t="n">
-        <v>195.5</v>
-      </c>
-      <c r="L254" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M254" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="C255" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F255" s="0" t="n">
-        <v>-28.03</v>
-      </c>
-      <c r="G255" s="0" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="H255" s="0" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="I255" s="0" t="n">
-        <v>70.01</v>
-      </c>
-      <c r="J255" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K255" s="0" t="n">
-        <v>72.41</v>
-      </c>
-      <c r="L255" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M255" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="C256" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F256" s="0" t="n">
-        <v>-29.83</v>
-      </c>
-      <c r="G256" s="0" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="H256" s="0" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I256" s="0" t="n">
-        <v>80.21</v>
-      </c>
-      <c r="J256" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K256" s="0" t="n">
-        <v>273.9</v>
-      </c>
-      <c r="L256" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M256" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="C257" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F257" s="0" t="n">
-        <v>-28.26</v>
-      </c>
-      <c r="G257" s="0" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="H257" s="0" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="I257" s="0" t="n">
-        <v>57.27</v>
-      </c>
-      <c r="J257" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K257" s="0" t="n">
-        <v>55.55</v>
-      </c>
-      <c r="L257" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M257" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="C258" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F258" s="0" t="n">
-        <v>-27.53</v>
-      </c>
-      <c r="G258" s="0" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="H258" s="0" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="I258" s="0" t="n">
-        <v>74.02</v>
-      </c>
-      <c r="J258" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K258" s="0" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="L258" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M258" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="C259" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F259" s="0" t="n">
-        <v>-27.69</v>
-      </c>
-      <c r="G259" s="0" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="H259" s="0" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I259" s="0" t="n">
-        <v>73.53</v>
-      </c>
-      <c r="J259" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K259" s="0" t="n">
-        <v>604.8</v>
-      </c>
-      <c r="L259" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M259" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C260" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F260" s="0" t="n">
-        <v>-27.27</v>
-      </c>
-      <c r="G260" s="0" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="H260" s="0" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I260" s="0" t="n">
-        <v>36.44</v>
-      </c>
-      <c r="J260" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K260" s="0" t="n">
-        <v>50.75</v>
-      </c>
-      <c r="L260" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M260" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="C261" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F261" s="0" t="n">
-        <v>-28.12</v>
-      </c>
-      <c r="G261" s="0" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="H261" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="I261" s="0" t="n">
-        <v>51.74</v>
-      </c>
-      <c r="J261" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K261" s="0" t="n">
-        <v>1362.49</v>
-      </c>
-      <c r="L261" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M261" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="C262" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F262" s="0" t="n">
-        <v>-27.84</v>
-      </c>
-      <c r="G262" s="0" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="H262" s="0" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I262" s="0" t="n">
-        <v>49.09</v>
-      </c>
-      <c r="J262" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K262" s="0" t="n">
-        <v>47.57</v>
-      </c>
-      <c r="L262" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M262" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C263" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F263" s="0" t="n">
-        <v>-29.93</v>
-      </c>
-      <c r="G263" s="0" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="H263" s="0" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I263" s="0" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="J263" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K263" s="0" t="n">
-        <v>171.6</v>
-      </c>
-      <c r="L263" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M263" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="C264" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F264" s="0" t="n">
-        <v>-27.26</v>
-      </c>
-      <c r="G264" s="0" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="H264" s="0" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I264" s="0" t="n">
-        <v>58.06</v>
-      </c>
-      <c r="J264" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K264" s="0" t="n">
-        <v>127.88</v>
-      </c>
-      <c r="L264" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M264" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="C265" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F265" s="0" t="n">
-        <v>-26.91</v>
-      </c>
-      <c r="G265" s="0" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="H265" s="0" t="n">
-        <v>9.13</v>
-      </c>
-      <c r="I265" s="0" t="n">
-        <v>101.18</v>
-      </c>
-      <c r="K265" s="0" t="n">
-        <v>440.79</v>
-      </c>
-      <c r="L265" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M265" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C266" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F266" s="0" t="n">
-        <v>-33.21</v>
-      </c>
-      <c r="G266" s="0" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="H266" s="0" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="I266" s="0" t="n">
-        <v>48.13</v>
-      </c>
-      <c r="J266" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K266" s="0" t="n">
-        <v>356.31</v>
-      </c>
-      <c r="L266" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M266" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="C267" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F267" s="0" t="n">
-        <v>-30.25</v>
-      </c>
-      <c r="G267" s="0" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="H267" s="0" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="I267" s="0" t="n">
-        <v>67.83</v>
-      </c>
-      <c r="J267" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K267" s="0" t="n">
-        <v>91.01</v>
-      </c>
-      <c r="L267" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M267" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="C268" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F268" s="0" t="n">
-        <v>-28.32</v>
-      </c>
-      <c r="G268" s="0" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="H268" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" s="0" t="n">
-        <v>41.64</v>
-      </c>
-      <c r="J268" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K268" s="0" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L268" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M268" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="C269" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F269" s="0" t="n">
-        <v>-22.64</v>
-      </c>
-      <c r="G269" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="H269" s="0" t="n">
-        <v>103.12</v>
-      </c>
-      <c r="I269" s="0" t="n">
-        <v>476.48</v>
-      </c>
-      <c r="K269" s="0" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="M269" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="C270" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F270" s="0" t="n">
-        <v>-28.82</v>
-      </c>
-      <c r="G270" s="0" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="H270" s="0" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I270" s="0" t="n">
-        <v>58.67</v>
-      </c>
-      <c r="J270" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K270" s="0" t="n">
-        <v>168.4</v>
-      </c>
-      <c r="L270" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M270" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="C271" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F271" s="0" t="n">
-        <v>-30.62</v>
-      </c>
-      <c r="G271" s="0" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H271" s="0" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="I271" s="0" t="n">
-        <v>89.45</v>
-      </c>
-      <c r="J271" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K271" s="0" t="n">
-        <v>40.75</v>
-      </c>
-      <c r="L271" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M271" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="C272" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F272" s="0" t="n">
-        <v>-28.83</v>
-      </c>
-      <c r="G272" s="0" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H272" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I272" s="0" t="n">
-        <v>94.51</v>
-      </c>
-      <c r="J272" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K272" s="0" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="L272" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M272" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="C273" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F273" s="0" t="n">
-        <v>-29.35</v>
-      </c>
-      <c r="G273" s="0" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H273" s="0" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="I273" s="0" t="n">
-        <v>67.14</v>
-      </c>
-      <c r="J273" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K273" s="0" t="n">
-        <v>43.34</v>
-      </c>
-      <c r="L273" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M273" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="C274" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F274" s="0" t="n">
-        <v>-27.56</v>
-      </c>
-      <c r="G274" s="0" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="H274" s="0" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="I274" s="0" t="n">
-        <v>90.43</v>
-      </c>
-      <c r="J274" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K274" s="0" t="n">
-        <v>26.93</v>
-      </c>
-      <c r="L274" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M274" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="C275" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F275" s="0" t="n">
-        <v>-27.58</v>
-      </c>
-      <c r="G275" s="0" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="H275" s="0" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="I275" s="0" t="n">
-        <v>55.14</v>
-      </c>
-      <c r="J275" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K275" s="0" t="n">
-        <v>73.17</v>
-      </c>
-      <c r="L275" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M275" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="C276" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F276" s="0" t="n">
-        <v>-26.59</v>
-      </c>
-      <c r="G276" s="0" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="H276" s="0" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="I276" s="0" t="n">
-        <v>99.64</v>
-      </c>
-      <c r="J276" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K276" s="0" t="n">
-        <v>75.46</v>
-      </c>
-      <c r="L276" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M276" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="C277" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F277" s="0" t="n">
-        <v>-31.31</v>
-      </c>
-      <c r="G277" s="0" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="H277" s="0" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="I277" s="0" t="n">
-        <v>78.08</v>
-      </c>
-      <c r="J277" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K277" s="0" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="L277" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M277" s="0" t="s">
         <v>310</v>
       </c>
     </row>
@@ -19170,4 +17629,27 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="24:24 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -1155,12 +1155,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1197,7 +1203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1211,6 +1217,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1286,7 +1300,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1487,11 +1501,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="34904482"/>
-        <c:axId val="11415670"/>
+        <c:axId val="50963695"/>
+        <c:axId val="43191417"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34904482"/>
+        <c:axId val="50963695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,12 +1561,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11415670"/>
+        <c:crossAx val="43191417"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="11415670"/>
+        <c:axId val="43191417"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1617,7 +1631,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34904482"/>
+        <c:crossAx val="50963695"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1665,7 +1679,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1836,11 +1850,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1427671"/>
-        <c:axId val="57661495"/>
+        <c:axId val="55229139"/>
+        <c:axId val="20081324"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1427671"/>
+        <c:axId val="55229139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,12 +1910,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57661495"/>
+        <c:crossAx val="20081324"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57661495"/>
+        <c:axId val="20081324"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1966,7 +1980,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427671"/>
+        <c:crossAx val="55229139"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2014,7 +2028,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2215,11 +2229,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="68436682"/>
-        <c:axId val="44930855"/>
+        <c:axId val="23211109"/>
+        <c:axId val="3644648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68436682"/>
+        <c:axId val="23211109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,12 +2289,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44930855"/>
+        <c:crossAx val="3644648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44930855"/>
+        <c:axId val="3644648"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2345,7 +2359,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68436682"/>
+        <c:crossAx val="23211109"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2393,7 +2407,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2564,11 +2578,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67471382"/>
-        <c:axId val="9198943"/>
+        <c:axId val="64762716"/>
+        <c:axId val="71639332"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67471382"/>
+        <c:axId val="64762716"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,12 +2638,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9198943"/>
+        <c:crossAx val="71639332"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9198943"/>
+        <c:axId val="71639332"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2694,7 +2708,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67471382"/>
+        <c:crossAx val="64762716"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2875,7 +2889,7 @@
   <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H85" activeCellId="1" sqref="24:24 H85"/>
+      <selection pane="topLeft" activeCell="H85" activeCellId="0" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6210,7 +6224,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T38" activeCellId="1" sqref="24:24 T38"/>
+      <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6548,7 +6562,7 @@
   <dimension ref="A1:M215"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="24:24 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12893,10 +12907,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="24:24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13072,6 +13086,32 @@
         <v>200</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>-27.82</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>204</v>
@@ -13104,6 +13144,148 @@
         <v>200</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>-24.66</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>220.04</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>-22.37</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>85.69</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>514.7</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>-24.8</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>367.81</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>246.29</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>-30.79</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>81.26</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>444.27</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>-26.35</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>97.92</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>9.36</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>206</v>
@@ -13208,659 +13390,1892 @@
         <v>200</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>-22.85</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>200.98</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>61.76</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>-26.32</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>89.05</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>718.18</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>-27.81</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>66.14</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>1682.55</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>-26.37</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>107.93</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>95.24</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>-28.21</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>70.21</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>113.86</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>-28.15</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>306.21</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>-22.45</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>105.58</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>646.51</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>-22</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>163.08</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>923.7</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>202.26</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>-28.43</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>77.62</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>242.35</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>-24.85</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>273.65</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>-24.69</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>167.43</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>-26.58</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>124.37</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>833.72</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>-26.08</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>57.44</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>457.38</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>-27.15</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>66.43</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>421.92</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>-24.29</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>59.59</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>423.13</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>-25.48</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>-27.43</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>29.03</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>168.35</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>-29.15</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>42.17</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>848.87</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>-27.91</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>-27.57</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>9.96</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>51.43</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>-26.83</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>74.73</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>233.03</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>-28.88</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>200.85</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>-24.76</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>60.33</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>495.71</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>9.78</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>-24.23</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>127.37</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>881.44</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>140.73</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>-31.29</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>51.27</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>618.92</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>-23.88</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>65.03</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>551.19</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>9.53</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>-24.46</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>83.19</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>568.05</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>-23.65</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>522.76</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>9.29</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>-24.78</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>-24.71</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>373.56</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>-26.72</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>62.12</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>-25.98</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>178.57</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>342.16</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>-27.88</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>1059.7</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>-25.33</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>179.65</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>-26.87</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>92.36</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>66.32</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>-26.27</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>128.11</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>337.64</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>-27.9</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>45.73</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>1176.91</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>-26.35</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>66.87</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>-24.43</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>51.12</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>413.78</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="M90" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>-21.7</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>184.49</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>833.7</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>-24.22</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>464.45</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4" t="n">
+        <v>-25.4</v>
+      </c>
+      <c r="G97" s="4" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="H97" s="4" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="I97" s="4" t="n">
+        <v>121.58</v>
+      </c>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>-27.82</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>69.11</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>2514.46</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>-30.79</v>
+        <v>-21.68</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>30.5</v>
+        <v>31.2</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>2.6</v>
+        <v>17.44</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>81.26</v>
-      </c>
-      <c r="J106" s="0" t="s">
-        <v>145</v>
+        <v>245.58</v>
       </c>
       <c r="K106" s="0" t="n">
-        <v>444.27</v>
+        <v>205.33</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>-27.81</v>
+        <v>-29.63</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="H107" s="0" t="n">
-        <v>6.12</v>
+        <v>30.5</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>66.14</v>
+        <v>21.19</v>
       </c>
       <c r="J107" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="K107" s="0" t="n">
-        <v>1682.55</v>
-      </c>
       <c r="L107" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>-28.15</v>
+        <v>-22.36</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>31.6</v>
+        <v>31</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>7.81</v>
+        <v>7.6</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>43.6</v>
+        <v>76.26</v>
       </c>
       <c r="J108" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K108" s="0" t="n">
-        <v>306.21</v>
+        <v>204.28</v>
       </c>
       <c r="L108" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>-28.43</v>
+        <v>-23.34</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>30.6</v>
+        <v>31.7</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>5.85</v>
+        <v>9.3</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>77.62</v>
-      </c>
-      <c r="J109" s="0" t="s">
-        <v>145</v>
+        <v>101.96</v>
       </c>
       <c r="K109" s="0" t="n">
-        <v>242.35</v>
+        <v>21.59</v>
       </c>
       <c r="L109" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>-22</v>
+        <v>-27.4</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>32.1</v>
+        <v>31.2</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>163.08</v>
+        <v>1.11</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>923.7</v>
+        <v>28.9</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K110" s="0" t="n">
-        <v>202.26</v>
+        <v>992.57</v>
+      </c>
+      <c r="L110" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>-22.45</v>
+        <v>-20.3</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>31.9</v>
+        <v>32.3</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>105.58</v>
+        <v>6.56</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>646.51</v>
+        <v>69.32</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>17.52</v>
+        <v>91.32</v>
+      </c>
+      <c r="L111" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>-24.8</v>
+        <v>-20.65</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>47.25</v>
+        <v>34.92</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>367.81</v>
+        <v>264.64</v>
       </c>
       <c r="K112" s="0" t="n">
-        <v>246.29</v>
+        <v>16.61</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>-22.37</v>
+        <v>-29.51</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>30.4</v>
+        <v>31.8</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>85.69</v>
+        <v>1.65</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>514.7</v>
+        <v>47.16</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>17.65</v>
+        <v>42.42</v>
+      </c>
+      <c r="L113" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>-26.37</v>
+        <v>-19.65</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>30.2</v>
+        <v>30.8</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>9.23</v>
+        <v>39.46</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>107.93</v>
+        <v>254.5</v>
       </c>
       <c r="K114" s="0" t="n">
-        <v>95.24</v>
-      </c>
-      <c r="L114" s="0" t="s">
-        <v>138</v>
+        <v>16.93</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>-28.21</v>
+        <v>-21.09</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>30.6</v>
+        <v>31.3</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>26.69</v>
+        <v>28.92</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>70.21</v>
-      </c>
-      <c r="J115" s="0" t="s">
-        <v>145</v>
+        <v>255.31</v>
       </c>
       <c r="K115" s="0" t="n">
-        <v>113.86</v>
+        <v>13.83</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>-26.08</v>
+        <v>-21.7</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>31.9</v>
+        <v>32.2</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>57.44</v>
+        <v>20.31</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>457.38</v>
+        <v>234.42</v>
       </c>
       <c r="K116" s="0" t="n">
-        <v>10.41</v>
+        <v>13.7</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>-26.58</v>
+        <v>-22.08</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>124.37</v>
+        <v>21.31</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>833.72</v>
+        <v>245.99</v>
       </c>
       <c r="K117" s="0" t="n">
-        <v>20.92</v>
+        <v>18.2</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>-27.15</v>
+        <v>-19.3</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>30.1</v>
+        <v>31.1</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>66.43</v>
+        <v>59.47</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>421.92</v>
+        <v>545.56</v>
       </c>
       <c r="K118" s="0" t="n">
-        <v>15.22</v>
+        <v>17.16</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>-24.29</v>
+        <v>-25.1</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>59.59</v>
+        <v>7.36</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>423.13</v>
+        <v>144.09</v>
       </c>
       <c r="K119" s="0" t="n">
-        <v>9.08</v>
+        <v>686.25</v>
+      </c>
+      <c r="L119" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>-26.32</v>
+        <v>-26.13</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>17.98</v>
+        <v>1.85</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>89.05</v>
+        <v>47.71</v>
       </c>
       <c r="J120" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K120" s="0" t="n">
-        <v>718.18</v>
+        <v>3116.31</v>
       </c>
       <c r="L120" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>-22.85</v>
+        <v>-24.47</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>31.7</v>
+        <v>30.2</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>42.51</v>
+        <v>1.99</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>200.98</v>
+        <v>50.5</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K121" s="0" t="n">
-        <v>61.76</v>
+        <v>179.92</v>
+      </c>
+      <c r="L121" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>-27.57</v>
+        <v>-25.88</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>9.96</v>
+        <v>2.98</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>55.58</v>
+        <v>45.35</v>
       </c>
       <c r="J122" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K122" s="0" t="n">
-        <v>51.43</v>
+        <v>20.93</v>
       </c>
       <c r="L122" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M122" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>-25.48</v>
+        <v>-24.01</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>17.23</v>
+        <v>10.07</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>110.9</v>
+        <v>119.45</v>
       </c>
       <c r="K123" s="0" t="n">
-        <v>33.91</v>
+        <v>236.08</v>
       </c>
       <c r="L123" s="0" t="s">
         <v>142</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>-29.15</v>
+        <v>-19.16</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>30.1</v>
+        <v>30.6</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>4.45</v>
+        <v>10.52</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>42.17</v>
-      </c>
-      <c r="J124" s="0" t="s">
-        <v>145</v>
+        <v>120.49</v>
       </c>
       <c r="K124" s="0" t="n">
-        <v>848.87</v>
+        <v>19.05</v>
       </c>
       <c r="L124" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>-27.43</v>
+        <v>-28.41</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H125" s="0" t="n">
-        <v>29.03</v>
+        <v>31.1</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>86.17</v>
+        <v>70.32</v>
       </c>
       <c r="J125" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="K125" s="0" t="n">
-        <v>168.35</v>
+      <c r="L125" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="M125" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>-28.88</v>
+        <v>-23.92</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>31</v>
+        <v>31.5</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>15.15</v>
+        <v>17.73</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>42.04</v>
+        <v>55.53</v>
       </c>
       <c r="J126" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K126" s="0" t="n">
-        <v>200.85</v>
+        <v>8.73</v>
       </c>
       <c r="L126" s="0" t="s">
         <v>142</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>-26.83</v>
+        <v>15.37</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>31.8</v>
+        <v>31.1</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>15.21</v>
+        <v>15.25</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>74.73</v>
+        <v>100.49</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>145</v>
+        <v>281</v>
       </c>
       <c r="K127" s="0" t="n">
-        <v>233.03</v>
+        <v>154.61</v>
       </c>
       <c r="L127" s="0" t="s">
         <v>142</v>
       </c>
       <c r="M127" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>-27.91</v>
+        <v>-29.2</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>50.56</v>
+        <v>34.87</v>
       </c>
       <c r="J128" s="0" t="s">
         <v>145</v>
@@ -13869,731 +15284,815 @@
         <v>147</v>
       </c>
       <c r="M128" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>-26.35</v>
+        <v>-24.95</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>13.66</v>
+        <v>5.18</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>97.92</v>
+        <v>92.47</v>
       </c>
       <c r="J129" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K129" s="0" t="n">
-        <v>9.36</v>
+        <v>1007.16</v>
       </c>
       <c r="L129" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M129" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>-24.85</v>
+        <v>-28.22</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>30.8</v>
+        <v>30.3</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>32.44</v>
+        <v>1.17</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>273.65</v>
+        <v>53.91</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K130" s="0" t="n">
-        <v>10.03</v>
+        <v>3023.61</v>
+      </c>
+      <c r="L130" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>-24.69</v>
+        <v>-24.19</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>32.1</v>
+        <v>30.7</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>23.99</v>
+        <v>2.22</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>167.43</v>
+        <v>55.2</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K131" s="0" t="n">
-        <v>8.92</v>
+        <v>362.69</v>
+      </c>
+      <c r="L131" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M131" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>-23.88</v>
+        <v>-26.45</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>30.9</v>
+        <v>31.8</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>65.03</v>
+        <v>5.29</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>551.19</v>
+        <v>84.3</v>
+      </c>
+      <c r="J132" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K132" s="0" t="n">
-        <v>9.53</v>
+        <v>78.64</v>
+      </c>
+      <c r="L132" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>-31.29</v>
+        <v>-31.03</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>3.94</v>
+        <v>2</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>51.27</v>
+        <v>79.86</v>
       </c>
       <c r="J133" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K133" s="0" t="n">
-        <v>618.92</v>
+        <v>454.14</v>
       </c>
       <c r="L133" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M133" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>-24.23</v>
+        <v>-30.19</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>127.37</v>
+        <v>1.33</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>881.44</v>
+        <v>44.6</v>
+      </c>
+      <c r="J134" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K134" s="0" t="n">
-        <v>140.73</v>
+        <v>142.04</v>
+      </c>
+      <c r="L134" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>-24.76</v>
+        <v>-26.59</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>60.33</v>
+        <v>2.52</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>495.71</v>
+        <v>61.33</v>
+      </c>
+      <c r="J135" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K135" s="0" t="n">
-        <v>9.78</v>
+        <v>37.69</v>
+      </c>
+      <c r="L135" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>-26.87</v>
+        <v>-27.7</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>9.82</v>
+        <v>2.07</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>92.36</v>
+        <v>54.17</v>
       </c>
       <c r="J136" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K136" s="0" t="n">
-        <v>66.32</v>
+        <v>892.99</v>
       </c>
       <c r="L136" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>-26.72</v>
+        <v>-25.63</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>10.27</v>
+        <v>1.57</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>62.12</v>
+        <v>29.43</v>
       </c>
       <c r="J137" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K137" s="0" t="n">
-        <v>49.3</v>
+        <v>108.72</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>-27.88</v>
+        <v>-28.51</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>3.86</v>
+        <v>1.78</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>47.74</v>
+        <v>48.18</v>
       </c>
       <c r="J138" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K138" s="0" t="n">
-        <v>1059.7</v>
+        <v>2539.49</v>
       </c>
       <c r="L138" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M138" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>-27.9</v>
+        <v>-26.91</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>32.4</v>
+        <v>31.9</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>4.2</v>
+        <v>2.02</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>45.73</v>
+        <v>49.91</v>
       </c>
       <c r="J139" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K139" s="0" t="n">
-        <v>1176.91</v>
+        <v>70.64</v>
       </c>
       <c r="L139" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>-26.27</v>
+        <v>-30.43</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>14.4</v>
+        <v>1.21</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>128.11</v>
+        <v>74.72</v>
+      </c>
+      <c r="J140" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K140" s="0" t="n">
-        <v>337.64</v>
+        <v>1192.33</v>
       </c>
       <c r="L140" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M140" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>-25.98</v>
+        <v>-25.95</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>32.1</v>
+        <v>30.8</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>21.44</v>
+        <v>3.12</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>178.57</v>
+        <v>47.45</v>
+      </c>
+      <c r="J141" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K141" s="0" t="n">
-        <v>342.16</v>
+        <v>192.26</v>
+      </c>
+      <c r="L141" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>-25.33</v>
+        <v>-24.22</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>24.18</v>
+        <v>10.23</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>179.65</v>
+        <v>120.04</v>
       </c>
       <c r="K142" s="0" t="n">
-        <v>15.19</v>
+        <v>579.12</v>
+      </c>
+      <c r="L142" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="M142" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>-24.78</v>
+        <v>-34.37</v>
       </c>
       <c r="G143" s="0" t="n">
         <v>31.8</v>
       </c>
-      <c r="H143" s="0" t="n">
-        <v>53.79</v>
-      </c>
       <c r="I143" s="0" t="n">
-        <v>333</v>
-      </c>
-      <c r="K143" s="0" t="n">
-        <v>13.63</v>
+        <v>56.59</v>
+      </c>
+      <c r="J143" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L143" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="M143" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>-21.7</v>
+        <v>-27.61</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>184.49</v>
+        <v>8.92</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>833.7</v>
+        <v>81.09</v>
+      </c>
+      <c r="J144" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K144" s="0" t="n">
-        <v>15.03</v>
+        <v>47.32</v>
+      </c>
+      <c r="L144" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M144" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>-24.43</v>
+        <v>-27.89</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>32.1</v>
+        <v>30.8</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>51.12</v>
+        <v>1.06</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>413.78</v>
+        <v>42.38</v>
+      </c>
+      <c r="J145" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K145" s="0" t="n">
-        <v>9.35</v>
+        <v>33.53</v>
+      </c>
+      <c r="L145" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M145" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>-23.65</v>
+        <v>-21.65</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>60.92</v>
+        <v>78.9</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>522.76</v>
+        <v>435.38</v>
       </c>
       <c r="K146" s="0" t="n">
-        <v>9.29</v>
+        <v>14.37</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>-24.46</v>
+        <v>-29.71</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>83.19</v>
+        <v>1.08</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>568.05</v>
+        <v>41.93</v>
+      </c>
+      <c r="J147" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K147" s="0" t="n">
-        <v>18.48</v>
+        <v>261.59</v>
+      </c>
+      <c r="L147" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>-24.71</v>
+        <v>-33.31</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>40.9</v>
+        <v>3.82</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>373.56</v>
+        <v>96.09</v>
+      </c>
+      <c r="J148" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K148" s="0" t="n">
-        <v>10.08</v>
+        <v>42.62</v>
+      </c>
+      <c r="L148" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>-24.22</v>
+        <v>-29.09</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>54.1</v>
+        <v>2.23</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>464.45</v>
+        <v>64.26</v>
+      </c>
+      <c r="J149" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K149" s="0" t="n">
-        <v>10.56</v>
+        <v>36.75</v>
+      </c>
+      <c r="L149" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>-27.82</v>
+        <v>-30.43</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>31.2</v>
+        <v>32.1</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>5.35</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>34.03</v>
+        <v>57.9</v>
       </c>
       <c r="J150" s="0" t="s">
         <v>145</v>
       </c>
+      <c r="K150" s="0" t="n">
+        <v>53.42</v>
+      </c>
       <c r="L150" s="0" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>-26.35</v>
+        <v>-27.97</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>31.1</v>
+        <v>31.6</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>5.44</v>
+        <v>7.99</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>66.87</v>
+        <v>91.75</v>
       </c>
       <c r="J151" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K151" s="0" t="n">
-        <v>18.08</v>
+        <v>27.03</v>
       </c>
       <c r="L151" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>-25.4</v>
+        <v>-27.34</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>30.6</v>
+        <v>31.4</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>15.37</v>
+        <v>8.43</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>121.58</v>
+        <v>60.4</v>
+      </c>
+      <c r="J152" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K152" s="0" t="n">
-        <v>15.45</v>
+        <v>57.71</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>-24.66</v>
+        <v>-22.73</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>30.8</v>
+        <v>32.1</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>23.67</v>
+        <v>7.64</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>220.04</v>
+        <v>106.64</v>
       </c>
       <c r="K153" s="0" t="n">
-        <v>10.63</v>
+        <v>94.31</v>
+      </c>
+      <c r="L153" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M153" s="0" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>-27.82</v>
+        <v>-31.92</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>1.22</v>
+        <v>5.58</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>69.11</v>
+        <v>77.9</v>
       </c>
       <c r="J154" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K154" s="0" t="n">
-        <v>2514.46</v>
+        <v>21.35</v>
       </c>
       <c r="L154" s="0" t="s">
         <v>138</v>
@@ -14604,3019 +16103,1538 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>-21.68</v>
+        <v>-28.26</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>31.2</v>
+        <v>32.1</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>17.44</v>
+        <v>10.17</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>245.58</v>
+        <v>78.85</v>
+      </c>
+      <c r="J155" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K155" s="0" t="n">
-        <v>205.33</v>
+        <v>202.6</v>
       </c>
       <c r="L155" s="0" t="s">
         <v>142</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>-29.63</v>
+        <v>-25.88</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>30.5</v>
+        <v>31.5</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="J156" s="0" t="s">
-        <v>145</v>
+        <v>197.74</v>
+      </c>
+      <c r="K156" s="0" t="n">
+        <v>166.29</v>
       </c>
       <c r="L156" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>-22.36</v>
+        <v>-30.29</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>76.26</v>
+        <v>19.41</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>145</v>
+        <v>313</v>
       </c>
       <c r="K157" s="0" t="n">
-        <v>204.28</v>
+        <v>245.63</v>
       </c>
       <c r="L157" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M157" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>-23.34</v>
+        <v>-26.66</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>9.3</v>
+        <v>8.3</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>101.96</v>
+        <v>60.58</v>
+      </c>
+      <c r="J158" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K158" s="0" t="n">
-        <v>21.59</v>
+        <v>98.68</v>
       </c>
       <c r="L158" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M158" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>-27.4</v>
+        <v>-25.39</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>1.11</v>
+        <v>9.13</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>28.9</v>
+        <v>88.8</v>
       </c>
       <c r="J159" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K159" s="0" t="n">
-        <v>992.57</v>
+        <v>19.09</v>
       </c>
       <c r="L159" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>-20.3</v>
+        <v>-28.08</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>32.3</v>
+        <v>31.4</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>6.56</v>
+        <v>25.52</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>69.32</v>
+        <v>47.42</v>
       </c>
       <c r="J160" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K160" s="0" t="n">
-        <v>91.32</v>
-      </c>
-      <c r="L160" s="0" t="s">
-        <v>138</v>
+        <v>46.16</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>-20.65</v>
+        <v>-25.3</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>30.8</v>
+        <v>32.2</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>34.92</v>
+        <v>12.34</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>264.64</v>
+        <v>67.83</v>
+      </c>
+      <c r="J161" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K161" s="0" t="n">
-        <v>16.61</v>
+        <v>50.13</v>
+      </c>
+      <c r="L161" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="M161" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>-29.51</v>
+        <v>-22.98</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>1.65</v>
+        <v>37.87</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>47.16</v>
-      </c>
-      <c r="J162" s="0" t="s">
-        <v>145</v>
+        <v>249.17</v>
       </c>
       <c r="K162" s="0" t="n">
-        <v>42.42</v>
-      </c>
-      <c r="L162" s="0" t="s">
-        <v>138</v>
+        <v>14.55</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>-19.65</v>
+        <v>-30.35</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>39.46</v>
+        <v>1.69</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>254.5</v>
+        <v>42.2</v>
+      </c>
+      <c r="J163" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K163" s="0" t="n">
-        <v>16.93</v>
+        <v>40.07</v>
+      </c>
+      <c r="L163" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M163" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>-21.09</v>
+        <v>-22.31</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>28.92</v>
+        <v>28.89</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>255.31</v>
+        <v>165.59</v>
       </c>
       <c r="K164" s="0" t="n">
-        <v>13.83</v>
+        <v>17.91</v>
       </c>
       <c r="M164" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>-21.7</v>
+        <v>-24.3</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>32.2</v>
+        <v>31.1</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>20.31</v>
+        <v>25.06</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>234.42</v>
+        <v>239.05</v>
       </c>
       <c r="K165" s="0" t="n">
-        <v>13.7</v>
+        <v>14.92</v>
       </c>
       <c r="M165" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>-22.08</v>
+        <v>-25.61</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>31.9</v>
+        <v>30.7</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>21.31</v>
+        <v>23.52</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>245.99</v>
+        <v>197.46</v>
       </c>
       <c r="K166" s="0" t="n">
-        <v>18.2</v>
+        <v>14.01</v>
       </c>
       <c r="M166" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>-19.3</v>
+        <v>-24.55</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>59.47</v>
+        <v>25.56</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>545.56</v>
+        <v>281.63</v>
       </c>
       <c r="K167" s="0" t="n">
-        <v>17.16</v>
+        <v>13.85</v>
       </c>
       <c r="M167" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>-25.1</v>
+        <v>-23.44</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>31.8</v>
+        <v>31.2</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>7.36</v>
+        <v>56.39</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>144.09</v>
+        <v>402.23</v>
       </c>
       <c r="K168" s="0" t="n">
-        <v>686.25</v>
-      </c>
-      <c r="L168" s="0" t="s">
-        <v>138</v>
+        <v>16.06</v>
       </c>
       <c r="M168" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>-26.13</v>
+        <v>-26.8</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>30.9</v>
+        <v>32.5</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>1.85</v>
+        <v>8.6</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>47.71</v>
-      </c>
-      <c r="J169" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K169" s="0" t="n">
-        <v>3116.31</v>
+        <v>460.13</v>
       </c>
       <c r="L169" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M169" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>-24.47</v>
+        <v>-28.29</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>30.2</v>
+        <v>32</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>1.99</v>
+        <v>4.97</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>50.5</v>
+        <v>49.86</v>
       </c>
       <c r="J170" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K170" s="0" t="n">
-        <v>179.92</v>
+        <v>1073.08</v>
       </c>
       <c r="L170" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>-25.88</v>
+        <v>-27.18</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>31.8</v>
+        <v>31</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>2.98</v>
+        <v>2.42</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>45.35</v>
+        <v>61.46</v>
       </c>
       <c r="J171" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K171" s="0" t="n">
-        <v>20.93</v>
+        <v>154.31</v>
       </c>
       <c r="L171" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>-24.01</v>
+        <v>-27.12</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>31.6</v>
+        <v>31.3</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>10.07</v>
+        <v>5.99</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>119.45</v>
+        <v>53.32</v>
+      </c>
+      <c r="J172" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K172" s="0" t="n">
-        <v>236.08</v>
+        <v>18.63</v>
       </c>
       <c r="L172" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M172" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>-19.16</v>
+        <v>-27.04</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>10.52</v>
+        <v>10.69</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>120.49</v>
+        <v>110.75</v>
       </c>
       <c r="K173" s="0" t="n">
-        <v>19.05</v>
+        <v>129.52</v>
       </c>
       <c r="L173" s="0" t="s">
         <v>142</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>-28.41</v>
+        <v>-25.75</v>
       </c>
       <c r="G174" s="0" t="n">
         <v>31.1</v>
       </c>
+      <c r="H174" s="0" t="n">
+        <v>10.74</v>
+      </c>
       <c r="I174" s="0" t="n">
-        <v>70.32</v>
-      </c>
-      <c r="J174" s="0" t="s">
-        <v>145</v>
+        <v>119.36</v>
+      </c>
+      <c r="K174" s="0" t="n">
+        <v>20.8</v>
       </c>
       <c r="L174" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>-23.92</v>
+        <v>-28.87</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>17.73</v>
+        <v>5.31</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>55.53</v>
+        <v>65.52</v>
       </c>
       <c r="J175" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K175" s="0" t="n">
-        <v>8.73</v>
+        <v>258.24</v>
       </c>
       <c r="L175" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>15.37</v>
+        <v>-27.45</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>31.1</v>
+        <v>33</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>15.25</v>
+        <v>3.55</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>100.49</v>
+        <v>71.82</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="K176" s="0" t="n">
-        <v>154.61</v>
+        <v>24.01</v>
       </c>
       <c r="L176" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>-29.2</v>
+        <v>-26.84</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>30.9</v>
+        <v>31.8</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <v>7.01</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>34.87</v>
+        <v>86.41</v>
       </c>
       <c r="J177" s="0" t="s">
         <v>145</v>
       </c>
+      <c r="K177" s="0" t="n">
+        <v>18.93</v>
+      </c>
       <c r="L177" s="0" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>-24.95</v>
+        <v>-28.41</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>30.8</v>
+        <v>32.2</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>5.18</v>
+        <v>2.61</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>92.47</v>
+        <v>93.62</v>
       </c>
       <c r="J178" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K178" s="0" t="n">
-        <v>1007.16</v>
+        <v>47.85</v>
       </c>
       <c r="L178" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>-28.22</v>
+        <v>-25.48</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>30.3</v>
+        <v>32.6</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>1.17</v>
+        <v>8.57</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>53.91</v>
-      </c>
-      <c r="J179" s="0" t="s">
-        <v>145</v>
+        <v>128.68</v>
       </c>
       <c r="K179" s="0" t="n">
-        <v>3023.61</v>
+        <v>483.35</v>
       </c>
       <c r="L179" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M179" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>-24.19</v>
+        <v>-28.12</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>30.7</v>
+        <v>31.8</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>2.22</v>
+        <v>2.43</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>55.2</v>
+        <v>72.48</v>
       </c>
       <c r="J180" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K180" s="0" t="n">
-        <v>362.69</v>
+        <v>875.01</v>
       </c>
       <c r="L180" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M180" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>-26.45</v>
+        <v>-26.07</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>31.8</v>
+        <v>31.2</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>5.29</v>
+        <v>4.62</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>84.3</v>
+        <v>65.38</v>
       </c>
       <c r="J181" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K181" s="0" t="n">
-        <v>78.64</v>
+        <v>195.5</v>
       </c>
       <c r="L181" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M181" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>-31.03</v>
+        <v>-28.03</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>31.3</v>
+        <v>30.2</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>2</v>
+        <v>6.21</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>79.86</v>
+        <v>70.01</v>
       </c>
       <c r="J182" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K182" s="0" t="n">
-        <v>454.14</v>
+        <v>72.41</v>
       </c>
       <c r="L182" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M182" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>-30.19</v>
+        <v>-29.83</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>1.33</v>
+        <v>2.66</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>44.6</v>
+        <v>80.21</v>
       </c>
       <c r="J183" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K183" s="0" t="n">
-        <v>142.04</v>
+        <v>273.9</v>
       </c>
       <c r="L183" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M183" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>-26.59</v>
+        <v>-28.26</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>30.4</v>
+        <v>31.6</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>2.52</v>
+        <v>3.48</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>61.33</v>
+        <v>57.27</v>
       </c>
       <c r="J184" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K184" s="0" t="n">
-        <v>37.69</v>
+        <v>55.55</v>
       </c>
       <c r="L184" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M184" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>-27.7</v>
+        <v>-27.53</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>31</v>
+        <v>31.6</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>2.07</v>
+        <v>4.71</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>54.17</v>
+        <v>74.02</v>
       </c>
       <c r="J185" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K185" s="0" t="n">
-        <v>892.99</v>
+        <v>24.07</v>
       </c>
       <c r="L185" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M185" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>-25.63</v>
+        <v>-27.69</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>30.7</v>
+        <v>31.4</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>1.57</v>
+        <v>2.54</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>29.43</v>
+        <v>73.53</v>
       </c>
       <c r="J186" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K186" s="0" t="n">
-        <v>108.72</v>
+        <v>604.8</v>
       </c>
       <c r="L186" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M186" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>-28.51</v>
+        <v>-27.27</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>1.78</v>
+        <v>3.4</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>48.18</v>
+        <v>36.44</v>
       </c>
       <c r="J187" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K187" s="0" t="n">
-        <v>2539.49</v>
+        <v>50.75</v>
       </c>
       <c r="L187" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M187" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>-26.91</v>
+        <v>-28.12</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>31.9</v>
+        <v>30.3</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>49.91</v>
+        <v>51.74</v>
       </c>
       <c r="J188" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K188" s="0" t="n">
-        <v>70.64</v>
+        <v>1362.49</v>
       </c>
       <c r="L188" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M188" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>-30.43</v>
+        <v>-27.84</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>1.21</v>
+        <v>2.72</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>74.72</v>
+        <v>49.09</v>
       </c>
       <c r="J189" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K189" s="0" t="n">
-        <v>1192.33</v>
+        <v>47.57</v>
       </c>
       <c r="L189" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M189" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>-25.95</v>
+        <v>-29.93</v>
       </c>
       <c r="G190" s="0" t="n">
         <v>30.8</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>3.12</v>
+        <v>2.78</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>47.45</v>
+        <v>65.2</v>
       </c>
       <c r="J190" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K190" s="0" t="n">
-        <v>192.26</v>
+        <v>171.6</v>
       </c>
       <c r="L190" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M190" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>-24.22</v>
+        <v>-27.26</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>10.23</v>
+        <v>3.4</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>120.04</v>
+        <v>58.06</v>
+      </c>
+      <c r="J191" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K191" s="0" t="n">
-        <v>579.12</v>
+        <v>127.88</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M191" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>-34.37</v>
+        <v>-26.91</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>31.8</v>
+        <v>32.3</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>9.13</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>56.59</v>
-      </c>
-      <c r="J192" s="0" t="s">
-        <v>145</v>
+        <v>101.18</v>
+      </c>
+      <c r="K192" s="0" t="n">
+        <v>440.79</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M192" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>-27.61</v>
+        <v>-33.21</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>31</v>
+        <v>31.7</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>8.92</v>
+        <v>1.41</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>81.09</v>
+        <v>48.13</v>
       </c>
       <c r="J193" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K193" s="0" t="n">
-        <v>47.32</v>
+        <v>356.31</v>
       </c>
       <c r="L193" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M193" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>-27.89</v>
+        <v>-30.25</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>30.8</v>
+        <v>32.2</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>1.06</v>
+        <v>3.49</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>42.38</v>
+        <v>67.83</v>
       </c>
       <c r="J194" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K194" s="0" t="n">
-        <v>33.53</v>
+        <v>91.01</v>
       </c>
       <c r="L194" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M194" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>-21.65</v>
+        <v>-28.32</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>31.3</v>
+        <v>31.9</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>78.9</v>
+        <v>2</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>435.38</v>
+        <v>41.64</v>
+      </c>
+      <c r="J195" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K195" s="0" t="n">
-        <v>14.37</v>
+        <v>11.95</v>
+      </c>
+      <c r="L195" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="M195" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>-29.71</v>
+        <v>-22.64</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>1.08</v>
+        <v>103.12</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="J196" s="0" t="s">
-        <v>145</v>
+        <v>476.48</v>
       </c>
       <c r="K196" s="0" t="n">
-        <v>261.59</v>
-      </c>
-      <c r="L196" s="0" t="s">
-        <v>138</v>
+        <v>13.46</v>
       </c>
       <c r="M196" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>-33.31</v>
+        <v>-28.82</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>30.8</v>
+        <v>33.1</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>3.82</v>
+        <v>1.52</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>96.09</v>
+        <v>58.67</v>
       </c>
       <c r="J197" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K197" s="0" t="n">
-        <v>42.62</v>
+        <v>168.4</v>
       </c>
       <c r="L197" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M197" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>-29.09</v>
+        <v>-30.62</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>2.23</v>
+        <v>4.21</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>64.26</v>
+        <v>89.45</v>
       </c>
       <c r="J198" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K198" s="0" t="n">
-        <v>36.75</v>
+        <v>40.75</v>
       </c>
       <c r="L198" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M198" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>-30.43</v>
+        <v>-28.83</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>32.1</v>
+        <v>31.2</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>5.35</v>
+        <v>5</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>57.9</v>
+        <v>94.51</v>
       </c>
       <c r="J199" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K199" s="0" t="n">
-        <v>53.42</v>
+        <v>22.43</v>
       </c>
       <c r="L199" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M199" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>-27.97</v>
+        <v>-29.35</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>7.99</v>
+        <v>3.63</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>91.75</v>
+        <v>67.14</v>
       </c>
       <c r="J200" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K200" s="0" t="n">
-        <v>27.03</v>
+        <v>43.34</v>
       </c>
       <c r="L200" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M200" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>-27.34</v>
+        <v>-27.56</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>31.4</v>
+        <v>32.5</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>8.43</v>
+        <v>6.69</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>60.4</v>
+        <v>90.43</v>
       </c>
       <c r="J201" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K201" s="0" t="n">
-        <v>57.71</v>
+        <v>26.93</v>
       </c>
       <c r="L201" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M201" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>-22.73</v>
+        <v>-27.58</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>7.64</v>
+        <v>4.63</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>106.64</v>
+        <v>55.14</v>
+      </c>
+      <c r="J202" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K202" s="0" t="n">
-        <v>94.31</v>
+        <v>73.17</v>
       </c>
       <c r="L202" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M202" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>-31.92</v>
+        <v>-26.59</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>5.58</v>
+        <v>7.59</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>77.9</v>
+        <v>99.64</v>
       </c>
       <c r="J203" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K203" s="0" t="n">
-        <v>21.35</v>
+        <v>75.46</v>
       </c>
       <c r="L203" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M203" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>-28.26</v>
+        <v>-31.31</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>32.1</v>
+        <v>31.6</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>10.17</v>
+        <v>3.28</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>78.85</v>
+        <v>78.08</v>
       </c>
       <c r="J204" s="0" t="s">
         <v>145</v>
       </c>
       <c r="K204" s="0" t="n">
-        <v>202.6</v>
+        <v>24.82</v>
       </c>
       <c r="L204" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M204" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C205" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F205" s="0" t="n">
-        <v>-25.88</v>
-      </c>
-      <c r="G205" s="0" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H205" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="I205" s="0" t="n">
-        <v>197.74</v>
-      </c>
-      <c r="K205" s="0" t="n">
-        <v>166.29</v>
-      </c>
-      <c r="L205" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="M205" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C206" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F206" s="0" t="n">
-        <v>-30.29</v>
-      </c>
-      <c r="G206" s="0" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="H206" s="0" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I206" s="0" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="J206" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="K206" s="0" t="n">
-        <v>245.63</v>
-      </c>
-      <c r="L206" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M206" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="C207" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F207" s="0" t="n">
-        <v>-26.66</v>
-      </c>
-      <c r="G207" s="0" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="H207" s="0" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="I207" s="0" t="n">
-        <v>60.58</v>
-      </c>
-      <c r="J207" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K207" s="0" t="n">
-        <v>98.68</v>
-      </c>
-      <c r="L207" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M207" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C208" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F208" s="0" t="n">
-        <v>-25.39</v>
-      </c>
-      <c r="G208" s="0" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="H208" s="0" t="n">
-        <v>9.13</v>
-      </c>
-      <c r="I208" s="0" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="J208" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K208" s="0" t="n">
-        <v>19.09</v>
-      </c>
-      <c r="L208" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M208" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C209" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F209" s="0" t="n">
-        <v>-28.08</v>
-      </c>
-      <c r="G209" s="0" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="H209" s="0" t="n">
-        <v>25.52</v>
-      </c>
-      <c r="I209" s="0" t="n">
-        <v>47.42</v>
-      </c>
-      <c r="J209" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K209" s="0" t="n">
-        <v>46.16</v>
-      </c>
-      <c r="M209" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="C210" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F210" s="0" t="n">
-        <v>-25.3</v>
-      </c>
-      <c r="G210" s="0" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="H210" s="0" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="I210" s="0" t="n">
-        <v>67.83</v>
-      </c>
-      <c r="J210" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K210" s="0" t="n">
-        <v>50.13</v>
-      </c>
-      <c r="L210" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="M210" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C211" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F211" s="0" t="n">
-        <v>-22.98</v>
-      </c>
-      <c r="G211" s="0" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="H211" s="0" t="n">
-        <v>37.87</v>
-      </c>
-      <c r="I211" s="0" t="n">
-        <v>249.17</v>
-      </c>
-      <c r="K211" s="0" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="M211" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C212" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F212" s="0" t="n">
-        <v>-30.35</v>
-      </c>
-      <c r="G212" s="0" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="H212" s="0" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="I212" s="0" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="J212" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K212" s="0" t="n">
-        <v>40.07</v>
-      </c>
-      <c r="L212" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M212" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C213" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F213" s="0" t="n">
-        <v>-22.31</v>
-      </c>
-      <c r="G213" s="0" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="H213" s="0" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="I213" s="0" t="n">
-        <v>165.59</v>
-      </c>
-      <c r="K213" s="0" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="M213" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="C214" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F214" s="0" t="n">
-        <v>-24.3</v>
-      </c>
-      <c r="G214" s="0" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="H214" s="0" t="n">
-        <v>25.06</v>
-      </c>
-      <c r="I214" s="0" t="n">
-        <v>239.05</v>
-      </c>
-      <c r="K214" s="0" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="M214" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C215" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F215" s="0" t="n">
-        <v>-25.61</v>
-      </c>
-      <c r="G215" s="0" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="H215" s="0" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="I215" s="0" t="n">
-        <v>197.46</v>
-      </c>
-      <c r="K215" s="0" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="M215" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="C216" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F216" s="0" t="n">
-        <v>-24.55</v>
-      </c>
-      <c r="G216" s="0" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="H216" s="0" t="n">
-        <v>25.56</v>
-      </c>
-      <c r="I216" s="0" t="n">
-        <v>281.63</v>
-      </c>
-      <c r="K216" s="0" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="M216" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C217" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F217" s="0" t="n">
-        <v>-23.44</v>
-      </c>
-      <c r="G217" s="0" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H217" s="0" t="n">
-        <v>56.39</v>
-      </c>
-      <c r="I217" s="0" t="n">
-        <v>402.23</v>
-      </c>
-      <c r="K217" s="0" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="M217" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="C218" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F218" s="0" t="n">
-        <v>-26.8</v>
-      </c>
-      <c r="G218" s="0" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="H218" s="0" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I218" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="K218" s="0" t="n">
-        <v>460.13</v>
-      </c>
-      <c r="L218" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M218" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="C219" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F219" s="0" t="n">
-        <v>-28.29</v>
-      </c>
-      <c r="G219" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="H219" s="0" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="I219" s="0" t="n">
-        <v>49.86</v>
-      </c>
-      <c r="J219" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K219" s="0" t="n">
-        <v>1073.08</v>
-      </c>
-      <c r="L219" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M219" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="C220" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F220" s="0" t="n">
-        <v>-27.18</v>
-      </c>
-      <c r="G220" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="H220" s="0" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I220" s="0" t="n">
-        <v>61.46</v>
-      </c>
-      <c r="J220" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K220" s="0" t="n">
-        <v>154.31</v>
-      </c>
-      <c r="L220" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M220" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="C221" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F221" s="0" t="n">
-        <v>-27.12</v>
-      </c>
-      <c r="G221" s="0" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="H221" s="0" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="I221" s="0" t="n">
-        <v>53.32</v>
-      </c>
-      <c r="J221" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K221" s="0" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="L221" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M221" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="C222" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F222" s="0" t="n">
-        <v>-27.04</v>
-      </c>
-      <c r="G222" s="0" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="H222" s="0" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="I222" s="0" t="n">
-        <v>110.75</v>
-      </c>
-      <c r="K222" s="0" t="n">
-        <v>129.52</v>
-      </c>
-      <c r="L222" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="M222" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C223" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F223" s="0" t="n">
-        <v>-25.75</v>
-      </c>
-      <c r="G223" s="0" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="H223" s="0" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="I223" s="0" t="n">
-        <v>119.36</v>
-      </c>
-      <c r="K223" s="0" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="L223" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="M223" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="C224" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F224" s="0" t="n">
-        <v>-28.87</v>
-      </c>
-      <c r="G224" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="H224" s="0" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="I224" s="0" t="n">
-        <v>65.52</v>
-      </c>
-      <c r="J224" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K224" s="0" t="n">
-        <v>258.24</v>
-      </c>
-      <c r="L224" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M224" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="C225" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F225" s="0" t="n">
-        <v>-27.45</v>
-      </c>
-      <c r="G225" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="H225" s="0" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I225" s="0" t="n">
-        <v>71.82</v>
-      </c>
-      <c r="J225" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K225" s="0" t="n">
-        <v>24.01</v>
-      </c>
-      <c r="L225" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M225" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C226" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F226" s="0" t="n">
-        <v>-26.84</v>
-      </c>
-      <c r="G226" s="0" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="H226" s="0" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="I226" s="0" t="n">
-        <v>86.41</v>
-      </c>
-      <c r="J226" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K226" s="0" t="n">
-        <v>18.93</v>
-      </c>
-      <c r="L226" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M226" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C227" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F227" s="0" t="n">
-        <v>-28.41</v>
-      </c>
-      <c r="G227" s="0" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="H227" s="0" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="I227" s="0" t="n">
-        <v>93.62</v>
-      </c>
-      <c r="J227" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K227" s="0" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="L227" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M227" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="C228" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F228" s="0" t="n">
-        <v>-25.48</v>
-      </c>
-      <c r="G228" s="0" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="H228" s="0" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="I228" s="0" t="n">
-        <v>128.68</v>
-      </c>
-      <c r="K228" s="0" t="n">
-        <v>483.35</v>
-      </c>
-      <c r="L228" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M228" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="C229" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F229" s="0" t="n">
-        <v>-28.12</v>
-      </c>
-      <c r="G229" s="0" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="H229" s="0" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="I229" s="0" t="n">
-        <v>72.48</v>
-      </c>
-      <c r="J229" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K229" s="0" t="n">
-        <v>875.01</v>
-      </c>
-      <c r="L229" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M229" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="C230" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F230" s="0" t="n">
-        <v>-26.07</v>
-      </c>
-      <c r="G230" s="0" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H230" s="0" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="I230" s="0" t="n">
-        <v>65.38</v>
-      </c>
-      <c r="J230" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K230" s="0" t="n">
-        <v>195.5</v>
-      </c>
-      <c r="L230" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M230" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="C231" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F231" s="0" t="n">
-        <v>-28.03</v>
-      </c>
-      <c r="G231" s="0" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="H231" s="0" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="I231" s="0" t="n">
-        <v>70.01</v>
-      </c>
-      <c r="J231" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K231" s="0" t="n">
-        <v>72.41</v>
-      </c>
-      <c r="L231" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M231" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="C232" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F232" s="0" t="n">
-        <v>-29.83</v>
-      </c>
-      <c r="G232" s="0" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="H232" s="0" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I232" s="0" t="n">
-        <v>80.21</v>
-      </c>
-      <c r="J232" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K232" s="0" t="n">
-        <v>273.9</v>
-      </c>
-      <c r="L232" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M232" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="C233" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F233" s="0" t="n">
-        <v>-28.26</v>
-      </c>
-      <c r="G233" s="0" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="H233" s="0" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="I233" s="0" t="n">
-        <v>57.27</v>
-      </c>
-      <c r="J233" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K233" s="0" t="n">
-        <v>55.55</v>
-      </c>
-      <c r="L233" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M233" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="C234" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F234" s="0" t="n">
-        <v>-27.53</v>
-      </c>
-      <c r="G234" s="0" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="H234" s="0" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="I234" s="0" t="n">
-        <v>74.02</v>
-      </c>
-      <c r="J234" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K234" s="0" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="L234" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M234" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="C235" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F235" s="0" t="n">
-        <v>-27.69</v>
-      </c>
-      <c r="G235" s="0" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="H235" s="0" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I235" s="0" t="n">
-        <v>73.53</v>
-      </c>
-      <c r="J235" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K235" s="0" t="n">
-        <v>604.8</v>
-      </c>
-      <c r="L235" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M235" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C236" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F236" s="0" t="n">
-        <v>-27.27</v>
-      </c>
-      <c r="G236" s="0" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="H236" s="0" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I236" s="0" t="n">
-        <v>36.44</v>
-      </c>
-      <c r="J236" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K236" s="0" t="n">
-        <v>50.75</v>
-      </c>
-      <c r="L236" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M236" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="C237" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F237" s="0" t="n">
-        <v>-28.12</v>
-      </c>
-      <c r="G237" s="0" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="H237" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="I237" s="0" t="n">
-        <v>51.74</v>
-      </c>
-      <c r="J237" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K237" s="0" t="n">
-        <v>1362.49</v>
-      </c>
-      <c r="L237" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M237" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="C238" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F238" s="0" t="n">
-        <v>-27.84</v>
-      </c>
-      <c r="G238" s="0" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="H238" s="0" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I238" s="0" t="n">
-        <v>49.09</v>
-      </c>
-      <c r="J238" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K238" s="0" t="n">
-        <v>47.57</v>
-      </c>
-      <c r="L238" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M238" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C239" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F239" s="0" t="n">
-        <v>-29.93</v>
-      </c>
-      <c r="G239" s="0" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="H239" s="0" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I239" s="0" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="J239" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K239" s="0" t="n">
-        <v>171.6</v>
-      </c>
-      <c r="L239" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M239" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="C240" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F240" s="0" t="n">
-        <v>-27.26</v>
-      </c>
-      <c r="G240" s="0" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="H240" s="0" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I240" s="0" t="n">
-        <v>58.06</v>
-      </c>
-      <c r="J240" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K240" s="0" t="n">
-        <v>127.88</v>
-      </c>
-      <c r="L240" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M240" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="C241" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F241" s="0" t="n">
-        <v>-26.91</v>
-      </c>
-      <c r="G241" s="0" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="H241" s="0" t="n">
-        <v>9.13</v>
-      </c>
-      <c r="I241" s="0" t="n">
-        <v>101.18</v>
-      </c>
-      <c r="K241" s="0" t="n">
-        <v>440.79</v>
-      </c>
-      <c r="L241" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M241" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C242" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F242" s="0" t="n">
-        <v>-33.21</v>
-      </c>
-      <c r="G242" s="0" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="H242" s="0" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="I242" s="0" t="n">
-        <v>48.13</v>
-      </c>
-      <c r="J242" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K242" s="0" t="n">
-        <v>356.31</v>
-      </c>
-      <c r="L242" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M242" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="C243" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F243" s="0" t="n">
-        <v>-30.25</v>
-      </c>
-      <c r="G243" s="0" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="H243" s="0" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="I243" s="0" t="n">
-        <v>67.83</v>
-      </c>
-      <c r="J243" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K243" s="0" t="n">
-        <v>91.01</v>
-      </c>
-      <c r="L243" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M243" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="C244" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F244" s="0" t="n">
-        <v>-28.32</v>
-      </c>
-      <c r="G244" s="0" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="H244" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" s="0" t="n">
-        <v>41.64</v>
-      </c>
-      <c r="J244" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K244" s="0" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L244" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M244" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="C245" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F245" s="0" t="n">
-        <v>-22.64</v>
-      </c>
-      <c r="G245" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="H245" s="0" t="n">
-        <v>103.12</v>
-      </c>
-      <c r="I245" s="0" t="n">
-        <v>476.48</v>
-      </c>
-      <c r="K245" s="0" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="M245" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="C246" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F246" s="0" t="n">
-        <v>-28.82</v>
-      </c>
-      <c r="G246" s="0" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="H246" s="0" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I246" s="0" t="n">
-        <v>58.67</v>
-      </c>
-      <c r="J246" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K246" s="0" t="n">
-        <v>168.4</v>
-      </c>
-      <c r="L246" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M246" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="C247" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F247" s="0" t="n">
-        <v>-30.62</v>
-      </c>
-      <c r="G247" s="0" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H247" s="0" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="I247" s="0" t="n">
-        <v>89.45</v>
-      </c>
-      <c r="J247" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K247" s="0" t="n">
-        <v>40.75</v>
-      </c>
-      <c r="L247" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M247" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="C248" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F248" s="0" t="n">
-        <v>-28.83</v>
-      </c>
-      <c r="G248" s="0" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="H248" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I248" s="0" t="n">
-        <v>94.51</v>
-      </c>
-      <c r="J248" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K248" s="0" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="L248" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M248" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="C249" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F249" s="0" t="n">
-        <v>-29.35</v>
-      </c>
-      <c r="G249" s="0" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H249" s="0" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="I249" s="0" t="n">
-        <v>67.14</v>
-      </c>
-      <c r="J249" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K249" s="0" t="n">
-        <v>43.34</v>
-      </c>
-      <c r="L249" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M249" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="C250" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F250" s="0" t="n">
-        <v>-27.56</v>
-      </c>
-      <c r="G250" s="0" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="H250" s="0" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="I250" s="0" t="n">
-        <v>90.43</v>
-      </c>
-      <c r="J250" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K250" s="0" t="n">
-        <v>26.93</v>
-      </c>
-      <c r="L250" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M250" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="C251" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F251" s="0" t="n">
-        <v>-27.58</v>
-      </c>
-      <c r="G251" s="0" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="H251" s="0" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="I251" s="0" t="n">
-        <v>55.14</v>
-      </c>
-      <c r="J251" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K251" s="0" t="n">
-        <v>73.17</v>
-      </c>
-      <c r="L251" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M251" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="C252" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F252" s="0" t="n">
-        <v>-26.59</v>
-      </c>
-      <c r="G252" s="0" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="H252" s="0" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="I252" s="0" t="n">
-        <v>99.64</v>
-      </c>
-      <c r="J252" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K252" s="0" t="n">
-        <v>75.46</v>
-      </c>
-      <c r="L252" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M252" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="C253" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F253" s="0" t="n">
-        <v>-31.31</v>
-      </c>
-      <c r="G253" s="0" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="H253" s="0" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="I253" s="0" t="n">
-        <v>78.08</v>
-      </c>
-      <c r="J253" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="K253" s="0" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="L253" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M253" s="0" t="s">
         <v>310</v>
       </c>
     </row>
@@ -17639,7 +17657,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="24:24 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -5,14 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2018-fluxes" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="martin power law" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="stable isos" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="stable isos_sorting_unfumed" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="stable isos_sorting_fumed" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="stable isos_sorting_fumed" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="362">
   <si>
     <t xml:space="preserve">sample id</t>
   </si>
@@ -405,6 +404,9 @@
   </si>
   <si>
     <t xml:space="preserve">4-45_843m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40-123m-top</t>
   </si>
   <si>
     <t xml:space="preserve">Depth</t>
@@ -1203,7 +1205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1217,6 +1219,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1300,7 +1306,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart105.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1501,11 +1507,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="50963695"/>
-        <c:axId val="43191417"/>
+        <c:axId val="74669475"/>
+        <c:axId val="6802735"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50963695"/>
+        <c:axId val="74669475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,12 +1567,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43191417"/>
+        <c:crossAx val="6802735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43191417"/>
+        <c:axId val="6802735"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1631,7 +1637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50963695"/>
+        <c:crossAx val="74669475"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1679,7 +1685,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart106.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1850,11 +1856,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="55229139"/>
-        <c:axId val="20081324"/>
+        <c:axId val="69378014"/>
+        <c:axId val="64632802"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55229139"/>
+        <c:axId val="69378014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,12 +1916,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20081324"/>
+        <c:crossAx val="64632802"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20081324"/>
+        <c:axId val="64632802"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1980,7 +1986,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55229139"/>
+        <c:crossAx val="69378014"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2028,7 +2034,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart107.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2229,11 +2235,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="23211109"/>
-        <c:axId val="3644648"/>
+        <c:axId val="5955580"/>
+        <c:axId val="31380799"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23211109"/>
+        <c:axId val="5955580"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,12 +2295,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3644648"/>
+        <c:crossAx val="31380799"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3644648"/>
+        <c:axId val="31380799"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2359,7 +2365,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23211109"/>
+        <c:crossAx val="5955580"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2407,7 +2413,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart108.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2578,11 +2584,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="64762716"/>
-        <c:axId val="71639332"/>
+        <c:axId val="72166527"/>
+        <c:axId val="1766882"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64762716"/>
+        <c:axId val="72166527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,12 +2644,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71639332"/>
+        <c:crossAx val="1766882"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71639332"/>
+        <c:axId val="1766882"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2708,7 +2714,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64762716"/>
+        <c:crossAx val="72166527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2886,10 +2892,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H85" activeCellId="0" sqref="H85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3041,7 +3047,7 @@
         <v>21.1</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>-27.75</v>
+        <v>-27.65</v>
       </c>
       <c r="T3" s="0" t="n">
         <f aca="false">1/J3</f>
@@ -3077,7 +3083,7 @@
         <v>58.1495726495727</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>-28</v>
+        <v>-27.97</v>
       </c>
       <c r="T4" s="0" t="n">
         <f aca="false">1/J4</f>
@@ -3119,7 +3125,7 @@
         <v>142.1919526</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>-27.23</v>
+        <v>-27.27</v>
       </c>
       <c r="T5" s="0" t="n">
         <f aca="false">1/J5</f>
@@ -3155,7 +3161,7 @@
         <v>76.4009433962264</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>-28.24</v>
+        <v>-28.18</v>
       </c>
       <c r="T6" s="0" t="n">
         <f aca="false">1/J6</f>
@@ -3220,7 +3226,7 @@
         <v>6.088336976</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>-27.5</v>
+        <v>-27.82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,7 +3284,7 @@
         <v>20.0629370629371</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>-31.61</v>
+        <v>-30.84</v>
       </c>
       <c r="T10" s="0" t="n">
         <f aca="false">1/J10</f>
@@ -3314,7 +3320,7 @@
         <v>9.29615547106041</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>-23.21</v>
+        <v>-24.66</v>
       </c>
       <c r="T11" s="0" t="n">
         <f aca="false">1/J11</f>
@@ -3434,7 +3440,7 @@
         <v>36.77803059</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>-19.57</v>
+        <v>-22.37</v>
       </c>
       <c r="T15" s="0" t="n">
         <f aca="false">1/J15</f>
@@ -3479,7 +3485,7 @@
         <v>1.5</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>-20.37</v>
+        <v>-24.8</v>
       </c>
       <c r="T16" s="0" t="n">
         <f aca="false">1/J16</f>
@@ -3515,7 +3521,7 @@
         <v>31.2538461538462</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>-32.43</v>
+        <v>-30.79</v>
       </c>
       <c r="T17" s="0" t="n">
         <f aca="false">1/J17</f>
@@ -3603,7 +3609,7 @@
         <v>7.1683748169839</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>-24.62</v>
+        <v>-26.35</v>
       </c>
       <c r="T20" s="0" t="n">
         <f aca="false">1/J20</f>
@@ -3645,7 +3651,7 @@
         <v>49.69913676</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>-21.13</v>
+        <v>-24.4</v>
       </c>
       <c r="T21" s="0" t="n">
         <f aca="false">1/J21</f>
@@ -3681,7 +3687,7 @@
         <v>7.24497117232543</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>-21.28</v>
+        <v>-23.52</v>
       </c>
       <c r="T22" s="0" t="n">
         <f aca="false">1/J22</f>
@@ -3714,7 +3720,7 @@
         <v>40</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>-32.59</v>
+        <v>-30.76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,7 +3755,7 @@
         <v>17.77</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>-21.8</v>
+        <v>-23.27</v>
       </c>
       <c r="T24" s="0" t="n">
         <f aca="false">1/J24</f>
@@ -3791,7 +3797,7 @@
         <v>54.81517583</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>-21.91</v>
+        <v>-22.85</v>
       </c>
       <c r="T25" s="0" t="n">
         <f aca="false">1/J25</f>
@@ -3836,7 +3842,7 @@
         <v>4</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>-25.74</v>
+        <v>-26.32</v>
       </c>
       <c r="T26" s="0" t="n">
         <f aca="false">1/J26</f>
@@ -3872,7 +3878,7 @@
         <v>10.8071895424837</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>-27.23</v>
+        <v>-27.81</v>
       </c>
       <c r="T27" s="0" t="n">
         <f aca="false">1/J27</f>
@@ -3911,7 +3917,7 @@
         <v>55.89644311</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>-25.54</v>
+        <v>-26.37</v>
       </c>
       <c r="T28" s="0" t="n">
         <f aca="false">1/J28</f>
@@ -3956,7 +3962,7 @@
         <v>2.2</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>-28.36</v>
+        <v>-28.21</v>
       </c>
       <c r="T29" s="0" t="n">
         <f aca="false">1/J29</f>
@@ -3992,7 +3998,7 @@
         <v>5.58258642765685</v>
       </c>
       <c r="S30" s="0" t="n">
-        <v>-28.91</v>
+        <v>-28.15</v>
       </c>
       <c r="T30" s="0" t="n">
         <f aca="false">1/J30</f>
@@ -4034,7 +4040,7 @@
         <v>115.1818194</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>-21.54</v>
+        <v>-22.45</v>
       </c>
       <c r="T31" s="0" t="n">
         <f aca="false">1/J31</f>
@@ -4082,7 +4088,7 @@
         <v>7.18</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>-20.94</v>
+        <v>-22</v>
       </c>
       <c r="T32" s="0" t="n">
         <f aca="false">1/J32</f>
@@ -4118,7 +4124,7 @@
         <v>13.2683760683761</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>-29.68</v>
+        <v>-28.43</v>
       </c>
       <c r="T33" s="0" t="n">
         <f aca="false">1/J33</f>
@@ -4180,7 +4186,7 @@
         <v>8.43557336621455</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>-23.7</v>
+        <v>-24.85</v>
       </c>
       <c r="T35" s="0" t="n">
         <f aca="false">1/J35</f>
@@ -4245,7 +4251,7 @@
         <v>4.89</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>-23.36</v>
+        <v>-24.69</v>
       </c>
       <c r="T37" s="0" t="n">
         <f aca="false">1/J37</f>
@@ -4310,7 +4316,7 @@
         <v>244.4055742</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>-25.22</v>
+        <v>-26.58</v>
       </c>
       <c r="T39" s="0" t="n">
         <f aca="false">1/J39</f>
@@ -4401,7 +4407,7 @@
         <v>7.96274373259053</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>-25.56</v>
+        <v>-26.08</v>
       </c>
       <c r="T42" s="0" t="n">
         <f aca="false">1/J42</f>
@@ -4486,7 +4492,7 @@
         <v>8.61</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>-25.32</v>
+        <v>-27.15</v>
       </c>
       <c r="T45" s="0" t="n">
         <f aca="false">1/J45</f>
@@ -4574,7 +4580,7 @@
         <v>7.10068803490519</v>
       </c>
       <c r="S48" s="0" t="n">
-        <v>-23.56</v>
+        <v>-24.29</v>
       </c>
       <c r="T48" s="0" t="n">
         <f aca="false">1/J48</f>
@@ -4642,7 +4648,7 @@
         <v>48.90482028</v>
       </c>
       <c r="S50" s="0" t="n">
-        <v>-22.91</v>
+        <v>-25.48</v>
       </c>
       <c r="T50" s="0" t="n">
         <f aca="false">1/J50</f>
@@ -4687,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="S51" s="0" t="n">
-        <v>-27.24</v>
+        <v>-27.43</v>
       </c>
       <c r="T51" s="0" t="n">
         <f aca="false">1/J51</f>
@@ -4723,7 +4729,7 @@
         <v>9.47640449438202</v>
       </c>
       <c r="S52" s="0" t="n">
-        <v>-29.65</v>
+        <v>-29.15</v>
       </c>
       <c r="T52" s="0" t="n">
         <f aca="false">1/J52</f>
@@ -4762,7 +4768,7 @@
         <v>47.19008443</v>
       </c>
       <c r="S53" s="0" t="n">
-        <v>-27.88</v>
+        <v>-27.91</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,7 +4806,7 @@
         <v>24.84261045</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>-27.22</v>
+        <v>-27.57</v>
       </c>
       <c r="T54" s="0" t="n">
         <f aca="false">1/J54</f>
@@ -4845,7 +4851,7 @@
         <v>8</v>
       </c>
       <c r="S55" s="0" t="n">
-        <v>-26.59</v>
+        <v>-26.83</v>
       </c>
       <c r="T55" s="0" t="n">
         <f aca="false">1/J55</f>
@@ -4881,7 +4887,7 @@
         <v>2.77491749174917</v>
       </c>
       <c r="S56" s="0" t="n">
-        <v>-29.36</v>
+        <v>-28.88</v>
       </c>
       <c r="T56" s="0" t="n">
         <f aca="false">1/J56</f>
@@ -5001,7 +5007,7 @@
         <v>8.21664180341455</v>
       </c>
       <c r="S60" s="0" t="n">
-        <v>-23.84</v>
+        <v>-24.76</v>
       </c>
       <c r="T60" s="0" t="n">
         <f aca="false">1/J60</f>
@@ -5046,7 +5052,7 @@
         <v>9.16</v>
       </c>
       <c r="S61" s="0" t="n">
-        <v>-22.26</v>
+        <v>-24.23</v>
       </c>
       <c r="T61" s="0" t="n">
         <f aca="false">1/J61</f>
@@ -5082,7 +5088,7 @@
         <v>13.01269035533</v>
       </c>
       <c r="S62" s="0" t="n">
-        <v>-31.39</v>
+        <v>-31.29</v>
       </c>
       <c r="T62" s="0" t="n">
         <f aca="false">1/J62</f>
@@ -5118,7 +5124,7 @@
         <v>8.47593418422267</v>
       </c>
       <c r="S63" s="0" t="n">
-        <v>-22.36</v>
+        <v>-23.88</v>
       </c>
       <c r="T63" s="0" t="n">
         <f aca="false">1/J63</f>
@@ -5293,7 +5299,7 @@
         <v>9.27</v>
       </c>
       <c r="S69" s="0" t="n">
-        <v>-21.38</v>
+        <v>-24.46</v>
       </c>
       <c r="T69" s="0" t="n">
         <f aca="false">1/J69</f>
@@ -5407,7 +5413,7 @@
         <v>8.58108995403808</v>
       </c>
       <c r="S73" s="0" t="n">
-        <v>-22.22</v>
+        <v>-23.65</v>
       </c>
       <c r="T73" s="0" t="n">
         <f aca="false">1/J73</f>
@@ -5452,7 +5458,7 @@
         <v>9.16</v>
       </c>
       <c r="S74" s="0" t="n">
-        <v>-22.93</v>
+        <v>-24.78</v>
       </c>
       <c r="T74" s="0" t="n">
         <f aca="false">1/J74</f>
@@ -5540,7 +5546,7 @@
         <v>9.13349633251834</v>
       </c>
       <c r="S77" s="0" t="n">
-        <v>-23.09</v>
+        <v>-24.71</v>
       </c>
       <c r="T77" s="0" t="n">
         <f aca="false">1/J77</f>
@@ -5608,7 +5614,7 @@
         <v>20.25935053</v>
       </c>
       <c r="S79" s="0" t="n">
-        <v>-25.7</v>
+        <v>-26.72</v>
       </c>
       <c r="T79" s="0" t="n">
         <f aca="false">1/J79</f>
@@ -5653,7 +5659,7 @@
         <v>53</v>
       </c>
       <c r="S80" s="0" t="n">
-        <v>-24.97</v>
+        <v>-25.98</v>
       </c>
       <c r="T80" s="0" t="n">
         <f aca="false">1/J80</f>
@@ -5689,7 +5695,7 @@
         <v>12.3678756476684</v>
       </c>
       <c r="S81" s="0" t="n">
-        <v>-28.2</v>
+        <v>-27.88</v>
       </c>
       <c r="T81" s="0" t="n">
         <f aca="false">1/J81</f>
@@ -5731,7 +5737,7 @@
         <v>113.4440422</v>
       </c>
       <c r="S82" s="0" t="n">
-        <v>-25.48</v>
+        <v>-25.33</v>
       </c>
       <c r="T82" s="0" t="n">
         <f aca="false">1/J82</f>
@@ -5773,7 +5779,7 @@
         <v>29.19970064</v>
       </c>
       <c r="S83" s="0" t="n">
-        <v>-26.65</v>
+        <v>-26.87</v>
       </c>
       <c r="T83" s="0" t="n">
         <f aca="false">1/J83</f>
@@ -5818,7 +5824,7 @@
         <v>14</v>
       </c>
       <c r="S84" s="0" t="n">
-        <v>-25.53</v>
+        <v>-26.27</v>
       </c>
       <c r="T84" s="0" t="n">
         <f aca="false">1/J84</f>
@@ -5854,7 +5860,7 @@
         <v>10.8880952380952</v>
       </c>
       <c r="S85" s="0" t="n">
-        <v>-28.74</v>
+        <v>-27.9</v>
       </c>
       <c r="T85" s="0" t="n">
         <f aca="false">1/J85</f>
@@ -5899,7 +5905,7 @@
         <v>9.4</v>
       </c>
       <c r="S86" s="0" t="n">
-        <v>-26.05</v>
+        <v>-26.35</v>
       </c>
       <c r="T86" s="0" t="n">
         <f aca="false">1/J86</f>
@@ -6013,7 +6019,7 @@
         <v>8.09428794992175</v>
       </c>
       <c r="S90" s="0" t="n">
-        <v>-23.36</v>
+        <v>-24.43</v>
       </c>
       <c r="T90" s="0" t="n">
         <f aca="false">1/J90</f>
@@ -6081,7 +6087,7 @@
         <v>10.3</v>
       </c>
       <c r="S92" s="0" t="n">
-        <v>-21.61</v>
+        <v>-21.7</v>
       </c>
       <c r="T92" s="0" t="n">
         <f aca="false">1/J92</f>
@@ -6198,11 +6204,40 @@
         <v>8.58502772643253</v>
       </c>
       <c r="S96" s="0" t="n">
-        <v>-22.87</v>
+        <v>-24.22</v>
       </c>
       <c r="T96" s="0" t="n">
         <f aca="false">1/J96</f>
         <v>0.116481860264829</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S97" s="4" t="n">
+        <v>-25.4</v>
       </c>
     </row>
   </sheetData>
@@ -6234,13 +6269,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6428,13 +6463,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6598,30 +6633,30 @@
         <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2018</v>
@@ -6642,15 +6677,15 @@
         <v>1154.6</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2018</v>
@@ -6671,15 +6706,15 @@
         <v>289.46</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2018</v>
@@ -6700,15 +6735,15 @@
         <v>114.51</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2018</v>
@@ -6729,15 +6764,15 @@
         <v>336.77</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2018</v>
@@ -6755,21 +6790,21 @@
         <v>65.03</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>59.73</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2018</v>
@@ -6784,18 +6819,18 @@
         <v>78.26</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2018</v>
@@ -6816,12 +6851,12 @@
         <v>10.61</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2018</v>
@@ -6842,12 +6877,12 @@
         <v>19.39</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
@@ -6868,12 +6903,12 @@
         <v>17.77</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2018</v>
@@ -6888,18 +6923,18 @@
         <v>90.08</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2018</v>
@@ -6917,21 +6952,21 @@
         <v>67.21</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>3587.73</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2018</v>
@@ -6946,18 +6981,18 @@
         <v>40.09</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2018</v>
@@ -6972,18 +7007,18 @@
         <v>83.35</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2018</v>
@@ -7004,12 +7039,12 @@
         <v>154.25</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2018</v>
@@ -7030,12 +7065,12 @@
         <v>19.5</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2018</v>
@@ -7056,12 +7091,12 @@
         <v>271.38</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2018</v>
@@ -7082,12 +7117,12 @@
         <v>19.72</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2018</v>
@@ -7108,15 +7143,15 @@
         <v>108.91</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2018</v>
@@ -7134,21 +7169,21 @@
         <v>94.83</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>720.97</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2018</v>
@@ -7169,12 +7204,12 @@
         <v>10.35</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2018</v>
@@ -7195,12 +7230,12 @@
         <v>23.43</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2018</v>
@@ -7221,12 +7256,12 @@
         <v>18.68</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2018</v>
@@ -7247,12 +7282,12 @@
         <v>8.61</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2018</v>
@@ -7270,21 +7305,21 @@
         <v>91.12</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>1274.2</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2018</v>
@@ -7305,12 +7340,12 @@
         <v>75.77</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2018</v>
@@ -7328,21 +7363,21 @@
         <v>57.09</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>121.93</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2018</v>
@@ -7363,15 +7398,15 @@
         <v>33.05</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2018</v>
@@ -7389,21 +7424,21 @@
         <v>48.02</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>819.69</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2018</v>
@@ -7421,21 +7456,21 @@
         <v>91.91</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>603.87</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2018</v>
@@ -7453,21 +7488,21 @@
         <v>50.98</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1149.86</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2018</v>
@@ -7485,21 +7520,21 @@
         <v>78.31</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>483.21</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2018</v>
@@ -7517,21 +7552,21 @@
         <v>59.08</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>2.75</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2018</v>
@@ -7552,15 +7587,15 @@
         <v>4.72</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2018</v>
@@ -7581,12 +7616,12 @@
         <v>7.18</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2018</v>
@@ -7607,12 +7642,12 @@
         <v>4.89</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2018</v>
@@ -7633,12 +7668,12 @@
         <v>9.16</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2018</v>
@@ -7656,21 +7691,21 @@
         <v>66.96</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1081.05</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2018</v>
@@ -7691,12 +7726,12 @@
         <v>146.88</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2018</v>
@@ -7717,12 +7752,12 @@
         <v>9.78</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2018</v>
@@ -7743,15 +7778,15 @@
         <v>73.41</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2018</v>
@@ -7769,21 +7804,21 @@
         <v>70.27</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>76.87</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2018</v>
@@ -7801,21 +7836,21 @@
         <v>48.19</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>1906.01</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2018</v>
@@ -7833,21 +7868,21 @@
         <v>46.36</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>2013.71</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2018</v>
@@ -7868,12 +7903,12 @@
         <v>247.55</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2018</v>
@@ -7894,15 +7929,15 @@
         <v>400.75</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2018</v>
@@ -7923,15 +7958,15 @@
         <v>18.06</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2018</v>
@@ -7952,12 +7987,12 @@
         <v>14.5</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2018</v>
@@ -7978,12 +8013,12 @@
         <v>15.82</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2018</v>
@@ -8004,12 +8039,12 @@
         <v>9.4</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2018</v>
@@ -8030,12 +8065,12 @@
         <v>9.27</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2018</v>
@@ -8056,12 +8091,12 @@
         <v>20.17</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2018</v>
@@ -8082,12 +8117,12 @@
         <v>9.16</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2018</v>
@@ -8108,12 +8143,12 @@
         <v>10.3</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2018</v>
@@ -8128,18 +8163,18 @@
         <v>31.8</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2018</v>
@@ -8157,21 +8192,21 @@
         <v>69.43</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>20.87</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2018</v>
@@ -8192,15 +8227,15 @@
         <v>19.53</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2018</v>
@@ -8221,12 +8256,12 @@
         <v>12.86</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2018</v>
@@ -8247,15 +8282,15 @@
         <v>611.6</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2018</v>
@@ -8273,21 +8308,21 @@
         <v>91.73</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>146.96</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2018</v>
@@ -8308,15 +8343,15 @@
         <v>399.46</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2018</v>
@@ -8337,15 +8372,15 @@
         <v>235.88</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2018</v>
@@ -8363,21 +8398,21 @@
         <v>57.38</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>33.37</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2018</v>
@@ -8392,18 +8427,18 @@
         <v>76.41</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2018</v>
@@ -8424,12 +8459,12 @@
         <v>9.4</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2018</v>
@@ -8450,12 +8485,12 @@
         <v>18.4</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2018</v>
@@ -8476,12 +8511,12 @@
         <v>14.29</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>2018</v>
@@ -8499,21 +8534,21 @@
         <v>81.26</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>444.27</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2018</v>
@@ -8531,21 +8566,21 @@
         <v>66.14</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>1682.55</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2018</v>
@@ -8563,21 +8598,21 @@
         <v>43.6</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>306.21</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>2018</v>
@@ -8595,21 +8630,21 @@
         <v>77.62</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>242.35</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2018</v>
@@ -8630,12 +8665,12 @@
         <v>202.26</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2018</v>
@@ -8656,12 +8691,12 @@
         <v>17.52</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2018</v>
@@ -8682,12 +8717,12 @@
         <v>246.29</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2018</v>
@@ -8708,12 +8743,12 @@
         <v>17.65</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2018</v>
@@ -8734,15 +8769,15 @@
         <v>95.24</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2018</v>
@@ -8760,18 +8795,18 @@
         <v>70.21</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>113.86</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2018</v>
@@ -8792,12 +8827,12 @@
         <v>10.41</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2018</v>
@@ -8818,12 +8853,12 @@
         <v>20.92</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2018</v>
@@ -8844,12 +8879,12 @@
         <v>15.22</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2018</v>
@@ -8870,12 +8905,12 @@
         <v>9.08</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2018</v>
@@ -8893,21 +8928,21 @@
         <v>89.05</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>718.18</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2018</v>
@@ -8928,12 +8963,12 @@
         <v>61.76</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2018</v>
@@ -8951,21 +8986,21 @@
         <v>55.58</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>51.43</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>2018</v>
@@ -8986,15 +9021,15 @@
         <v>33.91</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2018</v>
@@ -9012,21 +9047,21 @@
         <v>42.17</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>848.87</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2018</v>
@@ -9044,18 +9079,18 @@
         <v>86.17</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>168.35</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2018</v>
@@ -9073,21 +9108,21 @@
         <v>42.04</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>200.85</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2018</v>
@@ -9105,21 +9140,21 @@
         <v>74.73</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>233.03</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2018</v>
@@ -9134,18 +9169,18 @@
         <v>50.56</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2018</v>
@@ -9163,21 +9198,21 @@
         <v>97.92</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>9.36</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2018</v>
@@ -9198,12 +9233,12 @@
         <v>10.03</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2018</v>
@@ -9224,12 +9259,12 @@
         <v>8.92</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2018</v>
@@ -9250,12 +9285,12 @@
         <v>9.53</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>2018</v>
@@ -9273,21 +9308,21 @@
         <v>51.27</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>618.92</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2018</v>
@@ -9308,12 +9343,12 @@
         <v>140.73</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>2018</v>
@@ -9334,12 +9369,12 @@
         <v>9.78</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>2018</v>
@@ -9357,21 +9392,21 @@
         <v>92.36</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>66.32</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>2018</v>
@@ -9389,21 +9424,21 @@
         <v>62.12</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>49.3</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>2018</v>
@@ -9421,21 +9456,21 @@
         <v>47.74</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>1059.7</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>2018</v>
@@ -9453,21 +9488,21 @@
         <v>45.73</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>1176.91</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>2018</v>
@@ -9488,15 +9523,15 @@
         <v>337.64</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>2018</v>
@@ -9517,12 +9552,12 @@
         <v>342.16</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>2018</v>
@@ -9543,12 +9578,12 @@
         <v>15.19</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>2018</v>
@@ -9569,12 +9604,12 @@
         <v>13.63</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>2018</v>
@@ -9595,12 +9630,12 @@
         <v>15.03</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>2018</v>
@@ -9621,12 +9656,12 @@
         <v>9.35</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>2018</v>
@@ -9647,12 +9682,12 @@
         <v>9.29</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>2018</v>
@@ -9673,12 +9708,12 @@
         <v>18.48</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>2018</v>
@@ -9699,12 +9734,12 @@
         <v>10.08</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>2018</v>
@@ -9725,12 +9760,12 @@
         <v>10.56</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>2018</v>
@@ -9745,18 +9780,18 @@
         <v>34.03</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>2018</v>
@@ -9774,21 +9809,21 @@
         <v>66.87</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>18.08</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>2018</v>
@@ -9809,15 +9844,15 @@
         <v>15.45</v>
       </c>
       <c r="L114" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>2018</v>
@@ -9838,12 +9873,12 @@
         <v>10.63</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>2018</v>
@@ -9861,21 +9896,21 @@
         <v>69.11</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>2514.46</v>
       </c>
       <c r="L116" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>2018</v>
@@ -9896,15 +9931,15 @@
         <v>205.33</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>2018</v>
@@ -9919,18 +9954,18 @@
         <v>21.19</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>2018</v>
@@ -9948,21 +9983,21 @@
         <v>76.26</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K119" s="0" t="n">
         <v>204.28</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>2018</v>
@@ -9983,15 +10018,15 @@
         <v>21.59</v>
       </c>
       <c r="L120" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>2018</v>
@@ -10009,21 +10044,21 @@
         <v>28.9</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>992.57</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>2018</v>
@@ -10041,21 +10076,21 @@
         <v>69.32</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>91.32</v>
       </c>
       <c r="L122" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M122" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>2018</v>
@@ -10076,12 +10111,12 @@
         <v>16.61</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2018</v>
@@ -10099,21 +10134,21 @@
         <v>47.16</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>42.42</v>
       </c>
       <c r="L124" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2018</v>
@@ -10134,12 +10169,12 @@
         <v>16.93</v>
       </c>
       <c r="M125" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2018</v>
@@ -10160,12 +10195,12 @@
         <v>13.83</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2018</v>
@@ -10186,12 +10221,12 @@
         <v>13.7</v>
       </c>
       <c r="M127" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2018</v>
@@ -10212,12 +10247,12 @@
         <v>18.2</v>
       </c>
       <c r="M128" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>2018</v>
@@ -10238,12 +10273,12 @@
         <v>17.16</v>
       </c>
       <c r="M129" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>2018</v>
@@ -10264,15 +10299,15 @@
         <v>686.25</v>
       </c>
       <c r="L130" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2018</v>
@@ -10290,21 +10325,21 @@
         <v>47.71</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>3116.31</v>
       </c>
       <c r="L131" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M131" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2018</v>
@@ -10322,21 +10357,21 @@
         <v>50.5</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>179.92</v>
       </c>
       <c r="L132" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2018</v>
@@ -10354,21 +10389,21 @@
         <v>45.35</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>20.93</v>
       </c>
       <c r="L133" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M133" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2018</v>
@@ -10389,15 +10424,15 @@
         <v>236.08</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>2018</v>
@@ -10418,15 +10453,15 @@
         <v>19.05</v>
       </c>
       <c r="L135" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>2018</v>
@@ -10441,18 +10476,18 @@
         <v>70.32</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L136" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>2018</v>
@@ -10470,21 +10505,21 @@
         <v>55.53</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>8.73</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>2018</v>
@@ -10502,21 +10537,21 @@
         <v>100.49</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>154.61</v>
       </c>
       <c r="L138" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M138" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>2018</v>
@@ -10531,18 +10566,18 @@
         <v>34.87</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L139" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>2018</v>
@@ -10560,21 +10595,21 @@
         <v>92.47</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>1007.16</v>
       </c>
       <c r="L140" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M140" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>2018</v>
@@ -10592,21 +10627,21 @@
         <v>53.91</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>3023.61</v>
       </c>
       <c r="L141" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2018</v>
@@ -10624,21 +10659,21 @@
         <v>55.2</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>362.69</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M142" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>2018</v>
@@ -10656,21 +10691,21 @@
         <v>84.3</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>78.64</v>
       </c>
       <c r="L143" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M143" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>2018</v>
@@ -10688,21 +10723,21 @@
         <v>79.86</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>454.14</v>
       </c>
       <c r="L144" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M144" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>2018</v>
@@ -10720,21 +10755,21 @@
         <v>44.6</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>142.04</v>
       </c>
       <c r="L145" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M145" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>2018</v>
@@ -10752,21 +10787,21 @@
         <v>61.33</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>37.69</v>
       </c>
       <c r="L146" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>2018</v>
@@ -10784,21 +10819,21 @@
         <v>54.17</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>892.99</v>
       </c>
       <c r="L147" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>2018</v>
@@ -10816,21 +10851,21 @@
         <v>29.43</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>108.72</v>
       </c>
       <c r="L148" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>2018</v>
@@ -10848,21 +10883,21 @@
         <v>48.18</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>2539.49</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>2018</v>
@@ -10880,21 +10915,21 @@
         <v>49.91</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>70.64</v>
       </c>
       <c r="L150" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>2018</v>
@@ -10912,21 +10947,21 @@
         <v>74.72</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>1192.33</v>
       </c>
       <c r="L151" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>2018</v>
@@ -10944,21 +10979,21 @@
         <v>47.45</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>192.26</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>2018</v>
@@ -10979,15 +11014,15 @@
         <v>579.12</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M153" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>2018</v>
@@ -11002,18 +11037,18 @@
         <v>56.59</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L154" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M154" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>2018</v>
@@ -11031,21 +11066,21 @@
         <v>81.09</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>47.32</v>
       </c>
       <c r="L155" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>2018</v>
@@ -11063,21 +11098,21 @@
         <v>42.38</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>33.53</v>
       </c>
       <c r="L156" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>2018</v>
@@ -11098,12 +11133,12 @@
         <v>14.37</v>
       </c>
       <c r="M157" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>2018</v>
@@ -11121,21 +11156,21 @@
         <v>41.93</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>261.59</v>
       </c>
       <c r="L158" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M158" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>2018</v>
@@ -11153,21 +11188,21 @@
         <v>96.09</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>42.62</v>
       </c>
       <c r="L159" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>2018</v>
@@ -11185,21 +11220,21 @@
         <v>64.26</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>36.75</v>
       </c>
       <c r="L160" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>2018</v>
@@ -11217,21 +11252,21 @@
         <v>57.9</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>53.42</v>
       </c>
       <c r="L161" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M161" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>2018</v>
@@ -11249,21 +11284,21 @@
         <v>91.75</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>27.03</v>
       </c>
       <c r="L162" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>2018</v>
@@ -11281,21 +11316,21 @@
         <v>60.4</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>57.71</v>
       </c>
       <c r="L163" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M163" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>2018</v>
@@ -11316,15 +11351,15 @@
         <v>94.31</v>
       </c>
       <c r="L164" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M164" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>2018</v>
@@ -11342,21 +11377,21 @@
         <v>77.9</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>21.35</v>
       </c>
       <c r="L165" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M165" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>2018</v>
@@ -11374,21 +11409,21 @@
         <v>78.85</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>202.6</v>
       </c>
       <c r="L166" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M166" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>2018</v>
@@ -11409,15 +11444,15 @@
         <v>166.29</v>
       </c>
       <c r="L167" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M167" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>2018</v>
@@ -11435,21 +11470,21 @@
         <v>19.41</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>245.63</v>
       </c>
       <c r="L168" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M168" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>2018</v>
@@ -11467,21 +11502,21 @@
         <v>60.58</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>98.68</v>
       </c>
       <c r="L169" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M169" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>2018</v>
@@ -11499,21 +11534,21 @@
         <v>88.8</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>19.09</v>
       </c>
       <c r="L170" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>2018</v>
@@ -11531,18 +11566,18 @@
         <v>47.42</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>46.16</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>2018</v>
@@ -11560,21 +11595,21 @@
         <v>67.83</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>50.13</v>
       </c>
       <c r="L172" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M172" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>2018</v>
@@ -11595,12 +11630,12 @@
         <v>14.55</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>2018</v>
@@ -11618,21 +11653,21 @@
         <v>42.2</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K174" s="0" t="n">
         <v>40.07</v>
       </c>
       <c r="L174" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>2018</v>
@@ -11653,12 +11688,12 @@
         <v>17.91</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>2018</v>
@@ -11679,12 +11714,12 @@
         <v>14.92</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>2018</v>
@@ -11705,12 +11740,12 @@
         <v>14.01</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>2018</v>
@@ -11731,12 +11766,12 @@
         <v>13.85</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>2018</v>
@@ -11757,12 +11792,12 @@
         <v>16.06</v>
       </c>
       <c r="M179" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>2018</v>
@@ -11783,15 +11818,15 @@
         <v>460.13</v>
       </c>
       <c r="L180" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M180" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>2018</v>
@@ -11809,21 +11844,21 @@
         <v>49.86</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K181" s="0" t="n">
         <v>1073.08</v>
       </c>
       <c r="L181" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M181" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>2018</v>
@@ -11841,21 +11876,21 @@
         <v>61.46</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K182" s="0" t="n">
         <v>154.31</v>
       </c>
       <c r="L182" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M182" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>2018</v>
@@ -11873,21 +11908,21 @@
         <v>53.32</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K183" s="0" t="n">
         <v>18.63</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M183" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>2018</v>
@@ -11908,15 +11943,15 @@
         <v>129.52</v>
       </c>
       <c r="L184" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M184" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>2018</v>
@@ -11937,15 +11972,15 @@
         <v>20.8</v>
       </c>
       <c r="L185" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M185" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>2018</v>
@@ -11963,21 +11998,21 @@
         <v>65.52</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K186" s="0" t="n">
         <v>258.24</v>
       </c>
       <c r="L186" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M186" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>2018</v>
@@ -11995,21 +12030,21 @@
         <v>71.82</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K187" s="0" t="n">
         <v>24.01</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M187" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>2018</v>
@@ -12027,21 +12062,21 @@
         <v>86.41</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K188" s="0" t="n">
         <v>18.93</v>
       </c>
       <c r="L188" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M188" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>2018</v>
@@ -12059,21 +12094,21 @@
         <v>93.62</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K189" s="0" t="n">
         <v>47.85</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M189" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>2018</v>
@@ -12094,15 +12129,15 @@
         <v>483.35</v>
       </c>
       <c r="L190" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M190" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>2018</v>
@@ -12120,21 +12155,21 @@
         <v>72.48</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K191" s="0" t="n">
         <v>875.01</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M191" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>2018</v>
@@ -12152,21 +12187,21 @@
         <v>65.38</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K192" s="0" t="n">
         <v>195.5</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M192" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>2018</v>
@@ -12184,21 +12219,21 @@
         <v>70.01</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K193" s="0" t="n">
         <v>72.41</v>
       </c>
       <c r="L193" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M193" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>2018</v>
@@ -12216,21 +12251,21 @@
         <v>80.21</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K194" s="0" t="n">
         <v>273.9</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M194" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>2018</v>
@@ -12248,21 +12283,21 @@
         <v>57.27</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K195" s="0" t="n">
         <v>55.55</v>
       </c>
       <c r="L195" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M195" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>2018</v>
@@ -12280,21 +12315,21 @@
         <v>74.02</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K196" s="0" t="n">
         <v>24.07</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M196" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>2018</v>
@@ -12312,21 +12347,21 @@
         <v>73.53</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K197" s="0" t="n">
         <v>604.8</v>
       </c>
       <c r="L197" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M197" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>2018</v>
@@ -12344,21 +12379,21 @@
         <v>36.44</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K198" s="0" t="n">
         <v>50.75</v>
       </c>
       <c r="L198" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M198" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>2018</v>
@@ -12376,21 +12411,21 @@
         <v>51.74</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K199" s="0" t="n">
         <v>1362.49</v>
       </c>
       <c r="L199" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M199" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>2018</v>
@@ -12408,21 +12443,21 @@
         <v>49.09</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K200" s="0" t="n">
         <v>47.57</v>
       </c>
       <c r="L200" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M200" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>2018</v>
@@ -12440,21 +12475,21 @@
         <v>65.2</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K201" s="0" t="n">
         <v>171.6</v>
       </c>
       <c r="L201" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M201" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>2018</v>
@@ -12472,21 +12507,21 @@
         <v>58.06</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K202" s="0" t="n">
         <v>127.88</v>
       </c>
       <c r="L202" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M202" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>2018</v>
@@ -12507,15 +12542,15 @@
         <v>440.79</v>
       </c>
       <c r="L203" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M203" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>2018</v>
@@ -12533,21 +12568,21 @@
         <v>48.13</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K204" s="0" t="n">
         <v>356.31</v>
       </c>
       <c r="L204" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M204" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>2018</v>
@@ -12565,21 +12600,21 @@
         <v>67.83</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K205" s="0" t="n">
         <v>91.01</v>
       </c>
       <c r="L205" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M205" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>2018</v>
@@ -12597,21 +12632,21 @@
         <v>41.64</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K206" s="0" t="n">
         <v>11.95</v>
       </c>
       <c r="L206" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M206" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>2018</v>
@@ -12632,12 +12667,12 @@
         <v>13.46</v>
       </c>
       <c r="M207" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>2018</v>
@@ -12655,21 +12690,21 @@
         <v>58.67</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K208" s="0" t="n">
         <v>168.4</v>
       </c>
       <c r="L208" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M208" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>2018</v>
@@ -12687,21 +12722,21 @@
         <v>89.45</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K209" s="0" t="n">
         <v>40.75</v>
       </c>
       <c r="L209" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M209" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>2018</v>
@@ -12719,21 +12754,21 @@
         <v>94.51</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K210" s="0" t="n">
         <v>22.43</v>
       </c>
       <c r="L210" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M210" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>2018</v>
@@ -12751,21 +12786,21 @@
         <v>67.14</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K211" s="0" t="n">
         <v>43.34</v>
       </c>
       <c r="L211" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M211" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>2018</v>
@@ -12783,21 +12818,21 @@
         <v>90.43</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K212" s="0" t="n">
         <v>26.93</v>
       </c>
       <c r="L212" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M212" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>2018</v>
@@ -12815,21 +12850,21 @@
         <v>55.14</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K213" s="0" t="n">
         <v>73.17</v>
       </c>
       <c r="L213" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M213" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>2018</v>
@@ -12847,21 +12882,21 @@
         <v>99.64</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K214" s="0" t="n">
         <v>75.46</v>
       </c>
       <c r="L214" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M214" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>2018</v>
@@ -12879,16 +12914,16 @@
         <v>78.08</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K215" s="0" t="n">
         <v>24.82</v>
       </c>
       <c r="L215" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M215" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -12909,8 +12944,8 @@
   </sheetPr>
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12946,30 +12981,30 @@
         <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2018</v>
@@ -12987,21 +13022,21 @@
         <v>91.73</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>146.96</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2018</v>
@@ -13022,15 +13057,15 @@
         <v>611.6</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2018</v>
@@ -13051,15 +13086,15 @@
         <v>235.88</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2018</v>
@@ -13080,15 +13115,15 @@
         <v>399.46</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2018</v>
@@ -13103,18 +13138,18 @@
         <v>34.03</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
@@ -13132,21 +13167,21 @@
         <v>57.38</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>33.37</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2018</v>
@@ -13167,12 +13202,12 @@
         <v>10.63</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2018</v>
@@ -13193,12 +13228,12 @@
         <v>17.65</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2018</v>
@@ -13219,12 +13254,12 @@
         <v>246.29</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2018</v>
@@ -13242,21 +13277,21 @@
         <v>81.26</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>444.27</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2018</v>
@@ -13274,21 +13309,21 @@
         <v>97.92</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>9.36</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2018</v>
@@ -13309,12 +13344,12 @@
         <v>9.4</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2018</v>
@@ -13335,12 +13370,12 @@
         <v>18.4</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2018</v>
@@ -13355,18 +13390,18 @@
         <v>76.41</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2018</v>
@@ -13387,12 +13422,12 @@
         <v>14.29</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2018</v>
@@ -13413,12 +13448,12 @@
         <v>61.76</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2018</v>
@@ -13436,21 +13471,21 @@
         <v>89.05</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>718.18</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2018</v>
@@ -13468,21 +13503,21 @@
         <v>66.14</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>1682.55</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2018</v>
@@ -13503,15 +13538,15 @@
         <v>95.24</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2018</v>
@@ -13529,18 +13564,18 @@
         <v>70.21</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>113.86</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2018</v>
@@ -13558,21 +13593,21 @@
         <v>43.6</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>306.21</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2018</v>
@@ -13593,12 +13628,12 @@
         <v>17.52</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2018</v>
@@ -13619,12 +13654,12 @@
         <v>202.26</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2018</v>
@@ -13642,21 +13677,21 @@
         <v>77.62</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>242.35</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2018</v>
@@ -13677,12 +13712,12 @@
         <v>10.03</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2018</v>
@@ -13703,12 +13738,12 @@
         <v>8.92</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2018</v>
@@ -13729,12 +13764,12 @@
         <v>20.92</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2018</v>
@@ -13755,12 +13790,12 @@
         <v>10.41</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2018</v>
@@ -13781,12 +13816,12 @@
         <v>15.22</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2018</v>
@@ -13807,12 +13842,12 @@
         <v>9.08</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2018</v>
@@ -13833,15 +13868,15 @@
         <v>33.91</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2018</v>
@@ -13859,18 +13894,18 @@
         <v>86.17</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>168.35</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2018</v>
@@ -13888,21 +13923,21 @@
         <v>42.17</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>848.87</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2018</v>
@@ -13917,18 +13952,18 @@
         <v>50.56</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2018</v>
@@ -13946,21 +13981,21 @@
         <v>55.58</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>51.43</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2018</v>
@@ -13978,21 +14013,21 @@
         <v>74.73</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>233.03</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2018</v>
@@ -14010,21 +14045,21 @@
         <v>42.04</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>200.85</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2018</v>
@@ -14045,12 +14080,12 @@
         <v>9.78</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2018</v>
@@ -14071,12 +14106,12 @@
         <v>140.73</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2018</v>
@@ -14094,21 +14129,21 @@
         <v>51.27</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>618.92</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2018</v>
@@ -14129,12 +14164,12 @@
         <v>9.53</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2018</v>
@@ -14155,12 +14190,12 @@
         <v>18.48</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2018</v>
@@ -14181,12 +14216,12 @@
         <v>9.29</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2018</v>
@@ -14207,12 +14242,12 @@
         <v>13.63</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2018</v>
@@ -14233,12 +14268,12 @@
         <v>10.08</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2018</v>
@@ -14256,21 +14291,21 @@
         <v>62.12</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K79" s="0" t="n">
         <v>49.3</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2018</v>
@@ -14291,12 +14326,12 @@
         <v>342.16</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2018</v>
@@ -14314,21 +14349,21 @@
         <v>47.74</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>1059.7</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2018</v>
@@ -14349,12 +14384,12 @@
         <v>15.19</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2018</v>
@@ -14372,21 +14407,21 @@
         <v>92.36</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K83" s="0" t="n">
         <v>66.32</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2018</v>
@@ -14407,15 +14442,15 @@
         <v>337.64</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>2018</v>
@@ -14433,21 +14468,21 @@
         <v>45.73</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>1176.91</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2018</v>
@@ -14465,21 +14500,21 @@
         <v>66.87</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>18.08</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2018</v>
@@ -14500,12 +14535,12 @@
         <v>9.35</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2018</v>
@@ -14526,12 +14561,12 @@
         <v>15.03</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2018</v>
@@ -14552,45 +14587,45 @@
         <v>10.56</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5" t="n">
         <v>-25.4</v>
       </c>
-      <c r="G97" s="4" t="n">
+      <c r="G97" s="5" t="n">
         <v>30.6</v>
       </c>
-      <c r="H97" s="4" t="n">
+      <c r="H97" s="5" t="n">
         <v>15.37</v>
       </c>
-      <c r="I97" s="4" t="n">
+      <c r="I97" s="5" t="n">
         <v>121.58</v>
       </c>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4" t="n">
+      <c r="J97" s="5"/>
+      <c r="K97" s="5" t="n">
         <v>15.45</v>
       </c>
-      <c r="L97" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>200</v>
+      <c r="L97" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>2018</v>
@@ -14608,21 +14643,21 @@
         <v>69.11</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>2514.46</v>
       </c>
       <c r="L105" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>2018</v>
@@ -14643,15 +14678,15 @@
         <v>205.33</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>2018</v>
@@ -14666,18 +14701,18 @@
         <v>21.19</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L107" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>2018</v>
@@ -14695,21 +14730,21 @@
         <v>76.26</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>204.28</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>2018</v>
@@ -14730,15 +14765,15 @@
         <v>21.59</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>2018</v>
@@ -14756,21 +14791,21 @@
         <v>28.9</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K110" s="0" t="n">
         <v>992.57</v>
       </c>
       <c r="L110" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>2018</v>
@@ -14788,21 +14823,21 @@
         <v>69.32</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>91.32</v>
       </c>
       <c r="L111" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>2018</v>
@@ -14823,12 +14858,12 @@
         <v>16.61</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>2018</v>
@@ -14846,21 +14881,21 @@
         <v>47.16</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>42.42</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>2018</v>
@@ -14881,12 +14916,12 @@
         <v>16.93</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>2018</v>
@@ -14907,12 +14942,12 @@
         <v>13.83</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>2018</v>
@@ -14933,12 +14968,12 @@
         <v>13.7</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>2018</v>
@@ -14959,12 +14994,12 @@
         <v>18.2</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>2018</v>
@@ -14985,12 +15020,12 @@
         <v>17.16</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>2018</v>
@@ -15011,15 +15046,15 @@
         <v>686.25</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>2018</v>
@@ -15037,21 +15072,21 @@
         <v>47.71</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>3116.31</v>
       </c>
       <c r="L120" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>2018</v>
@@ -15069,21 +15104,21 @@
         <v>50.5</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>179.92</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>2018</v>
@@ -15101,21 +15136,21 @@
         <v>45.35</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>20.93</v>
       </c>
       <c r="L122" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M122" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>2018</v>
@@ -15136,15 +15171,15 @@
         <v>236.08</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2018</v>
@@ -15165,15 +15200,15 @@
         <v>19.05</v>
       </c>
       <c r="L124" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2018</v>
@@ -15188,18 +15223,18 @@
         <v>70.32</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M125" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2018</v>
@@ -15217,21 +15252,21 @@
         <v>55.53</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>8.73</v>
       </c>
       <c r="L126" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2018</v>
@@ -15249,21 +15284,21 @@
         <v>100.49</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>154.61</v>
       </c>
       <c r="L127" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M127" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2018</v>
@@ -15278,18 +15313,18 @@
         <v>34.87</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L128" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M128" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>2018</v>
@@ -15307,21 +15342,21 @@
         <v>92.47</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>1007.16</v>
       </c>
       <c r="L129" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M129" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>2018</v>
@@ -15339,21 +15374,21 @@
         <v>53.91</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>3023.61</v>
       </c>
       <c r="L130" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2018</v>
@@ -15371,21 +15406,21 @@
         <v>55.2</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>362.69</v>
       </c>
       <c r="L131" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M131" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2018</v>
@@ -15403,21 +15438,21 @@
         <v>84.3</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>78.64</v>
       </c>
       <c r="L132" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2018</v>
@@ -15435,21 +15470,21 @@
         <v>79.86</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>454.14</v>
       </c>
       <c r="L133" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M133" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2018</v>
@@ -15467,21 +15502,21 @@
         <v>44.6</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K134" s="0" t="n">
         <v>142.04</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>2018</v>
@@ -15499,21 +15534,21 @@
         <v>61.33</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>37.69</v>
       </c>
       <c r="L135" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>2018</v>
@@ -15531,21 +15566,21 @@
         <v>54.17</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>892.99</v>
       </c>
       <c r="L136" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>2018</v>
@@ -15563,21 +15598,21 @@
         <v>29.43</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>108.72</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>2018</v>
@@ -15595,21 +15630,21 @@
         <v>48.18</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>2539.49</v>
       </c>
       <c r="L138" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M138" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>2018</v>
@@ -15627,21 +15662,21 @@
         <v>49.91</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K139" s="0" t="n">
         <v>70.64</v>
       </c>
       <c r="L139" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>2018</v>
@@ -15659,21 +15694,21 @@
         <v>74.72</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>1192.33</v>
       </c>
       <c r="L140" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M140" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>2018</v>
@@ -15691,21 +15726,21 @@
         <v>47.45</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>192.26</v>
       </c>
       <c r="L141" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2018</v>
@@ -15726,15 +15761,15 @@
         <v>579.12</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M142" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>2018</v>
@@ -15749,18 +15784,18 @@
         <v>56.59</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L143" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M143" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>2018</v>
@@ -15778,21 +15813,21 @@
         <v>81.09</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>47.32</v>
       </c>
       <c r="L144" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M144" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>2018</v>
@@ -15810,21 +15845,21 @@
         <v>42.38</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>33.53</v>
       </c>
       <c r="L145" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M145" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>2018</v>
@@ -15845,12 +15880,12 @@
         <v>14.37</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>2018</v>
@@ -15868,21 +15903,21 @@
         <v>41.93</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>261.59</v>
       </c>
       <c r="L147" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>2018</v>
@@ -15900,21 +15935,21 @@
         <v>96.09</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>42.62</v>
       </c>
       <c r="L148" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>2018</v>
@@ -15932,21 +15967,21 @@
         <v>64.26</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>36.75</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>2018</v>
@@ -15964,21 +15999,21 @@
         <v>57.9</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>53.42</v>
       </c>
       <c r="L150" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>2018</v>
@@ -15996,21 +16031,21 @@
         <v>91.75</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>27.03</v>
       </c>
       <c r="L151" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>2018</v>
@@ -16028,21 +16063,21 @@
         <v>60.4</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>57.71</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>2018</v>
@@ -16063,15 +16098,15 @@
         <v>94.31</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M153" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>2018</v>
@@ -16089,21 +16124,21 @@
         <v>77.9</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>21.35</v>
       </c>
       <c r="L154" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M154" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>2018</v>
@@ -16121,21 +16156,21 @@
         <v>78.85</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>202.6</v>
       </c>
       <c r="L155" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>2018</v>
@@ -16156,15 +16191,15 @@
         <v>166.29</v>
       </c>
       <c r="L156" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>2018</v>
@@ -16182,21 +16217,21 @@
         <v>19.41</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>245.63</v>
       </c>
       <c r="L157" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M157" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>2018</v>
@@ -16214,21 +16249,21 @@
         <v>60.58</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>98.68</v>
       </c>
       <c r="L158" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M158" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>2018</v>
@@ -16246,21 +16281,21 @@
         <v>88.8</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>19.09</v>
       </c>
       <c r="L159" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>2018</v>
@@ -16278,18 +16313,18 @@
         <v>47.42</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>46.16</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>2018</v>
@@ -16307,21 +16342,21 @@
         <v>67.83</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>50.13</v>
       </c>
       <c r="L161" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M161" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>2018</v>
@@ -16342,12 +16377,12 @@
         <v>14.55</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>2018</v>
@@ -16365,21 +16400,21 @@
         <v>42.2</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>40.07</v>
       </c>
       <c r="L163" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M163" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>2018</v>
@@ -16400,12 +16435,12 @@
         <v>17.91</v>
       </c>
       <c r="M164" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>2018</v>
@@ -16426,12 +16461,12 @@
         <v>14.92</v>
       </c>
       <c r="M165" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>2018</v>
@@ -16452,12 +16487,12 @@
         <v>14.01</v>
       </c>
       <c r="M166" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>2018</v>
@@ -16478,12 +16513,12 @@
         <v>13.85</v>
       </c>
       <c r="M167" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>2018</v>
@@ -16504,12 +16539,12 @@
         <v>16.06</v>
       </c>
       <c r="M168" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>2018</v>
@@ -16530,15 +16565,15 @@
         <v>460.13</v>
       </c>
       <c r="L169" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M169" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>2018</v>
@@ -16556,21 +16591,21 @@
         <v>49.86</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>1073.08</v>
       </c>
       <c r="L170" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>2018</v>
@@ -16588,21 +16623,21 @@
         <v>61.46</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>154.31</v>
       </c>
       <c r="L171" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>2018</v>
@@ -16620,21 +16655,21 @@
         <v>53.32</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>18.63</v>
       </c>
       <c r="L172" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M172" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>2018</v>
@@ -16655,15 +16690,15 @@
         <v>129.52</v>
       </c>
       <c r="L173" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>2018</v>
@@ -16684,15 +16719,15 @@
         <v>20.8</v>
       </c>
       <c r="L174" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>2018</v>
@@ -16710,21 +16745,21 @@
         <v>65.52</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K175" s="0" t="n">
         <v>258.24</v>
       </c>
       <c r="L175" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>2018</v>
@@ -16742,21 +16777,21 @@
         <v>71.82</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K176" s="0" t="n">
         <v>24.01</v>
       </c>
       <c r="L176" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>2018</v>
@@ -16774,21 +16809,21 @@
         <v>86.41</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K177" s="0" t="n">
         <v>18.93</v>
       </c>
       <c r="L177" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>2018</v>
@@ -16806,21 +16841,21 @@
         <v>93.62</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K178" s="0" t="n">
         <v>47.85</v>
       </c>
       <c r="L178" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>2018</v>
@@ -16841,15 +16876,15 @@
         <v>483.35</v>
       </c>
       <c r="L179" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M179" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>2018</v>
@@ -16867,21 +16902,21 @@
         <v>72.48</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K180" s="0" t="n">
         <v>875.01</v>
       </c>
       <c r="L180" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M180" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>2018</v>
@@ -16899,21 +16934,21 @@
         <v>65.38</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K181" s="0" t="n">
         <v>195.5</v>
       </c>
       <c r="L181" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M181" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>2018</v>
@@ -16931,21 +16966,21 @@
         <v>70.01</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K182" s="0" t="n">
         <v>72.41</v>
       </c>
       <c r="L182" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M182" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>2018</v>
@@ -16963,21 +16998,21 @@
         <v>80.21</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K183" s="0" t="n">
         <v>273.9</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M183" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>2018</v>
@@ -16995,21 +17030,21 @@
         <v>57.27</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K184" s="0" t="n">
         <v>55.55</v>
       </c>
       <c r="L184" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M184" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>2018</v>
@@ -17027,21 +17062,21 @@
         <v>74.02</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K185" s="0" t="n">
         <v>24.07</v>
       </c>
       <c r="L185" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M185" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>2018</v>
@@ -17059,21 +17094,21 @@
         <v>73.53</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K186" s="0" t="n">
         <v>604.8</v>
       </c>
       <c r="L186" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M186" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>2018</v>
@@ -17091,21 +17126,21 @@
         <v>36.44</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K187" s="0" t="n">
         <v>50.75</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M187" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>2018</v>
@@ -17123,21 +17158,21 @@
         <v>51.74</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K188" s="0" t="n">
         <v>1362.49</v>
       </c>
       <c r="L188" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M188" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>2018</v>
@@ -17155,21 +17190,21 @@
         <v>49.09</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K189" s="0" t="n">
         <v>47.57</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M189" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>2018</v>
@@ -17187,21 +17222,21 @@
         <v>65.2</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K190" s="0" t="n">
         <v>171.6</v>
       </c>
       <c r="L190" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M190" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>2018</v>
@@ -17219,21 +17254,21 @@
         <v>58.06</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K191" s="0" t="n">
         <v>127.88</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M191" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>2018</v>
@@ -17254,15 +17289,15 @@
         <v>440.79</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M192" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>2018</v>
@@ -17280,21 +17315,21 @@
         <v>48.13</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K193" s="0" t="n">
         <v>356.31</v>
       </c>
       <c r="L193" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M193" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>2018</v>
@@ -17312,21 +17347,21 @@
         <v>67.83</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K194" s="0" t="n">
         <v>91.01</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M194" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>2018</v>
@@ -17344,21 +17379,21 @@
         <v>41.64</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K195" s="0" t="n">
         <v>11.95</v>
       </c>
       <c r="L195" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M195" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>2018</v>
@@ -17379,12 +17414,12 @@
         <v>13.46</v>
       </c>
       <c r="M196" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>2018</v>
@@ -17402,21 +17437,21 @@
         <v>58.67</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K197" s="0" t="n">
         <v>168.4</v>
       </c>
       <c r="L197" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M197" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>2018</v>
@@ -17434,21 +17469,21 @@
         <v>89.45</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K198" s="0" t="n">
         <v>40.75</v>
       </c>
       <c r="L198" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M198" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>2018</v>
@@ -17466,21 +17501,21 @@
         <v>94.51</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K199" s="0" t="n">
         <v>22.43</v>
       </c>
       <c r="L199" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M199" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>2018</v>
@@ -17498,21 +17533,21 @@
         <v>67.14</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K200" s="0" t="n">
         <v>43.34</v>
       </c>
       <c r="L200" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M200" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>2018</v>
@@ -17530,21 +17565,21 @@
         <v>90.43</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K201" s="0" t="n">
         <v>26.93</v>
       </c>
       <c r="L201" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M201" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>2018</v>
@@ -17562,21 +17597,21 @@
         <v>55.14</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K202" s="0" t="n">
         <v>73.17</v>
       </c>
       <c r="L202" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M202" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>2018</v>
@@ -17594,21 +17629,21 @@
         <v>99.64</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K203" s="0" t="n">
         <v>75.46</v>
       </c>
       <c r="L203" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M203" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>2018</v>
@@ -17626,16 +17661,16 @@
         <v>78.08</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K204" s="0" t="n">
         <v>24.82</v>
       </c>
       <c r="L204" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M204" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -17647,27 +17682,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -1306,7 +1306,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart109.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1507,11 +1507,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="74669475"/>
-        <c:axId val="6802735"/>
+        <c:axId val="99718784"/>
+        <c:axId val="40170162"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74669475"/>
+        <c:axId val="99718784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1567,12 +1567,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6802735"/>
+        <c:crossAx val="40170162"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="6802735"/>
+        <c:axId val="40170162"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1637,7 +1637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74669475"/>
+        <c:crossAx val="99718784"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1685,7 +1685,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart110.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1856,11 +1856,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69378014"/>
-        <c:axId val="64632802"/>
+        <c:axId val="19680016"/>
+        <c:axId val="21145269"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69378014"/>
+        <c:axId val="19680016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,12 +1916,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64632802"/>
+        <c:crossAx val="21145269"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64632802"/>
+        <c:axId val="21145269"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1986,7 +1986,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69378014"/>
+        <c:crossAx val="19680016"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2034,7 +2034,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart111.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2235,11 +2235,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="5955580"/>
-        <c:axId val="31380799"/>
+        <c:axId val="14300129"/>
+        <c:axId val="79458895"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5955580"/>
+        <c:axId val="14300129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,12 +2295,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31380799"/>
+        <c:crossAx val="79458895"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31380799"/>
+        <c:axId val="79458895"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2365,7 +2365,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5955580"/>
+        <c:crossAx val="14300129"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2413,7 +2413,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart112.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2584,11 +2584,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72166527"/>
-        <c:axId val="1766882"/>
+        <c:axId val="60110363"/>
+        <c:axId val="47368539"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72166527"/>
+        <c:axId val="60110363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2644,12 +2644,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766882"/>
+        <c:crossAx val="47368539"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1766882"/>
+        <c:axId val="47368539"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2714,7 +2714,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72166527"/>
+        <c:crossAx val="60110363"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/data/flux/2018-fluxes.xlsx
+++ b/data/flux/2018-fluxes.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">N/C</t>
   </si>
   <si>
-    <t xml:space="preserve">zoop_carcass flux  (umol C/m2/day)</t>
+    <t xml:space="preserve">zoop C (umol C/m2/day)</t>
   </si>
   <si>
     <t xml:space="preserve">Babbin</t>
@@ -1305,7 +1305,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1506,11 +1506,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="19366783"/>
-        <c:axId val="66714283"/>
+        <c:axId val="1957652"/>
+        <c:axId val="69692819"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19366783"/>
+        <c:axId val="1957652"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,12 +1566,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66714283"/>
+        <c:crossAx val="69692819"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66714283"/>
+        <c:axId val="69692819"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1636,7 +1636,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19366783"/>
+        <c:crossAx val="1957652"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1684,7 +1684,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1855,11 +1855,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="64317066"/>
-        <c:axId val="11125349"/>
+        <c:axId val="91951536"/>
+        <c:axId val="70159914"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64317066"/>
+        <c:axId val="91951536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,12 +1915,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11125349"/>
+        <c:crossAx val="70159914"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="11125349"/>
+        <c:axId val="70159914"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1985,7 +1985,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64317066"/>
+        <c:crossAx val="91951536"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2033,7 +2033,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2234,11 +2234,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="77539370"/>
-        <c:axId val="45991961"/>
+        <c:axId val="70751938"/>
+        <c:axId val="14010667"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77539370"/>
+        <c:axId val="70751938"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,12 +2294,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45991961"/>
+        <c:crossAx val="14010667"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45991961"/>
+        <c:axId val="14010667"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2364,7 +2364,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77539370"/>
+        <c:crossAx val="70751938"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2412,7 +2412,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2583,11 +2583,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="18120739"/>
-        <c:axId val="96169446"/>
+        <c:axId val="75261453"/>
+        <c:axId val="15216869"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18120739"/>
+        <c:axId val="75261453"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,12 +2643,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96169446"/>
+        <c:crossAx val="15216869"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96169446"/>
+        <c:axId val="15216869"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2713,7 +2713,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18120739"/>
+        <c:crossAx val="75261453"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2893,8 +2893,8 @@
   </sheetPr>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U32" activeCellId="0" sqref="U32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
